--- a/Income_accounting_Mvomero.xlsx
+++ b/Income_accounting_Mvomero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\GitHub\Tanzania Dairy Mitigation Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A2EA88-AAAF-4054-8A84-1EF8EA5F0E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7A39A3-5120-412F-9A71-F29D9ACBFEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64B7B528-6AFC-453E-A699-FBF307BA8192}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{64B7B528-6AFC-453E-A699-FBF307BA8192}"/>
   </bookViews>
   <sheets>
     <sheet name="Dairy_Income_Roadmap" sheetId="27" r:id="rId1"/>
@@ -320,9 +320,6 @@
     <t>Parameters (as defined in Table 1 and other sections of text) (based on TLSA, URT 2017)</t>
   </si>
   <si>
-    <t>Ratio improved cattle for which new adopters adopt (inclusive)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Dairy income by household</t>
   </si>
   <si>
@@ -339,9 +336,6 @@
   </si>
   <si>
     <t>Forage seeding cost (USD)</t>
-  </si>
-  <si>
-    <t>Adoption rate (% of hholds) toggle</t>
   </si>
   <si>
     <t>Reduction in non-dairy income through crop area change</t>
@@ -378,15 +372,6 @@
   </si>
   <si>
     <t xml:space="preserve">Proportion of households within region  </t>
-  </si>
-  <si>
-    <t>Fraction Improved owned by other farms rearing purebred bos taurus base year</t>
-  </si>
-  <si>
-    <t>Fraction Improved owned by other farms rearing purebred bos taurus final year</t>
-  </si>
-  <si>
-    <t>Fraction all dairy households adopting</t>
   </si>
   <si>
     <t>All dairy households</t>
@@ -483,6 +468,21 @@
   </si>
   <si>
     <t>Average herd size (head) in base year (2018)</t>
+  </si>
+  <si>
+    <t>Fraction Improved owned by other base year</t>
+  </si>
+  <si>
+    <t>Fraction Improved owned by other farms  final year</t>
+  </si>
+  <si>
+    <t>Ratio improved cattle for which new adopters adopt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adoption rate (% of newly local cattle rearing hholds) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adoption rate (% of all dairy hholds) </t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -877,34 +877,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -915,9 +920,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC00CC"/>
       <color rgb="FFB88C00"/>
       <color rgb="FF00B0F0"/>
-      <color rgb="FFCC00CC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1894,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD182B2D-8B3A-454E-B3EB-69DA32B2F807}">
   <dimension ref="A1:N758"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1911,13 +1916,13 @@
     <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
-      <c r="C1" s="104" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
+      <c r="C1" s="100" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
@@ -1931,16 +1936,16 @@
         <v>53</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="102" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="102"/>
+      <c r="G2" s="91" t="s">
         <v>102</v>
-      </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="91" t="s">
-        <v>104</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1982,16 +1987,16 @@
         <v>66</v>
       </c>
       <c r="B4" s="41"/>
-      <c r="C4" s="99">
+      <c r="C4" s="104">
         <f>[2]prod_herd_data!H39</f>
         <v>2415.9750381708586</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99">
+      <c r="D4" s="104"/>
+      <c r="E4" s="104">
         <f>[2]prod_herd_data!H38</f>
         <v>700.85860951581117</v>
       </c>
-      <c r="F4" s="99"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="46">
         <f>[2]prod_herd_data!H39</f>
         <v>2415.9750381708586</v>
@@ -2009,16 +2014,16 @@
         <v>67</v>
       </c>
       <c r="B5" s="41"/>
-      <c r="C5" s="99">
+      <c r="C5" s="104">
         <f>C4*C3*(12*L11-9)/(12*L11)</f>
         <v>1262.6765579508788</v>
       </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99">
+      <c r="D5" s="104"/>
+      <c r="E5" s="104">
         <f>E4*E3</f>
         <v>277.84096307609985</v>
       </c>
-      <c r="F5" s="99"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="46">
         <f>G4*G3</f>
         <v>1346.8549951476041</v>
@@ -2034,10 +2039,10 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="41"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
       <c r="G6" s="46"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -2052,10 +2057,10 @@
         <v>54</v>
       </c>
       <c r="B7" s="41"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
       <c r="G7" s="46"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -2070,16 +2075,16 @@
         <v>32</v>
       </c>
       <c r="B8" s="41"/>
-      <c r="C8" s="99">
+      <c r="C8" s="104">
         <f>(([2]concentrate_feeding!$H$23*L29)+([2]concentrate_feeding!$H$24*L30))</f>
         <v>334.82525916999987</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99">
+      <c r="D8" s="104"/>
+      <c r="E8" s="104">
         <f>(([2]concentrate_feeding!$H$17*L29)+([2]concentrate_feeding!$H$18*L30))</f>
         <v>86.361328970444461</v>
       </c>
-      <c r="F8" s="99"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="46">
         <f>(([2]concentrate_feeding!$H$20*L29)+([2]concentrate_feeding!$H$21*L30))</f>
         <v>334.82525916999987</v>
@@ -2097,16 +2102,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="41"/>
-      <c r="C9" s="99">
+      <c r="C9" s="104">
         <f>Dairy_Income_Baseline!D9</f>
         <v>7.6629395714680086</v>
       </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99">
+      <c r="D9" s="104"/>
+      <c r="E9" s="104">
         <f>Dairy_Income_Baseline!B9</f>
         <v>1.404872254769135</v>
       </c>
-      <c r="F9" s="99"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="46">
         <f>C9</f>
         <v>7.6629395714680086</v>
@@ -2124,16 +2129,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="41"/>
-      <c r="C10" s="99">
+      <c r="C10" s="104">
         <f>Dairy_Income_Baseline!D10</f>
         <v>18.263339311998756</v>
       </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99">
+      <c r="D10" s="104"/>
+      <c r="E10" s="104">
         <f>Dairy_Income_Baseline!B10</f>
         <v>8.3015178690903433</v>
       </c>
-      <c r="F10" s="99"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="82">
         <f t="shared" ref="G10:G11" si="0">C10</f>
         <v>18.263339311998756</v>
@@ -2142,7 +2147,7 @@
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
       <c r="K10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
@@ -2153,16 +2158,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="41"/>
-      <c r="C11" s="99">
+      <c r="C11" s="104">
         <f>Dairy_Income_Baseline!D11</f>
         <v>0.12771565952446681</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99">
+      <c r="D11" s="104"/>
+      <c r="E11" s="104">
         <f>Dairy_Income_Baseline!B11</f>
         <v>1.6620356445247293E-4</v>
       </c>
-      <c r="F11" s="99"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="82">
         <f t="shared" si="0"/>
         <v>0.12771565952446681</v>
@@ -2182,10 +2187,10 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="41"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
       <c r="G12" s="46"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
@@ -2200,16 +2205,16 @@
         <v>86</v>
       </c>
       <c r="B13" s="41"/>
-      <c r="C13" s="99">
+      <c r="C13" s="104">
         <f>SUM(C8:C11)</f>
         <v>360.87925371299116</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99">
+      <c r="D13" s="104"/>
+      <c r="E13" s="104">
         <f>SUM(E8:E11)</f>
         <v>96.067885297868386</v>
       </c>
-      <c r="F13" s="99"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="46">
         <f>SUM(G8:G11)</f>
         <v>360.87925371299116</v>
@@ -2230,10 +2235,10 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
       <c r="G14" s="41"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
@@ -2248,16 +2253,16 @@
         <v>87</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="99">
+      <c r="C15" s="104">
         <f>L13/L11</f>
         <v>21.175000000000001</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99">
+      <c r="D15" s="104"/>
+      <c r="E15" s="104">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F15" s="99"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="46">
         <f>0</f>
         <v>0</v>
@@ -2273,16 +2278,16 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="46"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L16" s="16">
         <f>[3]Sheet1!$B$6</f>
@@ -2294,10 +2299,10 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="41"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="46"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -2310,13 +2315,13 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="101" t="s">
+      <c r="C18" s="105" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
@@ -2332,16 +2337,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="41"/>
-      <c r="C19" s="99">
+      <c r="C19" s="104">
         <f>L35*L16</f>
         <v>319.71061048759782</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99">
+      <c r="D19" s="104"/>
+      <c r="E19" s="104">
         <f>L35*L16</f>
         <v>319.71061048759782</v>
       </c>
-      <c r="F19" s="99"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="46">
         <f>L37*L16</f>
         <v>332.95472438028497</v>
@@ -2364,16 +2369,16 @@
         <v>51</v>
       </c>
       <c r="B20" s="41"/>
-      <c r="C20" s="99">
+      <c r="C20" s="104">
         <f>(((1/1000)*(1/L23)*[2]feeding_change_data!$H$25/L32))</f>
         <v>7.5742941123367519E-2</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99">
+      <c r="D20" s="104"/>
+      <c r="E20" s="104">
         <f>(((1/1000)*(1/L23)*[2]feeding_change_data!$H$19/L32))</f>
         <v>4.2844783292099349E-2</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="46">
         <f>(((1/1000)*(1/L23)*[2]feeding_change_data!$H$22/L32))</f>
         <v>6.2508397034787805E-2</v>
@@ -2391,16 +2396,16 @@
         <v>72</v>
       </c>
       <c r="B21" s="41"/>
-      <c r="C21" s="99">
+      <c r="C21" s="104">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data_pasture!$H$25/L33))</f>
         <v>-0.10135770756663191</v>
       </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99">
+      <c r="D21" s="104"/>
+      <c r="E21" s="104">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data_pasture!$H$19/L33))</f>
         <v>-0.35748623281588604</v>
       </c>
-      <c r="F21" s="99"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="46">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data_pasture!$H$22/L33))</f>
         <v>0.22047056642635146</v>
@@ -2409,7 +2414,7 @@
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L21" s="35">
         <v>0.14000000000000001</v>
@@ -2422,16 +2427,16 @@
         <v>82</v>
       </c>
       <c r="B22" s="54"/>
-      <c r="C22" s="99">
+      <c r="C22" s="104">
         <f>C20+C21</f>
         <v>-2.5614766443264395E-2</v>
       </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99">
+      <c r="D22" s="104"/>
+      <c r="E22" s="104">
         <f>E20+E21</f>
         <v>-0.3146414495237867</v>
       </c>
-      <c r="F22" s="99"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="55">
         <f>G20+G21</f>
         <v>0.28297896346113927</v>
@@ -2442,16 +2447,16 @@
         <v>73</v>
       </c>
       <c r="B23" s="41"/>
-      <c r="C23" s="99">
+      <c r="C23" s="104">
         <f>L19*(C20+C21)</f>
         <v>-0.7172134604114031</v>
       </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99">
+      <c r="D23" s="104"/>
+      <c r="E23" s="104">
         <f>L19*(E20+E21)</f>
         <v>-8.809960586666028</v>
       </c>
-      <c r="F23" s="99"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="46">
         <f>L19*(G20+G21)</f>
         <v>7.9234109769118994</v>
@@ -2474,16 +2479,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="41"/>
-      <c r="C24" s="99">
+      <c r="C24" s="104">
         <f>(C20+C21)*C19+C23</f>
         <v>-8.9065260774846973</v>
       </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99">
+      <c r="D24" s="104"/>
+      <c r="E24" s="104">
         <f>(E20+E21)*E19+E23</f>
         <v>-109.40417049861856</v>
       </c>
-      <c r="F24" s="99"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="46">
         <f>(G20+G21)*G19+G23</f>
         <v>102.14259376153426</v>
@@ -2503,10 +2508,10 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="41"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
       <c r="G25" s="46"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
@@ -2519,10 +2524,10 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="46"/>
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
@@ -2542,16 +2547,16 @@
         <v>48</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="99">
+      <c r="C27" s="104">
         <f>C5-C13-C15</f>
         <v>880.62230423788765</v>
       </c>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99">
+      <c r="D27" s="104"/>
+      <c r="E27" s="104">
         <f>E5-E13</f>
         <v>181.77307777823148</v>
       </c>
-      <c r="F27" s="99"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="46">
         <f>G5-G13</f>
         <v>985.97574143461293</v>
@@ -2574,16 +2579,16 @@
         <v>6</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="99">
+      <c r="C28" s="104">
         <f>C27-Dairy_Income_Baseline!B28</f>
         <v>849.32798976168749</v>
       </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99">
+      <c r="D28" s="104"/>
+      <c r="E28" s="104">
         <f>E27-[5]NPV_Baseline!E33</f>
         <v>22.162452883416393</v>
       </c>
-      <c r="F28" s="99"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="46">
         <f>G27-[5]NPV_Baseline!E33</f>
         <v>826.36511653979778</v>
@@ -2599,10 +2604,10 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
@@ -2618,15 +2623,15 @@
       <c r="N29" s="35"/>
     </row>
     <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
@@ -2641,15 +2646,15 @@
       <c r="N30" s="35"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
@@ -2686,16 +2691,16 @@
       <c r="L32" s="35">
         <v>13</v>
       </c>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="35"/>
       <c r="B33" s="41"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
       <c r="G33" s="41"/>
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
@@ -2896,16 +2901,16 @@
         <v>19</v>
       </c>
       <c r="B40" s="41"/>
-      <c r="C40" s="99">
+      <c r="C40" s="104">
         <f>C19*L36</f>
         <v>623.09126607279609</v>
       </c>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99">
+      <c r="D40" s="104"/>
+      <c r="E40" s="104">
         <f>E19*L36</f>
         <v>623.09126607279609</v>
       </c>
-      <c r="F40" s="99"/>
+      <c r="F40" s="104"/>
       <c r="G40" s="46">
         <f>G19*L38</f>
         <v>661.97345995462354</v>
@@ -2921,10 +2926,10 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
@@ -2936,14 +2941,14 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
-      <c r="B42" s="101" t="s">
+      <c r="B42" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -2957,19 +2962,19 @@
         <v>9</v>
       </c>
       <c r="B43" s="35"/>
-      <c r="C43" s="102">
+      <c r="C43" s="108">
         <f ca="1">_xlfn.NORM.INV(RAND(),C3,C32)</f>
-        <v>0.65348640708021455</v>
-      </c>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102">
+        <v>0.63803069642409538</v>
+      </c>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108">
         <f ca="1">_xlfn.NORM.INV(RAND(),E3,E32)</f>
-        <v>0.30950870156345978</v>
-      </c>
-      <c r="F43" s="102"/>
+        <v>0.18713917743270278</v>
+      </c>
+      <c r="F43" s="108"/>
       <c r="G43" s="89">
         <f ca="1">_xlfn.NORM.INV(RAND(),G3,G32)</f>
-        <v>0.59834205420157183</v>
+        <v>0.52259164069805208</v>
       </c>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
@@ -2981,30 +2986,30 @@
     </row>
     <row r="44" spans="1:14" s="88" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C44" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),C4,C4*L21)</f>
-        <v>2732.505413738264</v>
+        <v>2313.1782446825887</v>
       </c>
       <c r="D44" s="103"/>
       <c r="E44" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),E4,E4*L21)</f>
-        <v>700.56494871252016</v>
+        <v>664.80791808786</v>
       </c>
       <c r="F44" s="103"/>
       <c r="G44" s="84">
         <f ca="1">_xlfn.NORM.INV(RAND(),G4,G4*L21)</f>
-        <v>2666.8309099027861</v>
+        <v>2693.59064270613</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
       <c r="B45" s="35"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
       <c r="G45" s="86"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
@@ -3019,19 +3024,19 @@
         <v>10</v>
       </c>
       <c r="B46" s="35"/>
-      <c r="C46" s="99">
+      <c r="C46" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),C8,C34)</f>
-        <v>378.76853357873637</v>
-      </c>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99">
+        <v>354.91500104765089</v>
+      </c>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),E8,E34)</f>
-        <v>37.854554208647272</v>
-      </c>
-      <c r="F46" s="99"/>
+        <v>40.36284735719083</v>
+      </c>
+      <c r="F46" s="104"/>
       <c r="G46" s="85">
         <f ca="1">_xlfn.NORM.INV(RAND(),G8,G34)</f>
-        <v>377.88651582615881</v>
+        <v>-59.006974073378331</v>
       </c>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
@@ -3046,19 +3051,19 @@
         <v>1</v>
       </c>
       <c r="B47" s="35"/>
-      <c r="C47" s="99">
+      <c r="C47" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),C9,C35)</f>
-        <v>-16.66806175303099</v>
-      </c>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99">
+        <v>4.818441464250462</v>
+      </c>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),E9,E35)</f>
-        <v>-1.1898628671927109</v>
-      </c>
-      <c r="F47" s="99"/>
+        <v>-10.250034329276261</v>
+      </c>
+      <c r="F47" s="104"/>
       <c r="G47" s="85">
         <f ca="1">_xlfn.NORM.INV(RAND(),G9,G35)</f>
-        <v>42.981781656370224</v>
+        <v>-12.856135711165376</v>
       </c>
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
@@ -3073,19 +3078,19 @@
         <v>2</v>
       </c>
       <c r="B48" s="35"/>
-      <c r="C48" s="99">
+      <c r="C48" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),C10,C36)</f>
-        <v>7.4886589947062987E-3</v>
-      </c>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99">
+        <v>22.22673660369275</v>
+      </c>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),E10,E36)</f>
-        <v>5.6258889813514585</v>
-      </c>
-      <c r="F48" s="99"/>
+        <v>14.265891443396942</v>
+      </c>
+      <c r="F48" s="104"/>
       <c r="G48" s="85">
         <f ca="1">_xlfn.NORM.INV(RAND(),G10,G36)</f>
-        <v>-1.6805870358937511</v>
+        <v>11.820877080912382</v>
       </c>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
@@ -3100,19 +3105,19 @@
         <v>12</v>
       </c>
       <c r="B49" s="35"/>
-      <c r="C49" s="99">
+      <c r="C49" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C37)</f>
-        <v>-0.64450382916782978</v>
-      </c>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99">
+        <v>-0.49350819652296907</v>
+      </c>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),E11,E37)</f>
-        <v>1.6310398223061368E-4</v>
-      </c>
-      <c r="F49" s="99"/>
+        <v>1.7550561586097613E-4</v>
+      </c>
+      <c r="F49" s="104"/>
       <c r="G49" s="85">
         <f ca="1">_xlfn.NORM.INV(RAND(),G11,G37)</f>
-        <v>4.3504999208605427E-2</v>
+        <v>-0.16612723672449511</v>
       </c>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
@@ -3127,14 +3132,14 @@
         <v>3</v>
       </c>
       <c r="B50" s="35"/>
-      <c r="C50" s="99">
+      <c r="C50" s="104">
         <v>1E-4</v>
       </c>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99">
+      <c r="D50" s="104"/>
+      <c r="E50" s="104">
         <v>1E-4</v>
       </c>
-      <c r="F50" s="99"/>
+      <c r="F50" s="104"/>
       <c r="G50" s="85">
         <v>1E-4</v>
       </c>
@@ -3149,10 +3154,10 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="35"/>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="99"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
       <c r="G51" s="85"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
@@ -3164,22 +3169,22 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52" s="35"/>
-      <c r="C52" s="99">
+      <c r="C52" s="104">
         <f ca="1">SUM(C46:C50)</f>
-        <v>361.46355665553222</v>
-      </c>
-      <c r="D52" s="99"/>
-      <c r="E52" s="99">
+        <v>381.46677091907111</v>
+      </c>
+      <c r="D52" s="104"/>
+      <c r="E52" s="104">
         <f ca="1">SUM(E46:E50)</f>
-        <v>42.290843426788257</v>
-      </c>
-      <c r="F52" s="99"/>
+        <v>44.378979976927376</v>
+      </c>
+      <c r="F52" s="104"/>
       <c r="G52" s="85">
         <f ca="1">SUM(G46:G50)</f>
-        <v>419.23131544584385</v>
+        <v>-60.208259940355816</v>
       </c>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
@@ -3192,10 +3197,10 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="35"/>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99"/>
-      <c r="E53" s="99"/>
-      <c r="F53" s="99"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
       <c r="G53" s="85"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
@@ -3210,19 +3215,19 @@
         <v>48</v>
       </c>
       <c r="B54" s="35"/>
-      <c r="C54" s="99">
+      <c r="C54" s="104">
         <f ca="1">C43*C44-C52</f>
-        <v>1424.191588495521</v>
-      </c>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99">
+        <v>1094.4119554888275</v>
+      </c>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104">
         <f ca="1">E43*E44-E52</f>
-        <v>174.54010421009565</v>
-      </c>
-      <c r="F54" s="99"/>
+        <v>80.032626964782395</v>
+      </c>
+      <c r="F54" s="104"/>
       <c r="G54" s="85">
         <f ca="1">G43*G44-G52</f>
-        <v>1176.4457693936361</v>
+        <v>1467.856213281073</v>
       </c>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
@@ -3235,10 +3240,10 @@
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="35"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99"/>
-      <c r="F55" s="99"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
       <c r="G55" s="85"/>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
@@ -3253,19 +3258,19 @@
         <v>13</v>
       </c>
       <c r="B56" s="35"/>
-      <c r="C56" s="99">
+      <c r="C56" s="104">
         <f ca="1">AVERAGE(C60:C559)</f>
-        <v>913.76932268788403</v>
-      </c>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99">
+        <v>913.10976342187064</v>
+      </c>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104">
         <f ca="1">AVERAGE(E60:E559)</f>
-        <v>2.6667578312025526</v>
-      </c>
-      <c r="F56" s="99"/>
+        <v>2.4777428767119298</v>
+      </c>
+      <c r="F56" s="104"/>
       <c r="G56" s="85">
         <f ca="1">AVERAGE(G60:G559)</f>
-        <v>953.20434647604134</v>
+        <v>953.78716736381625</v>
       </c>
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
@@ -3280,19 +3285,19 @@
         <v>11</v>
       </c>
       <c r="B57" s="35"/>
-      <c r="C57" s="99">
+      <c r="C57" s="104">
         <f ca="1">STDEVA(C60:C559)</f>
-        <v>310.80681076998906</v>
-      </c>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99">
+        <v>310.07051786674356</v>
+      </c>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104">
         <f t="shared" ref="E57:G57" ca="1" si="1">STDEVA(E60:E559)</f>
-        <v>27.282538536185491</v>
-      </c>
-      <c r="F57" s="99"/>
+        <v>26.40259008234251</v>
+      </c>
+      <c r="F57" s="104"/>
       <c r="G57" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>280.77097265374891</v>
+        <v>281.53671197403855</v>
       </c>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
@@ -3305,10 +3310,10 @@
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
       <c r="B58" s="35"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="98"/>
-      <c r="F58" s="98"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
@@ -3323,10 +3328,10 @@
         <v>64</v>
       </c>
       <c r="B59" s="35"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
@@ -3343,21 +3348,21 @@
       </c>
       <c r="C60" s="49">
         <f ca="1">C54</f>
-        <v>1424.191588495521</v>
+        <v>1094.4119554888275</v>
       </c>
       <c r="D60" s="48">
         <v>1</v>
       </c>
       <c r="E60" s="49">
         <f ca="1">E54</f>
-        <v>174.54010421009565</v>
+        <v>80.032626964782395</v>
       </c>
       <c r="F60" s="48">
         <v>1</v>
       </c>
       <c r="G60" s="49">
         <f ca="1">G54</f>
-        <v>1176.4457693936361</v>
+        <v>1467.856213281073</v>
       </c>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
@@ -20525,83 +20530,28 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="C47:D47"/>
@@ -20617,28 +20567,83 @@
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20662,130 +20667,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="101" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
+      <c r="B1" s="105" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="107" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="107"/>
+      <c r="B2" s="109" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="109"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="102">
+      <c r="B3" s="108">
         <f>[1]All!$L$6*L17</f>
         <v>0.39642940716394504</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102">
+      <c r="C3" s="108"/>
+      <c r="D3" s="108">
         <f>[1]All!$L$7*L17</f>
         <v>0.55747885382429763</v>
       </c>
-      <c r="E3" s="102"/>
+      <c r="E3" s="108"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="99">
+      <c r="B4" s="104">
         <f>[2]prod_herd_data!H17</f>
         <v>320.35867062067865</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104">
         <f>[2]prod_herd_data!H18</f>
         <v>1025.9808491887786</v>
       </c>
-      <c r="E4" s="99"/>
+      <c r="E4" s="104"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="99">
+      <c r="B5" s="104">
         <f>B4*B3</f>
         <v>126.99959787398517</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99">
+      <c r="C5" s="104"/>
+      <c r="D5" s="104">
         <f>D4*D3</f>
         <v>571.96262785143983</v>
       </c>
-      <c r="E5" s="99"/>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="104">
         <f xml:space="preserve"> (([2]FEEDING_base!$H$17*L30)+([2]FEEDING_base!$H$18*L31))</f>
         <v>85.998727070361042</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99">
+      <c r="C8" s="104"/>
+      <c r="D8" s="104">
         <f>(([2]FEEDING_base!$H$23*L31)+([2]FEEDING_base!$H$24*L30))</f>
         <v>186.43581434115202</v>
       </c>
-      <c r="E8" s="99"/>
+      <c r="E8" s="104"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="99">
+      <c r="B9" s="104">
         <f>[1]All!$P$6*L17</f>
         <v>1.404872254769135</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99">
+      <c r="C9" s="104"/>
+      <c r="D9" s="104">
         <f>[1]All!$P$7*Dairy_Income_Roadmap!L16</f>
         <v>7.6629395714680086</v>
       </c>
-      <c r="E9" s="99"/>
+      <c r="E9" s="104"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="99">
+      <c r="B10" s="104">
         <f>[1]All!$Q$6*L17</f>
         <v>8.3015178690903433</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99">
+      <c r="C10" s="104"/>
+      <c r="D10" s="104">
         <f>[1]All!$Q$7*Dairy_Income_Roadmap!L16</f>
         <v>18.263339311998756</v>
       </c>
-      <c r="E10" s="99"/>
+      <c r="E10" s="104"/>
       <c r="K10" s="1" t="str">
         <f>Dairy_Income_Roadmap!K10</f>
         <v>Basic income parameters</v>
@@ -20795,16 +20800,16 @@
       <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="99">
+      <c r="B11" s="104">
         <f>[1]All!$R$6*L17</f>
         <v>1.6620356445247293E-4</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99">
+      <c r="C11" s="104"/>
+      <c r="D11" s="104">
         <f>[1]All!$R$7*Dairy_Income_Roadmap!L16</f>
         <v>0.12771565952446681</v>
       </c>
-      <c r="E11" s="99"/>
+      <c r="E11" s="104"/>
       <c r="K11" s="76" t="s">
         <v>88</v>
       </c>
@@ -20817,37 +20822,37 @@
       <c r="A12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="99">
+      <c r="B12" s="104">
         <f>0*L17</f>
         <v>0</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99">
+      <c r="C12" s="104"/>
+      <c r="D12" s="104">
         <f>0*L17</f>
         <v>0</v>
       </c>
-      <c r="E12" s="99"/>
+      <c r="E12" s="104"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="99">
+      <c r="B14" s="104">
         <f>SUM(B8:B12)</f>
         <v>95.705283397784967</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99">
+      <c r="C14" s="104"/>
+      <c r="D14" s="104">
         <f>SUM(D8:D12)</f>
         <v>212.48980888414323</v>
       </c>
-      <c r="E14" s="99"/>
+      <c r="E14" s="104"/>
       <c r="K14" t="str">
         <f>[5]NPV_Roadmap!K14</f>
         <v>Price acquring new animal (USD/head)</v>
@@ -20858,24 +20863,24 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
       <c r="K17" s="78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L17" s="16">
         <f>Dairy_Income_Roadmap!L16</f>
@@ -20883,27 +20888,27 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="99">
+      <c r="B19" s="104">
         <f>L36*L17</f>
         <v>319.71061048759782</v>
       </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99">
+      <c r="C19" s="104"/>
+      <c r="D19" s="104">
         <f>L38*L17</f>
         <v>332.95472438028497</v>
       </c>
-      <c r="E19" s="99"/>
+      <c r="E19" s="104"/>
       <c r="K19" s="1" t="str">
         <f>[5]NPV_Roadmap!K24</f>
         <v>Cropping parameters</v>
@@ -20913,16 +20918,16 @@
       <c r="A20" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="99">
+      <c r="B20" s="104">
         <f>( [6]Sheet1!$QH$29*[2]feeding_change_data!$H$4+      [6]Sheet1!$QH$20*[2]feeding_change_data!$I$4)/([2]feeding_change_data!$H$4+[2]feeding_change_data!$I$4)</f>
         <v>1.8944680977798487</v>
       </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99">
+      <c r="C20" s="104"/>
+      <c r="D20" s="104">
         <f>( [6]Sheet1!$QG$29*[2]feeding_change_data!$H$4+      [6]Sheet1!$QG$20*[2]feeding_change_data!$I$4)/([2]feeding_change_data!$H$4+[2]feeding_change_data!$I$4)</f>
         <v>130.93127296143226</v>
       </c>
-      <c r="E20" s="99"/>
+      <c r="E20" s="104"/>
       <c r="K20" t="str">
         <f>[5]NPV_Roadmap!K25</f>
         <v>Forage seeding cost (USD/ha/yr)</v>
@@ -20941,41 +20946,41 @@
         <v>1.9430442028511269E-4</v>
       </c>
       <c r="C21" s="103"/>
-      <c r="D21" s="99">
+      <c r="D21" s="104">
         <f>(((1/1000)*(1/L23)/L33))*D20</f>
         <v>1.3428848508864846E-2</v>
       </c>
-      <c r="E21" s="99"/>
+      <c r="E21" s="104"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="99">
+      <c r="B22" s="104">
         <f>( [6]Sheet1!$QP$29*[2]feeding_change_data_pasture!$H$4+      [6]Sheet1!$QP$20*[2]feeding_change_data_pasture!$I$4)/([2]feeding_change_data_pasture!$H$4+[2]feeding_change_data_pasture!$I$4)</f>
         <v>54.042316867241844</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99">
+      <c r="C22" s="104"/>
+      <c r="D22" s="104">
         <f>( [6]Sheet1!$QO$20*[2]feeding_change_data_pasture!$H$4+      [6]Sheet1!$QO$20*[2]feeding_change_data_pasture!$I$4)/([2]feeding_change_data_pasture!$H$4+[2]feeding_change_data_pasture!$I$4)</f>
         <v>205.7582485590861</v>
       </c>
-      <c r="E22" s="99"/>
+      <c r="E22" s="104"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="99">
+      <c r="B23" s="104">
         <f>(((1/1000)*(1/L25)/L34))*B22</f>
         <v>2.1616926746896737E-2</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99">
+      <c r="C23" s="104"/>
+      <c r="D23" s="104">
         <f>(((1/1000)*(1/L25)/L34))*D22</f>
         <v>8.2303299423634443E-2</v>
       </c>
-      <c r="E23" s="99"/>
+      <c r="E23" s="104"/>
       <c r="K23" t="str">
         <f>[5]NPV_Roadmap!K28</f>
         <v>Use efficiency napier</v>
@@ -20989,31 +20994,31 @@
       <c r="A24" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="102">
+      <c r="B24" s="108">
         <f>SUM(B23+B21)</f>
         <v>2.1811231167181849E-2</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102">
+      <c r="C24" s="108"/>
+      <c r="D24" s="108">
         <f>SUM(D23+D21)</f>
         <v>9.573214793249929E-2</v>
       </c>
-      <c r="E24" s="102"/>
+      <c r="E24" s="108"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="99">
+      <c r="B25" s="104">
         <f>(B21+B23)*L17*L20</f>
         <v>0.77997801659602606</v>
       </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99">
+      <c r="C25" s="104"/>
+      <c r="D25" s="104">
         <f>(D21+D23)*L17*L20</f>
         <v>3.4234184350500314</v>
       </c>
-      <c r="E25" s="99"/>
+      <c r="E25" s="104"/>
       <c r="K25" t="str">
         <f>[5]NPV_Roadmap!K29</f>
         <v>Use efficiency pasture</v>
@@ -21027,22 +21032,22 @@
       <c r="A26" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="99">
+      <c r="B26" s="104">
         <f>(B21+B23)*B19+B25</f>
         <v>7.753260048541855</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99">
+      <c r="C26" s="104"/>
+      <c r="D26" s="104">
         <f>(D21+D23)*D19+D25</f>
         <v>35.297889364248</v>
       </c>
-      <c r="E26" s="99"/>
+      <c r="E26" s="104"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="100"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
       <c r="K27" t="str">
         <f>[5]NPV_Roadmap!K31</f>
         <v>Standard error (%) improved forage yield</v>
@@ -21056,16 +21061,16 @@
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="99">
+      <c r="B28" s="104">
         <f>B5-B14</f>
         <v>31.294314476200199</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99">
+      <c r="C28" s="104"/>
+      <c r="D28" s="104">
         <f>D5-D14</f>
         <v>359.47281896729658</v>
       </c>
-      <c r="E28" s="99">
+      <c r="E28" s="104">
         <f>E5-E14</f>
         <v>0</v>
       </c>
@@ -21079,16 +21084,16 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="100"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
       <c r="K30" t="str">
         <f>[5]NPV_Roadmap!K34</f>
         <v>Market price Sunflower cake (USD/kg)</v>
@@ -21099,10 +21104,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
+      <c r="B31" s="107"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
       <c r="K31" t="str">
         <f>[5]NPV_Roadmap!K35</f>
         <v>Market price Maize bran (USD/kg)</v>
@@ -21113,16 +21118,16 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
       <c r="K33" t="str">
         <f>[5]NPV_Roadmap!K37</f>
         <v>Napier yield (Mg/ha)</v>
@@ -21133,13 +21138,13 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
       <c r="K34" t="str">
         <f>[5]NPV_Roadmap!K38</f>
         <v>Pasture yield (Mg/ha)</v>
@@ -21150,13 +21155,13 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -21182,8 +21187,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
       <c r="D37" s="103"/>
       <c r="E37" s="103"/>
       <c r="K37" t="str">
@@ -21317,16 +21322,16 @@
       <c r="E44" s="103"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="100"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B47" s="53" t="s">
@@ -21340,35 +21345,35 @@
       <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="102">
+      <c r="B48" s="108">
         <f ca="1">_xlfn.NORM.INV(RAND(),B3,B36)</f>
-        <v>0.47065344212414267</v>
-      </c>
-      <c r="C48" s="102"/>
-      <c r="D48" s="102">
+        <v>0.23060260134686109</v>
+      </c>
+      <c r="C48" s="108"/>
+      <c r="D48" s="108">
         <f ca="1">_xlfn.NORM.INV(RAND(),D3,D36)</f>
-        <v>0.49991104199994274</v>
-      </c>
-      <c r="E48" s="102"/>
+        <v>0.60631267302575942</v>
+      </c>
+      <c r="E48" s="108"/>
     </row>
     <row r="49" spans="1:5" s="88" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),B4,B4*Dairy_Income_Roadmap!L21)</f>
-        <v>345.83363126451201</v>
+        <v>262.80934224134501</v>
       </c>
       <c r="C49" s="103"/>
       <c r="D49" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),D4,D4*Dairy_Income_Roadmap!L21)</f>
-        <v>1078.5455732993264</v>
+        <v>1082.1342804103219</v>
       </c>
       <c r="E49" s="103"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="107"/>
       <c r="D50" s="103"/>
       <c r="E50" s="103"/>
     </row>
@@ -21376,198 +21381,198 @@
       <c r="A51" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="99">
+      <c r="B51" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),B8,B38)</f>
-        <v>11.147050880914833</v>
-      </c>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99">
+        <v>71.797539950021815</v>
+      </c>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),D8,D38)</f>
-        <v>279.37483807857632</v>
-      </c>
-      <c r="E51" s="99"/>
+        <v>381.97034045181272</v>
+      </c>
+      <c r="E51" s="104"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="99">
+      <c r="B52" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),B9,B39)</f>
-        <v>6.840323449701021</v>
-      </c>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99">
+        <v>3.4556396366838653</v>
+      </c>
+      <c r="C52" s="104"/>
+      <c r="D52" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),D9,D39)</f>
-        <v>6.9036236081111912</v>
-      </c>
-      <c r="E52" s="99"/>
+        <v>72.427796012776412</v>
+      </c>
+      <c r="E52" s="104"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="99">
+      <c r="B53" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),B10,B40)</f>
-        <v>7.5759722532355687</v>
-      </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99">
+        <v>5.0379994109818416</v>
+      </c>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),D10,D40)</f>
-        <v>26.721624228353832</v>
-      </c>
-      <c r="E53" s="99"/>
+        <v>21.639510178596691</v>
+      </c>
+      <c r="E53" s="104"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="99">
+      <c r="B54" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B41)</f>
-        <v>1.6826239929957493E-4</v>
-      </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99">
+        <v>1.5399071364831352E-4</v>
+      </c>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D41)</f>
-        <v>-4.4741508391231782E-2</v>
-      </c>
-      <c r="E54" s="99"/>
+        <v>-6.9907221215217918E-2</v>
+      </c>
+      <c r="E54" s="104"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="99">
+      <c r="B55" s="104">
         <v>1E-4</v>
       </c>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99">
+      <c r="C55" s="104"/>
+      <c r="D55" s="104">
         <v>1E-4</v>
       </c>
-      <c r="E55" s="99"/>
+      <c r="E55" s="104"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="99">
+      <c r="B56" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),(B21+B23),B43)</f>
-        <v>3.1328776408932356E-2</v>
-      </c>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99">
+        <v>0.16203974479800665</v>
+      </c>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),ABS(D21+D23),ABS(D43))</f>
-        <v>-0.16564276018155372</v>
-      </c>
-      <c r="E56" s="99"/>
+        <v>0.2703385097210016</v>
+      </c>
+      <c r="E56" s="104"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="99">
+      <c r="B57" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),B19,B44)</f>
-        <v>757.21729137768102</v>
-      </c>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99">
+        <v>1192.0636046340167</v>
+      </c>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),D19,D44)</f>
-        <v>881.68067185014502</v>
-      </c>
-      <c r="E57" s="99"/>
+        <v>751.32269766602008</v>
+      </c>
+      <c r="E57" s="104"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="98"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="99">
+        <v>93</v>
+      </c>
+      <c r="B59" s="104">
         <f>SUM(C52:C55)</f>
         <v>0</v>
       </c>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99">
+      <c r="C59" s="104"/>
+      <c r="D59" s="104">
         <f>SUM(E52:E55)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="99"/>
+      <c r="E59" s="104"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="99"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="107"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="99">
+      <c r="B61" s="104">
         <f ca="1">B48*B49-B59</f>
-        <v>162.76778895693411</v>
-      </c>
-      <c r="C61" s="99"/>
-      <c r="D61" s="99">
+        <v>60.604517979111662</v>
+      </c>
+      <c r="C61" s="104"/>
+      <c r="D61" s="104">
         <f ca="1">D48*D49-D59</f>
-        <v>539.17684139249184</v>
-      </c>
-      <c r="E61" s="99"/>
+        <v>656.11172812838902</v>
+      </c>
+      <c r="E61" s="104"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="107"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="104"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="99">
+      <c r="B63" s="104">
         <f ca="1">AVERAGE(C67:C566)</f>
-        <v>110.19361276906726</v>
-      </c>
-      <c r="C63" s="99"/>
-      <c r="D63" s="99">
+        <v>109.98928622711162</v>
+      </c>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104">
         <f ca="1">AVERAGE(E67:E566)</f>
-        <v>135.58914388791533</v>
-      </c>
-      <c r="E63" s="99"/>
+        <v>135.82301366138711</v>
+      </c>
+      <c r="E63" s="104"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="99">
+      <c r="B64" s="104">
         <f ca="1">STDEVA(C67:C566)</f>
-        <v>55.011658008958399</v>
-      </c>
-      <c r="C64" s="99"/>
-      <c r="D64" s="99">
+        <v>55.005722704333415</v>
+      </c>
+      <c r="C64" s="104"/>
+      <c r="D64" s="104">
         <f ca="1">STDEVA(E67:E566)</f>
-        <v>155.46297078540636</v>
-      </c>
-      <c r="E64" s="99"/>
+        <v>156.15772491984276</v>
+      </c>
+      <c r="E64" s="104"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="100"/>
-      <c r="C65" s="100"/>
-      <c r="D65" s="98"/>
-      <c r="E65" s="98"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="102"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="98"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="98"/>
-      <c r="E66" s="98"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="102"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B67" s="48">
@@ -21575,7 +21580,7 @@
       </c>
       <c r="C67" s="49">
         <f ca="1">B61</f>
-        <v>162.76778895693411</v>
+        <v>60.604517979111662</v>
       </c>
       <c r="D67" s="48">
         <f>B67</f>
@@ -21583,7 +21588,7 @@
       </c>
       <c r="E67" s="49">
         <f ca="1">D61</f>
-        <v>539.17684139249184</v>
+        <v>656.11172812838902</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -29073,6 +29078,108 @@
     </row>
   </sheetData>
   <mergeCells count="126">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
@@ -29097,108 +29204,6 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29207,15 +29212,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88619A7-1257-474E-B4EF-A20B407C8AA0}">
-  <dimension ref="A1:AD92"/>
+  <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="47.109375" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
@@ -29244,38 +29249,38 @@
     <row r="1" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="104" t="s">
-        <v>129</v>
-      </c>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="100" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
       <c r="AC1" s="94"/>
       <c r="AD1" s="35"/>
     </row>
@@ -29287,19 +29292,19 @@
         <v>22</v>
       </c>
       <c r="C2" s="97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D2" s="97" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E2" s="97" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="97" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H2" s="97" t="s">
         <v>37</v>
@@ -29308,7 +29313,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="96" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>39</v>
@@ -29320,55 +29325,55 @@
         <v>46</v>
       </c>
       <c r="N2" s="97" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="O2" s="97" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P2" s="97" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q2" s="97" t="s">
         <v>83</v>
       </c>
       <c r="R2" s="97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="U2" s="97" t="s">
         <v>47</v>
       </c>
       <c r="V2" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="W2" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y2" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z2" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA2" s="97" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB2" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC2" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="W2" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="X2" s="97" t="s">
+      <c r="AD2" s="97" t="s">
         <v>134</v>
-      </c>
-      <c r="Y2" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z2" s="97" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA2" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB2" s="97" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC2" s="97" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD2" s="97" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -29376,7 +29381,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="69">
         <f>D3/SUM(D3:D4)</f>
@@ -29414,11 +29419,11 @@
         <v>1</v>
       </c>
       <c r="L3" s="17">
-        <f>([2]prod_herd_data!$H$8+[2]prod_herd_data!$I$8)*(1-[2]prod_herd_data!$H$3)*(C25)</f>
+        <f>([2]prod_herd_data!$H$8+[2]prod_herd_data!$I$8)*(1-[2]prod_herd_data!$H$3)*(C26)</f>
         <v>171926.83088089648</v>
       </c>
       <c r="M3" s="42">
-        <f>SUM([2]prod_herd_data!$H$10:$I$10)*C25</f>
+        <f>SUM([2]prod_herd_data!$H$10:$I$10)*C26</f>
         <v>252289.9534057008</v>
       </c>
       <c r="N3" s="43">
@@ -29427,7 +29432,7 @@
       </c>
       <c r="O3" s="43">
         <f ca="1">Dairy_Income_Baseline!B64</f>
-        <v>55.011658008958399</v>
+        <v>55.005722704333415</v>
       </c>
       <c r="P3" s="43">
         <f>(G3-F3)*(Dairy_Income_Baseline!B24)</f>
@@ -29447,7 +29452,7 @@
       </c>
       <c r="T3" s="44">
         <f ca="1">F3*O3*I3</f>
-        <v>225.27273954668465</v>
+        <v>225.24843447424536</v>
       </c>
       <c r="U3" s="68">
         <f>N3*(M3*K3)/(D3)</f>
@@ -29470,7 +29475,7 @@
         <v>3454.7014468494458</v>
       </c>
       <c r="Z3" s="32">
-        <f>SQRT(C3*(1-C3)/N35)</f>
+        <f>SQRT(C3*(1-C3)/N23)</f>
         <v>2.9201630276455295E-2</v>
       </c>
       <c r="AA3" s="28">
@@ -29487,7 +29492,7 @@
     <row r="4" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="93" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="69">
         <f>1-C3</f>
@@ -29525,11 +29530,11 @@
         <v>1</v>
       </c>
       <c r="L4" s="17">
-        <f>([2]prod_herd_data!$H$8+[2]prod_herd_data!$I$8)*([2]prod_herd_data!$H$3)*(1-C23)</f>
+        <f>([2]prod_herd_data!$H$8+[2]prod_herd_data!$I$8)*([2]prod_herd_data!$H$3)*(1-C24)</f>
         <v>32900.118609350553</v>
       </c>
       <c r="M4" s="42">
-        <f>SUM([2]prod_herd_data!$H$9:$I$9)*(1-C24)</f>
+        <f>SUM([2]prod_herd_data!$H$9:$I$9)*(1-C25)</f>
         <v>47172.015080949088</v>
       </c>
       <c r="N4" s="43">
@@ -29538,7 +29543,7 @@
       </c>
       <c r="O4" s="43">
         <f ca="1">Dairy_Income_Baseline!D64</f>
-        <v>155.46297078540636</v>
+        <v>156.15772491984276</v>
       </c>
       <c r="P4" s="43">
         <f>(G4-F4)*(Dairy_Income_Baseline!B24)</f>
@@ -29558,7 +29563,7 @@
       </c>
       <c r="T4" s="44">
         <f ca="1">F4*O4*I4</f>
-        <v>220.93212966950003</v>
+        <v>221.91946131344244</v>
       </c>
       <c r="U4" s="68">
         <f>N4*(M4*K4)/(D4)</f>
@@ -29581,7 +29586,7 @@
         <v>6159.3983768218022</v>
       </c>
       <c r="Z4" s="32">
-        <f>SQRT(C4*(1-C4)/N35)</f>
+        <f>SQRT(C4*(1-C4)/N23)</f>
         <v>2.9201630276455295E-2</v>
       </c>
       <c r="AA4" s="28">
@@ -29595,7 +29600,7 @@
       <c r="AC4" s="92"/>
       <c r="AD4" s="95">
         <f ca="1">MC_Baseline!H20</f>
-        <v>13.898607792062514</v>
+        <v>15.037654276194226</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -29631,17 +29636,17 @@
     </row>
     <row r="6" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="62">
         <f>D6/SUM(D6:D8)</f>
         <v>0.10211062928870253</v>
       </c>
       <c r="D6" s="63">
-        <f>D3*C30</f>
+        <f>D3*C31</f>
         <v>2865.4471813482746</v>
       </c>
       <c r="E6" s="64">
@@ -29666,12 +29671,12 @@
         <v>7482.9071432662713</v>
       </c>
       <c r="K6" s="67">
-        <f>C26</f>
+        <f>C27</f>
         <v>0.15</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="45">
-        <f>([2]prod_herd_data!H25*[2]prod_herd_data!H31+[2]prod_herd_data!I25*[2]prod_herd_data!I31)*(1-C24)</f>
+        <f>([2]prod_herd_data!H25*[2]prod_herd_data!H31+[2]prod_herd_data!I25*[2]prod_herd_data!I31)*(1-C25)</f>
         <v>49886.047621775142</v>
       </c>
       <c r="N6" s="43">
@@ -29680,7 +29685,7 @@
       </c>
       <c r="O6" s="43">
         <f ca="1">Dairy_Income_Roadmap!C57</f>
-        <v>310.80681076998906</v>
+        <v>310.07051786674356</v>
       </c>
       <c r="P6" s="43">
         <f>(F6*(Dairy_Income_Roadmap!C22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -29700,7 +29705,7 @@
       </c>
       <c r="T6" s="44">
         <f ca="1">F6*O6*I6</f>
-        <v>316.54326858782684</v>
+        <v>315.79338617162767</v>
       </c>
       <c r="U6" s="46">
         <f>U3</f>
@@ -29740,7 +29745,7 @@
     <row r="7" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="62">
         <f>D7/SUM(D6:D8)</f>
@@ -29776,7 +29781,7 @@
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="45">
-        <f>([2]prod_herd_data!H26*[2]prod_herd_data!H31+[2]prod_herd_data!I26*[2]prod_herd_data!I31)*C25</f>
+        <f>([2]prod_herd_data!H26*[2]prod_herd_data!H31+[2]prod_herd_data!I26*[2]prod_herd_data!I31)*C26</f>
         <v>96254.262245729202</v>
       </c>
       <c r="N7" s="43">
@@ -29785,7 +29790,7 @@
       </c>
       <c r="O7" s="43">
         <f ca="1">Dairy_Income_Roadmap!E57</f>
-        <v>27.282538536185491</v>
+        <v>26.40259008234251</v>
       </c>
       <c r="P7" s="43">
         <f>(F7*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -29805,7 +29810,7 @@
       </c>
       <c r="T7" s="44">
         <f ca="1">F7*O7*I7</f>
-        <v>75.816031242779957</v>
+        <v>73.370723619366885</v>
       </c>
       <c r="U7" s="46">
         <f t="shared" ref="U7:W8" si="0">U3</f>
@@ -29845,7 +29850,7 @@
     <row r="8" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="62">
         <f>D8/SUM(D6:D8)</f>
@@ -29877,12 +29882,12 @@
         <v>42403.140478508867</v>
       </c>
       <c r="K8" s="67">
-        <f>K4*(1-C26)</f>
+        <f>K4*(1-C27)</f>
         <v>0.85</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="45">
-        <f>([2]prod_herd_data!H25*[2]prod_herd_data!H31+[2]prod_herd_data!I25*[2]prod_herd_data!I31)*(1-C24)</f>
+        <f>([2]prod_herd_data!H25*[2]prod_herd_data!H31+[2]prod_herd_data!I25*[2]prod_herd_data!I31)*(1-C25)</f>
         <v>49886.047621775142</v>
       </c>
       <c r="N8" s="43">
@@ -29891,7 +29896,7 @@
       </c>
       <c r="O8" s="43">
         <f ca="1">Dairy_Income_Roadmap!G57</f>
-        <v>280.77097265374891</v>
+        <v>281.53671197403855</v>
       </c>
       <c r="P8" s="43">
         <f>(F8*(Dairy_Income_Roadmap!G22 + Dairy_Income_Baseline!D24)  -   F5*Dairy_Income_Baseline!D24)</f>
@@ -29911,7 +29916,7 @@
       </c>
       <c r="T8" s="44">
         <f ca="1">F8*O8*I8</f>
-        <v>514.26229304938454</v>
+        <v>515.66482713262053</v>
       </c>
       <c r="U8" s="46">
         <f t="shared" si="0"/>
@@ -29951,7 +29956,7 @@
       </c>
       <c r="AD8" s="95">
         <f ca="1">MC_High_ambition!I20</f>
-        <v>14.090383379579938</v>
+        <v>16.911222887152746</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -29987,7 +29992,7 @@
     </row>
     <row r="10" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="75" t="str">
         <f>B6</f>
@@ -29998,7 +30003,7 @@
         <v>5.5431484471009929E-2</v>
       </c>
       <c r="D10" s="63">
-        <f>D3*C31</f>
+        <f>D3*C32</f>
         <v>1555.5284698747773</v>
       </c>
       <c r="E10" s="64">
@@ -30023,12 +30028,12 @@
         <v>3479.7728264906909</v>
       </c>
       <c r="K10" s="67">
-        <f>C27</f>
+        <f>C28</f>
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="45">
-        <f>([2]prod_herd_data!H34*[2]prod_herd_data!H40+[2]prod_herd_data!I34*[2]prod_herd_data!I40)*(1-C24)</f>
+        <f>([2]prod_herd_data!H34*[2]prod_herd_data!H40+[2]prod_herd_data!I34*[2]prod_herd_data!I40)*(1-C25)</f>
         <v>39768.832302750758</v>
       </c>
       <c r="N10" s="43">
@@ -30037,7 +30042,7 @@
       </c>
       <c r="O10" s="43">
         <f ca="1">Dairy_Income_Roadmap!C57</f>
-        <v>310.80681076998906</v>
+        <v>310.07051786674356</v>
       </c>
       <c r="P10" s="43">
         <f>(F10*(Dairy_Income_Roadmap!C22+Dairy_Income_Baseline!B24)-F3*Dairy_Income_Baseline!B24)</f>
@@ -30057,7 +30062,7 @@
       </c>
       <c r="T10" s="44">
         <f ca="1">F10*O10*I10</f>
-        <v>271.16152162239501</v>
+        <v>270.51914733365533</v>
       </c>
       <c r="U10" s="46">
         <f t="shared" ref="U10:W12" si="2">U6</f>
@@ -30105,7 +30110,7 @@
         <v>0.52805782575014737</v>
       </c>
       <c r="D11" s="63">
-        <f>D3*(1-C31)</f>
+        <f>D3*(1-C32)</f>
         <v>14818.455423543935</v>
       </c>
       <c r="E11" s="64">
@@ -30134,7 +30139,7 @@
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="45">
-        <f>([2]prod_herd_data!H35*[2]prod_herd_data!H40+[2]prod_herd_data!I35*[2]prod_herd_data!I40)*C25</f>
+        <f>([2]prod_herd_data!H35*[2]prod_herd_data!H40+[2]prod_herd_data!I35*[2]prod_herd_data!I40)*C26</f>
         <v>122862.46720379924</v>
       </c>
       <c r="N11" s="43">
@@ -30143,7 +30148,7 @@
       </c>
       <c r="O11" s="43">
         <f ca="1">Dairy_Income_Roadmap!E57</f>
-        <v>27.282538536185491</v>
+        <v>26.40259008234251</v>
       </c>
       <c r="P11" s="43">
         <f>(F11*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -30163,7 +30168,7 @@
       </c>
       <c r="T11" s="44">
         <f ca="1">F11*O11*I11</f>
-        <v>88.219720688093261</v>
+        <v>85.374354714725854</v>
       </c>
       <c r="U11" s="46">
         <f t="shared" si="2"/>
@@ -30236,7 +30241,7 @@
         <v>36289.059476260067</v>
       </c>
       <c r="K12" s="67">
-        <f>K4*(1-C27)</f>
+        <f>K4*(1-C28)</f>
         <v>0.91249999999999998</v>
       </c>
       <c r="L12" s="9"/>
@@ -30250,7 +30255,7 @@
       </c>
       <c r="O12" s="43">
         <f ca="1">Dairy_Income_Roadmap!G57</f>
-        <v>280.77097265374891</v>
+        <v>281.53671197403855</v>
       </c>
       <c r="P12" s="43">
         <f>(F12*(Dairy_Income_Roadmap!G22 + Dairy_Income_Baseline!D24)  -   F4*Dairy_Income_Baseline!D24)</f>
@@ -30270,7 +30275,7 @@
       </c>
       <c r="T12" s="44">
         <f ca="1">F12*O12*I12</f>
-        <v>440.11115045418592</v>
+        <v>441.31145406825033</v>
       </c>
       <c r="U12" s="46">
         <f t="shared" si="2"/>
@@ -30310,7 +30315,7 @@
       </c>
       <c r="AD12" s="95">
         <f ca="1">MC_Middle_road!I20</f>
-        <v>14.881982990371897</v>
+        <v>18.49603434736342</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -30350,7 +30355,7 @@
     </row>
     <row r="14" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" s="80" t="str">
         <f t="shared" si="3"/>
@@ -30361,7 +30366,7 @@
         <v>8.7523396533173582E-3</v>
       </c>
       <c r="D14" s="63">
-        <f>D3*C32</f>
+        <f>D3*C33</f>
         <v>245.60975840128066</v>
       </c>
       <c r="E14" s="64">
@@ -30386,12 +30391,12 @@
         <v>646.48666107571898</v>
       </c>
       <c r="K14" s="67">
-        <f>C28</f>
+        <f>C29</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="45">
-        <f>([2]prod_herd_data!H43*[2]prod_herd_data!H49+[2]prod_herd_data!I43*[2]prod_herd_data!I49)*(1-C24)</f>
+        <f>([2]prod_herd_data!H43*[2]prod_herd_data!H49+[2]prod_herd_data!I43*[2]prod_herd_data!I49)*(1-C25)</f>
         <v>25859.466443028756</v>
       </c>
       <c r="N14" s="43">
@@ -30400,7 +30405,7 @@
       </c>
       <c r="O14" s="43">
         <f ca="1">Dairy_Income_Roadmap!C57</f>
-        <v>310.80681076998906</v>
+        <v>310.07051786674356</v>
       </c>
       <c r="P14" s="43">
         <f>(F14*(Dairy_Income_Roadmap!C22+ Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -30420,7 +30425,7 @@
       </c>
       <c r="T14" s="44">
         <f ca="1">F14*O14*I14</f>
-        <v>319.05759311215451</v>
+        <v>318.30175432936505</v>
       </c>
       <c r="U14" s="46">
         <f t="shared" ref="U14:U16" si="5">U10</f>
@@ -30468,7 +30473,7 @@
         <v>0.5747369705678399</v>
       </c>
       <c r="D15" s="63">
-        <f>D3*(1-C32)</f>
+        <f>D3*(1-C33)</f>
         <v>16128.374135017431</v>
       </c>
       <c r="E15" s="64">
@@ -30497,7 +30502,7 @@
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="45">
-        <f>([2]prod_herd_data!H44*[2]prod_herd_data!H49+[2]prod_herd_data!I44*[2]prod_herd_data!I49)*C25</f>
+        <f>([2]prod_herd_data!H44*[2]prod_herd_data!H49+[2]prod_herd_data!I44*[2]prod_herd_data!I49)*C26</f>
         <v>156801.56853182928</v>
       </c>
       <c r="N15" s="43">
@@ -30506,7 +30511,7 @@
       </c>
       <c r="O15" s="43">
         <f ca="1">Dairy_Income_Roadmap!E57</f>
-        <v>27.282538536185491</v>
+        <v>26.40259008234251</v>
       </c>
       <c r="P15" s="43">
         <f>(F15*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -30526,7 +30531,7 @@
       </c>
       <c r="T15" s="44">
         <f ca="1">F15*O15*I15</f>
-        <v>103.44492706299329</v>
+        <v>100.1084998641001</v>
       </c>
       <c r="U15" s="46">
         <f t="shared" si="5"/>
@@ -30599,7 +30604,7 @@
         <v>25212.979781953036</v>
       </c>
       <c r="K16" s="67">
-        <f>K4*(1-C28)</f>
+        <f>K4*(1-C29)</f>
         <v>0.97499999999999998</v>
       </c>
       <c r="L16" s="9"/>
@@ -30613,7 +30618,7 @@
       </c>
       <c r="O16" s="43">
         <f ca="1">Dairy_Income_Roadmap!G57</f>
-        <v>280.77097265374891</v>
+        <v>281.53671197403855</v>
       </c>
       <c r="P16" s="43">
         <f>(F16*(Dairy_Income_Roadmap!G22 + Dairy_Income_Baseline!D24)  -   F4*Dairy_Income_Baseline!D24)</f>
@@ -30633,7 +30638,7 @@
       </c>
       <c r="T16" s="44">
         <f ca="1">F16*O16*I16</f>
-        <v>305.78123815726627</v>
+        <v>306.61518731964151</v>
       </c>
       <c r="U16" s="46">
         <f t="shared" si="5"/>
@@ -30673,7 +30678,7 @@
       </c>
       <c r="AD16" s="95">
         <f ca="1">MC_Status_quo!I20</f>
-        <v>19.238687548637699</v>
+        <v>19.828825334723096</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -30713,7 +30718,7 @@
     </row>
     <row r="18" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B18" s="80" t="str">
         <f t="shared" si="3"/>
@@ -30724,7 +30729,7 @@
         <v>0.10211062928870253</v>
       </c>
       <c r="D18" s="63">
-        <f>D3*C33</f>
+        <f>D3*C34</f>
         <v>2865.4471813482746</v>
       </c>
       <c r="E18" s="64">
@@ -30749,12 +30754,12 @@
         <v>9136.1075586390525</v>
       </c>
       <c r="K18" s="67">
-        <f>C29</f>
+        <f>C30</f>
         <v>0.15</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="45">
-        <f>([2]prod_herd_data!H58*[2]prod_herd_data!H52+[2]prod_herd_data!I58*[2]prod_herd_data!I52)*(1-C24)</f>
+        <f>([2]prod_herd_data!H58*[2]prod_herd_data!H52+[2]prod_herd_data!I58*[2]prod_herd_data!I52)*(1-C25)</f>
         <v>60907.383724260355</v>
       </c>
       <c r="N18" s="43">
@@ -30763,7 +30768,7 @@
       </c>
       <c r="O18" s="43">
         <f ca="1">Dairy_Income_Roadmap!C57</f>
-        <v>310.80681076998906</v>
+        <v>310.07051786674356</v>
       </c>
       <c r="P18" s="43">
         <f>(F18*(Dairy_Income_Roadmap!C22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -30783,7 +30788,7 @@
       </c>
       <c r="T18" s="44">
         <f ca="1">F18*O18*I18</f>
-        <v>386.47724653164909</v>
+        <v>385.56169241884783</v>
       </c>
       <c r="U18" s="46">
         <f t="shared" ref="U18:U20" si="7">U14</f>
@@ -30831,7 +30836,7 @@
         <v>0.48137868093245473</v>
       </c>
       <c r="D19" s="63">
-        <f>D3*(1-C33)</f>
+        <f>D3*(1-C34)</f>
         <v>13508.536712070436</v>
       </c>
       <c r="E19" s="64">
@@ -30860,7 +30865,7 @@
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="45">
-        <f>([2]prod_herd_data!H58*[2]prod_herd_data!H53+[2]prod_herd_data!I58*[2]prod_herd_data!I53)*C25</f>
+        <f>([2]prod_herd_data!H58*[2]prod_herd_data!H53+[2]prod_herd_data!I58*[2]prod_herd_data!I53)*C26</f>
         <v>117519.73878839031</v>
       </c>
       <c r="N19" s="43">
@@ -30869,7 +30874,7 @@
       </c>
       <c r="O19" s="43">
         <f ca="1">Dairy_Income_Roadmap!E57</f>
-        <v>27.282538536185491</v>
+        <v>26.40259008234251</v>
       </c>
       <c r="P19" s="43">
         <f>(F19*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -30889,7 +30894,7 @@
       </c>
       <c r="T19" s="44">
         <f ca="1">F19*O19*I19</f>
-        <v>92.566084656882524</v>
+        <v>89.580534651552611</v>
       </c>
       <c r="U19" s="46">
         <f t="shared" si="7"/>
@@ -30962,7 +30967,7 @@
         <v>51771.276165621297</v>
       </c>
       <c r="K20" s="67">
-        <f>K4*(1-C29)</f>
+        <f>K4*(1-C30)</f>
         <v>0.85</v>
       </c>
       <c r="L20" s="9"/>
@@ -30976,7 +30981,7 @@
       </c>
       <c r="O20" s="43">
         <f ca="1">Dairy_Income_Roadmap!G57</f>
-        <v>280.77097265374891</v>
+        <v>281.53671197403855</v>
       </c>
       <c r="P20" s="43">
         <f>(F20*(Dairy_Income_Roadmap!G22+ Dairy_Income_Baseline!D24)  -   F4*Dairy_Income_Baseline!D24)</f>
@@ -30996,7 +31001,7 @@
       </c>
       <c r="T20" s="44">
         <f ca="1">F20*O20*I20</f>
-        <v>627.87838104866717</v>
+        <v>629.59077731308321</v>
       </c>
       <c r="U20" s="46">
         <f t="shared" si="7"/>
@@ -31036,203 +31041,211 @@
       </c>
       <c r="AD20" s="95">
         <f ca="1">MC_High_ambition_plus!I20</f>
-        <v>17.94337439805652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="M21" s="72" t="s">
+        <v>20.393239697053144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" s="99" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="95"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="M22" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="N21" s="73">
+      <c r="N22" s="73">
         <f>([2]prod_herd_data!H8+[2]prod_herd_data!I8)</f>
         <v>975438.72790015268</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="90" t="s">
+    <row r="23" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
-        <v>110</v>
-      </c>
       <c r="B23" s="61"/>
-      <c r="C23" s="60">
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="M23" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="59">
+        <f>[1]All!$B$12</f>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A24" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="61"/>
+      <c r="C24" s="110">
         <f>532194/(250800+532194)</f>
         <v>0.67969103211518866</v>
       </c>
-      <c r="D23" s="60"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A24" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60">
+      <c r="D24" s="60"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="110">
         <f>9226165/(9226165+3518000)</f>
         <v>0.723952098862499</v>
       </c>
-      <c r="D24" s="60"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A25" s="61" t="s">
+      <c r="D25" s="60"/>
+      <c r="M25" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="71">
+      <c r="B26" s="60"/>
+      <c r="C26" s="110">
         <f>1-0.803</f>
         <v>0.19699999999999995</v>
       </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="21"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A26" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="60" t="str">
+      <c r="D26" s="60"/>
+      <c r="E26" s="21"/>
+      <c r="M26" s="59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="60" t="str">
         <f>A6</f>
         <v>High ambition</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C27" s="60">
         <f>0.15</f>
         <v>0.15</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="21"/>
-      <c r="O26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
-      <c r="B27" s="60" t="str">
-        <f>A10</f>
-        <v>Middle road</v>
-      </c>
-      <c r="C27" s="60">
-        <f>0.5*(C26-C28)+C28</f>
-        <v>8.7499999999999994E-2</v>
-      </c>
       <c r="D27" s="60"/>
       <c r="E27" s="21"/>
-      <c r="O27" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
+      <c r="M27" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="61"/>
       <c r="B28" s="60" t="str">
-        <f>A14</f>
-        <v>Status quo</v>
-      </c>
-      <c r="C28" s="60">
-        <f>0.025</f>
-        <v>2.5000000000000001E-2</v>
+        <f>A10</f>
+        <v>Middle road</v>
+      </c>
+      <c r="C28" s="71">
+        <f>0.5*(C27-C29)+C29</f>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="D28" s="60"/>
-      <c r="E28" s="23"/>
-      <c r="M28" s="14"/>
-      <c r="O28" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
+      <c r="E28" s="21"/>
+      <c r="M28" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="61"/>
       <c r="B29" s="60" t="str">
+        <f>A14</f>
+        <v>Status quo</v>
+      </c>
+      <c r="C29" s="71">
+        <f>0.025</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="23"/>
+      <c r="M29" s="14"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" s="61"/>
+      <c r="B30" s="60" t="str">
         <f>A18</f>
         <v>High ambition ++</v>
       </c>
-      <c r="C29" s="60">
-        <f>C26</f>
+      <c r="C30" s="71">
+        <f>C27</f>
         <v>0.15</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="35"/>
-      <c r="M29" s="14"/>
-      <c r="O29" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="60" t="str">
-        <f>B26</f>
+      <c r="D30" s="60"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="35"/>
+      <c r="M30" s="14"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="60" t="str">
+        <f>B27</f>
         <v>High ambition</v>
       </c>
-      <c r="C30" s="60">
+      <c r="C31" s="71">
         <f>0.175</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="D30" s="81">
-        <f>(C6+C8)/SUM(C6,C7,C8)</f>
-        <v>0.51862131906754527</v>
-      </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="51"/>
-      <c r="M30" s="19"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60" t="str">
-        <f t="shared" ref="B31:B33" si="8">B27</f>
-        <v>Middle road</v>
-      </c>
-      <c r="C31" s="60">
-        <f>C32+(C30-C32)*0.5</f>
-        <v>9.4999999999999987E-2</v>
-      </c>
-      <c r="D31" s="81">
-        <f>(C10+C12)/SUM(C10,C11,C12)</f>
-        <v>0.47194217424985263</v>
-      </c>
+      <c r="D31" s="81"/>
       <c r="E31" s="24"/>
-      <c r="F31" s="35"/>
-      <c r="M31" s="15"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
+      <c r="F31" s="51"/>
+      <c r="M31" s="19"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="60"/>
       <c r="B32" s="60" t="str">
-        <f t="shared" si="8"/>
-        <v>Status quo</v>
-      </c>
-      <c r="C32" s="60">
-        <f>0.015</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D32" s="81">
-        <f>(C14+C16)/SUM(C14,C15,C16)</f>
-        <v>0.4252630294321601</v>
-      </c>
+        <f t="shared" ref="B32:B34" si="8">B28</f>
+        <v>Middle road</v>
+      </c>
+      <c r="C32" s="71">
+        <f>C33+(C31-C33)*0.5</f>
+        <v>9.4999999999999987E-2</v>
+      </c>
+      <c r="D32" s="81"/>
       <c r="E32" s="24"/>
       <c r="F32" s="35"/>
       <c r="M32" s="15"/>
@@ -31245,53 +31258,95 @@
       <c r="A33" s="60"/>
       <c r="B33" s="60" t="str">
         <f t="shared" si="8"/>
+        <v>Status quo</v>
+      </c>
+      <c r="C33" s="71">
+        <f>0.015</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D33" s="81"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="35"/>
+      <c r="M33" s="15"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60" t="str">
+        <f t="shared" si="8"/>
         <v>High ambition ++</v>
       </c>
-      <c r="C33" s="60">
-        <f>C30</f>
+      <c r="C34" s="71">
+        <f>C31</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="D33" s="81">
+      <c r="D34" s="81"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="35"/>
+      <c r="M34" s="20"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="60" t="str">
+        <f>B31</f>
+        <v>High ambition</v>
+      </c>
+      <c r="C35" s="71">
+        <f>(C6+C8)/SUM(C6,C7,C8)</f>
+        <v>0.51862131906754527</v>
+      </c>
+      <c r="M35" s="21"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B36" s="60" t="str">
+        <f t="shared" ref="B36:B38" si="9">B32</f>
+        <v>Middle road</v>
+      </c>
+      <c r="C36" s="71">
+        <f>(C10+C12)/SUM(C10,C11,C12)</f>
+        <v>0.47194217424985263</v>
+      </c>
+      <c r="M36" s="22"/>
+      <c r="N36" s="59">
+        <f>[1]All!$B$12</f>
+        <v>285</v>
+      </c>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B37" s="60" t="str">
+        <f t="shared" si="9"/>
+        <v>Status quo</v>
+      </c>
+      <c r="C37" s="71">
+        <f>(C14+C16)/SUM(C14,C15,C16)</f>
+        <v>0.4252630294321601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="60" t="str">
+        <f t="shared" si="9"/>
+        <v>High ambition ++</v>
+      </c>
+      <c r="C38" s="71">
         <f>(C18+C20)/SUM(C18,C19,C20)</f>
         <v>0.51862131906754527</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="35"/>
-      <c r="M33" s="20"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M34" s="21"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="M35" s="22"/>
-      <c r="N35" s="59">
-        <f>[1]All!$B$12</f>
-        <v>285</v>
-      </c>
-      <c r="O35" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="N37" s="34"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -31299,19 +31354,20 @@
       <c r="I38" s="32"/>
       <c r="N38" s="34"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
+      <c r="N39" s="34"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E42" s="28"/>
@@ -31327,70 +31383,72 @@
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H45" s="32"/>
-    </row>
-    <row r="49" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="H49" s="32"/>
-    </row>
-    <row r="52" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-    </row>
-    <row r="53" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H46" s="32"/>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="H50" s="32"/>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D53" s="31"/>
       <c r="E53" s="31"/>
       <c r="F53" s="31"/>
       <c r="G53" s="31"/>
       <c r="H53" s="31"/>
     </row>
-    <row r="54" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
       <c r="F54" s="31"/>
       <c r="G54" s="31"/>
       <c r="H54" s="31"/>
     </row>
-    <row r="56" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-    </row>
-    <row r="57" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-    </row>
-    <row r="58" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D58" s="30"/>
       <c r="E58" s="30"/>
       <c r="F58" s="30"/>
       <c r="G58" s="30"/>
       <c r="H58" s="30"/>
     </row>
-    <row r="59" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D59" s="30"/>
       <c r="E59" s="30"/>
       <c r="F59" s="30"/>
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
     </row>
-    <row r="60" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-    </row>
-    <row r="64" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
     </row>
     <row r="65" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
       <c r="J65" s="28"/>
@@ -31400,12 +31458,10 @@
       <c r="I66" s="28"/>
       <c r="J66" s="28"/>
     </row>
-    <row r="72" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
     </row>
     <row r="73" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D73" s="5"/>
@@ -31422,21 +31478,19 @@
       <c r="H74" s="5"/>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
-    </row>
-    <row r="79" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="2"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="80" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C82" s="10"/>
@@ -31444,7 +31498,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="26"/>
+      <c r="H82" s="29"/>
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.3">
@@ -31453,18 +31507,20 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
+      <c r="H83" s="26"/>
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
       <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
+      <c r="H85" s="2"/>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E86" s="30"/>
@@ -31474,8 +31530,6 @@
       <c r="I86" s="30"/>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
       <c r="E87" s="30"/>
       <c r="F87" s="30"/>
       <c r="G87" s="30"/>
@@ -31485,14 +31539,23 @@
     <row r="88" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-    </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="H92" s="2"/>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H93" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -31525,10 +31588,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="87" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1" s="87" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="str">
@@ -31540,7 +31603,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="93" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B3" s="28">
         <f>Mappings!N3</f>
@@ -31553,20 +31616,20 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="93" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N3,Mappings!O3)</f>
-        <v>86.130822491527155</v>
+        <v>85.585392070907716</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N4,Mappings!O4)</f>
-        <v>265.90591903332529</v>
+        <v>452.83855057939337</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="93" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B5" s="28">
         <f>Mappings!F3*Mappings!I3</f>
@@ -31592,7 +31655,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="93" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B7" s="28">
         <f>Mappings!V3</f>
@@ -31605,7 +31668,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="93" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B7,B7*25/100)*0+B7</f>
@@ -31618,7 +31681,7 @@
     </row>
     <row r="9" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="93" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" s="28">
         <f>Mappings!Q6</f>
@@ -31631,15 +31694,15 @@
     </row>
     <row r="10" spans="1:7" s="83" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="93" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B10" s="28">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L38))</f>
-        <v>-142.58429722741658</v>
+        <v>58.126009029741098</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L38))</f>
-        <v>-960.84857080565371</v>
+        <v>3692.9395558623992</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -31657,7 +31720,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="93" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B12" s="28">
         <f>Mappings!Z3*B11</f>
@@ -31679,11 +31742,11 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>352.7057181028037</v>
+        <v>350.4721805303671</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>377.88523329359231</v>
+        <v>643.53964722605565</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -31692,11 +31755,11 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">IF(B9&gt;0,B8-B10,    B8 +B10)</f>
-        <v>3151.1135074308418</v>
+        <v>3351.8238136879995</v>
       </c>
       <c r="C15" s="28">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>4473.0933479097548</v>
+        <v>9126.8814745778072</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -31705,11 +31768,11 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>16166.511411424834</v>
+        <v>15357.425444073897</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>12253.220241077526</v>
+        <v>11728.464836604198</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -31723,20 +31786,20 @@
       </c>
       <c r="B18" s="28">
         <f ca="1">(B14+B15)*B16</f>
-        <v>56644533.493159398</v>
+        <v>56857734.703102008</v>
       </c>
       <c r="C18" s="28">
         <f ca="1">(C14+C15)*C16</f>
-        <v>59440108.940234393</v>
+        <v>114592040.56589156</v>
       </c>
       <c r="E18">
         <f ca="1">B18+C18</f>
-        <v>116084642.43339379</v>
+        <v>171449775.26899356</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="93" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>49</v>
@@ -31746,7 +31809,7 @@
       </c>
       <c r="E19">
         <f ca="1">STDEVA(E22:E129)</f>
-        <v>18797617.733496975</v>
+        <v>20236697.615631513</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>52</v>
@@ -31764,11 +31827,11 @@
       </c>
       <c r="E20">
         <f ca="1">AVERAGE(E22:E129)</f>
-        <v>135248206.25726473</v>
+        <v>134573499.58941254</v>
       </c>
       <c r="H20" s="39">
         <f ca="1">100*E19/E20</f>
-        <v>13.898607792062514</v>
+        <v>15.037654276194226</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -31777,7 +31840,7 @@
       </c>
       <c r="E22">
         <f ca="1">E18</f>
-        <v>116084642.43339379</v>
+        <v>171449775.26899356</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -31786,7 +31849,7 @@
       </c>
       <c r="E23">
         <f t="dataTable" ref="E23:E129" dt2D="0" dtr="0" r1="E21" ca="1"/>
-        <v>136172492.84357369</v>
+        <v>137906884.64045808</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -31794,7 +31857,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>126628443.97488949</v>
+        <v>117224610.91929735</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -31802,7 +31865,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>190814071.73524168</v>
+        <v>144533380.23327506</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -31810,7 +31873,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>134833400.93223757</v>
+        <v>126329433.0428609</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -31818,7 +31881,7 @@
         <v>6</v>
       </c>
       <c r="E27">
-        <v>117666946.03643556</v>
+        <v>105636536.43110466</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -31826,7 +31889,7 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>111804417.96213967</v>
+        <v>103909103.4158946</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -31834,7 +31897,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>111954359.78319582</v>
+        <v>138596889.33002281</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -31842,7 +31905,7 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>93555838.42999661</v>
+        <v>126691217.49009866</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -31850,7 +31913,7 @@
         <v>10</v>
       </c>
       <c r="E31">
-        <v>140109899.5117743</v>
+        <v>121728000.99919704</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -31858,7 +31921,7 @@
         <v>11</v>
       </c>
       <c r="E32">
-        <v>128807542.00455174</v>
+        <v>171789998.03902251</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
@@ -31866,7 +31929,7 @@
         <v>12</v>
       </c>
       <c r="E33">
-        <v>134581593.06408069</v>
+        <v>174363997.60140708</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.3">
@@ -31874,7 +31937,7 @@
         <v>13</v>
       </c>
       <c r="E34">
-        <v>140828367.97179762</v>
+        <v>124477047.37973619</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.3">
@@ -31882,7 +31945,7 @@
         <v>14</v>
       </c>
       <c r="E35">
-        <v>149401819.00070989</v>
+        <v>168507948.21417809</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.3">
@@ -31890,7 +31953,7 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>155328982.38365895</v>
+        <v>154146287.61607981</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.3">
@@ -31898,7 +31961,7 @@
         <v>16</v>
       </c>
       <c r="E37">
-        <v>142783383.49467036</v>
+        <v>106390500.2003617</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.3">
@@ -31906,7 +31969,7 @@
         <v>17</v>
       </c>
       <c r="E38">
-        <v>156561690.59486902</v>
+        <v>116502190.77901781</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.3">
@@ -31914,7 +31977,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>135492264.26016939</v>
+        <v>114982675.32497743</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.3">
@@ -31922,7 +31985,7 @@
         <v>19</v>
       </c>
       <c r="E40">
-        <v>137315200.87924364</v>
+        <v>121593870.03293243</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.3">
@@ -31930,7 +31993,7 @@
         <v>20</v>
       </c>
       <c r="E41">
-        <v>127228988.85132879</v>
+        <v>162989338.48872823</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.3">
@@ -31938,7 +32001,7 @@
         <v>21</v>
       </c>
       <c r="E42">
-        <v>135325245.60164878</v>
+        <v>114216962.70869821</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.3">
@@ -31946,7 +32009,7 @@
         <v>22</v>
       </c>
       <c r="E43">
-        <v>120921453.71682768</v>
+        <v>133171550.8743102</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.3">
@@ -31954,7 +32017,7 @@
         <v>23</v>
       </c>
       <c r="E44">
-        <v>134808437.27220371</v>
+        <v>114821143.66027588</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.3">
@@ -31962,7 +32025,7 @@
         <v>24</v>
       </c>
       <c r="E45">
-        <v>112764724.1357277</v>
+        <v>158454595.95247295</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.3">
@@ -31970,7 +32033,7 @@
         <v>25</v>
       </c>
       <c r="E46">
-        <v>141294840.86069763</v>
+        <v>135883566.59131658</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.3">
@@ -31978,7 +32041,7 @@
         <v>26</v>
       </c>
       <c r="E47">
-        <v>138670058.46335709</v>
+        <v>125419914.31101406</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.3">
@@ -31986,7 +32049,7 @@
         <v>27</v>
       </c>
       <c r="E48">
-        <v>139624436.64825192</v>
+        <v>151430801.42741576</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.3">
@@ -31994,7 +32057,7 @@
         <v>28</v>
       </c>
       <c r="E49">
-        <v>115988274.26174386</v>
+        <v>119819318.65695459</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.3">
@@ -32002,7 +32065,7 @@
         <v>29</v>
       </c>
       <c r="E50">
-        <v>136881230.9793469</v>
+        <v>127002449.29040821</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.3">
@@ -32010,7 +32073,7 @@
         <v>30</v>
       </c>
       <c r="E51">
-        <v>166013196.89729759</v>
+        <v>125600683.07482173</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.3">
@@ -32018,7 +32081,7 @@
         <v>31</v>
       </c>
       <c r="E52">
-        <v>124108761.72701797</v>
+        <v>97883104.949300081</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.3">
@@ -32026,7 +32089,7 @@
         <v>32</v>
       </c>
       <c r="E53">
-        <v>145151774.4206773</v>
+        <v>106425960.02952674</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.3">
@@ -32034,7 +32097,7 @@
         <v>33</v>
       </c>
       <c r="E54">
-        <v>81334952.369738564</v>
+        <v>125963568.4560232</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.3">
@@ -32042,7 +32105,7 @@
         <v>34</v>
       </c>
       <c r="E55">
-        <v>152598531.02818233</v>
+        <v>126269095.87368387</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.3">
@@ -32050,7 +32113,7 @@
         <v>35</v>
       </c>
       <c r="E56">
-        <v>127596115.88283171</v>
+        <v>159012580.10290459</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.3">
@@ -32058,7 +32121,7 @@
         <v>36</v>
       </c>
       <c r="E57">
-        <v>182088327.85565192</v>
+        <v>113271709.683722</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.3">
@@ -32066,7 +32129,7 @@
         <v>37</v>
       </c>
       <c r="E58">
-        <v>159671641.12091729</v>
+        <v>139894237.71823451</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.3">
@@ -32074,7 +32137,7 @@
         <v>38</v>
       </c>
       <c r="E59">
-        <v>164928196.59867117</v>
+        <v>109178735.71453816</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.3">
@@ -32082,7 +32145,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>96014315.997639716</v>
+        <v>142028947.28922278</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.3">
@@ -32090,7 +32153,7 @@
         <v>40</v>
       </c>
       <c r="E61">
-        <v>109086503.41619311</v>
+        <v>139087720.81143457</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.3">
@@ -32098,7 +32161,7 @@
         <v>41</v>
       </c>
       <c r="E62">
-        <v>147924583.76932421</v>
+        <v>139190623.17351532</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.3">
@@ -32106,7 +32169,7 @@
         <v>42</v>
       </c>
       <c r="E63">
-        <v>165982425.2646803</v>
+        <v>139662497.23665017</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.3">
@@ -32114,7 +32177,7 @@
         <v>43</v>
       </c>
       <c r="E64">
-        <v>132872684.75337839</v>
+        <v>132946041.57753742</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.3">
@@ -32122,7 +32185,7 @@
         <v>44</v>
       </c>
       <c r="E65">
-        <v>162769149.62335551</v>
+        <v>162756992.6046876</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
@@ -32130,7 +32193,7 @@
         <v>45</v>
       </c>
       <c r="E66">
-        <v>139577363.2498337</v>
+        <v>159370027.76243132</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.3">
@@ -32138,7 +32201,7 @@
         <v>46</v>
       </c>
       <c r="E67">
-        <v>116403426.90633592</v>
+        <v>165913371.82240695</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.3">
@@ -32146,7 +32209,7 @@
         <v>47</v>
       </c>
       <c r="E68">
-        <v>135713604.78437352</v>
+        <v>108269646.16301954</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.3">
@@ -32154,7 +32217,7 @@
         <v>48</v>
       </c>
       <c r="E69">
-        <v>123050528.33267412</v>
+        <v>142343499.08238316</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.3">
@@ -32162,7 +32225,7 @@
         <v>49</v>
       </c>
       <c r="E70">
-        <v>142489661.89070183</v>
+        <v>114944854.81392112</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.3">
@@ -32170,7 +32233,7 @@
         <v>50</v>
       </c>
       <c r="E71">
-        <v>148105289.47348177</v>
+        <v>148042054.37464768</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.3">
@@ -32178,7 +32241,7 @@
         <v>51</v>
       </c>
       <c r="E72">
-        <v>119346305.70567629</v>
+        <v>138940685.5321556</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.3">
@@ -32186,7 +32249,7 @@
         <v>52</v>
       </c>
       <c r="E73">
-        <v>169485789.49682951</v>
+        <v>105993682.43842191</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.3">
@@ -32194,7 +32257,7 @@
         <v>53</v>
       </c>
       <c r="E74">
-        <v>144933463.55942589</v>
+        <v>131756538.2971493</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.3">
@@ -32202,7 +32265,7 @@
         <v>54</v>
       </c>
       <c r="E75">
-        <v>117523324.95889014</v>
+        <v>121084881.47686657</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.3">
@@ -32210,7 +32273,7 @@
         <v>55</v>
       </c>
       <c r="E76">
-        <v>136830198.99965292</v>
+        <v>157436053.15600276</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.3">
@@ -32218,7 +32281,7 @@
         <v>56</v>
       </c>
       <c r="E77">
-        <v>123181167.19531932</v>
+        <v>158013833.11719245</v>
       </c>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.3">
@@ -32226,7 +32289,7 @@
         <v>57</v>
       </c>
       <c r="E78">
-        <v>125629428.78907752</v>
+        <v>147461583.26839012</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.3">
@@ -32234,7 +32297,7 @@
         <v>58</v>
       </c>
       <c r="E79">
-        <v>163054935.28027505</v>
+        <v>128215650.80211452</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.3">
@@ -32242,7 +32305,7 @@
         <v>59</v>
       </c>
       <c r="E80">
-        <v>144283233.10281402</v>
+        <v>160357655.25186473</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.3">
@@ -32250,7 +32313,7 @@
         <v>60</v>
       </c>
       <c r="E81">
-        <v>143957406.02215499</v>
+        <v>138329252.51221156</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.3">
@@ -32258,7 +32321,7 @@
         <v>61</v>
       </c>
       <c r="E82">
-        <v>155994122.43498364</v>
+        <v>122814676.98697796</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.3">
@@ -32266,7 +32329,7 @@
         <v>62</v>
       </c>
       <c r="E83">
-        <v>129499775.02779989</v>
+        <v>159523587.09366077</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.3">
@@ -32274,7 +32337,7 @@
         <v>63</v>
       </c>
       <c r="E84">
-        <v>126298699.38715896</v>
+        <v>101304806.6687966</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.3">
@@ -32282,7 +32345,7 @@
         <v>64</v>
       </c>
       <c r="E85">
-        <v>96953815.537998453</v>
+        <v>131719092.869055</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.3">
@@ -32290,7 +32353,7 @@
         <v>65</v>
       </c>
       <c r="E86">
-        <v>147780227.92604652</v>
+        <v>133481309.06351255</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.3">
@@ -32298,7 +32361,7 @@
         <v>66</v>
       </c>
       <c r="E87">
-        <v>137893127.20569694</v>
+        <v>159424044.04445508</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.3">
@@ -32306,7 +32369,7 @@
         <v>67</v>
       </c>
       <c r="E88">
-        <v>142307915.01697212</v>
+        <v>168395253.83142328</v>
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.3">
@@ -32314,7 +32377,7 @@
         <v>68</v>
       </c>
       <c r="E89">
-        <v>133860833.15886089</v>
+        <v>138009167.16117516</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.3">
@@ -32322,7 +32385,7 @@
         <v>69</v>
       </c>
       <c r="E90">
-        <v>158216858.53012204</v>
+        <v>139672964.3355636</v>
       </c>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.3">
@@ -32330,7 +32393,7 @@
         <v>70</v>
       </c>
       <c r="E91">
-        <v>141853742.39981848</v>
+        <v>156906735.7045176</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.3">
@@ -32338,7 +32401,7 @@
         <v>71</v>
       </c>
       <c r="E92">
-        <v>135291915.84453923</v>
+        <v>114426032.31138587</v>
       </c>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.3">
@@ -32346,7 +32409,7 @@
         <v>72</v>
       </c>
       <c r="E93">
-        <v>146566179.22870687</v>
+        <v>166072065.55738616</v>
       </c>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.3">
@@ -32354,7 +32417,7 @@
         <v>73</v>
       </c>
       <c r="E94">
-        <v>167155876.53858668</v>
+        <v>116618743.96918678</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.3">
@@ -32362,7 +32425,7 @@
         <v>74</v>
       </c>
       <c r="E95">
-        <v>137307928.75721061</v>
+        <v>134661427.52605438</v>
       </c>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.3">
@@ -32370,7 +32433,7 @@
         <v>75</v>
       </c>
       <c r="E96">
-        <v>139493700.26839191</v>
+        <v>139001778.46750695</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
@@ -32378,7 +32441,7 @@
         <v>76</v>
       </c>
       <c r="E97">
-        <v>148635977.73694706</v>
+        <v>121940564.85348693</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
@@ -32386,7 +32449,7 @@
         <v>77</v>
       </c>
       <c r="E98">
-        <v>101841512.69971982</v>
+        <v>120154392.14219081</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
@@ -32394,7 +32457,7 @@
         <v>78</v>
       </c>
       <c r="E99">
-        <v>138042951.55053431</v>
+        <v>97356533.563044518</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
@@ -32402,7 +32465,7 @@
         <v>79</v>
       </c>
       <c r="E100">
-        <v>127654818.78865874</v>
+        <v>154479470.78979412</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
@@ -32410,7 +32473,7 @@
         <v>80</v>
       </c>
       <c r="E101">
-        <v>115952159.08204225</v>
+        <v>132745677.33275676</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
@@ -32418,7 +32481,7 @@
         <v>81</v>
       </c>
       <c r="E102">
-        <v>132759858.44052924</v>
+        <v>159222799.64732337</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
@@ -32426,7 +32489,7 @@
         <v>82</v>
       </c>
       <c r="E103">
-        <v>138525198.13304454</v>
+        <v>142216897.45059076</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
@@ -32434,7 +32497,7 @@
         <v>83</v>
       </c>
       <c r="E104">
-        <v>135351079.07449284</v>
+        <v>91067004.07561332</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
@@ -32442,7 +32505,7 @@
         <v>84</v>
       </c>
       <c r="E105">
-        <v>137325490.90249828</v>
+        <v>154844083.77139398</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
@@ -32450,7 +32513,7 @@
         <v>85</v>
       </c>
       <c r="E106">
-        <v>119406153.34752426</v>
+        <v>139082192.225696</v>
       </c>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.3">
@@ -32458,7 +32521,7 @@
         <v>86</v>
       </c>
       <c r="E107">
-        <v>101553951.64737892</v>
+        <v>161198012.63031024</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.3">
@@ -32466,7 +32529,7 @@
         <v>87</v>
       </c>
       <c r="E108">
-        <v>153911821.10628551</v>
+        <v>125112953.31711823</v>
       </c>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.3">
@@ -32474,7 +32537,7 @@
         <v>88</v>
       </c>
       <c r="E109">
-        <v>144957317.09994593</v>
+        <v>117065713.46144928</v>
       </c>
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.3">
@@ -32482,7 +32545,7 @@
         <v>89</v>
       </c>
       <c r="E110">
-        <v>127419665.30937463</v>
+        <v>169584725.24155134</v>
       </c>
     </row>
     <row r="111" spans="4:5" x14ac:dyDescent="0.3">
@@ -32490,7 +32553,7 @@
         <v>90</v>
       </c>
       <c r="E111">
-        <v>155931601.55575383</v>
+        <v>109439540.46117222</v>
       </c>
     </row>
     <row r="112" spans="4:5" x14ac:dyDescent="0.3">
@@ -32498,7 +32561,7 @@
         <v>91</v>
       </c>
       <c r="E112">
-        <v>137100519.14805183</v>
+        <v>148087826.39555043</v>
       </c>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.3">
@@ -32506,7 +32569,7 @@
         <v>92</v>
       </c>
       <c r="E113">
-        <v>147978428.06075966</v>
+        <v>137944165.3790223</v>
       </c>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.3">
@@ -32514,7 +32577,7 @@
         <v>93</v>
       </c>
       <c r="E114">
-        <v>153210216.95894694</v>
+        <v>121213656.52338612</v>
       </c>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.3">
@@ -32522,7 +32585,7 @@
         <v>94</v>
       </c>
       <c r="E115">
-        <v>132455608.14239427</v>
+        <v>133557116.42805342</v>
       </c>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.3">
@@ -32530,7 +32593,7 @@
         <v>95</v>
       </c>
       <c r="E116">
-        <v>120892778.44533673</v>
+        <v>120316252.85957576</v>
       </c>
     </row>
     <row r="117" spans="4:5" x14ac:dyDescent="0.3">
@@ -32538,7 +32601,7 @@
         <v>96</v>
       </c>
       <c r="E117">
-        <v>130188113.77405512</v>
+        <v>132512133.46513385</v>
       </c>
     </row>
     <row r="118" spans="4:5" x14ac:dyDescent="0.3">
@@ -32546,7 +32609,7 @@
         <v>97</v>
       </c>
       <c r="E118">
-        <v>116548821.69725485</v>
+        <v>110310748.3077262</v>
       </c>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.3">
@@ -32554,7 +32617,7 @@
         <v>98</v>
       </c>
       <c r="E119">
-        <v>158678036.30847815</v>
+        <v>124131947.7244105</v>
       </c>
     </row>
     <row r="120" spans="4:5" x14ac:dyDescent="0.3">
@@ -32562,7 +32625,7 @@
         <v>99</v>
       </c>
       <c r="E120">
-        <v>110656405.21576439</v>
+        <v>100147979.56078689</v>
       </c>
     </row>
     <row r="121" spans="4:5" x14ac:dyDescent="0.3">
@@ -32570,7 +32633,7 @@
         <v>100</v>
       </c>
       <c r="E121">
-        <v>138846282.58097479</v>
+        <v>130061712.59145665</v>
       </c>
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.3">
@@ -32578,7 +32641,7 @@
         <v>101</v>
       </c>
       <c r="E122">
-        <v>122888250.37729932</v>
+        <v>125244589.16070557</v>
       </c>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.3">
@@ -32586,7 +32649,7 @@
         <v>102</v>
       </c>
       <c r="E123">
-        <v>136948919.39019427</v>
+        <v>136486445.35018194</v>
       </c>
     </row>
     <row r="124" spans="4:5" x14ac:dyDescent="0.3">
@@ -32594,7 +32657,7 @@
         <v>103</v>
       </c>
       <c r="E124">
-        <v>125776755.03561726</v>
+        <v>117975289.01883432</v>
       </c>
     </row>
     <row r="125" spans="4:5" x14ac:dyDescent="0.3">
@@ -32602,7 +32665,7 @@
         <v>104</v>
       </c>
       <c r="E125">
-        <v>93447272.051696628</v>
+        <v>110887719.58051042</v>
       </c>
     </row>
     <row r="126" spans="4:5" x14ac:dyDescent="0.3">
@@ -32610,7 +32673,7 @@
         <v>105</v>
       </c>
       <c r="E126">
-        <v>120868847.92225507</v>
+        <v>145357809.73039714</v>
       </c>
     </row>
     <row r="127" spans="4:5" x14ac:dyDescent="0.3">
@@ -32618,7 +32681,7 @@
         <v>106</v>
       </c>
       <c r="E127">
-        <v>129001634.41948092</v>
+        <v>157978409.44422936</v>
       </c>
     </row>
     <row r="128" spans="4:5" x14ac:dyDescent="0.3">
@@ -32626,7 +32689,7 @@
         <v>107</v>
       </c>
       <c r="E128">
-        <v>149858150.71296307</v>
+        <v>157739273.08650318</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.3">
@@ -32634,7 +32697,7 @@
         <v>108</v>
       </c>
       <c r="E129">
-        <v>129777625.2446036</v>
+        <v>170826877.40845394</v>
       </c>
     </row>
   </sheetData>
@@ -32675,7 +32738,7 @@
         <v>Extant-improved</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -32705,15 +32768,15 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N6,Mappings!O6)</f>
-        <v>803.13079813265801</v>
+        <v>350.91237931188141</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N7,Mappings!O7)</f>
-        <v>125.59453506430643</v>
+        <v>188.20119888839491</v>
       </c>
       <c r="D4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N8,Mappings!O8)</f>
-        <v>879.85279242485763</v>
+        <v>1154.3885398198458</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -32741,15 +32804,15 @@
       </c>
       <c r="B6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>0.57379945270185462</v>
+        <v>0.97168061385716464</v>
       </c>
       <c r="C6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>0.60541274291956793</v>
+        <v>1.6825841966910471</v>
       </c>
       <c r="D6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>0.93143079131368145</v>
+        <v>1.3466220732058489</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -32813,15 +32876,15 @@
       </c>
       <c r="B10" s="28">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>44.663593842744149</v>
+        <v>-107.00101544155929</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>-373.43932680684293</v>
+        <v>1830.9370125150749</v>
       </c>
       <c r="D10" s="28">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>876.77585632875594</v>
+        <v>-280.10109802340088</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -32876,15 +32939,15 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>460.83601241652286</v>
+        <v>340.9747561398471</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>76.036531968989607</v>
+        <v>316.66436304792194</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">D4*D6</f>
-        <v>819.52198268783741</v>
+        <v>1554.5250887772736</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -32894,15 +32957,15 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">B8-IF(B9&gt;0,B10,(-1)*B10)</f>
-        <v>3414.756435366533</v>
+        <v>3263.0918260822291</v>
       </c>
       <c r="C15" s="28">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>3660.5682048407566</v>
+        <v>5864.944544162674</v>
       </c>
       <c r="D15" s="28">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>4096.5102574748516</v>
+        <v>5253.3872118270083</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -32912,15 +32975,15 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>2820.01906147612</v>
+        <v>2981.579779507304</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>13576.24009204996</v>
+        <v>13604.198456283317</v>
       </c>
       <c r="D16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>11402.740800558584</v>
+        <v>11919.766288639599</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -32936,19 +32999,19 @@
       </c>
       <c r="B18" s="36">
         <f ca="1">(B14+B15)*B16</f>
-        <v>10929244.577261111</v>
+        <v>10745812.045551341</v>
       </c>
       <c r="C18" s="36">
         <f ca="1">(C14+C15)*C16</f>
-        <v>50729043.036020264</v>
+        <v>84095834.352821589</v>
       </c>
       <c r="D18" s="36">
         <f ca="1">(D14+D15)*D16</f>
-        <v>56056241.401764512</v>
+        <v>81148723.536757782</v>
       </c>
       <c r="F18" s="28">
         <f ca="1">B18+C18+D18</f>
-        <v>117714529.01504588</v>
+        <v>175990369.93513072</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -32967,7 +33030,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>21776886.090496909</v>
+        <v>25601215.385469463</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>52</v>
@@ -32990,13 +33053,13 @@
       <c r="E20" s="3"/>
       <c r="F20" s="28">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>154551409.31123564</v>
+        <v>151385949.77018723</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="40">
         <f ca="1">100*F19/F20</f>
-        <v>14.090383379579938</v>
+        <v>16.911222887152746</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -33011,7 +33074,7 @@
       </c>
       <c r="F22" s="28">
         <f ca="1">F18</f>
-        <v>117714529.01504588</v>
+        <v>175990369.93513072</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -33022,7 +33085,7 @@
       </c>
       <c r="F23" s="28">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>199623364.69742447</v>
+        <v>172747940.77974272</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -33032,7 +33095,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="28">
-        <v>161981760.02117735</v>
+        <v>122503877.67763266</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -33042,7 +33105,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="28">
-        <v>195653039.76388487</v>
+        <v>135204992.2596558</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -33052,7 +33115,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="28">
-        <v>134926351.81116754</v>
+        <v>160774045.41505182</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -33062,7 +33125,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="28">
-        <v>177502590.36771408</v>
+        <v>128619318.08170013</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -33072,7 +33135,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="28">
-        <v>178649084.44512782</v>
+        <v>213049112.11393994</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -33082,7 +33145,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="28">
-        <v>170511783.4129298</v>
+        <v>168977318.48035184</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -33092,7 +33155,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="28">
-        <v>184632540.19232827</v>
+        <v>151974626.00994408</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -33102,7 +33165,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="28">
-        <v>136776224.77641737</v>
+        <v>119455235.65711167</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -33112,7 +33175,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="28">
-        <v>174104013.94523695</v>
+        <v>127640087.5952868</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -33122,7 +33185,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="28">
-        <v>123715701.53841689</v>
+        <v>138746234.95476389</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -33132,7 +33195,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="28">
-        <v>171315461.06530452</v>
+        <v>174721449.94764918</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -33142,7 +33205,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="28">
-        <v>143943606.90828139</v>
+        <v>140467308.45372581</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -33152,7 +33215,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="28">
-        <v>156024679.55267686</v>
+        <v>140332839.75990611</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -33162,7 +33225,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="28">
-        <v>116978317.86822693</v>
+        <v>127065526.86209725</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -33172,7 +33235,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="28">
-        <v>166403552.88213378</v>
+        <v>157536822.28155628</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -33182,7 +33245,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="28">
-        <v>174847183.37341002</v>
+        <v>158766342.63114554</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -33192,7 +33255,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="28">
-        <v>153416234.98246837</v>
+        <v>136647641.37033349</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -33202,7 +33265,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="28">
-        <v>196591973.01772839</v>
+        <v>163492158.75799286</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -33212,7 +33275,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="28">
-        <v>157353380.79867834</v>
+        <v>151836601.23894811</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -33222,7 +33285,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="28">
-        <v>124293711.48620644</v>
+        <v>126428767.52914444</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -33232,7 +33295,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="28">
-        <v>151898642.70052415</v>
+        <v>194864513.56848431</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -33242,7 +33305,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="28">
-        <v>165804893.61766505</v>
+        <v>192136247.87399751</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -33252,7 +33315,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="28">
-        <v>174759748.19521111</v>
+        <v>155921421.45512313</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -33262,7 +33325,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="28">
-        <v>199055462.11607224</v>
+        <v>125494543.66182722</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -33272,7 +33335,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="28">
-        <v>168170263.78970528</v>
+        <v>130650219.3071903</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -33282,7 +33345,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="28">
-        <v>138845519.84233901</v>
+        <v>156152169.92950034</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -33292,7 +33355,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="28">
-        <v>147214532.62635532</v>
+        <v>180570402.94077879</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -33302,7 +33365,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="28">
-        <v>151254586.93600261</v>
+        <v>189706400.3848013</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -33312,7 +33375,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="28">
-        <v>148988257.14828277</v>
+        <v>105820260.36184861</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -33322,7 +33385,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="28">
-        <v>145329245.19830674</v>
+        <v>146089366.10423288</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -33332,7 +33395,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="28">
-        <v>141858168.59955484</v>
+        <v>114431520.02606392</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -33342,7 +33405,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="28">
-        <v>127329084.95594887</v>
+        <v>146834162.11356369</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -33352,7 +33415,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="28">
-        <v>140685364.45037708</v>
+        <v>152133141.81916612</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -33362,7 +33425,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="28">
-        <v>186350719.68893555</v>
+        <v>147420287.57903844</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -33372,7 +33435,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="28">
-        <v>178639556.90510714</v>
+        <v>146102737.16283894</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -33382,7 +33445,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="28">
-        <v>139678077.80386412</v>
+        <v>113307585.29798722</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -33392,7 +33455,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="28">
-        <v>128498293.42375463</v>
+        <v>193285373.59371275</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -33402,7 +33465,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="28">
-        <v>196507168.64055228</v>
+        <v>88529548.029881224</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -33412,7 +33475,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="28">
-        <v>173101757.57798308</v>
+        <v>135695793.13095427</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -33422,7 +33485,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="28">
-        <v>130130669.73906717</v>
+        <v>139095553.19816965</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -33432,7 +33495,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="28">
-        <v>123759877.48702329</v>
+        <v>169524162.19830972</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -33442,7 +33505,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="28">
-        <v>127532147.99738157</v>
+        <v>135651168.49294987</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -33452,7 +33515,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="28">
-        <v>157130265.23978585</v>
+        <v>186218370.56343281</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -33462,7 +33525,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="28">
-        <v>170833850.36008561</v>
+        <v>185967189.95871818</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -33472,7 +33535,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="28">
-        <v>169288028.43126816</v>
+        <v>113842811.28450969</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -33482,7 +33545,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="28">
-        <v>138945059.04131725</v>
+        <v>189369965.3143822</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -33492,7 +33555,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="28">
-        <v>149952547.56417423</v>
+        <v>166195584.14268857</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -33502,7 +33565,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="28">
-        <v>155180810.59914842</v>
+        <v>126952733.88800558</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -33512,7 +33575,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="28">
-        <v>141271877.14066747</v>
+        <v>165246824.11597285</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -33522,7 +33585,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="28">
-        <v>133826362.9918198</v>
+        <v>169661482.93201321</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -33532,7 +33595,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="28">
-        <v>98421388.057511792</v>
+        <v>133234343.44043547</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -33542,7 +33605,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="28">
-        <v>182257409.29309019</v>
+        <v>183940256.9981944</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -33552,7 +33615,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="28">
-        <v>171361306.22972149</v>
+        <v>118147627.77408352</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -33562,7 +33625,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="28">
-        <v>137107981.03065562</v>
+        <v>171561140.88218021</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -33572,7 +33635,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="28">
-        <v>151664990.65162784</v>
+        <v>189180114.9250986</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -33582,7 +33645,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="28">
-        <v>149082073.14303738</v>
+        <v>136675252.77909702</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -33592,7 +33655,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="28">
-        <v>160066159.09459239</v>
+        <v>111510338.22634365</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -33602,7 +33665,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="28">
-        <v>132243097.16745082</v>
+        <v>164780265.43766367</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -33612,7 +33675,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="28">
-        <v>122230072.92538364</v>
+        <v>140771500.57645416</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -33622,7 +33685,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="28">
-        <v>158620989.31435591</v>
+        <v>170050150.71356058</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -33632,7 +33695,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="28">
-        <v>166111849.51708588</v>
+        <v>162334993.91484365</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -33642,7 +33705,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="28">
-        <v>128100873.21898866</v>
+        <v>139467334.27929866</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -33652,7 +33715,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="28">
-        <v>141688872.72471005</v>
+        <v>142777017.70980829</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -33662,7 +33725,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="28">
-        <v>169643537.02506393</v>
+        <v>171897071.49716985</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -33672,7 +33735,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="28">
-        <v>182802917.0316835</v>
+        <v>168530880.0435313</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -33682,7 +33745,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="28">
-        <v>144074037.7077598</v>
+        <v>144905886.86712039</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -33692,7 +33755,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="28">
-        <v>169813489.98819274</v>
+        <v>133264399.80027071</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -33702,7 +33765,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="28">
-        <v>170194330.98643032</v>
+        <v>131148228.62703568</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -33712,7 +33775,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="28">
-        <v>195911629.48293355</v>
+        <v>163015911.95606822</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -33722,7 +33785,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="28">
-        <v>162123381.49618453</v>
+        <v>153794673.35480565</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -33732,7 +33795,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="28">
-        <v>158841949.46646059</v>
+        <v>151456765.03630808</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -33742,7 +33805,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="28">
-        <v>133465774.19400287</v>
+        <v>147107099.38767788</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -33752,7 +33815,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="28">
-        <v>156113024.57097399</v>
+        <v>127338011.09782073</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -33762,7 +33825,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="28">
-        <v>101259467.52763143</v>
+        <v>172303298.96016669</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -33772,7 +33835,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="28">
-        <v>168733469.27747419</v>
+        <v>176994958.76832587</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -33782,7 +33845,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="28">
-        <v>158120937.29517621</v>
+        <v>129312392.68022791</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -33792,7 +33855,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="28">
-        <v>133958443.60993102</v>
+        <v>130553249.57898286</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -33802,7 +33865,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="28">
-        <v>133820267.93169686</v>
+        <v>172545061.781436</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -33812,7 +33875,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="28">
-        <v>167079476.46975917</v>
+        <v>119011593.22849274</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -33822,7 +33885,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="28">
-        <v>175421102.65662706</v>
+        <v>180194035.00563636</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -33832,7 +33895,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="28">
-        <v>146349795.72111285</v>
+        <v>170838895.40367863</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -33842,7 +33905,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="28">
-        <v>167315607.89970571</v>
+        <v>164109676.97619754</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -33852,7 +33915,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="28">
-        <v>138605800.08767596</v>
+        <v>143434578.85357201</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -33862,7 +33925,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="28">
-        <v>167837150.58116513</v>
+        <v>164393190.78135467</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -33872,7 +33935,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="28">
-        <v>151025363.01749068</v>
+        <v>194395175.8278625</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -33882,7 +33945,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="28">
-        <v>162794534.49385625</v>
+        <v>120941491.71694814</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -33892,7 +33955,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="28">
-        <v>142505058.34299499</v>
+        <v>180476244.64352664</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -33902,7 +33965,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="28">
-        <v>161459296.56810516</v>
+        <v>177062341.46997184</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -33912,7 +33975,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="28">
-        <v>144076611.81636694</v>
+        <v>147141852.84484717</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -33922,7 +33985,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="28">
-        <v>145937443.15483269</v>
+        <v>194695831.65779567</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -33932,7 +33995,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="28">
-        <v>146136532.02984306</v>
+        <v>162067425.43543577</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -33942,7 +34005,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="28">
-        <v>130712344.24222398</v>
+        <v>172296302.04226732</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -33952,7 +34015,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="28">
-        <v>156273833.06114316</v>
+        <v>132241858.79000928</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -33962,7 +34025,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="28">
-        <v>147222764.48491687</v>
+        <v>123013223.75802128</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -33972,7 +34035,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="28">
-        <v>180118585.82961631</v>
+        <v>155466483.93134797</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -33982,7 +34045,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="28">
-        <v>160854368.65515608</v>
+        <v>125893457.06589869</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -33992,7 +34055,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="28">
-        <v>151117453.11510116</v>
+        <v>98204398.567269713</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -34002,7 +34065,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="28">
-        <v>167678548.45948538</v>
+        <v>187705658.5953218</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -34012,7 +34075,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="28">
-        <v>149548104.44287503</v>
+        <v>131700908.38443477</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -34022,7 +34085,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="28">
-        <v>163200322.57067513</v>
+        <v>153987905.03400111</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -34032,7 +34095,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="28">
-        <v>122139571.24469517</v>
+        <v>164303664.16486228</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -34042,7 +34105,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="28">
-        <v>204275939.04753751</v>
+        <v>128958864.19595042</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -34052,7 +34115,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="28">
-        <v>171014479.99221152</v>
+        <v>153303765.17226654</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -34062,7 +34125,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="28">
-        <v>149693406.90360674</v>
+        <v>190328334.56450003</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -34072,7 +34135,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="28">
-        <v>151199748.06818759</v>
+        <v>93527753.489686698</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -34082,7 +34145,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="28">
-        <v>113345315.96640398</v>
+        <v>125539278.26210049</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -34156,15 +34219,15 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N10,Mappings!O10)</f>
-        <v>1269.4210236790386</v>
+        <v>630.446067663024</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N11,Mappings!O11)</f>
-        <v>222.32490581629713</v>
+        <v>159.62489805928615</v>
       </c>
       <c r="D4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N12,Mappings!O12)</f>
-        <v>1026.6173941491581</v>
+        <v>1080.23878388086</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -34192,15 +34255,15 @@
       </c>
       <c r="B6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>0.47060300646068165</v>
+        <v>0.74754520787651924</v>
       </c>
       <c r="C6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>1.4927814021121304</v>
+        <v>4.482376350979794</v>
       </c>
       <c r="D6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>1.2330895678447504</v>
+        <v>2.0397633458491811</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -34264,15 +34327,15 @@
       </c>
       <c r="B10" s="28">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>7.9849863102091945</v>
+        <v>179.80551826020363</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>1080.5434827838644</v>
+        <v>-361.44440678761009</v>
       </c>
       <c r="D10" s="28">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>-191.5614340487632</v>
+        <v>35.083902804488957</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -34323,15 +34386,15 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>597.39335020775172</v>
+        <v>471.28693670608936</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>331.88248462889936</v>
+        <v>715.49886808850465</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">D4*D6</f>
-        <v>1265.9111988932893</v>
+        <v>2203.4314761248734</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -34341,15 +34404,15 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">B8-IF(B9&gt;0,B10,(-1)*B10)</f>
-        <v>3377.6225562187792</v>
+        <v>3549.443088168774</v>
       </c>
       <c r="C15" s="28">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>5223.6886249279332</v>
+        <v>3781.7007353564586</v>
       </c>
       <c r="D15" s="28">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>5321.6187043201044</v>
+        <v>5094.9733674668514</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -34359,15 +34422,15 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>1532.5550997208281</v>
+        <v>1533.5794445854401</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>15226.213315348459</v>
+        <v>14094.509705576742</v>
       </c>
       <c r="D16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>11917.940938111798</v>
+        <v>11422.060619298034</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -34383,19 +34446,19 @@
       </c>
       <c r="B18" s="36">
         <f ca="1">(B14+B15)*B16</f>
-        <v>6091930.8988653896</v>
+        <v>6166108.9183755955</v>
       </c>
       <c r="C18" s="36">
         <f ca="1">(C14+C15)*C16</f>
-        <v>84590310.802699447</v>
+        <v>63385823.458670907</v>
       </c>
       <c r="D18" s="36">
         <f ca="1">(D14+D15)*D16</f>
-        <v>78509792.314542562</v>
+        <v>83362822.54768306</v>
       </c>
       <c r="F18" s="28">
         <f ca="1">B18+C18+D18</f>
-        <v>169192034.01610738</v>
+        <v>152914754.92472956</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -34414,7 +34477,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>24312521.179061443</v>
+        <v>29375612.958296653</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>52</v>
@@ -34437,13 +34500,13 @@
       <c r="E20" s="3"/>
       <c r="F20" s="28">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>163368827.89605901</v>
+        <v>158821141.90863892</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="40">
         <f ca="1">100*F19/F20</f>
-        <v>14.881982990371897</v>
+        <v>18.49603434736342</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -34458,7 +34521,7 @@
       </c>
       <c r="F22" s="28">
         <f ca="1">F18</f>
-        <v>169192034.01610738</v>
+        <v>152914754.92472956</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -34469,7 +34532,7 @@
       </c>
       <c r="F23" s="28">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>198519636.07857198</v>
+        <v>138587745.84583291</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -34479,7 +34542,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="28">
-        <v>162006732.2863605</v>
+        <v>193176559.62358415</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -34489,7 +34552,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="28">
-        <v>149941304.53548628</v>
+        <v>171720794.47044209</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -34499,7 +34562,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="28">
-        <v>242033976.09340972</v>
+        <v>185538030.66036022</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -34509,7 +34572,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="28">
-        <v>165014801.59841728</v>
+        <v>186697481.61197528</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -34519,7 +34582,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="28">
-        <v>145495166.23948756</v>
+        <v>125644852.75535338</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -34529,7 +34592,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="28">
-        <v>177875201.60308897</v>
+        <v>134686392.3833544</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -34539,7 +34602,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="28">
-        <v>177743087.19559208</v>
+        <v>138370016.42842326</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -34549,7 +34612,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="28">
-        <v>184039971.85400587</v>
+        <v>189269499.85281873</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -34559,7 +34622,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="28">
-        <v>216172890.94594228</v>
+        <v>196606663.90848771</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -34569,7 +34632,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="28">
-        <v>152343028.11725363</v>
+        <v>76471863.209074885</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -34579,7 +34642,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="28">
-        <v>170461058.04125082</v>
+        <v>146365295.29614252</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -34589,7 +34652,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="28">
-        <v>161331291.51636609</v>
+        <v>147760547.13318783</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -34599,7 +34662,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="28">
-        <v>157462204.67499191</v>
+        <v>204679642.76051241</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -34609,7 +34672,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="28">
-        <v>113722004.22676995</v>
+        <v>199419581.04987746</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -34619,7 +34682,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="28">
-        <v>161886444.41031221</v>
+        <v>172614548.25326186</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -34629,7 +34692,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="28">
-        <v>112133126.46127984</v>
+        <v>185390182.74708286</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -34639,7 +34702,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="28">
-        <v>153249627.83307189</v>
+        <v>138333435.17787045</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -34649,7 +34712,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="28">
-        <v>150445634.6621834</v>
+        <v>179384634.14989284</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -34659,7 +34722,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="28">
-        <v>137185531.26773211</v>
+        <v>138890730.36933652</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -34669,7 +34732,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="28">
-        <v>225890851.10568798</v>
+        <v>176292218.80512768</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -34679,7 +34742,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="28">
-        <v>154346973.12228355</v>
+        <v>156378013.00221506</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -34689,7 +34752,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="28">
-        <v>221903587.44772491</v>
+        <v>173303406.95851722</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -34699,7 +34762,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="28">
-        <v>156771623.91073149</v>
+        <v>134757701.88434902</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -34709,7 +34772,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="28">
-        <v>158792004.77559206</v>
+        <v>170049634.84203821</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -34719,7 +34782,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="28">
-        <v>162299401.0016968</v>
+        <v>170546805.64786619</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -34729,7 +34792,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="28">
-        <v>116164492.44486028</v>
+        <v>148730985.94146425</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -34739,7 +34802,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="28">
-        <v>150886737.91242617</v>
+        <v>144963151.94272637</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -34749,7 +34812,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="28">
-        <v>134277913.19527569</v>
+        <v>111100870.4826408</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -34759,7 +34822,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="28">
-        <v>136661932.21899462</v>
+        <v>188146533.39305818</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -34769,7 +34832,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="28">
-        <v>159025462.42456174</v>
+        <v>167258980.61849034</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -34779,7 +34842,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="28">
-        <v>160573391.00126356</v>
+        <v>151042087.28693959</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -34789,7 +34852,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="28">
-        <v>187230078.66288701</v>
+        <v>182557148.63516778</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -34799,7 +34862,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="28">
-        <v>136488893.39668483</v>
+        <v>150700397.06136709</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -34809,7 +34872,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="28">
-        <v>157133022.13823304</v>
+        <v>206213449.83515078</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -34819,7 +34882,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="28">
-        <v>138266580.04277387</v>
+        <v>130048227.97280058</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -34829,7 +34892,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="28">
-        <v>201998285.96213329</v>
+        <v>147273609.35117286</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -34839,7 +34902,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="28">
-        <v>179566459.27577043</v>
+        <v>206254296.15544647</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -34849,7 +34912,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="28">
-        <v>201504361.6200037</v>
+        <v>170781338.90206021</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -34859,7 +34922,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="28">
-        <v>160694796.74351889</v>
+        <v>134058854.26206274</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -34869,7 +34932,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="28">
-        <v>155570903.73288256</v>
+        <v>163315601.21854657</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -34879,7 +34942,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="28">
-        <v>176476284.52152282</v>
+        <v>162688080.74882609</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -34889,7 +34952,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="28">
-        <v>130393623.66495246</v>
+        <v>159057476.26055944</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -34899,7 +34962,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="28">
-        <v>179607435.932872</v>
+        <v>115564779.31664747</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -34909,7 +34972,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="28">
-        <v>161442041.56159455</v>
+        <v>176021131.46290597</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -34919,7 +34982,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="28">
-        <v>162228180.13554543</v>
+        <v>188258240.46148637</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -34929,7 +34992,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="28">
-        <v>153356637.28395131</v>
+        <v>163670530.24587712</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -34939,7 +35002,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="28">
-        <v>162395179.72457531</v>
+        <v>166121814.00291556</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -34949,7 +35012,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="28">
-        <v>150541307.83110198</v>
+        <v>120043686.2887685</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -34959,7 +35022,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="28">
-        <v>136475891.41170049</v>
+        <v>171640075.10594976</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -34969,7 +35032,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="28">
-        <v>166194532.43012446</v>
+        <v>150992838.34091559</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -34979,7 +35042,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="28">
-        <v>122993039.6322979</v>
+        <v>207360700.47458372</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -34989,7 +35052,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="28">
-        <v>145452599.22893316</v>
+        <v>91308615.987827942</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -34999,7 +35062,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="28">
-        <v>148339937.48916042</v>
+        <v>165315916.0009391</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -35009,7 +35072,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="28">
-        <v>181996408.26846471</v>
+        <v>174390523.30806983</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -35019,7 +35082,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="28">
-        <v>170716606.53254265</v>
+        <v>96875031.082969338</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -35029,7 +35092,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="28">
-        <v>165394913.6776886</v>
+        <v>157289035.03766945</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -35039,7 +35102,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="28">
-        <v>177538752.77796227</v>
+        <v>151175504.14406246</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -35049,7 +35112,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="28">
-        <v>157150394.7388941</v>
+        <v>128256053.93586703</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -35059,7 +35122,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="28">
-        <v>156383495.14599478</v>
+        <v>171850844.74910724</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -35069,7 +35132,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="28">
-        <v>150363307.79360837</v>
+        <v>215866785.4967815</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -35079,7 +35142,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="28">
-        <v>164270606.41069227</v>
+        <v>152419408.19871822</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -35089,7 +35152,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="28">
-        <v>176142133.02472907</v>
+        <v>192031980.97914916</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -35099,7 +35162,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="28">
-        <v>196927290.32667989</v>
+        <v>164119237.92911941</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -35109,7 +35172,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="28">
-        <v>140585497.63540244</v>
+        <v>131398447.81902726</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -35119,7 +35182,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="28">
-        <v>163674516.38673997</v>
+        <v>123409783.72207713</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -35129,7 +35192,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="28">
-        <v>196146892.64689693</v>
+        <v>200513094.38490885</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -35139,7 +35202,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="28">
-        <v>184147044.2564536</v>
+        <v>173560876.01003492</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -35149,7 +35212,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="28">
-        <v>148469021.68491486</v>
+        <v>142058113.97734284</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -35159,7 +35222,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="28">
-        <v>151398882.33753696</v>
+        <v>210630456.43752569</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -35169,7 +35232,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="28">
-        <v>122545691.35510068</v>
+        <v>151835631.50159347</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -35179,7 +35242,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="28">
-        <v>185967919.19878268</v>
+        <v>141913259.29587942</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -35189,7 +35252,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="28">
-        <v>154255372.83622545</v>
+        <v>149180572.32742077</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -35199,7 +35262,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="28">
-        <v>180517753.16452196</v>
+        <v>141081947.24084684</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -35209,7 +35272,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="28">
-        <v>177317962.45399284</v>
+        <v>174001267.54102284</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -35219,7 +35282,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="28">
-        <v>191454639.5978868</v>
+        <v>129908321.54427229</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -35229,7 +35292,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="28">
-        <v>163592446.32805586</v>
+        <v>160248044.74450949</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -35239,7 +35302,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="28">
-        <v>155489089.05571216</v>
+        <v>179087804.34252533</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -35249,7 +35312,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="28">
-        <v>183953380.32045892</v>
+        <v>166143951.62337804</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -35259,7 +35322,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="28">
-        <v>171575019.47479388</v>
+        <v>139452889.36896527</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -35269,7 +35332,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="28">
-        <v>135995149.26600647</v>
+        <v>146883962.09894803</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -35279,7 +35342,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="28">
-        <v>160475690.82265043</v>
+        <v>162638159.18557531</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -35289,7 +35352,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="28">
-        <v>138421179.66661841</v>
+        <v>154435467.80824852</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -35299,7 +35362,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="28">
-        <v>178529316.19814962</v>
+        <v>65465761.943559334</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -35309,7 +35372,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="28">
-        <v>185952497.84305227</v>
+        <v>198605989.95542386</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -35319,7 +35382,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="28">
-        <v>156312685.24018657</v>
+        <v>144317579.35065383</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -35329,7 +35392,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="28">
-        <v>153066456.48896834</v>
+        <v>173597463.97503537</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -35339,7 +35402,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="28">
-        <v>140957972.69424829</v>
+        <v>179863234.67331588</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -35349,7 +35412,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="28">
-        <v>147470333.3593992</v>
+        <v>116157537.88510853</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -35359,7 +35422,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="28">
-        <v>123658353.92158379</v>
+        <v>186711201.8548125</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -35369,7 +35432,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="28">
-        <v>165512952.87963587</v>
+        <v>111065892.68241549</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -35379,7 +35442,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="28">
-        <v>160889043.05818439</v>
+        <v>195868423.24538821</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -35389,7 +35452,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="28">
-        <v>110453771.95634332</v>
+        <v>145654583.30526853</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -35399,7 +35462,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="28">
-        <v>131620695.64459878</v>
+        <v>121526113.65116219</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -35409,7 +35472,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="28">
-        <v>149680833.09928361</v>
+        <v>143727114.20085412</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -35419,7 +35482,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="28">
-        <v>149672732.5075919</v>
+        <v>185580313.24346364</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -35429,7 +35492,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="28">
-        <v>202585734.33014148</v>
+        <v>141661125.93949819</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -35439,7 +35502,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="28">
-        <v>160988106.07373142</v>
+        <v>183753901.97529355</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -35449,7 +35512,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="28">
-        <v>166597252.63443732</v>
+        <v>208750137.10997981</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -35459,7 +35522,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="28">
-        <v>171805893.08151469</v>
+        <v>144419436.55002069</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -35469,7 +35532,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="28">
-        <v>187444739.08014202</v>
+        <v>186156110.43772912</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -35479,7 +35542,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="28">
-        <v>166297347.52757168</v>
+        <v>193180061.42785165</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -35489,7 +35552,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="28">
-        <v>212842754.24557662</v>
+        <v>166306472.57832035</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -35499,7 +35562,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="28">
-        <v>158504449.48721552</v>
+        <v>164612553.88890219</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -35509,7 +35572,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="28">
-        <v>161972921.57895967</v>
+        <v>113506667.1066476</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -35519,7 +35582,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="28">
-        <v>192131169.79890841</v>
+        <v>130240952.01921964</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -35529,7 +35592,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="28">
-        <v>195819146.2169472</v>
+        <v>144957789.7884565</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -35603,15 +35666,15 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N14,Mappings!O14)</f>
-        <v>1537.3717307174616</v>
+        <v>508.75430951574333</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N15,Mappings!O15)</f>
-        <v>183.25988300015038</v>
+        <v>195.70565173262955</v>
       </c>
       <c r="D4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N16,Mappings!O16)</f>
-        <v>798.72308147163233</v>
+        <v>1160.1457263203392</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -35639,15 +35702,15 @@
       </c>
       <c r="B6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>1.6806553443183523</v>
+        <v>1.331169101502883</v>
       </c>
       <c r="C6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>1.967527900504183</v>
+        <v>2.3716932667339474</v>
       </c>
       <c r="D6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>1.0152307253086961</v>
+        <v>0.71947480479854997</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -35711,15 +35774,15 @@
       </c>
       <c r="B10" s="28">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>-24.09361766339552</v>
+        <v>452.05522947184727</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>941.37755123119337</v>
+        <v>421.17764681055883</v>
       </c>
       <c r="D10" s="28">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>17.266499932369726</v>
+        <v>-164.75932065679876</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -35770,15 +35833,15 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>2583.7920154342564</v>
+        <v>677.23801708379176</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>360.56893284592809</v>
+        <v>464.15377647605641</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">D4*D6</f>
-        <v>810.88821332324198</v>
+        <v>834.69561998219808</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -35788,15 +35851,15 @@
       </c>
       <c r="B15" s="16">
         <f ca="1">B8-IF(B9&gt;0,B10,(-1)*B10)</f>
-        <v>3346.0244476709322</v>
+        <v>3822.1732948061749</v>
       </c>
       <c r="C15" s="16">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>5218.4862733567043</v>
+        <v>4698.2863689360702</v>
       </c>
       <c r="D15" s="16">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>5233.118188291287</v>
+        <v>5415.1440088804557</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -35806,15 +35869,15 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>254.95535752018552</v>
+        <v>248.447610679359</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>16374.952077489683</v>
+        <v>16237.839345580487</v>
       </c>
       <c r="D16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>12044.676459882836</v>
+        <v>12058.273171895029</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -35830,19 +35893,19 @@
       </c>
       <c r="B18" s="36">
         <f ca="1">(B14+B15)*B16</f>
-        <v>1511838.4763800653</v>
+        <v>1117867.9899027424</v>
       </c>
       <c r="C18" s="36">
         <f ca="1">(C14+C15)*C16</f>
-        <v>91356761.639237434</v>
+        <v>83826873.71237728</v>
       </c>
       <c r="D18" s="36">
         <f ca="1">(D14+D15)*D16</f>
-        <v>72798101.628907681</v>
+        <v>75362273.525360927</v>
       </c>
       <c r="F18" s="28">
         <f ca="1">B18+C18+D18</f>
-        <v>165666701.74452519</v>
+        <v>160307015.22764096</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -35861,7 +35924,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>32917283.334431361</v>
+        <v>32672798.451108217</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>52</v>
@@ -35884,13 +35947,13 @@
       <c r="E20" s="3"/>
       <c r="F20" s="28">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>171099422.71900067</v>
+        <v>164774251.11962381</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="40">
         <f ca="1">100*F19/F20</f>
-        <v>19.238687548637699</v>
+        <v>19.828825334723096</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -35905,7 +35968,7 @@
       </c>
       <c r="F22" s="28">
         <f ca="1">F18</f>
-        <v>165666701.74452519</v>
+        <v>160307015.22764096</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -35916,7 +35979,7 @@
       </c>
       <c r="F23" s="28">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>209767484.78111613</v>
+        <v>165791576.96971491</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -35926,7 +35989,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="28">
-        <v>106736550.43640575</v>
+        <v>187568375.5857386</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -35936,7 +35999,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="28">
-        <v>196463349.4730092</v>
+        <v>167135156.5923675</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -35946,7 +36009,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="28">
-        <v>176554065.13267425</v>
+        <v>239780511.56249845</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -35956,7 +36019,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="28">
-        <v>191116056.6116831</v>
+        <v>182918562.65904593</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -35966,7 +36029,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="28">
-        <v>116499140.07628083</v>
+        <v>201991671.68298173</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -35976,7 +36039,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="28">
-        <v>151412442.72186396</v>
+        <v>144491341.63096979</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -35986,7 +36049,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="28">
-        <v>176555419.96409577</v>
+        <v>157532725.30150408</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -35996,7 +36059,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="28">
-        <v>172819083.38967139</v>
+        <v>179930055.210226</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -36006,7 +36069,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="28">
-        <v>197481525.28837597</v>
+        <v>144640328.01449844</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -36016,7 +36079,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="28">
-        <v>201144266.3360469</v>
+        <v>115162381.32498717</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -36026,7 +36089,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="28">
-        <v>176992325.4454757</v>
+        <v>169594959.52322853</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -36036,7 +36099,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="28">
-        <v>162344506.8990148</v>
+        <v>160732090.91076827</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -36046,7 +36109,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="28">
-        <v>130364728.70334983</v>
+        <v>183302005.79587889</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -36056,7 +36119,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="28">
-        <v>186936924.05545071</v>
+        <v>165858089.08537978</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -36066,7 +36129,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="28">
-        <v>189445934.08949703</v>
+        <v>138364533.89184248</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -36076,7 +36139,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="28">
-        <v>195798021.13831738</v>
+        <v>217234176.72132486</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -36086,7 +36149,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="28">
-        <v>199854443.28730035</v>
+        <v>103965029.24955882</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -36096,7 +36159,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="28">
-        <v>91949842.851939678</v>
+        <v>171534198.02646157</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -36106,7 +36169,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="28">
-        <v>169153074.43702251</v>
+        <v>208998493.15685099</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -36116,7 +36179,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="28">
-        <v>166395063.51730415</v>
+        <v>159127224.84067354</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -36126,7 +36189,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="28">
-        <v>156403302.73011786</v>
+        <v>163365274.30488276</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -36136,7 +36199,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="28">
-        <v>241789930.23907647</v>
+        <v>180784582.6046899</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -36146,7 +36209,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="28">
-        <v>154614177.63120896</v>
+        <v>172173748.84836349</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -36156,7 +36219,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="28">
-        <v>126498145.44730788</v>
+        <v>159022901.46074697</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -36166,7 +36229,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="28">
-        <v>166453067.10118809</v>
+        <v>115478496.58147436</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -36176,7 +36239,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="28">
-        <v>194618972.16741502</v>
+        <v>145021084.90679723</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -36186,7 +36249,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="28">
-        <v>139701612.92607579</v>
+        <v>138976146.86544275</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -36196,7 +36259,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="28">
-        <v>196072037.60545614</v>
+        <v>146355221.90373069</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -36206,7 +36269,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="28">
-        <v>231309181.36303008</v>
+        <v>198977881.54936826</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -36216,7 +36279,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="28">
-        <v>183310633.54699451</v>
+        <v>206362532.0665144</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -36226,7 +36289,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="28">
-        <v>168875047.29537708</v>
+        <v>127581184.31792846</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -36236,7 +36299,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="28">
-        <v>110885946.68462455</v>
+        <v>196658243.77705896</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -36246,7 +36309,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="28">
-        <v>201712239.29343855</v>
+        <v>186624537.37905079</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -36256,7 +36319,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="28">
-        <v>197817638.39973399</v>
+        <v>150971668.97374046</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -36266,7 +36329,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="28">
-        <v>150301720.98014808</v>
+        <v>59725769.543135479</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -36276,7 +36339,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="28">
-        <v>128467195.3355943</v>
+        <v>144210129.52475274</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -36286,7 +36349,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="28">
-        <v>175236297.08586353</v>
+        <v>131517410.22052869</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -36296,7 +36359,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="28">
-        <v>197519464.55428249</v>
+        <v>128058516.19126117</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -36306,7 +36369,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="28">
-        <v>99985112.523341954</v>
+        <v>189309750.46312445</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -36316,7 +36379,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="28">
-        <v>193945665.99986565</v>
+        <v>147698460.64640832</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -36326,7 +36389,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="28">
-        <v>150443356.91254914</v>
+        <v>153180614.84696269</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -36336,7 +36399,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="28">
-        <v>180456774.89605016</v>
+        <v>140446348.61155641</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -36346,7 +36409,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="28">
-        <v>194682516.50278831</v>
+        <v>132312126.42333066</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -36356,7 +36419,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="28">
-        <v>190453803.68919197</v>
+        <v>173868440.24713501</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -36366,7 +36429,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="28">
-        <v>174593694.96503085</v>
+        <v>152025056.12040973</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -36376,7 +36439,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="28">
-        <v>144437534.34773317</v>
+        <v>144039604.77622923</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -36386,7 +36449,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="28">
-        <v>204578095.50040972</v>
+        <v>189066406.04214031</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -36396,7 +36459,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="28">
-        <v>117999794.01647459</v>
+        <v>204056084.66331285</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -36406,7 +36469,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="28">
-        <v>194572291.60545245</v>
+        <v>119058168.91237238</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -36416,7 +36479,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="28">
-        <v>186941990.60442352</v>
+        <v>192032305.51214224</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -36426,7 +36489,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="28">
-        <v>132670912.80543572</v>
+        <v>175922485.31121251</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -36436,7 +36499,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="28">
-        <v>195088068.41090691</v>
+        <v>139997446.05610052</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -36446,7 +36509,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="28">
-        <v>120180726.54221141</v>
+        <v>160827391.34686124</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -36456,7 +36519,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="28">
-        <v>168220634.90142813</v>
+        <v>141933903.31850851</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -36466,7 +36529,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="28">
-        <v>180953749.34405974</v>
+        <v>168064465.02253646</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -36476,7 +36539,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="28">
-        <v>177057893.44985944</v>
+        <v>230853235.48188025</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -36486,7 +36549,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="28">
-        <v>158980791.27714413</v>
+        <v>93487927.267965376</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -36496,7 +36559,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="28">
-        <v>163836354.21306977</v>
+        <v>122802706.04911354</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -36506,7 +36569,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="28">
-        <v>196890935.72274184</v>
+        <v>165255932.53041524</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -36516,7 +36579,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="28">
-        <v>201740056.47795933</v>
+        <v>155715954.64122856</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -36526,7 +36589,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="28">
-        <v>135604990.06141207</v>
+        <v>128758104.2090577</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -36536,7 +36599,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="28">
-        <v>162120773.23710021</v>
+        <v>216025521.33995146</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -36546,7 +36609,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="28">
-        <v>198706991.54584843</v>
+        <v>146313489.23592386</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -36556,7 +36619,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="28">
-        <v>175877879.45350787</v>
+        <v>183056598.69342506</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -36566,7 +36629,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="28">
-        <v>157263771.63558558</v>
+        <v>212990752.61692286</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -36576,7 +36639,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="28">
-        <v>128670582.39281939</v>
+        <v>189076541.14564514</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -36586,7 +36649,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="28">
-        <v>125942271.1694569</v>
+        <v>216033755.68077558</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -36596,7 +36659,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="28">
-        <v>113719042.32389352</v>
+        <v>132474894.65105408</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -36606,7 +36669,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="28">
-        <v>130427510.80413181</v>
+        <v>172227432.58456543</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -36616,7 +36679,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="28">
-        <v>233967900.36831105</v>
+        <v>151846471.82265738</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -36626,7 +36689,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="28">
-        <v>144750575.91089588</v>
+        <v>153219679.24314076</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -36636,7 +36699,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="28">
-        <v>165449774.09566468</v>
+        <v>188471858.61861193</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -36646,7 +36709,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="28">
-        <v>179271898.33033746</v>
+        <v>174874937.27843523</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -36656,7 +36719,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="28">
-        <v>167914856.40644842</v>
+        <v>190578854.6064592</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -36666,7 +36729,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="28">
-        <v>192907633.46793729</v>
+        <v>114503992.28574681</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -36676,7 +36739,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="28">
-        <v>228272989.93608963</v>
+        <v>193466217.10891318</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -36686,7 +36749,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="28">
-        <v>222094244.71201044</v>
+        <v>182968981.2089836</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -36696,7 +36759,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="28">
-        <v>157652122.94431466</v>
+        <v>163794463.97935945</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -36706,7 +36769,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="28">
-        <v>146393866.98614582</v>
+        <v>165306043.30584627</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -36716,7 +36779,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="28">
-        <v>186192148.11745921</v>
+        <v>178922103.4602114</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -36726,7 +36789,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="28">
-        <v>222477530.81162825</v>
+        <v>205967589.78940096</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -36736,7 +36799,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="28">
-        <v>191931586.75834766</v>
+        <v>198043080.75440556</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -36746,7 +36809,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="28">
-        <v>195883397.50578028</v>
+        <v>176817377.07956862</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -36756,7 +36819,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="28">
-        <v>143608467.30157411</v>
+        <v>113232612.89958136</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -36766,7 +36829,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="28">
-        <v>199345762.02154928</v>
+        <v>134565610.47880137</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -36776,7 +36839,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="28">
-        <v>188745083.4381451</v>
+        <v>111438731.14894894</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -36786,7 +36849,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="28">
-        <v>84707916.500214562</v>
+        <v>198817145.44438708</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -36796,7 +36859,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="28">
-        <v>138573675.07469618</v>
+        <v>164795596.47098505</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -36806,7 +36869,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="28">
-        <v>190175422.36222708</v>
+        <v>212847454.0149411</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -36816,7 +36879,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="28">
-        <v>196862042.52691883</v>
+        <v>211627272.12486792</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -36826,7 +36889,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="28">
-        <v>192871535.25689322</v>
+        <v>213069035.41727281</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -36836,7 +36899,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="28">
-        <v>188980997.7429558</v>
+        <v>146242261.56028011</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -36846,7 +36909,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="28">
-        <v>175278797.24378601</v>
+        <v>210980546.07247263</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -36856,7 +36919,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="28">
-        <v>152570009.21170762</v>
+        <v>192387714.99400049</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -36866,7 +36929,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="28">
-        <v>115606670.72107258</v>
+        <v>140665063.54288167</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -36876,7 +36939,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="28">
-        <v>113623745.80188747</v>
+        <v>201586050.17249274</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -36886,7 +36949,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="28">
-        <v>185803923.45545736</v>
+        <v>138092910.55933639</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -36896,7 +36959,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="28">
-        <v>171708029.73610559</v>
+        <v>150470635.7199266</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -36906,7 +36969,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="28">
-        <v>185461538.96568894</v>
+        <v>132970994.9357993</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -36916,7 +36979,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="28">
-        <v>199456601.81996948</v>
+        <v>134869631.01057014</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -36926,7 +36989,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="28">
-        <v>231712520.66805941</v>
+        <v>176706189.00883648</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -36936,7 +36999,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="28">
-        <v>162410672.90733185</v>
+        <v>101070856.70593338</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -36946,7 +37009,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="28">
-        <v>171219804.6681183</v>
+        <v>183414193.05382273</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -36956,7 +37019,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="28">
-        <v>218423868.56371421</v>
+        <v>189861969.61701226</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -36966,7 +37029,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="28">
-        <v>154494649.46415517</v>
+        <v>143084525.74577045</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -36976,7 +37039,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="28">
-        <v>171853263.74923545</v>
+        <v>187302731.24684235</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -37070,15 +37133,15 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N18,Mappings!O18)</f>
-        <v>590.03412580720146</v>
+        <v>891.05842575646068</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N19,Mappings!O19)</f>
-        <v>208.02497531882108</v>
+        <v>176.29043005938792</v>
       </c>
       <c r="D4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N20,Mappings!O20)</f>
-        <v>871.71693584978357</v>
+        <v>1090.5210583023784</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -37116,15 +37179,15 @@
       </c>
       <c r="B6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>1.5656701503488608</v>
+        <v>2.0259275468399691</v>
       </c>
       <c r="C6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>4.1775877704038136</v>
+        <v>2.035065116911623</v>
       </c>
       <c r="D6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>2.2577448588676741</v>
+        <v>1.2348065542880684</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -37208,15 +37271,15 @@
       </c>
       <c r="B10" s="16">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>91.919102661671332</v>
+        <v>-96.983699194578477</v>
       </c>
       <c r="C10" s="16">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>-1146.7874538801234</v>
+        <v>1455.5249543790078</v>
       </c>
       <c r="D10" s="16">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>565.89669966102394</v>
+        <v>1025.56926177846</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -37287,15 +37350,15 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>923.79881846351975</v>
+        <v>1805.2198105838711</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>869.04259283046213</v>
+        <v>358.76250465920856</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">D4*D6</f>
-        <v>1968.1144303027309</v>
+        <v>1346.5825503809376</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -37310,15 +37373,15 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">B8-IF(B9&gt;0,B10,(-1)*B10)</f>
-        <v>3462.7135248258305</v>
+        <v>3273.8107229695806</v>
       </c>
       <c r="C15" s="28">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>3034.6004852956657</v>
+        <v>5636.9128935547969</v>
       </c>
       <c r="D15" s="28">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>4395.9661182566924</v>
+        <v>3936.2935561392569</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -37333,15 +37396,15 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>2895.5500936463095</v>
+        <v>2883.2214154764679</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>13982.529945509799</v>
+        <v>14372.503890610411</v>
       </c>
       <c r="D16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>11354.745982625163</v>
+        <v>12087.7441716147</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -37367,20 +37430,20 @@
       </c>
       <c r="B18" s="36">
         <f ca="1">(B14+B15)*B16</f>
-        <v>12701366.226392172</v>
+        <v>14643969.604200184</v>
       </c>
       <c r="C18" s="36">
         <f ca="1">(C14+C15)*C16</f>
-        <v>54582806.236480631</v>
+        <v>86172867.987667918</v>
       </c>
       <c r="D18" s="36">
         <f ca="1">(D14+D15)*D16</f>
-        <v>72262518.041858047</v>
+        <v>63858054.865952037</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28">
         <f ca="1">B18+C18+D18</f>
-        <v>139546690.50473085</v>
+        <v>164674892.45782015</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -37403,7 +37466,7 @@
       <c r="E19" s="28"/>
       <c r="F19" s="28">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>29708469.636016894</v>
+        <v>33393477.874883916</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="1" t="s">
@@ -37428,13 +37491,13 @@
       <c r="E20" s="28"/>
       <c r="F20" s="28">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>165567908.11451089</v>
+        <v>163747782.94646987</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="39">
         <f ca="1">100*F19/F20</f>
-        <v>17.94337439805652</v>
+        <v>20.393239697053144</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -37449,7 +37512,7 @@
       </c>
       <c r="F22" s="30">
         <f ca="1">F18</f>
-        <v>139546690.50473085</v>
+        <v>164674892.45782015</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -37460,7 +37523,7 @@
       </c>
       <c r="F23" s="30">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>219962100.57462075</v>
+        <v>125446521.44766824</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -37470,7 +37533,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="30">
-        <v>125574904.43323338</v>
+        <v>156868710.63345021</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -37480,7 +37543,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="30">
-        <v>208481286.0491769</v>
+        <v>160837034.61182359</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -37490,7 +37553,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="30">
-        <v>176662482.66506889</v>
+        <v>107568339.61199403</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -37500,7 +37563,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="30">
-        <v>163040653.07117</v>
+        <v>189694922.12621576</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -37510,7 +37573,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="30">
-        <v>148055951.079126</v>
+        <v>129410458.44932202</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -37520,7 +37583,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="30">
-        <v>162335164.39392078</v>
+        <v>164497779.74721521</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -37530,7 +37593,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="30">
-        <v>150316640.58022231</v>
+        <v>118252513.1101681</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -37540,7 +37603,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="30">
-        <v>173536520.45798463</v>
+        <v>171230197.79867288</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -37550,7 +37613,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="30">
-        <v>157686512.8593117</v>
+        <v>234308229.90271693</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -37560,7 +37623,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="30">
-        <v>224455492.03546417</v>
+        <v>178259086.38285306</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -37570,7 +37633,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="30">
-        <v>176873262.42544043</v>
+        <v>179700643.43564332</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -37580,7 +37643,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="30">
-        <v>151389109.38089308</v>
+        <v>171220722.13925174</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -37590,7 +37653,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="30">
-        <v>175908777.42393821</v>
+        <v>224916429.73166454</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -37600,7 +37663,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="30">
-        <v>184174226.03364629</v>
+        <v>110311002.00038514</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -37610,7 +37673,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="30">
-        <v>171287495.04281735</v>
+        <v>206127941.55723375</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -37620,7 +37683,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="30">
-        <v>114649266.56785244</v>
+        <v>139751368.95659319</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -37630,7 +37693,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="30">
-        <v>127078130.61775601</v>
+        <v>251851265.99600345</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -37640,7 +37703,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="30">
-        <v>185884272.34519711</v>
+        <v>198617334.54507273</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -37650,7 +37713,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="30">
-        <v>156564871.12615573</v>
+        <v>176192822.02801272</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -37660,7 +37723,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="30">
-        <v>148239937.70928329</v>
+        <v>147590679.29554689</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -37670,7 +37733,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="30">
-        <v>155452314.61569014</v>
+        <v>177465799.0715988</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -37680,7 +37743,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="30">
-        <v>219352986.93555212</v>
+        <v>209816293.39080745</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -37690,7 +37753,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="30">
-        <v>184235775.33997014</v>
+        <v>224408646.83827844</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -37700,7 +37763,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="30">
-        <v>165885722.96264711</v>
+        <v>169361733.96017516</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -37710,7 +37773,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="30">
-        <v>200820659.76885876</v>
+        <v>195097944.95758098</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -37720,7 +37783,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="30">
-        <v>100384182.3380063</v>
+        <v>133947270.11156528</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -37730,7 +37793,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="30">
-        <v>177376715.01654068</v>
+        <v>169556895.6322937</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -37740,7 +37803,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="30">
-        <v>164884394.85853699</v>
+        <v>153235382.06007093</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -37750,7 +37813,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="30">
-        <v>166866514.9679347</v>
+        <v>127190869.78779268</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -37760,7 +37823,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="30">
-        <v>158639575.64784333</v>
+        <v>151840173.35656798</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -37770,7 +37833,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="30">
-        <v>154241007.63899136</v>
+        <v>224177274.39535138</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -37780,7 +37843,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="30">
-        <v>213468800.2787084</v>
+        <v>158061289.95018891</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -37790,7 +37853,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="30">
-        <v>147414189.40353918</v>
+        <v>135233594.39858031</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -37800,7 +37863,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="30">
-        <v>151425432.49447817</v>
+        <v>191482266.98335421</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -37810,7 +37873,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="30">
-        <v>200092141.28438073</v>
+        <v>200811169.95979762</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -37820,7 +37883,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="30">
-        <v>155591531.79635522</v>
+        <v>123454380.36901191</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -37830,7 +37893,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="30">
-        <v>142568590.2130594</v>
+        <v>146041230.08033884</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -37840,7 +37903,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="30">
-        <v>113904104.79158144</v>
+        <v>272382747.10974491</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -37850,7 +37913,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="30">
-        <v>134148895.68345445</v>
+        <v>133669442.93246242</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -37860,7 +37923,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="30">
-        <v>164545972.97222447</v>
+        <v>151386147.58947685</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -37870,7 +37933,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="30">
-        <v>172587727.86750579</v>
+        <v>155308172.68605381</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -37880,7 +37943,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="30">
-        <v>154315888.00684971</v>
+        <v>170329184.40971646</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -37890,7 +37953,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="30">
-        <v>149425025.3834722</v>
+        <v>173075137.13718733</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -37900,7 +37963,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="30">
-        <v>211091594.68001354</v>
+        <v>141535199.88990659</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -37910,7 +37973,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="30">
-        <v>135705478.53398517</v>
+        <v>148109407.76311934</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -37920,7 +37983,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="30">
-        <v>150513168.86341593</v>
+        <v>190554630.64566499</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -37930,7 +37993,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="30">
-        <v>165648383.16710779</v>
+        <v>209300173.2189855</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -37940,7 +38003,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="30">
-        <v>134423096.94393358</v>
+        <v>151954653.76779258</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -37950,7 +38013,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="30">
-        <v>169768944.09163886</v>
+        <v>168296799.0655652</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -37960,7 +38023,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="30">
-        <v>183222474.88574874</v>
+        <v>146235626.5158115</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -37970,7 +38033,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="30">
-        <v>141228054.75669017</v>
+        <v>179795985.11521271</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -37980,7 +38043,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="30">
-        <v>177687580.52642277</v>
+        <v>184407324.35760856</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -37990,7 +38053,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="30">
-        <v>204854408.46238604</v>
+        <v>85945723.890226543</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -38000,7 +38063,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="30">
-        <v>196787035.31704265</v>
+        <v>144848689.95337328</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -38010,7 +38073,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="30">
-        <v>162881344.1051448</v>
+        <v>136253067.75206897</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -38020,7 +38083,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="30">
-        <v>208077589.41498679</v>
+        <v>201167132.20635217</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -38030,7 +38093,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="30">
-        <v>146864594.64091787</v>
+        <v>119702415.69170249</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -38040,7 +38103,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="30">
-        <v>181662876.62820357</v>
+        <v>149423365.6218102</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -38050,7 +38113,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="30">
-        <v>169173131.70096305</v>
+        <v>141369665.3147732</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -38060,7 +38123,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="30">
-        <v>123687571.99158622</v>
+        <v>133063664.65043348</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -38070,7 +38133,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="30">
-        <v>177487511.27344853</v>
+        <v>135071853.99082333</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -38080,7 +38143,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="30">
-        <v>131514659.34127259</v>
+        <v>136327971.16512495</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -38090,7 +38153,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="30">
-        <v>117968388.01732917</v>
+        <v>193515749.29478139</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -38100,7 +38163,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="30">
-        <v>130785248.52038836</v>
+        <v>163930362.55888844</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -38110,7 +38173,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="30">
-        <v>146752386.10712966</v>
+        <v>180867150.41179344</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -38120,7 +38183,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="30">
-        <v>195640010.17700613</v>
+        <v>136436834.82559142</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -38130,7 +38193,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="30">
-        <v>169854958.69074363</v>
+        <v>191779969.54666913</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -38140,7 +38203,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="30">
-        <v>172467718.63385493</v>
+        <v>183138618.61567724</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -38150,7 +38213,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="30">
-        <v>191906872.07565928</v>
+        <v>215956259.39745066</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -38160,7 +38223,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="30">
-        <v>124102251.59445658</v>
+        <v>121630304.03052536</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -38170,7 +38233,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="30">
-        <v>233698053.34364256</v>
+        <v>174577423.02937126</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -38180,7 +38243,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="30">
-        <v>158931648.92875952</v>
+        <v>143662910.44181055</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -38190,7 +38253,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="30">
-        <v>117978145.12666315</v>
+        <v>150372161.7838676</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -38200,7 +38263,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="30">
-        <v>168535698.77012506</v>
+        <v>155034046.38972035</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -38210,7 +38273,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="30">
-        <v>216949052.2787365</v>
+        <v>116392401.77786449</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -38220,7 +38283,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="30">
-        <v>182188290.67192</v>
+        <v>159004857.22646582</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -38230,7 +38293,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="30">
-        <v>127692662.51131432</v>
+        <v>153101714.31760675</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -38240,7 +38303,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="30">
-        <v>133511333.82290404</v>
+        <v>230105461.33068979</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -38250,7 +38313,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="30">
-        <v>189221430.40897423</v>
+        <v>121519853.91110873</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -38260,7 +38323,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="30">
-        <v>190529676.60976201</v>
+        <v>175177333.91357225</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -38270,7 +38333,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="30">
-        <v>85843021.664131165</v>
+        <v>143774210.13039622</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -38280,7 +38343,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="30">
-        <v>125942569.45035473</v>
+        <v>142846692.63562542</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -38290,7 +38353,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="30">
-        <v>177011832.52110589</v>
+        <v>89947618.457541823</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -38300,7 +38363,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="30">
-        <v>203474731.86901683</v>
+        <v>181544025.87419263</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -38310,7 +38373,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="30">
-        <v>173624556.75580901</v>
+        <v>149812099.21913126</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -38320,7 +38383,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="30">
-        <v>179651029.11294332</v>
+        <v>145870970.38133132</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -38330,7 +38393,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="30">
-        <v>184633099.39034215</v>
+        <v>195128938.55335921</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -38340,7 +38403,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="30">
-        <v>135937145.49208403</v>
+        <v>153870472.00489455</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -38350,7 +38413,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="30">
-        <v>161018210.31580526</v>
+        <v>180656885.24119627</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -38360,7 +38423,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="30">
-        <v>134475477.29656535</v>
+        <v>186087710.56559804</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -38370,7 +38433,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="30">
-        <v>184451559.55026284</v>
+        <v>145950016.68759945</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -38380,7 +38443,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="30">
-        <v>150950794.61644572</v>
+        <v>123748807.89026274</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -38390,7 +38453,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="30">
-        <v>151271826.00784728</v>
+        <v>199743982.71500388</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -38400,7 +38463,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="30">
-        <v>189305503.39145705</v>
+        <v>158258685.99868852</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -38410,7 +38473,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="30">
-        <v>165894982.34145582</v>
+        <v>145539257.18210971</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -38420,7 +38483,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="30">
-        <v>206974027.42398703</v>
+        <v>153207386.44418991</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -38430,7 +38493,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="30">
-        <v>195494838.72450578</v>
+        <v>207498435.62722996</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -38440,7 +38503,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="30">
-        <v>123737283.55501997</v>
+        <v>167363217.21114123</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -38450,7 +38513,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="30">
-        <v>164321511.48290181</v>
+        <v>209930618.42258441</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -38460,7 +38523,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="30">
-        <v>136715991.75158548</v>
+        <v>148643372.4035632</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -38470,7 +38533,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="30">
-        <v>146909091.3310025</v>
+        <v>134205031.70618266</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -38480,7 +38543,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="30">
-        <v>182773039.58844995</v>
+        <v>173710264.11722273</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -38490,7 +38553,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="30">
-        <v>156829141.74169028</v>
+        <v>183957644.17999214</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -38500,7 +38563,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="30">
-        <v>206677109.43222579</v>
+        <v>156291080.76753044</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -38510,7 +38573,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="30">
-        <v>215581636.02626312</v>
+        <v>161400331.93596566</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -38520,7 +38583,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="30">
-        <v>211508842.2764422</v>
+        <v>121544095.35307601</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>

--- a/Income_accounting_Mvomero.xlsx
+++ b/Income_accounting_Mvomero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\GitHub\Tanzania Dairy Mitigation Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7A39A3-5120-412F-9A71-F29D9ACBFEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC93900-5F27-4CE5-A6EE-4AD8E4A63D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{64B7B528-6AFC-453E-A699-FBF307BA8192}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64B7B528-6AFC-453E-A699-FBF307BA8192}"/>
   </bookViews>
   <sheets>
     <sheet name="Dairy_Income_Roadmap" sheetId="27" r:id="rId1"/>
@@ -881,35 +881,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD182B2D-8B3A-454E-B3EB-69DA32B2F807}">
   <dimension ref="A1:N758"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1916,13 +1916,13 @@
     <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
@@ -1936,14 +1936,14 @@
         <v>53</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="101" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="102"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="91" t="s">
         <v>102</v>
       </c>
@@ -1960,16 +1960,16 @@
         <v>65</v>
       </c>
       <c r="B3" s="41"/>
-      <c r="C3" s="103">
+      <c r="C3" s="106">
         <f>G3</f>
         <v>0.55747885382429763</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103">
+      <c r="D3" s="106"/>
+      <c r="E3" s="106">
         <f>Dairy_Income_Baseline!B3</f>
         <v>0.39642940716394504</v>
       </c>
-      <c r="F3" s="103"/>
+      <c r="F3" s="106"/>
       <c r="G3" s="5">
         <f>[1]All!$L$7*L16</f>
         <v>0.55747885382429763</v>
@@ -1987,16 +1987,16 @@
         <v>66</v>
       </c>
       <c r="B4" s="41"/>
-      <c r="C4" s="104">
+      <c r="C4" s="102">
         <f>[2]prod_herd_data!H39</f>
         <v>2415.9750381708586</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104">
+      <c r="D4" s="102"/>
+      <c r="E4" s="102">
         <f>[2]prod_herd_data!H38</f>
         <v>700.85860951581117</v>
       </c>
-      <c r="F4" s="104"/>
+      <c r="F4" s="102"/>
       <c r="G4" s="46">
         <f>[2]prod_herd_data!H39</f>
         <v>2415.9750381708586</v>
@@ -2014,16 +2014,16 @@
         <v>67</v>
       </c>
       <c r="B5" s="41"/>
-      <c r="C5" s="104">
+      <c r="C5" s="102">
         <f>C4*C3*(12*L11-9)/(12*L11)</f>
         <v>1262.6765579508788</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104">
+      <c r="D5" s="102"/>
+      <c r="E5" s="102">
         <f>E4*E3</f>
         <v>277.84096307609985</v>
       </c>
-      <c r="F5" s="104"/>
+      <c r="F5" s="102"/>
       <c r="G5" s="46">
         <f>G4*G3</f>
         <v>1346.8549951476041</v>
@@ -2039,10 +2039,10 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="41"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
       <c r="G6" s="46"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -2057,10 +2057,10 @@
         <v>54</v>
       </c>
       <c r="B7" s="41"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
       <c r="G7" s="46"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -2075,16 +2075,16 @@
         <v>32</v>
       </c>
       <c r="B8" s="41"/>
-      <c r="C8" s="104">
+      <c r="C8" s="102">
         <f>(([2]concentrate_feeding!$H$23*L29)+([2]concentrate_feeding!$H$24*L30))</f>
         <v>334.82525916999987</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104">
+      <c r="D8" s="102"/>
+      <c r="E8" s="102">
         <f>(([2]concentrate_feeding!$H$17*L29)+([2]concentrate_feeding!$H$18*L30))</f>
         <v>86.361328970444461</v>
       </c>
-      <c r="F8" s="104"/>
+      <c r="F8" s="102"/>
       <c r="G8" s="46">
         <f>(([2]concentrate_feeding!$H$20*L29)+([2]concentrate_feeding!$H$21*L30))</f>
         <v>334.82525916999987</v>
@@ -2102,16 +2102,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="41"/>
-      <c r="C9" s="104">
+      <c r="C9" s="102">
         <f>Dairy_Income_Baseline!D9</f>
         <v>7.6629395714680086</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104">
+      <c r="D9" s="102"/>
+      <c r="E9" s="102">
         <f>Dairy_Income_Baseline!B9</f>
         <v>1.404872254769135</v>
       </c>
-      <c r="F9" s="104"/>
+      <c r="F9" s="102"/>
       <c r="G9" s="46">
         <f>C9</f>
         <v>7.6629395714680086</v>
@@ -2129,16 +2129,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="41"/>
-      <c r="C10" s="104">
+      <c r="C10" s="102">
         <f>Dairy_Income_Baseline!D10</f>
         <v>18.263339311998756</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104">
+      <c r="D10" s="102"/>
+      <c r="E10" s="102">
         <f>Dairy_Income_Baseline!B10</f>
         <v>8.3015178690903433</v>
       </c>
-      <c r="F10" s="104"/>
+      <c r="F10" s="102"/>
       <c r="G10" s="82">
         <f t="shared" ref="G10:G11" si="0">C10</f>
         <v>18.263339311998756</v>
@@ -2158,16 +2158,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="41"/>
-      <c r="C11" s="104">
+      <c r="C11" s="102">
         <f>Dairy_Income_Baseline!D11</f>
         <v>0.12771565952446681</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104">
+      <c r="D11" s="102"/>
+      <c r="E11" s="102">
         <f>Dairy_Income_Baseline!B11</f>
         <v>1.6620356445247293E-4</v>
       </c>
-      <c r="F11" s="104"/>
+      <c r="F11" s="102"/>
       <c r="G11" s="82">
         <f t="shared" si="0"/>
         <v>0.12771565952446681</v>
@@ -2187,10 +2187,10 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="41"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
       <c r="G12" s="46"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
@@ -2205,16 +2205,16 @@
         <v>86</v>
       </c>
       <c r="B13" s="41"/>
-      <c r="C13" s="104">
+      <c r="C13" s="102">
         <f>SUM(C8:C11)</f>
         <v>360.87925371299116</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104">
+      <c r="D13" s="102"/>
+      <c r="E13" s="102">
         <f>SUM(E8:E11)</f>
         <v>96.067885297868386</v>
       </c>
-      <c r="F13" s="104"/>
+      <c r="F13" s="102"/>
       <c r="G13" s="46">
         <f>SUM(G8:G11)</f>
         <v>360.87925371299116</v>
@@ -2235,10 +2235,10 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
       <c r="G14" s="41"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
@@ -2253,16 +2253,16 @@
         <v>87</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="104">
+      <c r="C15" s="102">
         <f>L13/L11</f>
         <v>21.175000000000001</v>
       </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104">
+      <c r="D15" s="102"/>
+      <c r="E15" s="102">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F15" s="104"/>
+      <c r="F15" s="102"/>
       <c r="G15" s="46">
         <f>0</f>
         <v>0</v>
@@ -2278,10 +2278,10 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
       <c r="G16" s="46"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
@@ -2299,10 +2299,10 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="41"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
       <c r="G17" s="46"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -2315,13 +2315,13 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
@@ -2337,16 +2337,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="41"/>
-      <c r="C19" s="104">
+      <c r="C19" s="102">
         <f>L35*L16</f>
         <v>319.71061048759782</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104">
+      <c r="D19" s="102"/>
+      <c r="E19" s="102">
         <f>L35*L16</f>
         <v>319.71061048759782</v>
       </c>
-      <c r="F19" s="104"/>
+      <c r="F19" s="102"/>
       <c r="G19" s="46">
         <f>L37*L16</f>
         <v>332.95472438028497</v>
@@ -2369,16 +2369,16 @@
         <v>51</v>
       </c>
       <c r="B20" s="41"/>
-      <c r="C20" s="104">
+      <c r="C20" s="102">
         <f>(((1/1000)*(1/L23)*[2]feeding_change_data!$H$25/L32))</f>
         <v>7.5742941123367519E-2</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104">
+      <c r="D20" s="102"/>
+      <c r="E20" s="102">
         <f>(((1/1000)*(1/L23)*[2]feeding_change_data!$H$19/L32))</f>
         <v>4.2844783292099349E-2</v>
       </c>
-      <c r="F20" s="104"/>
+      <c r="F20" s="102"/>
       <c r="G20" s="46">
         <f>(((1/1000)*(1/L23)*[2]feeding_change_data!$H$22/L32))</f>
         <v>6.2508397034787805E-2</v>
@@ -2396,16 +2396,16 @@
         <v>72</v>
       </c>
       <c r="B21" s="41"/>
-      <c r="C21" s="104">
+      <c r="C21" s="102">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data_pasture!$H$25/L33))</f>
         <v>-0.10135770756663191</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104">
+      <c r="D21" s="102"/>
+      <c r="E21" s="102">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data_pasture!$H$19/L33))</f>
         <v>-0.35748623281588604</v>
       </c>
-      <c r="F21" s="104"/>
+      <c r="F21" s="102"/>
       <c r="G21" s="46">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data_pasture!$H$22/L33))</f>
         <v>0.22047056642635146</v>
@@ -2417,7 +2417,7 @@
         <v>98</v>
       </c>
       <c r="L21" s="35">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="M21" s="35"/>
       <c r="N21" s="35"/>
@@ -2427,16 +2427,16 @@
         <v>82</v>
       </c>
       <c r="B22" s="54"/>
-      <c r="C22" s="104">
+      <c r="C22" s="102">
         <f>C20+C21</f>
         <v>-2.5614766443264395E-2</v>
       </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104">
+      <c r="D22" s="102"/>
+      <c r="E22" s="102">
         <f>E20+E21</f>
         <v>-0.3146414495237867</v>
       </c>
-      <c r="F22" s="104"/>
+      <c r="F22" s="102"/>
       <c r="G22" s="55">
         <f>G20+G21</f>
         <v>0.28297896346113927</v>
@@ -2447,16 +2447,16 @@
         <v>73</v>
       </c>
       <c r="B23" s="41"/>
-      <c r="C23" s="104">
+      <c r="C23" s="102">
         <f>L19*(C20+C21)</f>
         <v>-0.7172134604114031</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104">
+      <c r="D23" s="102"/>
+      <c r="E23" s="102">
         <f>L19*(E20+E21)</f>
         <v>-8.809960586666028</v>
       </c>
-      <c r="F23" s="104"/>
+      <c r="F23" s="102"/>
       <c r="G23" s="46">
         <f>L19*(G20+G21)</f>
         <v>7.9234109769118994</v>
@@ -2479,16 +2479,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="41"/>
-      <c r="C24" s="104">
+      <c r="C24" s="102">
         <f>(C20+C21)*C19+C23</f>
         <v>-8.9065260774846973</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104">
+      <c r="D24" s="102"/>
+      <c r="E24" s="102">
         <f>(E20+E21)*E19+E23</f>
         <v>-109.40417049861856</v>
       </c>
-      <c r="F24" s="104"/>
+      <c r="F24" s="102"/>
       <c r="G24" s="46">
         <f>(G20+G21)*G19+G23</f>
         <v>102.14259376153426</v>
@@ -2508,10 +2508,10 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="41"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
       <c r="G25" s="46"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
@@ -2524,10 +2524,10 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
       <c r="G26" s="46"/>
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
@@ -2547,16 +2547,16 @@
         <v>48</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="104">
+      <c r="C27" s="102">
         <f>C5-C13-C15</f>
         <v>880.62230423788765</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104">
+      <c r="D27" s="102"/>
+      <c r="E27" s="102">
         <f>E5-E13</f>
         <v>181.77307777823148</v>
       </c>
-      <c r="F27" s="104"/>
+      <c r="F27" s="102"/>
       <c r="G27" s="46">
         <f>G5-G13</f>
         <v>985.97574143461293</v>
@@ -2579,16 +2579,16 @@
         <v>6</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="104">
+      <c r="C28" s="102">
         <f>C27-Dairy_Income_Baseline!B28</f>
         <v>849.32798976168749</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104">
+      <c r="D28" s="102"/>
+      <c r="E28" s="102">
         <f>E27-[5]NPV_Baseline!E33</f>
         <v>22.162452883416393</v>
       </c>
-      <c r="F28" s="104"/>
+      <c r="F28" s="102"/>
       <c r="G28" s="46">
         <f>G27-[5]NPV_Baseline!E33</f>
         <v>826.36511653979778</v>
@@ -2604,10 +2604,10 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
@@ -2623,15 +2623,15 @@
       <c r="N29" s="35"/>
     </row>
     <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="100" t="s">
+      <c r="A30" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
+      <c r="B30" s="107"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
@@ -2646,15 +2646,15 @@
       <c r="N30" s="35"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="102" t="s">
+      <c r="A31" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
@@ -2668,16 +2668,16 @@
         <v>17</v>
       </c>
       <c r="B32" s="41"/>
-      <c r="C32" s="103">
+      <c r="C32" s="106">
         <f>Dairy_Income_Baseline!D36</f>
         <v>7.6629395714680082E-2</v>
       </c>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103">
+      <c r="D32" s="106"/>
+      <c r="E32" s="106">
         <f>Dairy_Income_Baseline!B36</f>
         <v>0.17880192333425357</v>
       </c>
-      <c r="F32" s="103"/>
+      <c r="F32" s="106"/>
       <c r="G32" s="5">
         <f>Dairy_Income_Baseline!D36</f>
         <v>7.6629395714680082E-2</v>
@@ -2691,16 +2691,16 @@
       <c r="L32" s="35">
         <v>13</v>
       </c>
-      <c r="M32" s="102"/>
-      <c r="N32" s="102"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="35"/>
       <c r="B33" s="41"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
       <c r="G33" s="41"/>
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="B34" s="41"/>
-      <c r="C34" s="103">
+      <c r="C34" s="106">
         <f>Dairy_Income_Baseline!D38</f>
         <v>195.78810605100765</v>
       </c>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103">
+      <c r="D34" s="106"/>
+      <c r="E34" s="106">
         <f>Dairy_Income_Baseline!B38</f>
         <v>51.341695128835667</v>
       </c>
-      <c r="F34" s="103"/>
+      <c r="F34" s="106"/>
       <c r="G34" s="5">
         <f>Dairy_Income_Baseline!D38</f>
         <v>195.78810605100765</v>
@@ -2746,16 +2746,16 @@
         <v>1</v>
       </c>
       <c r="B35" s="41"/>
-      <c r="C35" s="103">
+      <c r="C35" s="106">
         <f>Dairy_Income_Baseline!D39</f>
         <v>43.934186876416582</v>
       </c>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103">
+      <c r="D35" s="106"/>
+      <c r="E35" s="106">
         <f>Dairy_Income_Baseline!B39</f>
         <v>7.9183708905169432</v>
       </c>
-      <c r="F35" s="103"/>
+      <c r="F35" s="106"/>
       <c r="G35" s="5">
         <f>Dairy_Income_Baseline!D39</f>
         <v>43.934186876416582</v>
@@ -2778,16 +2778,16 @@
         <v>2</v>
       </c>
       <c r="B36" s="41"/>
-      <c r="C36" s="103">
+      <c r="C36" s="106">
         <f>Dairy_Income_Baseline!D40</f>
         <v>13.28242859054455</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103">
+      <c r="D36" s="106"/>
+      <c r="E36" s="106">
         <f>Dairy_Income_Baseline!B40</f>
         <v>10.344968421481811</v>
       </c>
-      <c r="F36" s="103"/>
+      <c r="F36" s="106"/>
       <c r="G36" s="5">
         <f>Dairy_Income_Baseline!D40</f>
         <v>13.28242859054455</v>
@@ -2810,16 +2810,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="41"/>
-      <c r="C37" s="103">
+      <c r="C37" s="106">
         <f>Dairy_Income_Baseline!D41</f>
         <v>0.76629395714680093</v>
       </c>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103">
+      <c r="D37" s="106"/>
+      <c r="E37" s="106">
         <f>Dairy_Income_Baseline!B41</f>
         <v>1.6620356445247294E-5</v>
       </c>
-      <c r="F37" s="103"/>
+      <c r="F37" s="106"/>
       <c r="G37" s="5">
         <f>Dairy_Income_Baseline!D41</f>
         <v>0.76629395714680093</v>
@@ -2842,16 +2842,16 @@
         <v>3</v>
       </c>
       <c r="B38" s="41"/>
-      <c r="C38" s="103">
+      <c r="C38" s="106">
         <f>Dairy_Income_Baseline!D42</f>
         <v>0</v>
       </c>
-      <c r="D38" s="103"/>
-      <c r="E38" s="103">
+      <c r="D38" s="106"/>
+      <c r="E38" s="106">
         <f>Dairy_Income_Baseline!B42</f>
         <v>0</v>
       </c>
-      <c r="F38" s="103"/>
+      <c r="F38" s="106"/>
       <c r="G38" s="5">
         <f>Dairy_Income_Baseline!D42</f>
         <v>0</v>
@@ -2874,16 +2874,16 @@
         <v>18</v>
       </c>
       <c r="B39" s="41"/>
-      <c r="C39" s="103">
+      <c r="C39" s="106">
         <f>(C20*L26+C21*L27)/100</f>
         <v>-1.4590820929073817E-2</v>
       </c>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103">
+      <c r="D39" s="106"/>
+      <c r="E39" s="106">
         <f>(E20*L26+E21*L27)/100</f>
         <v>-6.8283887816269762E-2</v>
       </c>
-      <c r="F39" s="103"/>
+      <c r="F39" s="106"/>
       <c r="G39" s="5">
         <f>(G20*L26+G21*L27)/100</f>
         <v>4.8782243062879378E-2</v>
@@ -2901,16 +2901,16 @@
         <v>19</v>
       </c>
       <c r="B40" s="41"/>
-      <c r="C40" s="104">
+      <c r="C40" s="102">
         <f>C19*L36</f>
         <v>623.09126607279609</v>
       </c>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104">
+      <c r="D40" s="102"/>
+      <c r="E40" s="102">
         <f>E19*L36</f>
         <v>623.09126607279609</v>
       </c>
-      <c r="F40" s="104"/>
+      <c r="F40" s="102"/>
       <c r="G40" s="46">
         <f>G19*L38</f>
         <v>661.97345995462354</v>
@@ -2926,10 +2926,10 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
@@ -2941,14 +2941,14 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
-      <c r="B42" s="105" t="s">
+      <c r="B42" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -2962,19 +2962,19 @@
         <v>9</v>
       </c>
       <c r="B43" s="35"/>
-      <c r="C43" s="108">
+      <c r="C43" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),C3,C32)</f>
-        <v>0.63803069642409538</v>
-      </c>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108">
+        <v>0.50421741297765921</v>
+      </c>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),E3,E32)</f>
-        <v>0.18713917743270278</v>
-      </c>
-      <c r="F43" s="108"/>
+        <v>0.54100008899000296</v>
+      </c>
+      <c r="F43" s="105"/>
       <c r="G43" s="89">
         <f ca="1">_xlfn.NORM.INV(RAND(),G3,G32)</f>
-        <v>0.52259164069805208</v>
+        <v>0.56804406138735331</v>
       </c>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
@@ -2988,28 +2988,28 @@
       <c r="A44" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="103">
+      <c r="C44" s="106">
         <f ca="1">_xlfn.NORM.INV(RAND(),C4,C4*L21)</f>
-        <v>2313.1782446825887</v>
-      </c>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103">
+        <v>1855.2206394611835</v>
+      </c>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106">
         <f ca="1">_xlfn.NORM.INV(RAND(),E4,E4*L21)</f>
-        <v>664.80791808786</v>
-      </c>
-      <c r="F44" s="103"/>
+        <v>884.48824180193151</v>
+      </c>
+      <c r="F44" s="106"/>
       <c r="G44" s="84">
         <f ca="1">_xlfn.NORM.INV(RAND(),G4,G4*L21)</f>
-        <v>2693.59064270613</v>
+        <v>1819.8059127327269</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
       <c r="B45" s="35"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="101"/>
       <c r="G45" s="86"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
@@ -3024,19 +3024,19 @@
         <v>10</v>
       </c>
       <c r="B46" s="35"/>
-      <c r="C46" s="104">
+      <c r="C46" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),C8,C34)</f>
-        <v>354.91500104765089</v>
-      </c>
-      <c r="D46" s="104"/>
-      <c r="E46" s="104">
+        <v>131.70013114902233</v>
+      </c>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),E8,E34)</f>
-        <v>40.36284735719083</v>
-      </c>
-      <c r="F46" s="104"/>
+        <v>97.776287672718041</v>
+      </c>
+      <c r="F46" s="102"/>
       <c r="G46" s="85">
         <f ca="1">_xlfn.NORM.INV(RAND(),G8,G34)</f>
-        <v>-59.006974073378331</v>
+        <v>429.62127396210082</v>
       </c>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
@@ -3051,19 +3051,19 @@
         <v>1</v>
       </c>
       <c r="B47" s="35"/>
-      <c r="C47" s="104">
+      <c r="C47" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),C9,C35)</f>
-        <v>4.818441464250462</v>
-      </c>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104">
+        <v>9.3043551758823195</v>
+      </c>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),E9,E35)</f>
-        <v>-10.250034329276261</v>
-      </c>
-      <c r="F47" s="104"/>
+        <v>-2.7327981563001797</v>
+      </c>
+      <c r="F47" s="102"/>
       <c r="G47" s="85">
         <f ca="1">_xlfn.NORM.INV(RAND(),G9,G35)</f>
-        <v>-12.856135711165376</v>
+        <v>-23.186473550814242</v>
       </c>
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
@@ -3078,19 +3078,19 @@
         <v>2</v>
       </c>
       <c r="B48" s="35"/>
-      <c r="C48" s="104">
+      <c r="C48" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),C10,C36)</f>
-        <v>22.22673660369275</v>
-      </c>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104">
+        <v>18.093121881054149</v>
+      </c>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),E10,E36)</f>
-        <v>14.265891443396942</v>
-      </c>
-      <c r="F48" s="104"/>
+        <v>-2.9656905777106282</v>
+      </c>
+      <c r="F48" s="102"/>
       <c r="G48" s="85">
         <f ca="1">_xlfn.NORM.INV(RAND(),G10,G36)</f>
-        <v>11.820877080912382</v>
+        <v>0.14237160669415516</v>
       </c>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
@@ -3105,19 +3105,19 @@
         <v>12</v>
       </c>
       <c r="B49" s="35"/>
-      <c r="C49" s="104">
+      <c r="C49" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C37)</f>
-        <v>-0.49350819652296907</v>
-      </c>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104">
+        <v>1.4253737255098149</v>
+      </c>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),E11,E37)</f>
-        <v>1.7550561586097613E-4</v>
-      </c>
-      <c r="F49" s="104"/>
+        <v>1.8040576817261923E-4</v>
+      </c>
+      <c r="F49" s="102"/>
       <c r="G49" s="85">
         <f ca="1">_xlfn.NORM.INV(RAND(),G11,G37)</f>
-        <v>-0.16612723672449511</v>
+        <v>1.1571579263407707</v>
       </c>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
@@ -3132,14 +3132,14 @@
         <v>3</v>
       </c>
       <c r="B50" s="35"/>
-      <c r="C50" s="104">
+      <c r="C50" s="102">
         <v>1E-4</v>
       </c>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104">
+      <c r="D50" s="102"/>
+      <c r="E50" s="102">
         <v>1E-4</v>
       </c>
-      <c r="F50" s="104"/>
+      <c r="F50" s="102"/>
       <c r="G50" s="85">
         <v>1E-4</v>
       </c>
@@ -3154,10 +3154,10 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="35"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="104"/>
-      <c r="F51" s="104"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
       <c r="G51" s="85"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
@@ -3172,19 +3172,19 @@
         <v>93</v>
       </c>
       <c r="B52" s="35"/>
-      <c r="C52" s="104">
+      <c r="C52" s="102">
         <f ca="1">SUM(C46:C50)</f>
-        <v>381.46677091907111</v>
-      </c>
-      <c r="D52" s="104"/>
-      <c r="E52" s="104">
+        <v>160.5230819314686</v>
+      </c>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102">
         <f ca="1">SUM(E46:E50)</f>
-        <v>44.378979976927376</v>
-      </c>
-      <c r="F52" s="104"/>
+        <v>92.078079344475412</v>
+      </c>
+      <c r="F52" s="102"/>
       <c r="G52" s="85">
         <f ca="1">SUM(G46:G50)</f>
-        <v>-60.208259940355816</v>
+        <v>407.73442994432145</v>
       </c>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
@@ -3197,10 +3197,10 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="35"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
       <c r="G53" s="85"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
@@ -3215,19 +3215,19 @@
         <v>48</v>
       </c>
       <c r="B54" s="35"/>
-      <c r="C54" s="104">
+      <c r="C54" s="102">
         <f ca="1">C43*C44-C52</f>
-        <v>1094.4119554888275</v>
-      </c>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104">
+        <v>774.91146940040801</v>
+      </c>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102">
         <f ca="1">E43*E44-E52</f>
-        <v>80.032626964782395</v>
-      </c>
-      <c r="F54" s="104"/>
+        <v>386.43013818098075</v>
+      </c>
+      <c r="F54" s="102"/>
       <c r="G54" s="85">
         <f ca="1">G43*G44-G52</f>
-        <v>1467.856213281073</v>
+        <v>625.99551166109632</v>
       </c>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
@@ -3240,10 +3240,10 @@
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="35"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102"/>
       <c r="G55" s="85"/>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
@@ -3258,19 +3258,19 @@
         <v>13</v>
       </c>
       <c r="B56" s="35"/>
-      <c r="C56" s="104">
+      <c r="C56" s="102">
         <f ca="1">AVERAGE(C60:C559)</f>
-        <v>913.10976342187064</v>
-      </c>
-      <c r="D56" s="104"/>
-      <c r="E56" s="104">
+        <v>912.47076244969389</v>
+      </c>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102">
         <f ca="1">AVERAGE(E60:E559)</f>
-        <v>2.4777428767119298</v>
-      </c>
-      <c r="F56" s="104"/>
+        <v>3.0905378991443224</v>
+      </c>
+      <c r="F56" s="102"/>
       <c r="G56" s="85">
         <f ca="1">AVERAGE(G60:G559)</f>
-        <v>953.78716736381625</v>
+        <v>952.10344596057632</v>
       </c>
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
@@ -3285,19 +3285,19 @@
         <v>11</v>
       </c>
       <c r="B57" s="35"/>
-      <c r="C57" s="104">
+      <c r="C57" s="102">
         <f ca="1">STDEVA(C60:C559)</f>
-        <v>310.07051786674356</v>
-      </c>
-      <c r="D57" s="104"/>
-      <c r="E57" s="104">
+        <v>310.02535102731719</v>
+      </c>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102">
         <f t="shared" ref="E57:G57" ca="1" si="1">STDEVA(E60:E559)</f>
-        <v>26.40259008234251</v>
-      </c>
-      <c r="F57" s="104"/>
+        <v>31.306494671805648</v>
+      </c>
+      <c r="F57" s="102"/>
       <c r="G57" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>281.53671197403855</v>
+        <v>280.9729734793338</v>
       </c>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
@@ -3310,10 +3310,10 @@
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
       <c r="B58" s="35"/>
-      <c r="C58" s="102"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
@@ -3328,10 +3328,10 @@
         <v>64</v>
       </c>
       <c r="B59" s="35"/>
-      <c r="C59" s="102"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="102"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="101"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
@@ -3348,21 +3348,21 @@
       </c>
       <c r="C60" s="49">
         <f ca="1">C54</f>
-        <v>1094.4119554888275</v>
+        <v>774.91146940040801</v>
       </c>
       <c r="D60" s="48">
         <v>1</v>
       </c>
       <c r="E60" s="49">
         <f ca="1">E54</f>
-        <v>80.032626964782395</v>
+        <v>386.43013818098075</v>
       </c>
       <c r="F60" s="48">
         <v>1</v>
       </c>
       <c r="G60" s="49">
         <f ca="1">G54</f>
-        <v>1467.856213281073</v>
+        <v>625.99551166109632</v>
       </c>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
@@ -20530,28 +20530,83 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="C47:D47"/>
@@ -20567,83 +20622,28 @@
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20667,130 +20667,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109" t="s">
+      <c r="C2" s="110"/>
+      <c r="D2" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="108">
+      <c r="B3" s="105">
         <f>[1]All!$L$6*L17</f>
         <v>0.39642940716394504</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108">
+      <c r="C3" s="105"/>
+      <c r="D3" s="105">
         <f>[1]All!$L$7*L17</f>
         <v>0.55747885382429763</v>
       </c>
-      <c r="E3" s="108"/>
+      <c r="E3" s="105"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="104">
+      <c r="B4" s="102">
         <f>[2]prod_herd_data!H17</f>
         <v>320.35867062067865</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104">
+      <c r="C4" s="102"/>
+      <c r="D4" s="102">
         <f>[2]prod_herd_data!H18</f>
         <v>1025.9808491887786</v>
       </c>
-      <c r="E4" s="104"/>
+      <c r="E4" s="102"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="104">
+      <c r="B5" s="102">
         <f>B4*B3</f>
         <v>126.99959787398517</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104">
+      <c r="C5" s="102"/>
+      <c r="D5" s="102">
         <f>D4*D3</f>
         <v>571.96262785143983</v>
       </c>
-      <c r="E5" s="104"/>
+      <c r="E5" s="102"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="104">
+      <c r="B8" s="102">
         <f xml:space="preserve"> (([2]FEEDING_base!$H$17*L30)+([2]FEEDING_base!$H$18*L31))</f>
         <v>85.998727070361042</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104">
+      <c r="C8" s="102"/>
+      <c r="D8" s="102">
         <f>(([2]FEEDING_base!$H$23*L31)+([2]FEEDING_base!$H$24*L30))</f>
         <v>186.43581434115202</v>
       </c>
-      <c r="E8" s="104"/>
+      <c r="E8" s="102"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="104">
+      <c r="B9" s="102">
         <f>[1]All!$P$6*L17</f>
         <v>1.404872254769135</v>
       </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104">
+      <c r="C9" s="102"/>
+      <c r="D9" s="102">
         <f>[1]All!$P$7*Dairy_Income_Roadmap!L16</f>
         <v>7.6629395714680086</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="102"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="104">
+      <c r="B10" s="102">
         <f>[1]All!$Q$6*L17</f>
         <v>8.3015178690903433</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104">
+      <c r="C10" s="102"/>
+      <c r="D10" s="102">
         <f>[1]All!$Q$7*Dairy_Income_Roadmap!L16</f>
         <v>18.263339311998756</v>
       </c>
-      <c r="E10" s="104"/>
+      <c r="E10" s="102"/>
       <c r="K10" s="1" t="str">
         <f>Dairy_Income_Roadmap!K10</f>
         <v>Basic income parameters</v>
@@ -20800,16 +20800,16 @@
       <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="104">
+      <c r="B11" s="102">
         <f>[1]All!$R$6*L17</f>
         <v>1.6620356445247293E-4</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104">
+      <c r="C11" s="102"/>
+      <c r="D11" s="102">
         <f>[1]All!$R$7*Dairy_Income_Roadmap!L16</f>
         <v>0.12771565952446681</v>
       </c>
-      <c r="E11" s="104"/>
+      <c r="E11" s="102"/>
       <c r="K11" s="76" t="s">
         <v>88</v>
       </c>
@@ -20822,37 +20822,37 @@
       <c r="A12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="104">
+      <c r="B12" s="102">
         <f>0*L17</f>
         <v>0</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104">
+      <c r="C12" s="102"/>
+      <c r="D12" s="102">
         <f>0*L17</f>
         <v>0</v>
       </c>
-      <c r="E12" s="104"/>
+      <c r="E12" s="102"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="104">
+      <c r="B14" s="102">
         <f>SUM(B8:B12)</f>
         <v>95.705283397784967</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104">
+      <c r="C14" s="102"/>
+      <c r="D14" s="102">
         <f>SUM(D8:D12)</f>
         <v>212.48980888414323</v>
       </c>
-      <c r="E14" s="104"/>
+      <c r="E14" s="102"/>
       <c r="K14" t="str">
         <f>[5]NPV_Roadmap!K14</f>
         <v>Price acquring new animal (USD/head)</v>
@@ -20863,22 +20863,22 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
       <c r="K17" s="78" t="s">
         <v>94</v>
       </c>
@@ -20888,27 +20888,27 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="105" t="s">
+      <c r="B18" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="104">
+      <c r="B19" s="102">
         <f>L36*L17</f>
         <v>319.71061048759782</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104">
+      <c r="C19" s="102"/>
+      <c r="D19" s="102">
         <f>L38*L17</f>
         <v>332.95472438028497</v>
       </c>
-      <c r="E19" s="104"/>
+      <c r="E19" s="102"/>
       <c r="K19" s="1" t="str">
         <f>[5]NPV_Roadmap!K24</f>
         <v>Cropping parameters</v>
@@ -20918,16 +20918,16 @@
       <c r="A20" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="104">
+      <c r="B20" s="102">
         <f>( [6]Sheet1!$QH$29*[2]feeding_change_data!$H$4+      [6]Sheet1!$QH$20*[2]feeding_change_data!$I$4)/([2]feeding_change_data!$H$4+[2]feeding_change_data!$I$4)</f>
         <v>1.8944680977798487</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104">
+      <c r="C20" s="102"/>
+      <c r="D20" s="102">
         <f>( [6]Sheet1!$QG$29*[2]feeding_change_data!$H$4+      [6]Sheet1!$QG$20*[2]feeding_change_data!$I$4)/([2]feeding_change_data!$H$4+[2]feeding_change_data!$I$4)</f>
         <v>130.93127296143226</v>
       </c>
-      <c r="E20" s="104"/>
+      <c r="E20" s="102"/>
       <c r="K20" t="str">
         <f>[5]NPV_Roadmap!K25</f>
         <v>Forage seeding cost (USD/ha/yr)</v>
@@ -20941,46 +20941,46 @@
       <c r="A21" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="103">
+      <c r="B21" s="106">
         <f>(((1/1000)*(1/L23)/L33))*B20</f>
         <v>1.9430442028511269E-4</v>
       </c>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104">
+      <c r="C21" s="106"/>
+      <c r="D21" s="102">
         <f>(((1/1000)*(1/L23)/L33))*D20</f>
         <v>1.3428848508864846E-2</v>
       </c>
-      <c r="E21" s="104"/>
+      <c r="E21" s="102"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="104">
+      <c r="B22" s="102">
         <f>( [6]Sheet1!$QP$29*[2]feeding_change_data_pasture!$H$4+      [6]Sheet1!$QP$20*[2]feeding_change_data_pasture!$I$4)/([2]feeding_change_data_pasture!$H$4+[2]feeding_change_data_pasture!$I$4)</f>
         <v>54.042316867241844</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104">
+      <c r="C22" s="102"/>
+      <c r="D22" s="102">
         <f>( [6]Sheet1!$QO$20*[2]feeding_change_data_pasture!$H$4+      [6]Sheet1!$QO$20*[2]feeding_change_data_pasture!$I$4)/([2]feeding_change_data_pasture!$H$4+[2]feeding_change_data_pasture!$I$4)</f>
         <v>205.7582485590861</v>
       </c>
-      <c r="E22" s="104"/>
+      <c r="E22" s="102"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="104">
+      <c r="B23" s="102">
         <f>(((1/1000)*(1/L25)/L34))*B22</f>
         <v>2.1616926746896737E-2</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104">
+      <c r="C23" s="102"/>
+      <c r="D23" s="102">
         <f>(((1/1000)*(1/L25)/L34))*D22</f>
         <v>8.2303299423634443E-2</v>
       </c>
-      <c r="E23" s="104"/>
+      <c r="E23" s="102"/>
       <c r="K23" t="str">
         <f>[5]NPV_Roadmap!K28</f>
         <v>Use efficiency napier</v>
@@ -20994,31 +20994,31 @@
       <c r="A24" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="108">
+      <c r="B24" s="105">
         <f>SUM(B23+B21)</f>
         <v>2.1811231167181849E-2</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108">
+      <c r="C24" s="105"/>
+      <c r="D24" s="105">
         <f>SUM(D23+D21)</f>
         <v>9.573214793249929E-2</v>
       </c>
-      <c r="E24" s="108"/>
+      <c r="E24" s="105"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="104">
+      <c r="B25" s="102">
         <f>(B21+B23)*L17*L20</f>
         <v>0.77997801659602606</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104">
+      <c r="C25" s="102"/>
+      <c r="D25" s="102">
         <f>(D21+D23)*L17*L20</f>
         <v>3.4234184350500314</v>
       </c>
-      <c r="E25" s="104"/>
+      <c r="E25" s="102"/>
       <c r="K25" t="str">
         <f>[5]NPV_Roadmap!K29</f>
         <v>Use efficiency pasture</v>
@@ -21032,22 +21032,22 @@
       <c r="A26" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="104">
+      <c r="B26" s="102">
         <f>(B21+B23)*B19+B25</f>
         <v>7.753260048541855</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104">
+      <c r="C26" s="102"/>
+      <c r="D26" s="102">
         <f>(D21+D23)*D19+D25</f>
         <v>35.297889364248</v>
       </c>
-      <c r="E26" s="104"/>
+      <c r="E26" s="102"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
       <c r="K27" t="str">
         <f>[5]NPV_Roadmap!K31</f>
         <v>Standard error (%) improved forage yield</v>
@@ -21061,16 +21061,16 @@
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="104">
+      <c r="B28" s="102">
         <f>B5-B14</f>
         <v>31.294314476200199</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104">
+      <c r="C28" s="102"/>
+      <c r="D28" s="102">
         <f>D5-D14</f>
         <v>359.47281896729658</v>
       </c>
-      <c r="E28" s="104">
+      <c r="E28" s="102">
         <f>E5-E14</f>
         <v>0</v>
       </c>
@@ -21084,16 +21084,16 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
       <c r="K30" t="str">
         <f>[5]NPV_Roadmap!K34</f>
         <v>Market price Sunflower cake (USD/kg)</v>
@@ -21104,10 +21104,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="107"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
       <c r="K31" t="str">
         <f>[5]NPV_Roadmap!K35</f>
         <v>Market price Maize bran (USD/kg)</v>
@@ -21118,16 +21118,16 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
       <c r="K33" t="str">
         <f>[5]NPV_Roadmap!K37</f>
         <v>Napier yield (Mg/ha)</v>
@@ -21138,13 +21138,13 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="105" t="s">
+      <c r="A34" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
       <c r="K34" t="str">
         <f>[5]NPV_Roadmap!K38</f>
         <v>Pasture yield (Mg/ha)</v>
@@ -21155,28 +21155,28 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="101"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="103">
+      <c r="B36" s="106">
         <f>[1]All!$S$6*L17</f>
         <v>0.17880192333425357</v>
       </c>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103">
+      <c r="C36" s="106"/>
+      <c r="D36" s="106">
         <f>[1]All!$S$7*L17</f>
         <v>7.6629395714680082E-2</v>
       </c>
-      <c r="E36" s="103"/>
+      <c r="E36" s="106"/>
       <c r="K36" t="str">
         <f>[5]NPV_Roadmap!K40</f>
         <v xml:space="preserve">Opportunity cost land strata 1 </v>
@@ -21187,10 +21187,10 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
       <c r="K37" t="str">
         <f>[5]NPV_Roadmap!K41</f>
         <v>SE (fraction)</v>
@@ -21204,16 +21204,16 @@
       <c r="A38" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="103">
+      <c r="B38" s="106">
         <f>[1]All!$V$6*L17</f>
         <v>51.341695128835667</v>
       </c>
-      <c r="C38" s="103"/>
-      <c r="D38" s="103">
+      <c r="C38" s="106"/>
+      <c r="D38" s="106">
         <f>[1]All!$V$7*L17</f>
         <v>195.78810605100765</v>
       </c>
-      <c r="E38" s="103"/>
+      <c r="E38" s="106"/>
       <c r="K38" t="str">
         <f>[5]NPV_Roadmap!K42</f>
         <v>Opportunity cost land strata 2</v>
@@ -21227,16 +21227,16 @@
       <c r="A39" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="103">
+      <c r="B39" s="106">
         <f>[1]All!$W$6*L17</f>
         <v>7.9183708905169432</v>
       </c>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103">
+      <c r="C39" s="106"/>
+      <c r="D39" s="106">
         <f>[1]All!$W$7*L17</f>
         <v>43.934186876416582</v>
       </c>
-      <c r="E39" s="103"/>
+      <c r="E39" s="106"/>
       <c r="K39" t="str">
         <f>[5]NPV_Roadmap!K43</f>
         <v>SE (fraction)</v>
@@ -21250,88 +21250,88 @@
       <c r="A40" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="103">
+      <c r="B40" s="106">
         <f>[1]All!$X$6*L17</f>
         <v>10.344968421481811</v>
       </c>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103">
+      <c r="C40" s="106"/>
+      <c r="D40" s="106">
         <f>[1]All!$X$7*L17</f>
         <v>13.28242859054455</v>
       </c>
-      <c r="E40" s="103"/>
+      <c r="E40" s="106"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="103">
+      <c r="B41" s="106">
         <f>[1]All!$Y$6*L17</f>
         <v>1.6620356445247294E-5</v>
       </c>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103">
+      <c r="C41" s="106"/>
+      <c r="D41" s="106">
         <f>[1]All!$Y$7*L17</f>
         <v>0.76629395714680093</v>
       </c>
-      <c r="E41" s="103"/>
+      <c r="E41" s="106"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="103">
+      <c r="B42" s="106">
         <f>B12*L17</f>
         <v>0</v>
       </c>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103">
+      <c r="C42" s="106"/>
+      <c r="D42" s="106">
         <f>D12*L17</f>
         <v>0</v>
       </c>
-      <c r="E42" s="103"/>
+      <c r="E42" s="106"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="103">
+      <c r="B43" s="106">
         <f>(1/100)*(B21*L27+B23*L28)/SUM(B21,B23)</f>
         <v>0.19888644284453855</v>
       </c>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103">
+      <c r="C43" s="106"/>
+      <c r="D43" s="106">
         <f>(1/100)*(D21*L27+D23*L28)/SUM(D21,D23)</f>
         <v>0.18246559698219983</v>
       </c>
-      <c r="E43" s="103"/>
+      <c r="E43" s="106"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="103">
+      <c r="B44" s="106">
         <f>B19*L37</f>
         <v>623.09126607279609</v>
       </c>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103">
+      <c r="C44" s="106"/>
+      <c r="D44" s="106">
         <f>D19*L39</f>
         <v>562.08704264053813</v>
       </c>
-      <c r="E44" s="103"/>
+      <c r="E44" s="106"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="107"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B47" s="53" t="s">
@@ -21345,234 +21345,234 @@
       <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="108">
+      <c r="B48" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),B3,B36)</f>
-        <v>0.23060260134686109</v>
-      </c>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108">
+        <v>0.38442831715936027</v>
+      </c>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),D3,D36)</f>
-        <v>0.60631267302575942</v>
-      </c>
-      <c r="E48" s="108"/>
+        <v>0.49511769569794722</v>
+      </c>
+      <c r="E48" s="105"/>
     </row>
     <row r="49" spans="1:5" s="88" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="103">
+      <c r="B49" s="106">
         <f ca="1">_xlfn.NORM.INV(RAND(),B4,B4*Dairy_Income_Roadmap!L21)</f>
-        <v>262.80934224134501</v>
-      </c>
-      <c r="C49" s="103"/>
-      <c r="D49" s="103">
+        <v>314.16060153208235</v>
+      </c>
+      <c r="C49" s="106"/>
+      <c r="D49" s="106">
         <f ca="1">_xlfn.NORM.INV(RAND(),D4,D4*Dairy_Income_Roadmap!L21)</f>
-        <v>1082.1342804103219</v>
-      </c>
-      <c r="E49" s="103"/>
+        <v>1360.7253298607832</v>
+      </c>
+      <c r="E49" s="106"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="107"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="104">
+      <c r="B51" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),B8,B38)</f>
-        <v>71.797539950021815</v>
-      </c>
-      <c r="C51" s="104"/>
-      <c r="D51" s="104">
+        <v>17.053692692595206</v>
+      </c>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),D8,D38)</f>
-        <v>381.97034045181272</v>
-      </c>
-      <c r="E51" s="104"/>
+        <v>197.11987365754106</v>
+      </c>
+      <c r="E51" s="102"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="104">
+      <c r="B52" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),B9,B39)</f>
-        <v>3.4556396366838653</v>
-      </c>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104">
+        <v>-5.4077622673129726</v>
+      </c>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),D9,D39)</f>
-        <v>72.427796012776412</v>
-      </c>
-      <c r="E52" s="104"/>
+        <v>16.174651408728444</v>
+      </c>
+      <c r="E52" s="102"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="104">
+      <c r="B53" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),B10,B40)</f>
-        <v>5.0379994109818416</v>
-      </c>
-      <c r="C53" s="104"/>
-      <c r="D53" s="104">
+        <v>10.69937251583289</v>
+      </c>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),D10,D40)</f>
-        <v>21.639510178596691</v>
-      </c>
-      <c r="E53" s="104"/>
+        <v>45.194232974595081</v>
+      </c>
+      <c r="E53" s="102"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="104">
+      <c r="B54" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B41)</f>
-        <v>1.5399071364831352E-4</v>
-      </c>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104">
+        <v>1.7882323982752689E-4</v>
+      </c>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D41)</f>
-        <v>-6.9907221215217918E-2</v>
-      </c>
-      <c r="E54" s="104"/>
+        <v>-0.8569360483855526</v>
+      </c>
+      <c r="E54" s="102"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="104">
+      <c r="B55" s="102">
         <v>1E-4</v>
       </c>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104">
+      <c r="C55" s="102"/>
+      <c r="D55" s="102">
         <v>1E-4</v>
       </c>
-      <c r="E55" s="104"/>
+      <c r="E55" s="102"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="104">
+      <c r="B56" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),(B21+B23),B43)</f>
-        <v>0.16203974479800665</v>
-      </c>
-      <c r="C56" s="104"/>
-      <c r="D56" s="104">
+        <v>8.1221459056527209E-2</v>
+      </c>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),ABS(D21+D23),ABS(D43))</f>
-        <v>0.2703385097210016</v>
-      </c>
-      <c r="E56" s="104"/>
+        <v>0.14957283990394016</v>
+      </c>
+      <c r="E56" s="102"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="104">
+      <c r="B57" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),B19,B44)</f>
-        <v>1192.0636046340167</v>
-      </c>
-      <c r="C57" s="104"/>
-      <c r="D57" s="104">
+        <v>230.63018194917041</v>
+      </c>
+      <c r="C57" s="102"/>
+      <c r="D57" s="102">
         <f ca="1">_xlfn.NORM.INV(RAND(),D19,D44)</f>
-        <v>751.32269766602008</v>
-      </c>
-      <c r="E57" s="104"/>
+        <v>-26.94473908241099</v>
+      </c>
+      <c r="E57" s="102"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="107"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="104">
+      <c r="B59" s="102">
         <f>SUM(C52:C55)</f>
         <v>0</v>
       </c>
-      <c r="C59" s="104"/>
-      <c r="D59" s="104">
+      <c r="C59" s="102"/>
+      <c r="D59" s="102">
         <f>SUM(E52:E55)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="104"/>
+      <c r="E59" s="102"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="107"/>
-      <c r="C60" s="107"/>
-      <c r="D60" s="104"/>
-      <c r="E60" s="104"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="104">
+      <c r="B61" s="102">
         <f ca="1">B48*B49-B59</f>
-        <v>60.604517979111662</v>
-      </c>
-      <c r="C61" s="104"/>
-      <c r="D61" s="104">
+        <v>120.77223136475075</v>
+      </c>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102">
         <f ca="1">D48*D49-D59</f>
-        <v>656.11172812838902</v>
-      </c>
-      <c r="E61" s="104"/>
+        <v>673.71918979850011</v>
+      </c>
+      <c r="E61" s="102"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="107"/>
-      <c r="C62" s="107"/>
-      <c r="D62" s="104"/>
-      <c r="E62" s="104"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="104">
+      <c r="B63" s="102">
         <f ca="1">AVERAGE(C67:C566)</f>
-        <v>109.98928622711162</v>
-      </c>
-      <c r="C63" s="104"/>
-      <c r="D63" s="104">
+        <v>110.1096216538829</v>
+      </c>
+      <c r="C63" s="102"/>
+      <c r="D63" s="102">
         <f ca="1">AVERAGE(E67:E566)</f>
-        <v>135.82301366138711</v>
-      </c>
-      <c r="E63" s="104"/>
+        <v>135.85822858472733</v>
+      </c>
+      <c r="E63" s="102"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="104">
+      <c r="B64" s="102">
         <f ca="1">STDEVA(C67:C566)</f>
-        <v>55.005722704333415</v>
-      </c>
-      <c r="C64" s="104"/>
-      <c r="D64" s="104">
+        <v>54.963265412292053</v>
+      </c>
+      <c r="C64" s="102"/>
+      <c r="D64" s="102">
         <f ca="1">STDEVA(E67:E566)</f>
-        <v>156.15772491984276</v>
-      </c>
-      <c r="E64" s="104"/>
+        <v>156.27722926428413</v>
+      </c>
+      <c r="E64" s="102"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="107"/>
-      <c r="C65" s="107"/>
-      <c r="D65" s="102"/>
-      <c r="E65" s="102"/>
+      <c r="B65" s="103"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="101"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="102"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="102"/>
-      <c r="E66" s="102"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B67" s="48">
@@ -21580,7 +21580,7 @@
       </c>
       <c r="C67" s="49">
         <f ca="1">B61</f>
-        <v>60.604517979111662</v>
+        <v>120.77223136475075</v>
       </c>
       <c r="D67" s="48">
         <f>B67</f>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="E67" s="49">
         <f ca="1">D61</f>
-        <v>656.11172812838902</v>
+        <v>673.71918979850011</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -29078,48 +29078,66 @@
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A35:E35"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B56:C56"/>
@@ -29144,66 +29162,48 @@
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29214,7 +29214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88619A7-1257-474E-B4EF-A20B407C8AA0}">
   <dimension ref="A1:AD93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
@@ -29249,38 +29249,38 @@
     <row r="1" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="100" t="s">
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100" t="s">
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="100" t="s">
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
       <c r="AC1" s="94"/>
       <c r="AD1" s="35"/>
     </row>
@@ -29432,7 +29432,7 @@
       </c>
       <c r="O3" s="43">
         <f ca="1">Dairy_Income_Baseline!B64</f>
-        <v>55.005722704333415</v>
+        <v>54.963265412292053</v>
       </c>
       <c r="P3" s="43">
         <f>(G3-F3)*(Dairy_Income_Baseline!B24)</f>
@@ -29452,7 +29452,7 @@
       </c>
       <c r="T3" s="44">
         <f ca="1">F3*O3*I3</f>
-        <v>225.24843447424536</v>
+        <v>225.07457186333599</v>
       </c>
       <c r="U3" s="68">
         <f>N3*(M3*K3)/(D3)</f>
@@ -29543,7 +29543,7 @@
       </c>
       <c r="O4" s="43">
         <f ca="1">Dairy_Income_Baseline!D64</f>
-        <v>156.15772491984276</v>
+        <v>156.27722926428413</v>
       </c>
       <c r="P4" s="43">
         <f>(G4-F4)*(Dairy_Income_Baseline!B24)</f>
@@ -29563,7 +29563,7 @@
       </c>
       <c r="T4" s="44">
         <f ca="1">F4*O4*I4</f>
-        <v>221.91946131344244</v>
+        <v>222.08929178296714</v>
       </c>
       <c r="U4" s="68">
         <f>N4*(M4*K4)/(D4)</f>
@@ -29600,7 +29600,7 @@
       <c r="AC4" s="92"/>
       <c r="AD4" s="95">
         <f ca="1">MC_Baseline!H20</f>
-        <v>15.037654276194226</v>
+        <v>11.47195235697059</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -29685,7 +29685,7 @@
       </c>
       <c r="O6" s="43">
         <f ca="1">Dairy_Income_Roadmap!C57</f>
-        <v>310.07051786674356</v>
+        <v>310.02535102731719</v>
       </c>
       <c r="P6" s="43">
         <f>(F6*(Dairy_Income_Roadmap!C22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -29705,7 +29705,7 @@
       </c>
       <c r="T6" s="44">
         <f ca="1">F6*O6*I6</f>
-        <v>315.79338617162767</v>
+        <v>315.74738570288508</v>
       </c>
       <c r="U6" s="46">
         <f>U3</f>
@@ -29790,7 +29790,7 @@
       </c>
       <c r="O7" s="43">
         <f ca="1">Dairy_Income_Roadmap!E57</f>
-        <v>26.40259008234251</v>
+        <v>31.306494671805648</v>
       </c>
       <c r="P7" s="43">
         <f>(F7*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -29810,7 +29810,7 @@
       </c>
       <c r="T7" s="44">
         <f ca="1">F7*O7*I7</f>
-        <v>73.370723619366885</v>
+        <v>86.998289216799435</v>
       </c>
       <c r="U7" s="46">
         <f t="shared" ref="U7:W8" si="0">U3</f>
@@ -29896,7 +29896,7 @@
       </c>
       <c r="O8" s="43">
         <f ca="1">Dairy_Income_Roadmap!G57</f>
-        <v>281.53671197403855</v>
+        <v>280.9729734793338</v>
       </c>
       <c r="P8" s="43">
         <f>(F8*(Dairy_Income_Roadmap!G22 + Dairy_Income_Baseline!D24)  -   F5*Dairy_Income_Baseline!D24)</f>
@@ -29916,7 +29916,7 @@
       </c>
       <c r="T8" s="44">
         <f ca="1">F8*O8*I8</f>
-        <v>515.66482713262053</v>
+        <v>514.63227932959467</v>
       </c>
       <c r="U8" s="46">
         <f t="shared" si="0"/>
@@ -29956,7 +29956,7 @@
       </c>
       <c r="AD8" s="95">
         <f ca="1">MC_High_ambition!I20</f>
-        <v>16.911222887152746</v>
+        <v>14.226775915731553</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -30042,7 +30042,7 @@
       </c>
       <c r="O10" s="43">
         <f ca="1">Dairy_Income_Roadmap!C57</f>
-        <v>310.07051786674356</v>
+        <v>310.02535102731719</v>
       </c>
       <c r="P10" s="43">
         <f>(F10*(Dairy_Income_Roadmap!C22+Dairy_Income_Baseline!B24)-F3*Dairy_Income_Baseline!B24)</f>
@@ -30062,7 +30062,7 @@
       </c>
       <c r="T10" s="44">
         <f ca="1">F10*O10*I10</f>
-        <v>270.51914733365533</v>
+        <v>270.47974179786479</v>
       </c>
       <c r="U10" s="46">
         <f t="shared" ref="U10:W12" si="2">U6</f>
@@ -30148,7 +30148,7 @@
       </c>
       <c r="O11" s="43">
         <f ca="1">Dairy_Income_Roadmap!E57</f>
-        <v>26.40259008234251</v>
+        <v>31.306494671805648</v>
       </c>
       <c r="P11" s="43">
         <f>(F11*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -30168,7 +30168,7 @@
       </c>
       <c r="T11" s="44">
         <f ca="1">F11*O11*I11</f>
-        <v>85.374354714725854</v>
+        <v>101.23142360843239</v>
       </c>
       <c r="U11" s="46">
         <f t="shared" si="2"/>
@@ -30255,7 +30255,7 @@
       </c>
       <c r="O12" s="43">
         <f ca="1">Dairy_Income_Roadmap!G57</f>
-        <v>281.53671197403855</v>
+        <v>280.9729734793338</v>
       </c>
       <c r="P12" s="43">
         <f>(F12*(Dairy_Income_Roadmap!G22 + Dairy_Income_Baseline!D24)  -   F4*Dairy_Income_Baseline!D24)</f>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="T12" s="44">
         <f ca="1">F12*O12*I12</f>
-        <v>441.31145406825033</v>
+        <v>440.42778865542368</v>
       </c>
       <c r="U12" s="46">
         <f t="shared" si="2"/>
@@ -30315,7 +30315,7 @@
       </c>
       <c r="AD12" s="95">
         <f ca="1">MC_Middle_road!I20</f>
-        <v>18.49603434736342</v>
+        <v>18.256554169762317</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -30405,7 +30405,7 @@
       </c>
       <c r="O14" s="43">
         <f ca="1">Dairy_Income_Roadmap!C57</f>
-        <v>310.07051786674356</v>
+        <v>310.02535102731719</v>
       </c>
       <c r="P14" s="43">
         <f>(F14*(Dairy_Income_Roadmap!C22+ Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -30425,7 +30425,7 @@
       </c>
       <c r="T14" s="44">
         <f ca="1">F14*O14*I14</f>
-        <v>318.30175432936505</v>
+        <v>318.25538847579782</v>
       </c>
       <c r="U14" s="46">
         <f t="shared" ref="U14:U16" si="5">U10</f>
@@ -30511,7 +30511,7 @@
       </c>
       <c r="O15" s="43">
         <f ca="1">Dairy_Income_Roadmap!E57</f>
-        <v>26.40259008234251</v>
+        <v>31.306494671805648</v>
       </c>
       <c r="P15" s="43">
         <f>(F15*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -30531,7 +30531,7 @@
       </c>
       <c r="T15" s="44">
         <f ca="1">F15*O15*I15</f>
-        <v>100.1084998641001</v>
+        <v>118.70222610068431</v>
       </c>
       <c r="U15" s="46">
         <f t="shared" si="5"/>
@@ -30618,7 +30618,7 @@
       </c>
       <c r="O16" s="43">
         <f ca="1">Dairy_Income_Roadmap!G57</f>
-        <v>281.53671197403855</v>
+        <v>280.9729734793338</v>
       </c>
       <c r="P16" s="43">
         <f>(F16*(Dairy_Income_Roadmap!G22 + Dairy_Income_Baseline!D24)  -   F4*Dairy_Income_Baseline!D24)</f>
@@ -30638,7 +30638,7 @@
       </c>
       <c r="T16" s="44">
         <f ca="1">F16*O16*I16</f>
-        <v>306.61518731964151</v>
+        <v>306.00123263166773</v>
       </c>
       <c r="U16" s="46">
         <f t="shared" si="5"/>
@@ -30678,7 +30678,7 @@
       </c>
       <c r="AD16" s="95">
         <f ca="1">MC_Status_quo!I20</f>
-        <v>19.828825334723096</v>
+        <v>20.973215457749561</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -30768,7 +30768,7 @@
       </c>
       <c r="O18" s="43">
         <f ca="1">Dairy_Income_Roadmap!C57</f>
-        <v>310.07051786674356</v>
+        <v>310.02535102731719</v>
       </c>
       <c r="P18" s="43">
         <f>(F18*(Dairy_Income_Roadmap!C22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -30788,7 +30788,7 @@
       </c>
       <c r="T18" s="44">
         <f ca="1">F18*O18*I18</f>
-        <v>385.56169241884783</v>
+        <v>385.50552905584817</v>
       </c>
       <c r="U18" s="46">
         <f t="shared" ref="U18:U20" si="7">U14</f>
@@ -30874,7 +30874,7 @@
       </c>
       <c r="O19" s="43">
         <f ca="1">Dairy_Income_Roadmap!E57</f>
-        <v>26.40259008234251</v>
+        <v>31.306494671805648</v>
       </c>
       <c r="P19" s="43">
         <f>(F19*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -30894,7 +30894,7 @@
       </c>
       <c r="T19" s="44">
         <f ca="1">F19*O19*I19</f>
-        <v>89.580534651552611</v>
+        <v>106.21884148562724</v>
       </c>
       <c r="U19" s="46">
         <f t="shared" si="7"/>
@@ -30981,7 +30981,7 @@
       </c>
       <c r="O20" s="43">
         <f ca="1">Dairy_Income_Roadmap!G57</f>
-        <v>281.53671197403855</v>
+        <v>280.9729734793338</v>
       </c>
       <c r="P20" s="43">
         <f>(F20*(Dairy_Income_Roadmap!G22+ Dairy_Income_Baseline!D24)  -   F4*Dairy_Income_Baseline!D24)</f>
@@ -31001,7 +31001,7 @@
       </c>
       <c r="T20" s="44">
         <f ca="1">F20*O20*I20</f>
-        <v>629.59077731308321</v>
+        <v>628.33010848380741</v>
       </c>
       <c r="U20" s="46">
         <f t="shared" si="7"/>
@@ -31041,7 +31041,7 @@
       </c>
       <c r="AD20" s="95">
         <f ca="1">MC_High_ambition_plus!I20</f>
-        <v>20.393239697053144</v>
+        <v>18.161647862915764</v>
       </c>
     </row>
     <row r="21" spans="1:30" s="99" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -31104,7 +31104,7 @@
         <v>136</v>
       </c>
       <c r="B24" s="61"/>
-      <c r="C24" s="110">
+      <c r="C24" s="100">
         <f>532194/(250800+532194)</f>
         <v>0.67969103211518866</v>
       </c>
@@ -31115,7 +31115,7 @@
         <v>137</v>
       </c>
       <c r="B25" s="60"/>
-      <c r="C25" s="110">
+      <c r="C25" s="100">
         <f>9226165/(9226165+3518000)</f>
         <v>0.723952098862499</v>
       </c>
@@ -31129,7 +31129,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="60"/>
-      <c r="C26" s="110">
+      <c r="C26" s="100">
         <f>1-0.803</f>
         <v>0.19699999999999995</v>
       </c>
@@ -31620,11 +31620,11 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N3,Mappings!O3)</f>
-        <v>85.585392070907716</v>
+        <v>-25.164428223970589</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N4,Mappings!O4)</f>
-        <v>452.83855057939337</v>
+        <v>230.70875842958611</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -31698,11 +31698,11 @@
       </c>
       <c r="B10" s="28">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L38))</f>
-        <v>58.126009029741098</v>
+        <v>247.78734416987362</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L38))</f>
-        <v>3692.9395558623992</v>
+        <v>-799.22028795818005</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -31742,11 +31742,11 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>350.4721805303671</v>
+        <v>-103.04833357715955</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>643.53964722605565</v>
+        <v>327.86571024435511</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -31755,11 +31755,11 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">IF(B9&gt;0,B8-B10,    B8 +B10)</f>
-        <v>3351.8238136879995</v>
+        <v>3541.485148828132</v>
       </c>
       <c r="C15" s="28">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>9126.8814745778072</v>
+        <v>4634.7216307572289</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -31768,11 +31768,11 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>15357.425444073897</v>
+        <v>15744.813652681658</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>11728.464836604198</v>
+        <v>11523.098385705189</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -31786,15 +31786,15 @@
       </c>
       <c r="B18" s="28">
         <f ca="1">(B14+B15)*B16</f>
-        <v>56857734.703102008</v>
+        <v>54137546.912646748</v>
       </c>
       <c r="C18" s="28">
         <f ca="1">(C14+C15)*C16</f>
-        <v>114592040.56589156</v>
+        <v>57184382.178016357</v>
       </c>
       <c r="E18">
         <f ca="1">B18+C18</f>
-        <v>171449775.26899356</v>
+        <v>111321929.09066311</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -31809,7 +31809,7 @@
       </c>
       <c r="E19">
         <f ca="1">STDEVA(E22:E129)</f>
-        <v>20236697.615631513</v>
+        <v>15397660.715905948</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>52</v>
@@ -31827,11 +31827,11 @@
       </c>
       <c r="E20">
         <f ca="1">AVERAGE(E22:E129)</f>
-        <v>134573499.58941254</v>
+        <v>134220054.58861601</v>
       </c>
       <c r="H20" s="39">
         <f ca="1">100*E19/E20</f>
-        <v>15.037654276194226</v>
+        <v>11.47195235697059</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -31840,7 +31840,7 @@
       </c>
       <c r="E22">
         <f ca="1">E18</f>
-        <v>171449775.26899356</v>
+        <v>111321929.09066311</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -31849,7 +31849,7 @@
       </c>
       <c r="E23">
         <f t="dataTable" ref="E23:E129" dt2D="0" dtr="0" r1="E21" ca="1"/>
-        <v>137906884.64045808</v>
+        <v>132224810.54227576</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -31857,7 +31857,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>117224610.91929735</v>
+        <v>136282367.2741183</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -31865,7 +31865,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>144533380.23327506</v>
+        <v>139508801.47049057</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -31873,7 +31873,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>126329433.0428609</v>
+        <v>125357907.1027528</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -31881,7 +31881,7 @@
         <v>6</v>
       </c>
       <c r="E27">
-        <v>105636536.43110466</v>
+        <v>120138775.06599467</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -31889,7 +31889,7 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>103909103.4158946</v>
+        <v>162182099.52552068</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -31897,7 +31897,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>138596889.33002281</v>
+        <v>141260245.00093287</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -31905,7 +31905,7 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>126691217.49009866</v>
+        <v>137746625.62601498</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -31913,7 +31913,7 @@
         <v>10</v>
       </c>
       <c r="E31">
-        <v>121728000.99919704</v>
+        <v>107807008.56632799</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -31921,7 +31921,7 @@
         <v>11</v>
       </c>
       <c r="E32">
-        <v>171789998.03902251</v>
+        <v>148118424.77166468</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
@@ -31929,7 +31929,7 @@
         <v>12</v>
       </c>
       <c r="E33">
-        <v>174363997.60140708</v>
+        <v>134429305.13121459</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.3">
@@ -31937,7 +31937,7 @@
         <v>13</v>
       </c>
       <c r="E34">
-        <v>124477047.37973619</v>
+        <v>144203706.05680543</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.3">
@@ -31945,7 +31945,7 @@
         <v>14</v>
       </c>
       <c r="E35">
-        <v>168507948.21417809</v>
+        <v>127711521.85326578</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.3">
@@ -31953,7 +31953,7 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>154146287.61607981</v>
+        <v>129108839.37994485</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.3">
@@ -31961,7 +31961,7 @@
         <v>16</v>
       </c>
       <c r="E37">
-        <v>106390500.2003617</v>
+        <v>143660144.83748755</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.3">
@@ -31969,7 +31969,7 @@
         <v>17</v>
       </c>
       <c r="E38">
-        <v>116502190.77901781</v>
+        <v>135904056.05287901</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.3">
@@ -31977,7 +31977,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>114982675.32497743</v>
+        <v>160790783.34681863</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.3">
@@ -31985,7 +31985,7 @@
         <v>19</v>
       </c>
       <c r="E40">
-        <v>121593870.03293243</v>
+        <v>137902338.50288281</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.3">
@@ -31993,7 +31993,7 @@
         <v>20</v>
       </c>
       <c r="E41">
-        <v>162989338.48872823</v>
+        <v>150045979.04790646</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.3">
@@ -32001,7 +32001,7 @@
         <v>21</v>
       </c>
       <c r="E42">
-        <v>114216962.70869821</v>
+        <v>117824718.31264511</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.3">
@@ -32009,7 +32009,7 @@
         <v>22</v>
       </c>
       <c r="E43">
-        <v>133171550.8743102</v>
+        <v>127994635.48339653</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.3">
@@ -32017,7 +32017,7 @@
         <v>23</v>
       </c>
       <c r="E44">
-        <v>114821143.66027588</v>
+        <v>119330051.13663912</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.3">
@@ -32025,7 +32025,7 @@
         <v>24</v>
       </c>
       <c r="E45">
-        <v>158454595.95247295</v>
+        <v>138064443.70681554</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.3">
@@ -32033,7 +32033,7 @@
         <v>25</v>
       </c>
       <c r="E46">
-        <v>135883566.59131658</v>
+        <v>113694827.89747174</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.3">
@@ -32041,7 +32041,7 @@
         <v>26</v>
       </c>
       <c r="E47">
-        <v>125419914.31101406</v>
+        <v>129126820.89243466</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.3">
@@ -32049,7 +32049,7 @@
         <v>27</v>
       </c>
       <c r="E48">
-        <v>151430801.42741576</v>
+        <v>124258960.87383592</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.3">
@@ -32057,7 +32057,7 @@
         <v>28</v>
       </c>
       <c r="E49">
-        <v>119819318.65695459</v>
+        <v>167401746.57219222</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.3">
@@ -32065,7 +32065,7 @@
         <v>29</v>
       </c>
       <c r="E50">
-        <v>127002449.29040821</v>
+        <v>135168363.05647933</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.3">
@@ -32073,7 +32073,7 @@
         <v>30</v>
       </c>
       <c r="E51">
-        <v>125600683.07482173</v>
+        <v>151266438.02450606</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.3">
@@ -32081,7 +32081,7 @@
         <v>31</v>
       </c>
       <c r="E52">
-        <v>97883104.949300081</v>
+        <v>129067631.20933238</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.3">
@@ -32089,7 +32089,7 @@
         <v>32</v>
       </c>
       <c r="E53">
-        <v>106425960.02952674</v>
+        <v>119008699.49374694</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.3">
@@ -32097,7 +32097,7 @@
         <v>33</v>
       </c>
       <c r="E54">
-        <v>125963568.4560232</v>
+        <v>145773153.11400628</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.3">
@@ -32105,7 +32105,7 @@
         <v>34</v>
       </c>
       <c r="E55">
-        <v>126269095.87368387</v>
+        <v>135321374.74348852</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.3">
@@ -32113,7 +32113,7 @@
         <v>35</v>
       </c>
       <c r="E56">
-        <v>159012580.10290459</v>
+        <v>119092196.97626698</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.3">
@@ -32121,7 +32121,7 @@
         <v>36</v>
       </c>
       <c r="E57">
-        <v>113271709.683722</v>
+        <v>140839197.39708361</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.3">
@@ -32129,7 +32129,7 @@
         <v>37</v>
       </c>
       <c r="E58">
-        <v>139894237.71823451</v>
+        <v>106540468.00499684</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.3">
@@ -32137,7 +32137,7 @@
         <v>38</v>
       </c>
       <c r="E59">
-        <v>109178735.71453816</v>
+        <v>152073556.91039768</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.3">
@@ -32145,7 +32145,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>142028947.28922278</v>
+        <v>111497437.91488352</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.3">
@@ -32153,7 +32153,7 @@
         <v>40</v>
       </c>
       <c r="E61">
-        <v>139087720.81143457</v>
+        <v>132939587.16795826</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.3">
@@ -32161,7 +32161,7 @@
         <v>41</v>
       </c>
       <c r="E62">
-        <v>139190623.17351532</v>
+        <v>156128759.06529173</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.3">
@@ -32169,7 +32169,7 @@
         <v>42</v>
       </c>
       <c r="E63">
-        <v>139662497.23665017</v>
+        <v>133772713.21946961</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.3">
@@ -32177,7 +32177,7 @@
         <v>43</v>
       </c>
       <c r="E64">
-        <v>132946041.57753742</v>
+        <v>139674716.86420125</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.3">
@@ -32185,7 +32185,7 @@
         <v>44</v>
       </c>
       <c r="E65">
-        <v>162756992.6046876</v>
+        <v>136849470.7125867</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
@@ -32193,7 +32193,7 @@
         <v>45</v>
       </c>
       <c r="E66">
-        <v>159370027.76243132</v>
+        <v>131772562.40739051</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.3">
@@ -32201,7 +32201,7 @@
         <v>46</v>
       </c>
       <c r="E67">
-        <v>165913371.82240695</v>
+        <v>100324201.5279091</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.3">
@@ -32209,7 +32209,7 @@
         <v>47</v>
       </c>
       <c r="E68">
-        <v>108269646.16301954</v>
+        <v>125813750.30270779</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.3">
@@ -32217,7 +32217,7 @@
         <v>48</v>
       </c>
       <c r="E69">
-        <v>142343499.08238316</v>
+        <v>136580846.81667945</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.3">
@@ -32225,7 +32225,7 @@
         <v>49</v>
       </c>
       <c r="E70">
-        <v>114944854.81392112</v>
+        <v>96270019.346030012</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.3">
@@ -32233,7 +32233,7 @@
         <v>50</v>
       </c>
       <c r="E71">
-        <v>148042054.37464768</v>
+        <v>140912668.84261408</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.3">
@@ -32241,7 +32241,7 @@
         <v>51</v>
       </c>
       <c r="E72">
-        <v>138940685.5321556</v>
+        <v>139004152.99993455</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.3">
@@ -32249,7 +32249,7 @@
         <v>52</v>
       </c>
       <c r="E73">
-        <v>105993682.43842191</v>
+        <v>159227648.53158826</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.3">
@@ -32257,7 +32257,7 @@
         <v>53</v>
       </c>
       <c r="E74">
-        <v>131756538.2971493</v>
+        <v>148652342.24911851</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.3">
@@ -32265,7 +32265,7 @@
         <v>54</v>
       </c>
       <c r="E75">
-        <v>121084881.47686657</v>
+        <v>160778187.53000796</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.3">
@@ -32273,7 +32273,7 @@
         <v>55</v>
       </c>
       <c r="E76">
-        <v>157436053.15600276</v>
+        <v>131398214.84752297</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.3">
@@ -32281,7 +32281,7 @@
         <v>56</v>
       </c>
       <c r="E77">
-        <v>158013833.11719245</v>
+        <v>122605404.90758017</v>
       </c>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.3">
@@ -32289,7 +32289,7 @@
         <v>57</v>
       </c>
       <c r="E78">
-        <v>147461583.26839012</v>
+        <v>146351786.70017117</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.3">
@@ -32297,7 +32297,7 @@
         <v>58</v>
       </c>
       <c r="E79">
-        <v>128215650.80211452</v>
+        <v>132098857.37365675</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.3">
@@ -32305,7 +32305,7 @@
         <v>59</v>
       </c>
       <c r="E80">
-        <v>160357655.25186473</v>
+        <v>106858161.72699681</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.3">
@@ -32313,7 +32313,7 @@
         <v>60</v>
       </c>
       <c r="E81">
-        <v>138329252.51221156</v>
+        <v>122501057.6747489</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.3">
@@ -32321,7 +32321,7 @@
         <v>61</v>
       </c>
       <c r="E82">
-        <v>122814676.98697796</v>
+        <v>131947293.98910797</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.3">
@@ -32329,7 +32329,7 @@
         <v>62</v>
       </c>
       <c r="E83">
-        <v>159523587.09366077</v>
+        <v>130253064.44081368</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.3">
@@ -32337,7 +32337,7 @@
         <v>63</v>
       </c>
       <c r="E84">
-        <v>101304806.6687966</v>
+        <v>138812776.90443894</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.3">
@@ -32345,7 +32345,7 @@
         <v>64</v>
       </c>
       <c r="E85">
-        <v>131719092.869055</v>
+        <v>133122563.43508351</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.3">
@@ -32353,7 +32353,7 @@
         <v>65</v>
       </c>
       <c r="E86">
-        <v>133481309.06351255</v>
+        <v>117811829.67473087</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.3">
@@ -32361,7 +32361,7 @@
         <v>66</v>
       </c>
       <c r="E87">
-        <v>159424044.04445508</v>
+        <v>124025551.71299446</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.3">
@@ -32369,7 +32369,7 @@
         <v>67</v>
       </c>
       <c r="E88">
-        <v>168395253.83142328</v>
+        <v>139548560.71269143</v>
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.3">
@@ -32377,7 +32377,7 @@
         <v>68</v>
       </c>
       <c r="E89">
-        <v>138009167.16117516</v>
+        <v>147041933.68467098</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.3">
@@ -32385,7 +32385,7 @@
         <v>69</v>
       </c>
       <c r="E90">
-        <v>139672964.3355636</v>
+        <v>127968573.63335375</v>
       </c>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.3">
@@ -32393,7 +32393,7 @@
         <v>70</v>
       </c>
       <c r="E91">
-        <v>156906735.7045176</v>
+        <v>149933391.01981533</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.3">
@@ -32401,7 +32401,7 @@
         <v>71</v>
       </c>
       <c r="E92">
-        <v>114426032.31138587</v>
+        <v>106660687.34989911</v>
       </c>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.3">
@@ -32409,7 +32409,7 @@
         <v>72</v>
       </c>
       <c r="E93">
-        <v>166072065.55738616</v>
+        <v>124964499.87602907</v>
       </c>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.3">
@@ -32417,7 +32417,7 @@
         <v>73</v>
       </c>
       <c r="E94">
-        <v>116618743.96918678</v>
+        <v>158199171.92713827</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.3">
@@ -32425,7 +32425,7 @@
         <v>74</v>
       </c>
       <c r="E95">
-        <v>134661427.52605438</v>
+        <v>152244898.33690101</v>
       </c>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.3">
@@ -32433,7 +32433,7 @@
         <v>75</v>
       </c>
       <c r="E96">
-        <v>139001778.46750695</v>
+        <v>127131126.13404921</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
@@ -32441,7 +32441,7 @@
         <v>76</v>
       </c>
       <c r="E97">
-        <v>121940564.85348693</v>
+        <v>128434715.42088456</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
@@ -32449,7 +32449,7 @@
         <v>77</v>
       </c>
       <c r="E98">
-        <v>120154392.14219081</v>
+        <v>116090190.18425977</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
@@ -32457,7 +32457,7 @@
         <v>78</v>
       </c>
       <c r="E99">
-        <v>97356533.563044518</v>
+        <v>125781858.29906856</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
@@ -32465,7 +32465,7 @@
         <v>79</v>
       </c>
       <c r="E100">
-        <v>154479470.78979412</v>
+        <v>112309063.95390245</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
@@ -32473,7 +32473,7 @@
         <v>80</v>
       </c>
       <c r="E101">
-        <v>132745677.33275676</v>
+        <v>143043398.0823493</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
@@ -32481,7 +32481,7 @@
         <v>81</v>
       </c>
       <c r="E102">
-        <v>159222799.64732337</v>
+        <v>140153732.52710408</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
@@ -32489,7 +32489,7 @@
         <v>82</v>
       </c>
       <c r="E103">
-        <v>142216897.45059076</v>
+        <v>126976573.55514762</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
@@ -32497,7 +32497,7 @@
         <v>83</v>
       </c>
       <c r="E104">
-        <v>91067004.07561332</v>
+        <v>141887577.34891421</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
@@ -32505,7 +32505,7 @@
         <v>84</v>
       </c>
       <c r="E105">
-        <v>154844083.77139398</v>
+        <v>122691080.1351178</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
@@ -32513,7 +32513,7 @@
         <v>85</v>
       </c>
       <c r="E106">
-        <v>139082192.225696</v>
+        <v>160354171.10820636</v>
       </c>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.3">
@@ -32521,7 +32521,7 @@
         <v>86</v>
       </c>
       <c r="E107">
-        <v>161198012.63031024</v>
+        <v>113184876.41669893</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.3">
@@ -32529,7 +32529,7 @@
         <v>87</v>
       </c>
       <c r="E108">
-        <v>125112953.31711823</v>
+        <v>146413256.68665934</v>
       </c>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.3">
@@ -32537,7 +32537,7 @@
         <v>88</v>
       </c>
       <c r="E109">
-        <v>117065713.46144928</v>
+        <v>141014344.23181605</v>
       </c>
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.3">
@@ -32545,7 +32545,7 @@
         <v>89</v>
       </c>
       <c r="E110">
-        <v>169584725.24155134</v>
+        <v>131869507.52970165</v>
       </c>
     </row>
     <row r="111" spans="4:5" x14ac:dyDescent="0.3">
@@ -32553,7 +32553,7 @@
         <v>90</v>
       </c>
       <c r="E111">
-        <v>109439540.46117222</v>
+        <v>168156714.55155504</v>
       </c>
     </row>
     <row r="112" spans="4:5" x14ac:dyDescent="0.3">
@@ -32561,7 +32561,7 @@
         <v>91</v>
       </c>
       <c r="E112">
-        <v>148087826.39555043</v>
+        <v>111762670.68950546</v>
       </c>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.3">
@@ -32569,7 +32569,7 @@
         <v>92</v>
       </c>
       <c r="E113">
-        <v>137944165.3790223</v>
+        <v>123786309.80601303</v>
       </c>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.3">
@@ -32577,7 +32577,7 @@
         <v>93</v>
       </c>
       <c r="E114">
-        <v>121213656.52338612</v>
+        <v>140561557.8644985</v>
       </c>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.3">
@@ -32585,7 +32585,7 @@
         <v>94</v>
       </c>
       <c r="E115">
-        <v>133557116.42805342</v>
+        <v>138605316.9910301</v>
       </c>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.3">
@@ -32593,7 +32593,7 @@
         <v>95</v>
       </c>
       <c r="E116">
-        <v>120316252.85957576</v>
+        <v>124240453.83499131</v>
       </c>
     </row>
     <row r="117" spans="4:5" x14ac:dyDescent="0.3">
@@ -32601,7 +32601,7 @@
         <v>96</v>
       </c>
       <c r="E117">
-        <v>132512133.46513385</v>
+        <v>152283416.04410723</v>
       </c>
     </row>
     <row r="118" spans="4:5" x14ac:dyDescent="0.3">
@@ -32609,7 +32609,7 @@
         <v>97</v>
       </c>
       <c r="E118">
-        <v>110310748.3077262</v>
+        <v>162299388.00607333</v>
       </c>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.3">
@@ -32617,7 +32617,7 @@
         <v>98</v>
       </c>
       <c r="E119">
-        <v>124131947.7244105</v>
+        <v>149193610.36709082</v>
       </c>
     </row>
     <row r="120" spans="4:5" x14ac:dyDescent="0.3">
@@ -32625,7 +32625,7 @@
         <v>99</v>
       </c>
       <c r="E120">
-        <v>100147979.56078689</v>
+        <v>133032825.99074574</v>
       </c>
     </row>
     <row r="121" spans="4:5" x14ac:dyDescent="0.3">
@@ -32633,7 +32633,7 @@
         <v>100</v>
       </c>
       <c r="E121">
-        <v>130061712.59145665</v>
+        <v>144981099.18881178</v>
       </c>
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.3">
@@ -32641,7 +32641,7 @@
         <v>101</v>
       </c>
       <c r="E122">
-        <v>125244589.16070557</v>
+        <v>108835128.42107691</v>
       </c>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.3">
@@ -32649,7 +32649,7 @@
         <v>102</v>
       </c>
       <c r="E123">
-        <v>136486445.35018194</v>
+        <v>133043814.76806423</v>
       </c>
     </row>
     <row r="124" spans="4:5" x14ac:dyDescent="0.3">
@@ -32657,7 +32657,7 @@
         <v>103</v>
       </c>
       <c r="E124">
-        <v>117975289.01883432</v>
+        <v>121382694.48045295</v>
       </c>
     </row>
     <row r="125" spans="4:5" x14ac:dyDescent="0.3">
@@ -32665,7 +32665,7 @@
         <v>104</v>
       </c>
       <c r="E125">
-        <v>110887719.58051042</v>
+        <v>133816349.46079892</v>
       </c>
     </row>
     <row r="126" spans="4:5" x14ac:dyDescent="0.3">
@@ -32673,7 +32673,7 @@
         <v>105</v>
       </c>
       <c r="E126">
-        <v>145357809.73039714</v>
+        <v>149724513.57312506</v>
       </c>
     </row>
     <row r="127" spans="4:5" x14ac:dyDescent="0.3">
@@ -32681,7 +32681,7 @@
         <v>106</v>
       </c>
       <c r="E127">
-        <v>157978409.44422936</v>
+        <v>164163372.4755137</v>
       </c>
     </row>
     <row r="128" spans="4:5" x14ac:dyDescent="0.3">
@@ -32689,7 +32689,7 @@
         <v>107</v>
       </c>
       <c r="E128">
-        <v>157739273.08650318</v>
+        <v>122675430.55575244</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.3">
@@ -32697,7 +32697,7 @@
         <v>108</v>
       </c>
       <c r="E129">
-        <v>170826877.40845394</v>
+        <v>143785459.40903085</v>
       </c>
     </row>
   </sheetData>
@@ -32768,15 +32768,15 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N6,Mappings!O6)</f>
-        <v>350.91237931188141</v>
+        <v>623.15346995361961</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N7,Mappings!O7)</f>
-        <v>188.20119888839491</v>
+        <v>165.61716641397589</v>
       </c>
       <c r="D4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N8,Mappings!O8)</f>
-        <v>1154.3885398198458</v>
+        <v>940.07633945714838</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -32804,15 +32804,15 @@
       </c>
       <c r="B6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>0.97168061385716464</v>
+        <v>0.86695305731288963</v>
       </c>
       <c r="C6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>1.6825841966910471</v>
+        <v>1.6402478169413324</v>
       </c>
       <c r="D6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>1.3466220732058489</v>
+        <v>0.83959406389281666</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -32876,15 +32876,15 @@
       </c>
       <c r="B10" s="28">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>-107.00101544155929</v>
+        <v>37.503976933812027</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>1830.9370125150749</v>
+        <v>413.78719699949755</v>
       </c>
       <c r="D10" s="28">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>-280.10109802340088</v>
+        <v>-989.34036351219265</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -32939,15 +32939,15 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>340.9747561398471</v>
+        <v>540.24480595142643</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>316.66436304792194</v>
+        <v>271.65319565853332</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">D4*D6</f>
-        <v>1554.5250887772736</v>
+        <v>789.28251421431025</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -32957,15 +32957,15 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">B8-IF(B9&gt;0,B10,(-1)*B10)</f>
-        <v>3263.0918260822291</v>
+        <v>3407.5968184576004</v>
       </c>
       <c r="C15" s="28">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>5864.944544162674</v>
+        <v>4447.7947286470971</v>
       </c>
       <c r="D15" s="28">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>5253.3872118270083</v>
+        <v>5962.6264773158</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -32975,15 +32975,15 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>2981.579779507304</v>
+        <v>2758.7719451133753</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>13604.198456283317</v>
+        <v>14003.543488867825</v>
       </c>
       <c r="D16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>11919.766288639599</v>
+        <v>11080.527823315244</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -32999,19 +32999,19 @@
       </c>
       <c r="B18" s="36">
         <f ca="1">(B14+B15)*B16</f>
-        <v>10745812.045551341</v>
+        <v>10891194.717170438</v>
       </c>
       <c r="C18" s="36">
         <f ca="1">(C14+C15)*C16</f>
-        <v>84095834.352821589</v>
+        <v>66088994.25146088</v>
       </c>
       <c r="D18" s="36">
         <f ca="1">(D14+D15)*D16</f>
-        <v>81148723.536757782</v>
+        <v>74814715.441141754</v>
       </c>
       <c r="F18" s="28">
         <f ca="1">B18+C18+D18</f>
-        <v>175990369.93513072</v>
+        <v>151794904.40977305</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -33030,7 +33030,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>25601215.385469463</v>
+        <v>21755260.857388031</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>52</v>
@@ -33053,13 +33053,13 @@
       <c r="E20" s="3"/>
       <c r="F20" s="28">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>151385949.77018723</v>
+        <v>152917716.46822453</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="40">
         <f ca="1">100*F19/F20</f>
-        <v>16.911222887152746</v>
+        <v>14.226775915731553</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -33074,7 +33074,7 @@
       </c>
       <c r="F22" s="28">
         <f ca="1">F18</f>
-        <v>175990369.93513072</v>
+        <v>151794904.40977305</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -33085,7 +33085,7 @@
       </c>
       <c r="F23" s="28">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>172747940.77974272</v>
+        <v>180537747.86779767</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -33095,7 +33095,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="28">
-        <v>122503877.67763266</v>
+        <v>130118386.97165915</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -33105,7 +33105,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="28">
-        <v>135204992.2596558</v>
+        <v>158375231.40104127</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -33115,7 +33115,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="28">
-        <v>160774045.41505182</v>
+        <v>137139192.43504924</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -33125,7 +33125,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="28">
-        <v>128619318.08170013</v>
+        <v>154871264.88769203</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -33135,7 +33135,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="28">
-        <v>213049112.11393994</v>
+        <v>144625554.79277876</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -33145,7 +33145,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="28">
-        <v>168977318.48035184</v>
+        <v>138004673.40985399</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -33155,7 +33155,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="28">
-        <v>151974626.00994408</v>
+        <v>172093971.16622731</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -33165,7 +33165,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="28">
-        <v>119455235.65711167</v>
+        <v>153546877.70842808</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -33175,7 +33175,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="28">
-        <v>127640087.5952868</v>
+        <v>140205075.79224354</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -33185,7 +33185,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="28">
-        <v>138746234.95476389</v>
+        <v>108964592.9514634</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -33195,7 +33195,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="28">
-        <v>174721449.94764918</v>
+        <v>159264065.30012086</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -33205,7 +33205,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="28">
-        <v>140467308.45372581</v>
+        <v>166498435.21530798</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -33215,7 +33215,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="28">
-        <v>140332839.75990611</v>
+        <v>154400399.29344094</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -33225,7 +33225,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="28">
-        <v>127065526.86209725</v>
+        <v>130937029.48498756</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -33235,7 +33235,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="28">
-        <v>157536822.28155628</v>
+        <v>127931868.5460341</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -33245,7 +33245,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="28">
-        <v>158766342.63114554</v>
+        <v>182701084.62507132</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -33255,7 +33255,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="28">
-        <v>136647641.37033349</v>
+        <v>147580550.679322</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -33265,7 +33265,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="28">
-        <v>163492158.75799286</v>
+        <v>162180259.52562609</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -33275,7 +33275,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="28">
-        <v>151836601.23894811</v>
+        <v>118584104.35880724</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -33285,7 +33285,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="28">
-        <v>126428767.52914444</v>
+        <v>199785459.17316282</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -33295,7 +33295,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="28">
-        <v>194864513.56848431</v>
+        <v>163674394.41677168</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -33305,7 +33305,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="28">
-        <v>192136247.87399751</v>
+        <v>171267666.50425082</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -33315,7 +33315,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="28">
-        <v>155921421.45512313</v>
+        <v>160312172.50768858</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -33325,7 +33325,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="28">
-        <v>125494543.66182722</v>
+        <v>163151501.30496776</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -33335,7 +33335,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="28">
-        <v>130650219.3071903</v>
+        <v>114200505.06093094</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -33345,7 +33345,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="28">
-        <v>156152169.92950034</v>
+        <v>183113249.09424597</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -33355,7 +33355,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="28">
-        <v>180570402.94077879</v>
+        <v>148192837.57062224</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -33365,7 +33365,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="28">
-        <v>189706400.3848013</v>
+        <v>184077070.43732154</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -33375,7 +33375,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="28">
-        <v>105820260.36184861</v>
+        <v>146640189.55274943</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -33385,7 +33385,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="28">
-        <v>146089366.10423288</v>
+        <v>122808711.5408818</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -33395,7 +33395,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="28">
-        <v>114431520.02606392</v>
+        <v>161378574.07956147</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -33405,7 +33405,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="28">
-        <v>146834162.11356369</v>
+        <v>165152706.05171424</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -33415,7 +33415,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="28">
-        <v>152133141.81916612</v>
+        <v>168023536.86099812</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -33425,7 +33425,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="28">
-        <v>147420287.57903844</v>
+        <v>159710373.97492462</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -33435,7 +33435,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="28">
-        <v>146102737.16283894</v>
+        <v>166702638.39351049</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -33445,7 +33445,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="28">
-        <v>113307585.29798722</v>
+        <v>173151154.89477172</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -33455,7 +33455,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="28">
-        <v>193285373.59371275</v>
+        <v>153877402.28266966</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -33465,7 +33465,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="28">
-        <v>88529548.029881224</v>
+        <v>147490790.43669176</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -33475,7 +33475,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="28">
-        <v>135695793.13095427</v>
+        <v>186704111.08172488</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -33485,7 +33485,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="28">
-        <v>139095553.19816965</v>
+        <v>132859250.07662319</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -33495,7 +33495,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="28">
-        <v>169524162.19830972</v>
+        <v>172321479.65045547</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -33505,7 +33505,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="28">
-        <v>135651168.49294987</v>
+        <v>128269732.54881459</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -33515,7 +33515,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="28">
-        <v>186218370.56343281</v>
+        <v>157581543.63113269</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -33525,7 +33525,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="28">
-        <v>185967189.95871818</v>
+        <v>170455969.41659421</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -33535,7 +33535,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="28">
-        <v>113842811.28450969</v>
+        <v>221252424.20539322</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -33545,7 +33545,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="28">
-        <v>189369965.3143822</v>
+        <v>142761186.49751914</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -33555,7 +33555,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="28">
-        <v>166195584.14268857</v>
+        <v>138711565.18357727</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -33565,7 +33565,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="28">
-        <v>126952733.88800558</v>
+        <v>162027159.03664172</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -33575,7 +33575,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="28">
-        <v>165246824.11597285</v>
+        <v>160838004.65682966</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -33585,7 +33585,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="28">
-        <v>169661482.93201321</v>
+        <v>171425658.38937828</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -33595,7 +33595,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="28">
-        <v>133234343.44043547</v>
+        <v>110049550.18051799</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -33605,7 +33605,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="28">
-        <v>183940256.9981944</v>
+        <v>165132973.57471743</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -33615,7 +33615,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="28">
-        <v>118147627.77408352</v>
+        <v>147926468.83086514</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -33625,7 +33625,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="28">
-        <v>171561140.88218021</v>
+        <v>121550270.1595301</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -33635,7 +33635,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="28">
-        <v>189180114.9250986</v>
+        <v>169562464.56571859</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -33645,7 +33645,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="28">
-        <v>136675252.77909702</v>
+        <v>146040169.89374417</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -33655,7 +33655,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="28">
-        <v>111510338.22634365</v>
+        <v>171976736.38158453</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -33665,7 +33665,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="28">
-        <v>164780265.43766367</v>
+        <v>160422255.06070289</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -33675,7 +33675,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="28">
-        <v>140771500.57645416</v>
+        <v>148208707.16072547</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -33685,7 +33685,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="28">
-        <v>170050150.71356058</v>
+        <v>89372341.824071735</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -33695,7 +33695,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="28">
-        <v>162334993.91484365</v>
+        <v>160185435.93458998</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -33705,7 +33705,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="28">
-        <v>139467334.27929866</v>
+        <v>169645199.2214804</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -33715,7 +33715,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="28">
-        <v>142777017.70980829</v>
+        <v>163273151.51496607</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -33725,7 +33725,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="28">
-        <v>171897071.49716985</v>
+        <v>137925497.16324079</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -33735,7 +33735,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="28">
-        <v>168530880.0435313</v>
+        <v>142892928.95451599</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -33745,7 +33745,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="28">
-        <v>144905886.86712039</v>
+        <v>139293516.92610797</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -33755,7 +33755,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="28">
-        <v>133264399.80027071</v>
+        <v>155763445.49879795</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -33765,7 +33765,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="28">
-        <v>131148228.62703568</v>
+        <v>172122641.55456814</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -33775,7 +33775,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="28">
-        <v>163015911.95606822</v>
+        <v>154305165.13350207</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -33785,7 +33785,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="28">
-        <v>153794673.35480565</v>
+        <v>147304974.19674686</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -33795,7 +33795,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="28">
-        <v>151456765.03630808</v>
+        <v>135185906.07757634</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -33805,7 +33805,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="28">
-        <v>147107099.38767788</v>
+        <v>121902208.85521269</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -33815,7 +33815,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="28">
-        <v>127338011.09782073</v>
+        <v>159838277.53237575</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -33825,7 +33825,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="28">
-        <v>172303298.96016669</v>
+        <v>136542081.15930879</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -33835,7 +33835,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="28">
-        <v>176994958.76832587</v>
+        <v>157922273.16061151</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -33845,7 +33845,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="28">
-        <v>129312392.68022791</v>
+        <v>177341663.02156502</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -33855,7 +33855,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="28">
-        <v>130553249.57898286</v>
+        <v>128269109.70412622</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -33865,7 +33865,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="28">
-        <v>172545061.781436</v>
+        <v>153290799.20965293</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -33875,7 +33875,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="28">
-        <v>119011593.22849274</v>
+        <v>197134701.87357935</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -33885,7 +33885,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="28">
-        <v>180194035.00563636</v>
+        <v>117763115.34922597</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -33895,7 +33895,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="28">
-        <v>170838895.40367863</v>
+        <v>168170800.49379587</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -33905,7 +33905,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="28">
-        <v>164109676.97619754</v>
+        <v>189112016.17264366</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -33915,7 +33915,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="28">
-        <v>143434578.85357201</v>
+        <v>162240116.38265756</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -33925,7 +33925,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="28">
-        <v>164393190.78135467</v>
+        <v>164989290.65734997</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -33935,7 +33935,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="28">
-        <v>194395175.8278625</v>
+        <v>188797215.93869478</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -33945,7 +33945,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="28">
-        <v>120941491.71694814</v>
+        <v>117778571.46177055</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -33955,7 +33955,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="28">
-        <v>180476244.64352664</v>
+        <v>142880011.70908353</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -33965,7 +33965,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="28">
-        <v>177062341.46997184</v>
+        <v>122276035.72434154</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -33975,7 +33975,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="28">
-        <v>147141852.84484717</v>
+        <v>176004209.2596359</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -33985,7 +33985,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="28">
-        <v>194695831.65779567</v>
+        <v>103982970.56869042</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -33995,7 +33995,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="28">
-        <v>162067425.43543577</v>
+        <v>176284880.055415</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -34005,7 +34005,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="28">
-        <v>172296302.04226732</v>
+        <v>152295575.52838433</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -34015,7 +34015,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="28">
-        <v>132241858.79000928</v>
+        <v>126744539.38558477</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -34025,7 +34025,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="28">
-        <v>123013223.75802128</v>
+        <v>169128961.21167615</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -34035,7 +34035,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="28">
-        <v>155466483.93134797</v>
+        <v>152387772.45372397</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -34045,7 +34045,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="28">
-        <v>125893457.06589869</v>
+        <v>157119531.60156882</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -34055,7 +34055,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="28">
-        <v>98204398.567269713</v>
+        <v>149987322.9184913</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -34065,7 +34065,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="28">
-        <v>187705658.5953218</v>
+        <v>148589155.69471258</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -34075,7 +34075,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="28">
-        <v>131700908.38443477</v>
+        <v>138626188.36854619</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -34085,7 +34085,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="28">
-        <v>153987905.03400111</v>
+        <v>145026125.03710729</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -34095,7 +34095,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="28">
-        <v>164303664.16486228</v>
+        <v>166094407.54656705</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -34105,7 +34105,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="28">
-        <v>128958864.19595042</v>
+        <v>145882397.92633468</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -34115,7 +34115,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="28">
-        <v>153303765.17226654</v>
+        <v>132742727.39730737</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -34125,7 +34125,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="28">
-        <v>190328334.56450003</v>
+        <v>139491702.91202992</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -34135,7 +34135,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="28">
-        <v>93527753.489686698</v>
+        <v>159477717.12785724</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -34145,7 +34145,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="28">
-        <v>125539278.26210049</v>
+        <v>142584816.02450365</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -34219,15 +34219,15 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N10,Mappings!O10)</f>
-        <v>630.446067663024</v>
+        <v>773.54774678281399</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N11,Mappings!O11)</f>
-        <v>159.62489805928615</v>
+        <v>162.9098171117941</v>
       </c>
       <c r="D4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N12,Mappings!O12)</f>
-        <v>1080.23878388086</v>
+        <v>910.79731232598556</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -34255,15 +34255,15 @@
       </c>
       <c r="B6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>0.74754520787651924</v>
+        <v>0.80726292541428035</v>
       </c>
       <c r="C6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>4.482376350979794</v>
+        <v>0.55025776061579412</v>
       </c>
       <c r="D6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>2.0397633458491811</v>
+        <v>1.1157751113793295</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -34327,15 +34327,15 @@
       </c>
       <c r="B10" s="28">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>179.80551826020363</v>
+        <v>119.6525582786231</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>-361.44440678761009</v>
+        <v>-2049.5827682578379</v>
       </c>
       <c r="D10" s="28">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>35.083902804488957</v>
+        <v>1275.6341319179028</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -34386,15 +34386,15 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>471.28693670608936</v>
+        <v>624.45641701551938</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>715.49886808850465</v>
+        <v>89.642391146264401</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">D4*D6</f>
-        <v>2203.4314761248734</v>
+        <v>1016.2449726045205</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -34404,15 +34404,15 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">B8-IF(B9&gt;0,B10,(-1)*B10)</f>
-        <v>3549.443088168774</v>
+        <v>3489.2901281871932</v>
       </c>
       <c r="C15" s="28">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>3781.7007353564586</v>
+        <v>2093.5623738862309</v>
       </c>
       <c r="D15" s="28">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>5094.9733674668514</v>
+        <v>3854.4231383534379</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -34422,15 +34422,15 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>1533.5794445854401</v>
+        <v>1500.9706991069725</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>14094.509705576742</v>
+        <v>15307.946261713714</v>
       </c>
       <c r="D16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>11422.060619298034</v>
+        <v>11681.515521457542</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -34446,19 +34446,19 @@
       </c>
       <c r="B18" s="36">
         <f ca="1">(B14+B15)*B16</f>
-        <v>6166108.9183755955</v>
+        <v>6174613.0279018087</v>
       </c>
       <c r="C18" s="36">
         <f ca="1">(C14+C15)*C16</f>
-        <v>63385823.458670907</v>
+        <v>33420381.221434753</v>
       </c>
       <c r="D18" s="36">
         <f ca="1">(D14+D15)*D16</f>
-        <v>83362822.54768306</v>
+        <v>56896785.138023682</v>
       </c>
       <c r="F18" s="28">
         <f ca="1">B18+C18+D18</f>
-        <v>152914754.92472956</v>
+        <v>96491779.387360245</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -34477,7 +34477,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>29375612.958296653</v>
+        <v>29786516.008065201</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>52</v>
@@ -34500,13 +34500,13 @@
       <c r="E20" s="3"/>
       <c r="F20" s="28">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>158821141.90863892</v>
+        <v>163155191.99893454</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="40">
         <f ca="1">100*F19/F20</f>
-        <v>18.49603434736342</v>
+        <v>18.256554169762317</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -34521,7 +34521,7 @@
       </c>
       <c r="F22" s="28">
         <f ca="1">F18</f>
-        <v>152914754.92472956</v>
+        <v>96491779.387360245</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -34532,7 +34532,7 @@
       </c>
       <c r="F23" s="28">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>138587745.84583291</v>
+        <v>201673337.63605723</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -34542,7 +34542,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="28">
-        <v>193176559.62358415</v>
+        <v>137069536.30983281</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -34552,7 +34552,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="28">
-        <v>171720794.47044209</v>
+        <v>183985559.9593904</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -34562,7 +34562,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="28">
-        <v>185538030.66036022</v>
+        <v>175087321.88492754</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -34572,7 +34572,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="28">
-        <v>186697481.61197528</v>
+        <v>171319711.34698772</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -34582,7 +34582,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="28">
-        <v>125644852.75535338</v>
+        <v>148102034.49313042</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -34592,7 +34592,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="28">
-        <v>134686392.3833544</v>
+        <v>139016471.34189835</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -34602,7 +34602,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="28">
-        <v>138370016.42842326</v>
+        <v>159414715.20317182</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -34612,7 +34612,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="28">
-        <v>189269499.85281873</v>
+        <v>146106518.98689222</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -34622,7 +34622,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="28">
-        <v>196606663.90848771</v>
+        <v>176094508.5149768</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -34632,7 +34632,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="28">
-        <v>76471863.209074885</v>
+        <v>148017599.56382596</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -34642,7 +34642,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="28">
-        <v>146365295.29614252</v>
+        <v>117708574.67427579</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -34652,7 +34652,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="28">
-        <v>147760547.13318783</v>
+        <v>165948779.520962</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -34662,7 +34662,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="28">
-        <v>204679642.76051241</v>
+        <v>135592130.3645494</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -34672,7 +34672,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="28">
-        <v>199419581.04987746</v>
+        <v>141279002.10173136</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -34682,7 +34682,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="28">
-        <v>172614548.25326186</v>
+        <v>221705031.58004361</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -34692,7 +34692,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="28">
-        <v>185390182.74708286</v>
+        <v>134745793.92778432</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -34702,7 +34702,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="28">
-        <v>138333435.17787045</v>
+        <v>210049337.93282568</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -34712,7 +34712,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="28">
-        <v>179384634.14989284</v>
+        <v>156975399.80949834</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -34722,7 +34722,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="28">
-        <v>138890730.36933652</v>
+        <v>171253554.86207694</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -34732,7 +34732,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="28">
-        <v>176292218.80512768</v>
+        <v>116049971.2061028</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -34742,7 +34742,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="28">
-        <v>156378013.00221506</v>
+        <v>103324737.24025099</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -34752,7 +34752,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="28">
-        <v>173303406.95851722</v>
+        <v>133850774.7274902</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -34762,7 +34762,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="28">
-        <v>134757701.88434902</v>
+        <v>104575113.13216859</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -34772,7 +34772,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="28">
-        <v>170049634.84203821</v>
+        <v>139675275.0462842</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -34782,7 +34782,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="28">
-        <v>170546805.64786619</v>
+        <v>185885916.13606295</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -34792,7 +34792,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="28">
-        <v>148730985.94146425</v>
+        <v>218683023.41401577</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -34802,7 +34802,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="28">
-        <v>144963151.94272637</v>
+        <v>173386516.53690064</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -34812,7 +34812,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="28">
-        <v>111100870.4826408</v>
+        <v>169383778.76303935</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -34822,7 +34822,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="28">
-        <v>188146533.39305818</v>
+        <v>173382127.95839912</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -34832,7 +34832,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="28">
-        <v>167258980.61849034</v>
+        <v>166162393.3610884</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -34842,7 +34842,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="28">
-        <v>151042087.28693959</v>
+        <v>169571520.32359153</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -34852,7 +34852,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="28">
-        <v>182557148.63516778</v>
+        <v>186168861.73322198</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -34862,7 +34862,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="28">
-        <v>150700397.06136709</v>
+        <v>106828016.4943901</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -34872,7 +34872,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="28">
-        <v>206213449.83515078</v>
+        <v>193393407.42080915</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -34882,7 +34882,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="28">
-        <v>130048227.97280058</v>
+        <v>146887422.6595915</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -34892,7 +34892,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="28">
-        <v>147273609.35117286</v>
+        <v>188278545.84479952</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -34902,7 +34902,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="28">
-        <v>206254296.15544647</v>
+        <v>141679058.26487929</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -34912,7 +34912,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="28">
-        <v>170781338.90206021</v>
+        <v>160751957.17798871</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -34922,7 +34922,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="28">
-        <v>134058854.26206274</v>
+        <v>125936094.4459018</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -34932,7 +34932,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="28">
-        <v>163315601.21854657</v>
+        <v>159073303.23259893</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -34942,7 +34942,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="28">
-        <v>162688080.74882609</v>
+        <v>164030596.35228589</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -34952,7 +34952,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="28">
-        <v>159057476.26055944</v>
+        <v>153859344.13144577</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -34962,7 +34962,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="28">
-        <v>115564779.31664747</v>
+        <v>165542994.3584688</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -34972,7 +34972,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="28">
-        <v>176021131.46290597</v>
+        <v>145608274.1762298</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -34982,7 +34982,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="28">
-        <v>188258240.46148637</v>
+        <v>181577824.03980923</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -34992,7 +34992,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="28">
-        <v>163670530.24587712</v>
+        <v>193496882.10586789</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -35002,7 +35002,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="28">
-        <v>166121814.00291556</v>
+        <v>188670178.17096627</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -35012,7 +35012,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="28">
-        <v>120043686.2887685</v>
+        <v>190105879.66287315</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -35022,7 +35022,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="28">
-        <v>171640075.10594976</v>
+        <v>185378339.32382879</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -35032,7 +35032,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="28">
-        <v>150992838.34091559</v>
+        <v>158605090.81177598</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -35042,7 +35042,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="28">
-        <v>207360700.47458372</v>
+        <v>140989385.33461654</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -35052,7 +35052,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="28">
-        <v>91308615.987827942</v>
+        <v>138471413.83973137</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -35062,7 +35062,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="28">
-        <v>165315916.0009391</v>
+        <v>206193726.06327844</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -35072,7 +35072,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="28">
-        <v>174390523.30806983</v>
+        <v>174411404.61122215</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -35082,7 +35082,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="28">
-        <v>96875031.082969338</v>
+        <v>188731857.2374801</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -35092,7 +35092,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="28">
-        <v>157289035.03766945</v>
+        <v>177863782.93374455</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -35102,7 +35102,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="28">
-        <v>151175504.14406246</v>
+        <v>161484100.3580749</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -35112,7 +35112,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="28">
-        <v>128256053.93586703</v>
+        <v>288701071.2017082</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -35122,7 +35122,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="28">
-        <v>171850844.74910724</v>
+        <v>199503458.35909766</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -35132,7 +35132,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="28">
-        <v>215866785.4967815</v>
+        <v>178299956.57337832</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -35142,7 +35142,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="28">
-        <v>152419408.19871822</v>
+        <v>136336149.19895345</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -35152,7 +35152,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="28">
-        <v>192031980.97914916</v>
+        <v>175286252.93057382</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -35162,7 +35162,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="28">
-        <v>164119237.92911941</v>
+        <v>195204252.11084211</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -35172,7 +35172,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="28">
-        <v>131398447.81902726</v>
+        <v>157666302.19842941</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -35182,7 +35182,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="28">
-        <v>123409783.72207713</v>
+        <v>126117036.84433505</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -35192,7 +35192,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="28">
-        <v>200513094.38490885</v>
+        <v>155197638.59299451</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -35202,7 +35202,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="28">
-        <v>173560876.01003492</v>
+        <v>136637692.77540985</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -35212,7 +35212,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="28">
-        <v>142058113.97734284</v>
+        <v>204019972.37644067</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -35222,7 +35222,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="28">
-        <v>210630456.43752569</v>
+        <v>148265703.61768654</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -35232,7 +35232,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="28">
-        <v>151835631.50159347</v>
+        <v>195009433.5960052</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -35242,7 +35242,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="28">
-        <v>141913259.29587942</v>
+        <v>142723700.93693471</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -35252,7 +35252,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="28">
-        <v>149180572.32742077</v>
+        <v>151567330.39531729</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -35262,7 +35262,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="28">
-        <v>141081947.24084684</v>
+        <v>139984962.97373348</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -35272,7 +35272,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="28">
-        <v>174001267.54102284</v>
+        <v>200166928.41168261</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -35282,7 +35282,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="28">
-        <v>129908321.54427229</v>
+        <v>153936993.29913872</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -35292,7 +35292,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="28">
-        <v>160248044.74450949</v>
+        <v>203139197.16147915</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -35302,7 +35302,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="28">
-        <v>179087804.34252533</v>
+        <v>178215271.9446528</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -35312,7 +35312,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="28">
-        <v>166143951.62337804</v>
+        <v>134801478.61198974</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -35322,7 +35322,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="28">
-        <v>139452889.36896527</v>
+        <v>125841089.53832053</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -35332,7 +35332,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="28">
-        <v>146883962.09894803</v>
+        <v>156101942.72518957</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -35342,7 +35342,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="28">
-        <v>162638159.18557531</v>
+        <v>181829702.58159095</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -35352,7 +35352,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="28">
-        <v>154435467.80824852</v>
+        <v>122791140.11541188</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -35362,7 +35362,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="28">
-        <v>65465761.943559334</v>
+        <v>200070513.82278472</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -35372,7 +35372,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="28">
-        <v>198605989.95542386</v>
+        <v>145128890.2071996</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -35382,7 +35382,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="28">
-        <v>144317579.35065383</v>
+        <v>139537250.94909364</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -35392,7 +35392,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="28">
-        <v>173597463.97503537</v>
+        <v>166658347.18247291</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -35402,7 +35402,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="28">
-        <v>179863234.67331588</v>
+        <v>124623757.0216864</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -35412,7 +35412,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="28">
-        <v>116157537.88510853</v>
+        <v>182984481.4744916</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -35422,7 +35422,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="28">
-        <v>186711201.8548125</v>
+        <v>151183218.88153309</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -35432,7 +35432,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="28">
-        <v>111065892.68241549</v>
+        <v>170059917.27114117</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -35442,7 +35442,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="28">
-        <v>195868423.24538821</v>
+        <v>168551545.44947556</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -35452,7 +35452,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="28">
-        <v>145654583.30526853</v>
+        <v>157774722.17349148</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -35462,7 +35462,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="28">
-        <v>121526113.65116219</v>
+        <v>118994916.6498086</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -35472,7 +35472,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="28">
-        <v>143727114.20085412</v>
+        <v>170747585.39813495</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -35482,7 +35482,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="28">
-        <v>185580313.24346364</v>
+        <v>196138691.64031532</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -35492,7 +35492,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="28">
-        <v>141661125.93949819</v>
+        <v>185392966.2967903</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -35502,7 +35502,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="28">
-        <v>183753901.97529355</v>
+        <v>168555764.66460896</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -35512,7 +35512,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="28">
-        <v>208750137.10997981</v>
+        <v>167113924.03366563</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -35522,7 +35522,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="28">
-        <v>144419436.55002069</v>
+        <v>137400234.55318823</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -35532,7 +35532,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="28">
-        <v>186156110.43772912</v>
+        <v>197590816.03315318</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -35542,7 +35542,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="28">
-        <v>193180061.42785165</v>
+        <v>212739511.69503403</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -35552,7 +35552,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="28">
-        <v>166306472.57832035</v>
+        <v>151238600.59437343</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -35562,7 +35562,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="28">
-        <v>164612553.88890219</v>
+        <v>148721655.32596791</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -35572,7 +35572,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="28">
-        <v>113506667.1066476</v>
+        <v>130458335.23068537</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -35582,7 +35582,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="28">
-        <v>130240952.01921964</v>
+        <v>151313652.63776562</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -35592,7 +35592,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="28">
-        <v>144957789.7884565</v>
+        <v>174851189.59330156</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -35666,15 +35666,15 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N14,Mappings!O14)</f>
-        <v>508.75430951574333</v>
+        <v>957.20017881207036</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N15,Mappings!O15)</f>
-        <v>195.70565173262955</v>
+        <v>175.64439878798058</v>
       </c>
       <c r="D4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N16,Mappings!O16)</f>
-        <v>1160.1457263203392</v>
+        <v>750.99489758854236</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -35702,15 +35702,15 @@
       </c>
       <c r="B6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>1.331169101502883</v>
+        <v>1.0548927304558691</v>
       </c>
       <c r="C6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>2.3716932667339474</v>
+        <v>3.7390900817210988</v>
       </c>
       <c r="D6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>0.71947480479854997</v>
+        <v>1.1400366040830223</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -35774,15 +35774,15 @@
       </c>
       <c r="B10" s="28">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>452.05522947184727</v>
+        <v>52.510818443175211</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>421.17764681055883</v>
+        <v>1918.1599809970457</v>
       </c>
       <c r="D10" s="28">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>-164.75932065679876</v>
+        <v>624.76537648375825</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -35833,15 +35833,15 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>677.23801708379176</v>
+        <v>1009.7435102199111</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>464.15377647605641</v>
+        <v>656.75022941800353</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">D4*D6</f>
-        <v>834.69561998219808</v>
+        <v>856.16167273051894</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -35851,15 +35851,15 @@
       </c>
       <c r="B15" s="16">
         <f ca="1">B8-IF(B9&gt;0,B10,(-1)*B10)</f>
-        <v>3822.1732948061749</v>
+        <v>3422.6288837775028</v>
       </c>
       <c r="C15" s="16">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>4698.2863689360702</v>
+        <v>6195.2687031225569</v>
       </c>
       <c r="D15" s="16">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>5415.1440088804557</v>
+        <v>4625.619311739898</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -35869,15 +35869,15 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>248.447610679359</v>
+        <v>243.71298402514168</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>16237.839345580487</v>
+        <v>15362.950476340648</v>
       </c>
       <c r="D16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>12058.273171895029</v>
+        <v>11968.460255158345</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -35893,19 +35893,19 @@
       </c>
       <c r="B18" s="36">
         <f ca="1">(B14+B15)*B16</f>
-        <v>1117867.9899027424</v>
+        <v>1080226.7024517707</v>
       </c>
       <c r="C18" s="36">
         <f ca="1">(C14+C15)*C16</f>
-        <v>83826873.71237728</v>
+        <v>105267227.52356915</v>
       </c>
       <c r="D18" s="36">
         <f ca="1">(D14+D15)*D16</f>
-        <v>75362273.525360927</v>
+        <v>65608477.84011697</v>
       </c>
       <c r="F18" s="28">
         <f ca="1">B18+C18+D18</f>
-        <v>160307015.22764096</v>
+        <v>171955932.06613788</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -35924,7 +35924,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>32672798.451108217</v>
+        <v>35545021.885762222</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>52</v>
@@ -35947,13 +35947,13 @@
       <c r="E20" s="3"/>
       <c r="F20" s="28">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>164774251.11962381</v>
+        <v>169478170.65708163</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="40">
         <f ca="1">100*F19/F20</f>
-        <v>19.828825334723096</v>
+        <v>20.973215457749561</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -35968,7 +35968,7 @@
       </c>
       <c r="F22" s="28">
         <f ca="1">F18</f>
-        <v>160307015.22764096</v>
+        <v>171955932.06613788</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -35979,7 +35979,7 @@
       </c>
       <c r="F23" s="28">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>165791576.96971491</v>
+        <v>143070216.45480898</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -35989,7 +35989,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="28">
-        <v>187568375.5857386</v>
+        <v>113279840.16285929</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -35999,7 +35999,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="28">
-        <v>167135156.5923675</v>
+        <v>136187546.86956304</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -36009,7 +36009,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="28">
-        <v>239780511.56249845</v>
+        <v>203724694.54172045</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -36019,7 +36019,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="28">
-        <v>182918562.65904593</v>
+        <v>163578457.0673714</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -36029,7 +36029,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="28">
-        <v>201991671.68298173</v>
+        <v>219955612.06726325</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -36039,7 +36039,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="28">
-        <v>144491341.63096979</v>
+        <v>154939155.96030039</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -36049,7 +36049,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="28">
-        <v>157532725.30150408</v>
+        <v>147432288.51891091</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -36059,7 +36059,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="28">
-        <v>179930055.210226</v>
+        <v>60271554.57354565</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -36069,7 +36069,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="28">
-        <v>144640328.01449844</v>
+        <v>186257712.89842516</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -36079,7 +36079,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="28">
-        <v>115162381.32498717</v>
+        <v>116729451.19335821</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -36089,7 +36089,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="28">
-        <v>169594959.52322853</v>
+        <v>147851456.48060644</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -36099,7 +36099,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="28">
-        <v>160732090.91076827</v>
+        <v>129579300.3236538</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -36109,7 +36109,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="28">
-        <v>183302005.79587889</v>
+        <v>208232765.46713877</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -36119,7 +36119,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="28">
-        <v>165858089.08537978</v>
+        <v>135941321.75431812</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -36129,7 +36129,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="28">
-        <v>138364533.89184248</v>
+        <v>144735109.8631736</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -36139,7 +36139,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="28">
-        <v>217234176.72132486</v>
+        <v>205341798.02801272</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -36149,7 +36149,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="28">
-        <v>103965029.24955882</v>
+        <v>228130157.79103994</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -36159,7 +36159,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="28">
-        <v>171534198.02646157</v>
+        <v>111237872.03473347</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -36169,7 +36169,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="28">
-        <v>208998493.15685099</v>
+        <v>173519612.44138166</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -36179,7 +36179,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="28">
-        <v>159127224.84067354</v>
+        <v>187870889.18186083</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -36189,7 +36189,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="28">
-        <v>163365274.30488276</v>
+        <v>210327227.96358517</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -36199,7 +36199,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="28">
-        <v>180784582.6046899</v>
+        <v>143414938.82149106</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -36209,7 +36209,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="28">
-        <v>172173748.84836349</v>
+        <v>179329357.70730162</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -36219,7 +36219,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="28">
-        <v>159022901.46074697</v>
+        <v>179163978.96526647</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -36229,7 +36229,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="28">
-        <v>115478496.58147436</v>
+        <v>198203013.64289308</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -36239,7 +36239,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="28">
-        <v>145021084.90679723</v>
+        <v>140909574.15080112</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -36249,7 +36249,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="28">
-        <v>138976146.86544275</v>
+        <v>157951653.5246034</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -36259,7 +36259,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="28">
-        <v>146355221.90373069</v>
+        <v>112211748.1906043</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -36269,7 +36269,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="28">
-        <v>198977881.54936826</v>
+        <v>194579357.12019897</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -36279,7 +36279,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="28">
-        <v>206362532.0665144</v>
+        <v>175892612.61032555</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -36289,7 +36289,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="28">
-        <v>127581184.31792846</v>
+        <v>191320773.74199092</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -36299,7 +36299,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="28">
-        <v>196658243.77705896</v>
+        <v>190172144.11576995</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -36309,7 +36309,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="28">
-        <v>186624537.37905079</v>
+        <v>140703403.77737898</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -36319,7 +36319,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="28">
-        <v>150971668.97374046</v>
+        <v>154549520.06147283</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -36329,7 +36329,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="28">
-        <v>59725769.543135479</v>
+        <v>195631545.04012966</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -36339,7 +36339,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="28">
-        <v>144210129.52475274</v>
+        <v>137632175.23192734</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -36349,7 +36349,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="28">
-        <v>131517410.22052869</v>
+        <v>176099841.30650592</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -36359,7 +36359,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="28">
-        <v>128058516.19126117</v>
+        <v>211782510.63107032</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -36369,7 +36369,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="28">
-        <v>189309750.46312445</v>
+        <v>157604996.85460967</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -36379,7 +36379,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="28">
-        <v>147698460.64640832</v>
+        <v>157368138.74529058</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -36389,7 +36389,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="28">
-        <v>153180614.84696269</v>
+        <v>163267749.13424677</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -36399,7 +36399,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="28">
-        <v>140446348.61155641</v>
+        <v>173127106.33481991</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -36409,7 +36409,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="28">
-        <v>132312126.42333066</v>
+        <v>115669950.01274018</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -36419,7 +36419,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="28">
-        <v>173868440.24713501</v>
+        <v>177323408.09526843</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -36429,7 +36429,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="28">
-        <v>152025056.12040973</v>
+        <v>145364033.51605624</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -36439,7 +36439,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="28">
-        <v>144039604.77622923</v>
+        <v>224489622.2493315</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -36449,7 +36449,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="28">
-        <v>189066406.04214031</v>
+        <v>187679141.08022588</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -36459,7 +36459,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="28">
-        <v>204056084.66331285</v>
+        <v>183202472.94218099</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -36469,7 +36469,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="28">
-        <v>119058168.91237238</v>
+        <v>224279915.26957193</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -36479,7 +36479,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="28">
-        <v>192032305.51214224</v>
+        <v>152397061.82974139</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -36489,7 +36489,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="28">
-        <v>175922485.31121251</v>
+        <v>168898903.58698764</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -36499,7 +36499,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="28">
-        <v>139997446.05610052</v>
+        <v>132282106.02349591</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -36509,7 +36509,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="28">
-        <v>160827391.34686124</v>
+        <v>165920757.4755438</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -36519,7 +36519,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="28">
-        <v>141933903.31850851</v>
+        <v>96792949.669698119</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -36529,7 +36529,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="28">
-        <v>168064465.02253646</v>
+        <v>189483823.59724694</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -36539,7 +36539,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="28">
-        <v>230853235.48188025</v>
+        <v>118687970.03880699</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -36549,7 +36549,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="28">
-        <v>93487927.267965376</v>
+        <v>148552701.16133887</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -36559,7 +36559,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="28">
-        <v>122802706.04911354</v>
+        <v>145085034.54908422</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -36569,7 +36569,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="28">
-        <v>165255932.53041524</v>
+        <v>139437492.85872751</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -36579,7 +36579,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="28">
-        <v>155715954.64122856</v>
+        <v>221876969.27182996</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -36589,7 +36589,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="28">
-        <v>128758104.2090577</v>
+        <v>204283082.40458131</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -36599,7 +36599,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="28">
-        <v>216025521.33995146</v>
+        <v>213022170.14823681</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -36609,7 +36609,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="28">
-        <v>146313489.23592386</v>
+        <v>168759562.22074366</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -36619,7 +36619,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="28">
-        <v>183056598.69342506</v>
+        <v>204515456.5544858</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -36629,7 +36629,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="28">
-        <v>212990752.61692286</v>
+        <v>172373199.46188283</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -36639,7 +36639,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="28">
-        <v>189076541.14564514</v>
+        <v>164443466.76638433</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -36649,7 +36649,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="28">
-        <v>216033755.68077558</v>
+        <v>145102676.69914705</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -36659,7 +36659,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="28">
-        <v>132474894.65105408</v>
+        <v>149435918.3672767</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -36669,7 +36669,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="28">
-        <v>172227432.58456543</v>
+        <v>169929571.65817821</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -36679,7 +36679,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="28">
-        <v>151846471.82265738</v>
+        <v>208821204.91077644</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -36689,7 +36689,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="28">
-        <v>153219679.24314076</v>
+        <v>276863153.9067415</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -36699,7 +36699,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="28">
-        <v>188471858.61861193</v>
+        <v>193702711.96801442</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -36709,7 +36709,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="28">
-        <v>174874937.27843523</v>
+        <v>188794977.78658983</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -36719,7 +36719,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="28">
-        <v>190578854.6064592</v>
+        <v>165144088.91193104</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -36729,7 +36729,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="28">
-        <v>114503992.28574681</v>
+        <v>188002772.58635437</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -36739,7 +36739,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="28">
-        <v>193466217.10891318</v>
+        <v>179175050.33647829</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -36749,7 +36749,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="28">
-        <v>182968981.2089836</v>
+        <v>212513331.8017962</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -36759,7 +36759,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="28">
-        <v>163794463.97935945</v>
+        <v>184193361.83446634</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -36769,7 +36769,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="28">
-        <v>165306043.30584627</v>
+        <v>125597074.65250932</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -36779,7 +36779,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="28">
-        <v>178922103.4602114</v>
+        <v>99334812.854860798</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -36789,7 +36789,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="28">
-        <v>205967589.78940096</v>
+        <v>136449701.96179175</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -36799,7 +36799,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="28">
-        <v>198043080.75440556</v>
+        <v>164446653.76697952</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -36809,7 +36809,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="28">
-        <v>176817377.07956862</v>
+        <v>151068965.17268991</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -36819,7 +36819,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="28">
-        <v>113232612.89958136</v>
+        <v>167194555.67715031</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -36829,7 +36829,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="28">
-        <v>134565610.47880137</v>
+        <v>208556501.43545175</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -36839,7 +36839,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="28">
-        <v>111438731.14894894</v>
+        <v>157892130.4558593</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -36849,7 +36849,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="28">
-        <v>198817145.44438708</v>
+        <v>135443530.58482736</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -36859,7 +36859,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="28">
-        <v>164795596.47098505</v>
+        <v>136673809.69785488</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -36869,7 +36869,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="28">
-        <v>212847454.0149411</v>
+        <v>183700473.79145676</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -36879,7 +36879,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="28">
-        <v>211627272.12486792</v>
+        <v>174705378.95652407</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -36889,7 +36889,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="28">
-        <v>213069035.41727281</v>
+        <v>113802132.46757132</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -36899,7 +36899,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="28">
-        <v>146242261.56028011</v>
+        <v>177976637.37032086</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -36909,7 +36909,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="28">
-        <v>210980546.07247263</v>
+        <v>235878170.39296523</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -36919,7 +36919,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="28">
-        <v>192387714.99400049</v>
+        <v>195792090.26765761</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -36929,7 +36929,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="28">
-        <v>140665063.54288167</v>
+        <v>226975642.13831159</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -36939,7 +36939,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="28">
-        <v>201586050.17249274</v>
+        <v>232516835.96972615</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -36949,7 +36949,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="28">
-        <v>138092910.55933639</v>
+        <v>169365722.50855386</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -36959,7 +36959,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="28">
-        <v>150470635.7199266</v>
+        <v>153604902.8669416</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -36969,7 +36969,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="28">
-        <v>132970994.9357993</v>
+        <v>187044101.60455403</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -36979,7 +36979,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="28">
-        <v>134869631.01057014</v>
+        <v>138129335.38526195</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -36989,7 +36989,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="28">
-        <v>176706189.00883648</v>
+        <v>190291355.62466833</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -36999,7 +36999,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="28">
-        <v>101070856.70593338</v>
+        <v>164651492.2106123</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -37009,7 +37009,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="28">
-        <v>183414193.05382273</v>
+        <v>126339480.72590441</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -37019,7 +37019,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="28">
-        <v>189861969.61701226</v>
+        <v>163357534.11581114</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -37029,7 +37029,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="28">
-        <v>143084525.74577045</v>
+        <v>226929518.62965852</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -37039,7 +37039,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="28">
-        <v>187302731.24684235</v>
+        <v>202357704.71393043</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -37133,15 +37133,15 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N18,Mappings!O18)</f>
-        <v>891.05842575646068</v>
+        <v>566.9482348263125</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N19,Mappings!O19)</f>
-        <v>176.29043005938792</v>
+        <v>210.03007844895703</v>
       </c>
       <c r="D4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N20,Mappings!O20)</f>
-        <v>1090.5210583023784</v>
+        <v>1378.1291150575801</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -37179,15 +37179,15 @@
       </c>
       <c r="B6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>2.0259275468399691</v>
+        <v>1.0699374407909188</v>
       </c>
       <c r="C6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>2.035065116911623</v>
+        <v>1.090629361478737</v>
       </c>
       <c r="D6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>1.2348065542880684</v>
+        <v>1.9779555483018747</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -37271,15 +37271,15 @@
       </c>
       <c r="B10" s="16">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>-96.983699194578477</v>
+        <v>46.756782791538711</v>
       </c>
       <c r="C10" s="16">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>1455.5249543790078</v>
+        <v>-1130.5307934198713</v>
       </c>
       <c r="D10" s="16">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>1025.56926177846</v>
+        <v>839.9020276832714</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -37350,15 +37350,15 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>1805.2198105838711</v>
+        <v>606.59914343099365</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>358.76250465920856</v>
+        <v>229.06497035011503</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">D4*D6</f>
-        <v>1346.5825503809376</v>
+        <v>2725.8781294044929</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -37373,15 +37373,15 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">B8-IF(B9&gt;0,B10,(-1)*B10)</f>
-        <v>3273.8107229695806</v>
+        <v>3417.5512049556978</v>
       </c>
       <c r="C15" s="28">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>5636.9128935547969</v>
+        <v>3050.8571457559178</v>
       </c>
       <c r="D15" s="28">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>3936.2935561392569</v>
+        <v>4121.9607902344451</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -37396,15 +37396,15 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>2883.2214154764679</v>
+        <v>2924.4928354225872</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>14372.503890610411</v>
+        <v>13559.08538521532</v>
       </c>
       <c r="D16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>12087.7441716147</v>
+        <v>11819.152793164216</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -37430,20 +37430,20 @@
       </c>
       <c r="B18" s="36">
         <f ca="1">(B14+B15)*B16</f>
-        <v>14643969.604200184</v>
+        <v>11768598.862520186</v>
       </c>
       <c r="C18" s="36">
         <f ca="1">(C14+C15)*C16</f>
-        <v>86172867.987667918</v>
+        <v>44472744.029137813</v>
       </c>
       <c r="D18" s="36">
         <f ca="1">(D14+D15)*D16</f>
-        <v>63858054.865952037</v>
+        <v>80935654.494189188</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28">
         <f ca="1">B18+C18+D18</f>
-        <v>164674892.45782015</v>
+        <v>137176997.38584718</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -37466,7 +37466,7 @@
       <c r="E19" s="28"/>
       <c r="F19" s="28">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>33393477.874883916</v>
+        <v>30215391.218213394</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="1" t="s">
@@ -37491,13 +37491,13 @@
       <c r="E20" s="28"/>
       <c r="F20" s="28">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>163747782.94646987</v>
+        <v>166369216.30834034</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="39">
         <f ca="1">100*F19/F20</f>
-        <v>20.393239697053144</v>
+        <v>18.161647862915764</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -37512,7 +37512,7 @@
       </c>
       <c r="F22" s="30">
         <f ca="1">F18</f>
-        <v>164674892.45782015</v>
+        <v>137176997.38584718</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -37523,7 +37523,7 @@
       </c>
       <c r="F23" s="30">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>125446521.44766824</v>
+        <v>214778143.21458393</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -37533,7 +37533,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="30">
-        <v>156868710.63345021</v>
+        <v>122091340.99502955</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -37543,7 +37543,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="30">
-        <v>160837034.61182359</v>
+        <v>167536503.61695281</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -37553,7 +37553,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="30">
-        <v>107568339.61199403</v>
+        <v>192081736.54437315</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -37563,7 +37563,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="30">
-        <v>189694922.12621576</v>
+        <v>209806658.11049873</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -37573,7 +37573,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="30">
-        <v>129410458.44932202</v>
+        <v>171689139.81777796</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -37583,7 +37583,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="30">
-        <v>164497779.74721521</v>
+        <v>149728436.3249017</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -37593,7 +37593,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="30">
-        <v>118252513.1101681</v>
+        <v>152315451.20991024</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -37603,7 +37603,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="30">
-        <v>171230197.79867288</v>
+        <v>177449090.00934085</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -37613,7 +37613,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="30">
-        <v>234308229.90271693</v>
+        <v>149684070.14262328</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -37623,7 +37623,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="30">
-        <v>178259086.38285306</v>
+        <v>175292324.09494406</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -37633,7 +37633,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="30">
-        <v>179700643.43564332</v>
+        <v>183938658.12098843</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -37643,7 +37643,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="30">
-        <v>171220722.13925174</v>
+        <v>141289006.33658955</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -37653,7 +37653,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="30">
-        <v>224916429.73166454</v>
+        <v>148602605.53445226</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -37663,7 +37663,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="30">
-        <v>110311002.00038514</v>
+        <v>157082512.7472077</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -37673,7 +37673,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="30">
-        <v>206127941.55723375</v>
+        <v>168225157.28173423</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -37683,7 +37683,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="30">
-        <v>139751368.95659319</v>
+        <v>194265567.66462407</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -37693,7 +37693,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="30">
-        <v>251851265.99600345</v>
+        <v>164803966.06476885</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -37703,7 +37703,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="30">
-        <v>198617334.54507273</v>
+        <v>152452804.25522906</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -37713,7 +37713,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="30">
-        <v>176192822.02801272</v>
+        <v>188641331.56332785</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -37723,7 +37723,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="30">
-        <v>147590679.29554689</v>
+        <v>171903894.51804399</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -37733,7 +37733,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="30">
-        <v>177465799.0715988</v>
+        <v>141928783.5477213</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -37743,7 +37743,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="30">
-        <v>209816293.39080745</v>
+        <v>177812634.27323312</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -37753,7 +37753,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="30">
-        <v>224408646.83827844</v>
+        <v>177956952.78171229</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -37763,7 +37763,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="30">
-        <v>169361733.96017516</v>
+        <v>185315265.01177114</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -37773,7 +37773,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="30">
-        <v>195097944.95758098</v>
+        <v>121371537.48478758</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -37783,7 +37783,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="30">
-        <v>133947270.11156528</v>
+        <v>163503746.43250573</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -37793,7 +37793,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="30">
-        <v>169556895.6322937</v>
+        <v>260173377.3868449</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -37803,7 +37803,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="30">
-        <v>153235382.06007093</v>
+        <v>162497591.29253924</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -37813,7 +37813,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="30">
-        <v>127190869.78779268</v>
+        <v>144506214.09205407</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -37823,7 +37823,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="30">
-        <v>151840173.35656798</v>
+        <v>94483053.943227559</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -37833,7 +37833,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="30">
-        <v>224177274.39535138</v>
+        <v>183122126.69990849</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -37843,7 +37843,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="30">
-        <v>158061289.95018891</v>
+        <v>208359590.62691867</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -37853,7 +37853,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="30">
-        <v>135233594.39858031</v>
+        <v>193276702.10007402</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -37863,7 +37863,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="30">
-        <v>191482266.98335421</v>
+        <v>166040649.2629323</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -37873,7 +37873,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="30">
-        <v>200811169.95979762</v>
+        <v>159166049.16072896</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -37883,7 +37883,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="30">
-        <v>123454380.36901191</v>
+        <v>206756617.52485302</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -37893,7 +37893,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="30">
-        <v>146041230.08033884</v>
+        <v>182068786.34035224</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -37903,7 +37903,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="30">
-        <v>272382747.10974491</v>
+        <v>139979316.88249892</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -37913,7 +37913,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="30">
-        <v>133669442.93246242</v>
+        <v>147906884.37605375</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -37923,7 +37923,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="30">
-        <v>151386147.58947685</v>
+        <v>146551226.02644193</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -37933,7 +37933,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="30">
-        <v>155308172.68605381</v>
+        <v>137451627.47031039</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -37943,7 +37943,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="30">
-        <v>170329184.40971646</v>
+        <v>184257852.2423619</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -37953,7 +37953,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="30">
-        <v>173075137.13718733</v>
+        <v>190428787.54396766</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -37963,7 +37963,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="30">
-        <v>141535199.88990659</v>
+        <v>185705178.86816704</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -37973,7 +37973,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="30">
-        <v>148109407.76311934</v>
+        <v>115486044.13014083</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -37983,7 +37983,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="30">
-        <v>190554630.64566499</v>
+        <v>127497468.82136562</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -37993,7 +37993,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="30">
-        <v>209300173.2189855</v>
+        <v>170015728.38542119</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -38003,7 +38003,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="30">
-        <v>151954653.76779258</v>
+        <v>169553021.80344942</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -38013,7 +38013,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="30">
-        <v>168296799.0655652</v>
+        <v>101169254.70609252</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -38023,7 +38023,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="30">
-        <v>146235626.5158115</v>
+        <v>170937905.63864759</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -38033,7 +38033,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="30">
-        <v>179795985.11521271</v>
+        <v>134752590.81286246</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -38043,7 +38043,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="30">
-        <v>184407324.35760856</v>
+        <v>121096724.65485695</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -38053,7 +38053,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="30">
-        <v>85945723.890226543</v>
+        <v>150376296.46134615</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -38063,7 +38063,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="30">
-        <v>144848689.95337328</v>
+        <v>194842939.58223462</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -38073,7 +38073,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="30">
-        <v>136253067.75206897</v>
+        <v>141553921.13902301</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -38083,7 +38083,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="30">
-        <v>201167132.20635217</v>
+        <v>191001487.74599695</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -38093,7 +38093,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="30">
-        <v>119702415.69170249</v>
+        <v>164225443.77575696</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -38103,7 +38103,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="30">
-        <v>149423365.6218102</v>
+        <v>239121846.19367808</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -38113,7 +38113,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="30">
-        <v>141369665.3147732</v>
+        <v>197787181.28376931</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -38123,7 +38123,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="30">
-        <v>133063664.65043348</v>
+        <v>174938200.92532402</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -38133,7 +38133,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="30">
-        <v>135071853.99082333</v>
+        <v>223170920.25437537</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -38143,7 +38143,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="30">
-        <v>136327971.16512495</v>
+        <v>160104739.88719678</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -38153,7 +38153,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="30">
-        <v>193515749.29478139</v>
+        <v>202930662.89888212</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -38163,7 +38163,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="30">
-        <v>163930362.55888844</v>
+        <v>131972763.68291885</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -38173,7 +38173,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="30">
-        <v>180867150.41179344</v>
+        <v>119146842.58980708</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -38183,7 +38183,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="30">
-        <v>136436834.82559142</v>
+        <v>131230393.92788877</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -38193,7 +38193,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="30">
-        <v>191779969.54666913</v>
+        <v>175957993.49279204</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -38203,7 +38203,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="30">
-        <v>183138618.61567724</v>
+        <v>148357024.01871735</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -38213,7 +38213,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="30">
-        <v>215956259.39745066</v>
+        <v>177066192.38608795</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -38223,7 +38223,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="30">
-        <v>121630304.03052536</v>
+        <v>147869766.63412368</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -38233,7 +38233,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="30">
-        <v>174577423.02937126</v>
+        <v>117094228.21068269</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -38243,7 +38243,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="30">
-        <v>143662910.44181055</v>
+        <v>165194482.21823531</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -38253,7 +38253,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="30">
-        <v>150372161.7838676</v>
+        <v>174029866.42624521</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -38263,7 +38263,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="30">
-        <v>155034046.38972035</v>
+        <v>165997745.60456884</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -38273,7 +38273,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="30">
-        <v>116392401.77786449</v>
+        <v>163603764.91097319</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -38283,7 +38283,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="30">
-        <v>159004857.22646582</v>
+        <v>125520038.03487693</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -38293,7 +38293,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="30">
-        <v>153101714.31760675</v>
+        <v>197494918.30754226</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -38303,7 +38303,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="30">
-        <v>230105461.33068979</v>
+        <v>192305560.46061516</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -38313,7 +38313,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="30">
-        <v>121519853.91110873</v>
+        <v>139440447.53544909</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -38323,7 +38323,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="30">
-        <v>175177333.91357225</v>
+        <v>150905997.29179069</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -38333,7 +38333,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="30">
-        <v>143774210.13039622</v>
+        <v>168603258.58088708</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -38343,7 +38343,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="30">
-        <v>142846692.63562542</v>
+        <v>200871843.56083268</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -38353,7 +38353,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="30">
-        <v>89947618.457541823</v>
+        <v>175575242.35650975</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -38363,7 +38363,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="30">
-        <v>181544025.87419263</v>
+        <v>213095132.38906744</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -38373,7 +38373,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="30">
-        <v>149812099.21913126</v>
+        <v>210493759.27810186</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -38383,7 +38383,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="30">
-        <v>145870970.38133132</v>
+        <v>201318824.64856634</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -38393,7 +38393,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="30">
-        <v>195128938.55335921</v>
+        <v>142658377.52810979</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -38403,7 +38403,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="30">
-        <v>153870472.00489455</v>
+        <v>245808043.64897263</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -38413,7 +38413,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="30">
-        <v>180656885.24119627</v>
+        <v>177412368.66925713</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -38423,7 +38423,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="30">
-        <v>186087710.56559804</v>
+        <v>175018912.28097892</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -38433,7 +38433,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="30">
-        <v>145950016.68759945</v>
+        <v>135660013.94645488</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -38443,7 +38443,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="30">
-        <v>123748807.89026274</v>
+        <v>135171832.63803455</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -38453,7 +38453,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="30">
-        <v>199743982.71500388</v>
+        <v>162568379.51314968</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -38463,7 +38463,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="30">
-        <v>158258685.99868852</v>
+        <v>125581032.78792265</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -38473,7 +38473,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="30">
-        <v>145539257.18210971</v>
+        <v>167490879.98519257</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -38483,7 +38483,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="30">
-        <v>153207386.44418991</v>
+        <v>127546229.7227149</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -38493,7 +38493,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="30">
-        <v>207498435.62722996</v>
+        <v>162780555.53195101</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -38503,7 +38503,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="30">
-        <v>167363217.21114123</v>
+        <v>154728503.04546484</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -38513,7 +38513,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="30">
-        <v>209930618.42258441</v>
+        <v>190482316.11531898</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -38523,7 +38523,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="30">
-        <v>148643372.4035632</v>
+        <v>187262168.59629446</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -38533,7 +38533,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="30">
-        <v>134205031.70618266</v>
+        <v>172424379.64021182</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -38543,7 +38543,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="30">
-        <v>173710264.11722273</v>
+        <v>193271705.20818374</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -38553,7 +38553,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="30">
-        <v>183957644.17999214</v>
+        <v>183958651.71163368</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -38563,7 +38563,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="30">
-        <v>156291080.76753044</v>
+        <v>147501263.6428135</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -38573,7 +38573,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="30">
-        <v>161400331.93596566</v>
+        <v>161413367.13411126</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -38583,7 +38583,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="30">
-        <v>121544095.35307601</v>
+        <v>123971967.38057521</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>

--- a/Income_accounting_Mvomero.xlsx
+++ b/Income_accounting_Mvomero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\GitHub\Tanzania Dairy Mitigation Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC93900-5F27-4CE5-A6EE-4AD8E4A63D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEE6CA5-4EEA-482C-9686-E52115DC1EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64B7B528-6AFC-453E-A699-FBF307BA8192}"/>
   </bookViews>
@@ -882,29 +882,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1899,7 +1899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD182B2D-8B3A-454E-B3EB-69DA32B2F807}">
   <dimension ref="A1:N758"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E24" sqref="E24:F24"/>
     </sheetView>
   </sheetViews>
@@ -1916,13 +1916,13 @@
     <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
@@ -1936,14 +1936,14 @@
         <v>53</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101" t="s">
+      <c r="D2" s="103"/>
+      <c r="E2" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="101"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="91" t="s">
         <v>102</v>
       </c>
@@ -1960,16 +1960,16 @@
         <v>65</v>
       </c>
       <c r="B3" s="41"/>
-      <c r="C3" s="106">
+      <c r="C3" s="104">
         <f>G3</f>
         <v>0.55747885382429763</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106">
+      <c r="D3" s="104"/>
+      <c r="E3" s="104">
         <f>Dairy_Income_Baseline!B3</f>
         <v>0.39642940716394504</v>
       </c>
-      <c r="F3" s="106"/>
+      <c r="F3" s="104"/>
       <c r="G3" s="5">
         <f>[1]All!$L$7*L16</f>
         <v>0.55747885382429763</v>
@@ -1987,16 +1987,16 @@
         <v>66</v>
       </c>
       <c r="B4" s="41"/>
-      <c r="C4" s="102">
+      <c r="C4" s="105">
         <f>[2]prod_herd_data!H39</f>
         <v>2415.9750381708586</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102">
+      <c r="D4" s="105"/>
+      <c r="E4" s="105">
         <f>[2]prod_herd_data!H38</f>
         <v>700.85860951581117</v>
       </c>
-      <c r="F4" s="102"/>
+      <c r="F4" s="105"/>
       <c r="G4" s="46">
         <f>[2]prod_herd_data!H39</f>
         <v>2415.9750381708586</v>
@@ -2014,16 +2014,16 @@
         <v>67</v>
       </c>
       <c r="B5" s="41"/>
-      <c r="C5" s="102">
+      <c r="C5" s="105">
         <f>C4*C3*(12*L11-9)/(12*L11)</f>
         <v>1262.6765579508788</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102">
+      <c r="D5" s="105"/>
+      <c r="E5" s="105">
         <f>E4*E3</f>
         <v>277.84096307609985</v>
       </c>
-      <c r="F5" s="102"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="46">
         <f>G4*G3</f>
         <v>1346.8549951476041</v>
@@ -2039,10 +2039,10 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="35"/>
       <c r="B6" s="41"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
       <c r="G6" s="46"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
@@ -2057,10 +2057,10 @@
         <v>54</v>
       </c>
       <c r="B7" s="41"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
       <c r="G7" s="46"/>
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
@@ -2075,16 +2075,16 @@
         <v>32</v>
       </c>
       <c r="B8" s="41"/>
-      <c r="C8" s="102">
+      <c r="C8" s="105">
         <f>(([2]concentrate_feeding!$H$23*L29)+([2]concentrate_feeding!$H$24*L30))</f>
         <v>334.82525916999987</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102">
+      <c r="D8" s="105"/>
+      <c r="E8" s="105">
         <f>(([2]concentrate_feeding!$H$17*L29)+([2]concentrate_feeding!$H$18*L30))</f>
         <v>86.361328970444461</v>
       </c>
-      <c r="F8" s="102"/>
+      <c r="F8" s="105"/>
       <c r="G8" s="46">
         <f>(([2]concentrate_feeding!$H$20*L29)+([2]concentrate_feeding!$H$21*L30))</f>
         <v>334.82525916999987</v>
@@ -2102,16 +2102,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="41"/>
-      <c r="C9" s="102">
+      <c r="C9" s="105">
         <f>Dairy_Income_Baseline!D9</f>
         <v>7.6629395714680086</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102">
+      <c r="D9" s="105"/>
+      <c r="E9" s="105">
         <f>Dairy_Income_Baseline!B9</f>
         <v>1.404872254769135</v>
       </c>
-      <c r="F9" s="102"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="46">
         <f>C9</f>
         <v>7.6629395714680086</v>
@@ -2129,16 +2129,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="41"/>
-      <c r="C10" s="102">
+      <c r="C10" s="105">
         <f>Dairy_Income_Baseline!D10</f>
         <v>18.263339311998756</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102">
+      <c r="D10" s="105"/>
+      <c r="E10" s="105">
         <f>Dairy_Income_Baseline!B10</f>
         <v>8.3015178690903433</v>
       </c>
-      <c r="F10" s="102"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="82">
         <f t="shared" ref="G10:G11" si="0">C10</f>
         <v>18.263339311998756</v>
@@ -2158,16 +2158,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="41"/>
-      <c r="C11" s="102">
+      <c r="C11" s="105">
         <f>Dairy_Income_Baseline!D11</f>
         <v>0.12771565952446681</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102">
+      <c r="D11" s="105"/>
+      <c r="E11" s="105">
         <f>Dairy_Income_Baseline!B11</f>
         <v>1.6620356445247293E-4</v>
       </c>
-      <c r="F11" s="102"/>
+      <c r="F11" s="105"/>
       <c r="G11" s="82">
         <f t="shared" si="0"/>
         <v>0.12771565952446681</v>
@@ -2187,10 +2187,10 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="35"/>
       <c r="B12" s="41"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
       <c r="G12" s="46"/>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
@@ -2205,16 +2205,16 @@
         <v>86</v>
       </c>
       <c r="B13" s="41"/>
-      <c r="C13" s="102">
+      <c r="C13" s="105">
         <f>SUM(C8:C11)</f>
         <v>360.87925371299116</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102">
+      <c r="D13" s="105"/>
+      <c r="E13" s="105">
         <f>SUM(E8:E11)</f>
         <v>96.067885297868386</v>
       </c>
-      <c r="F13" s="102"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="46">
         <f>SUM(G8:G11)</f>
         <v>360.87925371299116</v>
@@ -2235,10 +2235,10 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="41"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
       <c r="G14" s="41"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
@@ -2253,16 +2253,16 @@
         <v>87</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="102">
+      <c r="C15" s="105">
         <f>L13/L11</f>
         <v>21.175000000000001</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102">
+      <c r="D15" s="105"/>
+      <c r="E15" s="105">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F15" s="102"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="46">
         <f>0</f>
         <v>0</v>
@@ -2278,10 +2278,10 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="35"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
       <c r="G16" s="46"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
@@ -2299,10 +2299,10 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="41"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
       <c r="G17" s="46"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -2315,13 +2315,13 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="35"/>
       <c r="B18" s="41"/>
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
@@ -2337,16 +2337,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="41"/>
-      <c r="C19" s="102">
+      <c r="C19" s="105">
         <f>L35*L16</f>
         <v>319.71061048759782</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102">
+      <c r="D19" s="105"/>
+      <c r="E19" s="105">
         <f>L35*L16</f>
         <v>319.71061048759782</v>
       </c>
-      <c r="F19" s="102"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="46">
         <f>L37*L16</f>
         <v>332.95472438028497</v>
@@ -2369,16 +2369,16 @@
         <v>51</v>
       </c>
       <c r="B20" s="41"/>
-      <c r="C20" s="102">
+      <c r="C20" s="105">
         <f>(((1/1000)*(1/L23)*[2]feeding_change_data!$H$25/L32))</f>
         <v>7.5742941123367519E-2</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102">
+      <c r="D20" s="105"/>
+      <c r="E20" s="105">
         <f>(((1/1000)*(1/L23)*[2]feeding_change_data!$H$19/L32))</f>
         <v>4.2844783292099349E-2</v>
       </c>
-      <c r="F20" s="102"/>
+      <c r="F20" s="105"/>
       <c r="G20" s="46">
         <f>(((1/1000)*(1/L23)*[2]feeding_change_data!$H$22/L32))</f>
         <v>6.2508397034787805E-2</v>
@@ -2396,16 +2396,16 @@
         <v>72</v>
       </c>
       <c r="B21" s="41"/>
-      <c r="C21" s="102">
+      <c r="C21" s="105">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data_pasture!$H$25/L33))</f>
         <v>-0.10135770756663191</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102">
+      <c r="D21" s="105"/>
+      <c r="E21" s="105">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data_pasture!$H$19/L33))</f>
         <v>-0.35748623281588604</v>
       </c>
-      <c r="F21" s="102"/>
+      <c r="F21" s="105"/>
       <c r="G21" s="46">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data_pasture!$H$22/L33))</f>
         <v>0.22047056642635146</v>
@@ -2427,16 +2427,16 @@
         <v>82</v>
       </c>
       <c r="B22" s="54"/>
-      <c r="C22" s="102">
+      <c r="C22" s="105">
         <f>C20+C21</f>
         <v>-2.5614766443264395E-2</v>
       </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102">
+      <c r="D22" s="105"/>
+      <c r="E22" s="105">
         <f>E20+E21</f>
         <v>-0.3146414495237867</v>
       </c>
-      <c r="F22" s="102"/>
+      <c r="F22" s="105"/>
       <c r="G22" s="55">
         <f>G20+G21</f>
         <v>0.28297896346113927</v>
@@ -2447,16 +2447,16 @@
         <v>73</v>
       </c>
       <c r="B23" s="41"/>
-      <c r="C23" s="102">
+      <c r="C23" s="105">
         <f>L19*(C20+C21)</f>
         <v>-0.7172134604114031</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102">
+      <c r="D23" s="105"/>
+      <c r="E23" s="105">
         <f>L19*(E20+E21)</f>
         <v>-8.809960586666028</v>
       </c>
-      <c r="F23" s="102"/>
+      <c r="F23" s="105"/>
       <c r="G23" s="46">
         <f>L19*(G20+G21)</f>
         <v>7.9234109769118994</v>
@@ -2479,16 +2479,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="41"/>
-      <c r="C24" s="102">
+      <c r="C24" s="105">
         <f>(C20+C21)*C19+C23</f>
         <v>-8.9065260774846973</v>
       </c>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102">
+      <c r="D24" s="105"/>
+      <c r="E24" s="105">
         <f>(E20+E21)*E19+E23</f>
         <v>-109.40417049861856</v>
       </c>
-      <c r="F24" s="102"/>
+      <c r="F24" s="105"/>
       <c r="G24" s="46">
         <f>(G20+G21)*G19+G23</f>
         <v>102.14259376153426</v>
@@ -2508,10 +2508,10 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="35"/>
       <c r="B25" s="41"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
       <c r="G25" s="46"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
@@ -2524,10 +2524,10 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="35"/>
       <c r="B26" s="41"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
       <c r="G26" s="46"/>
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
@@ -2547,16 +2547,16 @@
         <v>48</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="102">
+      <c r="C27" s="105">
         <f>C5-C13-C15</f>
         <v>880.62230423788765</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102">
+      <c r="D27" s="105"/>
+      <c r="E27" s="105">
         <f>E5-E13</f>
         <v>181.77307777823148</v>
       </c>
-      <c r="F27" s="102"/>
+      <c r="F27" s="105"/>
       <c r="G27" s="46">
         <f>G5-G13</f>
         <v>985.97574143461293</v>
@@ -2579,16 +2579,16 @@
         <v>6</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="102">
+      <c r="C28" s="105">
         <f>C27-Dairy_Income_Baseline!B28</f>
         <v>849.32798976168749</v>
       </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102">
+      <c r="D28" s="105"/>
+      <c r="E28" s="105">
         <f>E27-[5]NPV_Baseline!E33</f>
         <v>22.162452883416393</v>
       </c>
-      <c r="F28" s="102"/>
+      <c r="F28" s="105"/>
       <c r="G28" s="46">
         <f>G27-[5]NPV_Baseline!E33</f>
         <v>826.36511653979778</v>
@@ -2604,10 +2604,10 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
@@ -2623,15 +2623,15 @@
       <c r="N29" s="35"/>
     </row>
     <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="107" t="s">
+      <c r="A30" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="107"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
@@ -2646,15 +2646,15 @@
       <c r="N30" s="35"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="103"/>
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
@@ -2668,16 +2668,16 @@
         <v>17</v>
       </c>
       <c r="B32" s="41"/>
-      <c r="C32" s="106">
+      <c r="C32" s="104">
         <f>Dairy_Income_Baseline!D36</f>
         <v>7.6629395714680082E-2</v>
       </c>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106">
+      <c r="D32" s="104"/>
+      <c r="E32" s="104">
         <f>Dairy_Income_Baseline!B36</f>
         <v>0.17880192333425357</v>
       </c>
-      <c r="F32" s="106"/>
+      <c r="F32" s="104"/>
       <c r="G32" s="5">
         <f>Dairy_Income_Baseline!D36</f>
         <v>7.6629395714680082E-2</v>
@@ -2691,16 +2691,16 @@
       <c r="L32" s="35">
         <v>13</v>
       </c>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="35"/>
       <c r="B33" s="41"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
       <c r="G33" s="41"/>
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="B34" s="41"/>
-      <c r="C34" s="106">
+      <c r="C34" s="104">
         <f>Dairy_Income_Baseline!D38</f>
         <v>195.78810605100765</v>
       </c>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106">
+      <c r="D34" s="104"/>
+      <c r="E34" s="104">
         <f>Dairy_Income_Baseline!B38</f>
         <v>51.341695128835667</v>
       </c>
-      <c r="F34" s="106"/>
+      <c r="F34" s="104"/>
       <c r="G34" s="5">
         <f>Dairy_Income_Baseline!D38</f>
         <v>195.78810605100765</v>
@@ -2746,16 +2746,16 @@
         <v>1</v>
       </c>
       <c r="B35" s="41"/>
-      <c r="C35" s="106">
+      <c r="C35" s="104">
         <f>Dairy_Income_Baseline!D39</f>
         <v>43.934186876416582</v>
       </c>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106">
+      <c r="D35" s="104"/>
+      <c r="E35" s="104">
         <f>Dairy_Income_Baseline!B39</f>
         <v>7.9183708905169432</v>
       </c>
-      <c r="F35" s="106"/>
+      <c r="F35" s="104"/>
       <c r="G35" s="5">
         <f>Dairy_Income_Baseline!D39</f>
         <v>43.934186876416582</v>
@@ -2778,16 +2778,16 @@
         <v>2</v>
       </c>
       <c r="B36" s="41"/>
-      <c r="C36" s="106">
+      <c r="C36" s="104">
         <f>Dairy_Income_Baseline!D40</f>
         <v>13.28242859054455</v>
       </c>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106">
+      <c r="D36" s="104"/>
+      <c r="E36" s="104">
         <f>Dairy_Income_Baseline!B40</f>
         <v>10.344968421481811</v>
       </c>
-      <c r="F36" s="106"/>
+      <c r="F36" s="104"/>
       <c r="G36" s="5">
         <f>Dairy_Income_Baseline!D40</f>
         <v>13.28242859054455</v>
@@ -2810,16 +2810,16 @@
         <v>5</v>
       </c>
       <c r="B37" s="41"/>
-      <c r="C37" s="106">
+      <c r="C37" s="104">
         <f>Dairy_Income_Baseline!D41</f>
         <v>0.76629395714680093</v>
       </c>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106">
+      <c r="D37" s="104"/>
+      <c r="E37" s="104">
         <f>Dairy_Income_Baseline!B41</f>
         <v>1.6620356445247294E-5</v>
       </c>
-      <c r="F37" s="106"/>
+      <c r="F37" s="104"/>
       <c r="G37" s="5">
         <f>Dairy_Income_Baseline!D41</f>
         <v>0.76629395714680093</v>
@@ -2842,16 +2842,16 @@
         <v>3</v>
       </c>
       <c r="B38" s="41"/>
-      <c r="C38" s="106">
+      <c r="C38" s="104">
         <f>Dairy_Income_Baseline!D42</f>
         <v>0</v>
       </c>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106">
+      <c r="D38" s="104"/>
+      <c r="E38" s="104">
         <f>Dairy_Income_Baseline!B42</f>
         <v>0</v>
       </c>
-      <c r="F38" s="106"/>
+      <c r="F38" s="104"/>
       <c r="G38" s="5">
         <f>Dairy_Income_Baseline!D42</f>
         <v>0</v>
@@ -2874,16 +2874,16 @@
         <v>18</v>
       </c>
       <c r="B39" s="41"/>
-      <c r="C39" s="106">
+      <c r="C39" s="104">
         <f>(C20*L26+C21*L27)/100</f>
         <v>-1.4590820929073817E-2</v>
       </c>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106">
+      <c r="D39" s="104"/>
+      <c r="E39" s="104">
         <f>(E20*L26+E21*L27)/100</f>
         <v>-6.8283887816269762E-2</v>
       </c>
-      <c r="F39" s="106"/>
+      <c r="F39" s="104"/>
       <c r="G39" s="5">
         <f>(G20*L26+G21*L27)/100</f>
         <v>4.8782243062879378E-2</v>
@@ -2901,16 +2901,16 @@
         <v>19</v>
       </c>
       <c r="B40" s="41"/>
-      <c r="C40" s="102">
+      <c r="C40" s="105">
         <f>C19*L36</f>
         <v>623.09126607279609</v>
       </c>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102">
+      <c r="D40" s="105"/>
+      <c r="E40" s="105">
         <f>E19*L36</f>
         <v>623.09126607279609</v>
       </c>
-      <c r="F40" s="102"/>
+      <c r="F40" s="105"/>
       <c r="G40" s="46">
         <f>G19*L38</f>
         <v>661.97345995462354</v>
@@ -2926,10 +2926,10 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="103"/>
-      <c r="F41" s="103"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
@@ -2941,14 +2941,14 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="35"/>
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -2962,19 +2962,19 @@
         <v>9</v>
       </c>
       <c r="B43" s="35"/>
-      <c r="C43" s="105">
+      <c r="C43" s="109">
         <f ca="1">_xlfn.NORM.INV(RAND(),C3,C32)</f>
-        <v>0.50421741297765921</v>
-      </c>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105">
+        <v>0.61525287837627829</v>
+      </c>
+      <c r="D43" s="109"/>
+      <c r="E43" s="109">
         <f ca="1">_xlfn.NORM.INV(RAND(),E3,E32)</f>
-        <v>0.54100008899000296</v>
-      </c>
-      <c r="F43" s="105"/>
+        <v>0.53442830557295229</v>
+      </c>
+      <c r="F43" s="109"/>
       <c r="G43" s="89">
         <f ca="1">_xlfn.NORM.INV(RAND(),G3,G32)</f>
-        <v>0.56804406138735331</v>
+        <v>0.53359273587267986</v>
       </c>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
@@ -2988,28 +2988,28 @@
       <c r="A44" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="106">
+      <c r="C44" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),C4,C4*L21)</f>
-        <v>1855.2206394611835</v>
-      </c>
-      <c r="D44" s="106"/>
-      <c r="E44" s="106">
+        <v>2016.6164774102115</v>
+      </c>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),E4,E4*L21)</f>
-        <v>884.48824180193151</v>
-      </c>
-      <c r="F44" s="106"/>
+        <v>487.23589202303981</v>
+      </c>
+      <c r="F44" s="104"/>
       <c r="G44" s="84">
         <f ca="1">_xlfn.NORM.INV(RAND(),G4,G4*L21)</f>
-        <v>1819.8059127327269</v>
+        <v>2511.4518989551225</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="35"/>
       <c r="B45" s="35"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
       <c r="G45" s="86"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
@@ -3024,19 +3024,19 @@
         <v>10</v>
       </c>
       <c r="B46" s="35"/>
-      <c r="C46" s="102">
+      <c r="C46" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),C8,C34)</f>
-        <v>131.70013114902233</v>
-      </c>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102">
+        <v>521.12227877917576</v>
+      </c>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),E8,E34)</f>
-        <v>97.776287672718041</v>
-      </c>
-      <c r="F46" s="102"/>
+        <v>97.159332572680626</v>
+      </c>
+      <c r="F46" s="105"/>
       <c r="G46" s="85">
         <f ca="1">_xlfn.NORM.INV(RAND(),G8,G34)</f>
-        <v>429.62127396210082</v>
+        <v>355.64636036361338</v>
       </c>
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
@@ -3051,19 +3051,19 @@
         <v>1</v>
       </c>
       <c r="B47" s="35"/>
-      <c r="C47" s="102">
+      <c r="C47" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),C9,C35)</f>
-        <v>9.3043551758823195</v>
-      </c>
-      <c r="D47" s="102"/>
-      <c r="E47" s="102">
+        <v>-40.645696447975595</v>
+      </c>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),E9,E35)</f>
-        <v>-2.7327981563001797</v>
-      </c>
-      <c r="F47" s="102"/>
+        <v>8.7295746650294443</v>
+      </c>
+      <c r="F47" s="105"/>
       <c r="G47" s="85">
         <f ca="1">_xlfn.NORM.INV(RAND(),G9,G35)</f>
-        <v>-23.186473550814242</v>
+        <v>12.797991524075513</v>
       </c>
       <c r="H47" s="35"/>
       <c r="I47" s="35"/>
@@ -3078,19 +3078,19 @@
         <v>2</v>
       </c>
       <c r="B48" s="35"/>
-      <c r="C48" s="102">
+      <c r="C48" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),C10,C36)</f>
-        <v>18.093121881054149</v>
-      </c>
-      <c r="D48" s="102"/>
-      <c r="E48" s="102">
+        <v>29.237328485847009</v>
+      </c>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),E10,E36)</f>
-        <v>-2.9656905777106282</v>
-      </c>
-      <c r="F48" s="102"/>
+        <v>-1.4202062009150964</v>
+      </c>
+      <c r="F48" s="105"/>
       <c r="G48" s="85">
         <f ca="1">_xlfn.NORM.INV(RAND(),G10,G36)</f>
-        <v>0.14237160669415516</v>
+        <v>17.38684059095803</v>
       </c>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
@@ -3105,19 +3105,19 @@
         <v>12</v>
       </c>
       <c r="B49" s="35"/>
-      <c r="C49" s="102">
+      <c r="C49" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C37)</f>
-        <v>1.4253737255098149</v>
-      </c>
-      <c r="D49" s="102"/>
-      <c r="E49" s="102">
+        <v>-0.12068541457675244</v>
+      </c>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),E11,E37)</f>
-        <v>1.8040576817261923E-4</v>
-      </c>
-      <c r="F49" s="102"/>
+        <v>1.2793942760808374E-4</v>
+      </c>
+      <c r="F49" s="105"/>
       <c r="G49" s="85">
         <f ca="1">_xlfn.NORM.INV(RAND(),G11,G37)</f>
-        <v>1.1571579263407707</v>
+        <v>0.25966050388973605</v>
       </c>
       <c r="H49" s="35"/>
       <c r="I49" s="35"/>
@@ -3132,14 +3132,14 @@
         <v>3</v>
       </c>
       <c r="B50" s="35"/>
-      <c r="C50" s="102">
+      <c r="C50" s="105">
         <v>1E-4</v>
       </c>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102">
+      <c r="D50" s="105"/>
+      <c r="E50" s="105">
         <v>1E-4</v>
       </c>
-      <c r="F50" s="102"/>
+      <c r="F50" s="105"/>
       <c r="G50" s="85">
         <v>1E-4</v>
       </c>
@@ -3154,10 +3154,10 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="35"/>
       <c r="B51" s="35"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
       <c r="G51" s="85"/>
       <c r="H51" s="35"/>
       <c r="I51" s="35"/>
@@ -3172,19 +3172,19 @@
         <v>93</v>
       </c>
       <c r="B52" s="35"/>
-      <c r="C52" s="102">
+      <c r="C52" s="105">
         <f ca="1">SUM(C46:C50)</f>
-        <v>160.5230819314686</v>
-      </c>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102">
+        <v>509.59332540247038</v>
+      </c>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105">
         <f ca="1">SUM(E46:E50)</f>
-        <v>92.078079344475412</v>
-      </c>
-      <c r="F52" s="102"/>
+        <v>104.4689289762226</v>
+      </c>
+      <c r="F52" s="105"/>
       <c r="G52" s="85">
         <f ca="1">SUM(G46:G50)</f>
-        <v>407.73442994432145</v>
+        <v>386.09095298253663</v>
       </c>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
@@ -3197,10 +3197,10 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="35"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
       <c r="G53" s="85"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
@@ -3215,19 +3215,19 @@
         <v>48</v>
       </c>
       <c r="B54" s="35"/>
-      <c r="C54" s="102">
+      <c r="C54" s="105">
         <f ca="1">C43*C44-C52</f>
-        <v>774.91146940040801</v>
-      </c>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102">
+        <v>731.13576690519335</v>
+      </c>
+      <c r="D54" s="105"/>
+      <c r="E54" s="105">
         <f ca="1">E43*E44-E52</f>
-        <v>386.43013818098075</v>
-      </c>
-      <c r="F54" s="102"/>
+        <v>155.92372321197652</v>
+      </c>
+      <c r="F54" s="105"/>
       <c r="G54" s="85">
         <f ca="1">G43*G44-G52</f>
-        <v>625.99551166109632</v>
+        <v>954.00153679356436</v>
       </c>
       <c r="H54" s="35"/>
       <c r="I54" s="35"/>
@@ -3240,10 +3240,10 @@
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="35"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
-      <c r="F55" s="102"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
       <c r="G55" s="85"/>
       <c r="H55" s="35"/>
       <c r="I55" s="35"/>
@@ -3258,19 +3258,19 @@
         <v>13</v>
       </c>
       <c r="B56" s="35"/>
-      <c r="C56" s="102">
+      <c r="C56" s="105">
         <f ca="1">AVERAGE(C60:C559)</f>
-        <v>912.47076244969389</v>
-      </c>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102">
+        <v>912.38321104470344</v>
+      </c>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105">
         <f ca="1">AVERAGE(E60:E559)</f>
-        <v>3.0905378991443224</v>
-      </c>
-      <c r="F56" s="102"/>
+        <v>2.6295250692063155</v>
+      </c>
+      <c r="F56" s="105"/>
       <c r="G56" s="85">
         <f ca="1">AVERAGE(G60:G559)</f>
-        <v>952.10344596057632</v>
+        <v>952.75945801084129</v>
       </c>
       <c r="H56" s="35"/>
       <c r="I56" s="35"/>
@@ -3285,19 +3285,19 @@
         <v>11</v>
       </c>
       <c r="B57" s="35"/>
-      <c r="C57" s="102">
+      <c r="C57" s="105">
         <f ca="1">STDEVA(C60:C559)</f>
-        <v>310.02535102731719</v>
-      </c>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102">
+        <v>310.07045359595264</v>
+      </c>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105">
         <f t="shared" ref="E57:G57" ca="1" si="1">STDEVA(E60:E559)</f>
-        <v>31.306494671805648</v>
-      </c>
-      <c r="F57" s="102"/>
+        <v>27.059300820386873</v>
+      </c>
+      <c r="F57" s="105"/>
       <c r="G57" s="85">
         <f t="shared" ca="1" si="1"/>
-        <v>280.9729734793338</v>
+        <v>280.59270985518481</v>
       </c>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
@@ -3310,10 +3310,10 @@
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="35"/>
       <c r="B58" s="35"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
+      <c r="C58" s="103"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="103"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
@@ -3328,10 +3328,10 @@
         <v>64</v>
       </c>
       <c r="B59" s="35"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="101"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
       <c r="G59" s="35"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
@@ -3348,21 +3348,21 @@
       </c>
       <c r="C60" s="49">
         <f ca="1">C54</f>
-        <v>774.91146940040801</v>
+        <v>731.13576690519335</v>
       </c>
       <c r="D60" s="48">
         <v>1</v>
       </c>
       <c r="E60" s="49">
         <f ca="1">E54</f>
-        <v>386.43013818098075</v>
+        <v>155.92372321197652</v>
       </c>
       <c r="F60" s="48">
         <v>1</v>
       </c>
       <c r="G60" s="49">
         <f ca="1">G54</f>
-        <v>625.99551166109632</v>
+        <v>954.00153679356436</v>
       </c>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
@@ -20530,83 +20530,28 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="C47:D47"/>
@@ -20622,28 +20567,83 @@
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20667,12 +20667,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -20691,106 +20691,106 @@
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="105">
+      <c r="B3" s="109">
         <f>[1]All!$L$6*L17</f>
         <v>0.39642940716394504</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105">
+      <c r="C3" s="109"/>
+      <c r="D3" s="109">
         <f>[1]All!$L$7*L17</f>
         <v>0.55747885382429763</v>
       </c>
-      <c r="E3" s="105"/>
+      <c r="E3" s="109"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="102">
+      <c r="B4" s="105">
         <f>[2]prod_herd_data!H17</f>
         <v>320.35867062067865</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105">
         <f>[2]prod_herd_data!H18</f>
         <v>1025.9808491887786</v>
       </c>
-      <c r="E4" s="102"/>
+      <c r="E4" s="105"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="102">
+      <c r="B5" s="105">
         <f>B4*B3</f>
         <v>126.99959787398517</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102">
+      <c r="C5" s="105"/>
+      <c r="D5" s="105">
         <f>D4*D3</f>
         <v>571.96262785143983</v>
       </c>
-      <c r="E5" s="102"/>
+      <c r="E5" s="105"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="105">
         <f xml:space="preserve"> (([2]FEEDING_base!$H$17*L30)+([2]FEEDING_base!$H$18*L31))</f>
         <v>85.998727070361042</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102">
+      <c r="C8" s="105"/>
+      <c r="D8" s="105">
         <f>(([2]FEEDING_base!$H$23*L31)+([2]FEEDING_base!$H$24*L30))</f>
         <v>186.43581434115202</v>
       </c>
-      <c r="E8" s="102"/>
+      <c r="E8" s="105"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="102">
+      <c r="B9" s="105">
         <f>[1]All!$P$6*L17</f>
         <v>1.404872254769135</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102">
+      <c r="C9" s="105"/>
+      <c r="D9" s="105">
         <f>[1]All!$P$7*Dairy_Income_Roadmap!L16</f>
         <v>7.6629395714680086</v>
       </c>
-      <c r="E9" s="102"/>
+      <c r="E9" s="105"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="102">
+      <c r="B10" s="105">
         <f>[1]All!$Q$6*L17</f>
         <v>8.3015178690903433</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102">
+      <c r="C10" s="105"/>
+      <c r="D10" s="105">
         <f>[1]All!$Q$7*Dairy_Income_Roadmap!L16</f>
         <v>18.263339311998756</v>
       </c>
-      <c r="E10" s="102"/>
+      <c r="E10" s="105"/>
       <c r="K10" s="1" t="str">
         <f>Dairy_Income_Roadmap!K10</f>
         <v>Basic income parameters</v>
@@ -20800,16 +20800,16 @@
       <c r="A11" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="102">
+      <c r="B11" s="105">
         <f>[1]All!$R$6*L17</f>
         <v>1.6620356445247293E-4</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102">
+      <c r="C11" s="105"/>
+      <c r="D11" s="105">
         <f>[1]All!$R$7*Dairy_Income_Roadmap!L16</f>
         <v>0.12771565952446681</v>
       </c>
-      <c r="E11" s="102"/>
+      <c r="E11" s="105"/>
       <c r="K11" s="76" t="s">
         <v>88</v>
       </c>
@@ -20822,37 +20822,37 @@
       <c r="A12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="102">
+      <c r="B12" s="105">
         <f>0*L17</f>
         <v>0</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102">
+      <c r="C12" s="105"/>
+      <c r="D12" s="105">
         <f>0*L17</f>
         <v>0</v>
       </c>
-      <c r="E12" s="102"/>
+      <c r="E12" s="105"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="102">
+      <c r="B14" s="105">
         <f>SUM(B8:B12)</f>
         <v>95.705283397784967</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102">
+      <c r="C14" s="105"/>
+      <c r="D14" s="105">
         <f>SUM(D8:D12)</f>
         <v>212.48980888414323</v>
       </c>
-      <c r="E14" s="102"/>
+      <c r="E14" s="105"/>
       <c r="K14" t="str">
         <f>[5]NPV_Roadmap!K14</f>
         <v>Price acquring new animal (USD/head)</v>
@@ -20863,22 +20863,22 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
       <c r="K17" s="78" t="s">
         <v>94</v>
       </c>
@@ -20888,27 +20888,27 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="102">
+      <c r="B19" s="105">
         <f>L36*L17</f>
         <v>319.71061048759782</v>
       </c>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102">
+      <c r="C19" s="105"/>
+      <c r="D19" s="105">
         <f>L38*L17</f>
         <v>332.95472438028497</v>
       </c>
-      <c r="E19" s="102"/>
+      <c r="E19" s="105"/>
       <c r="K19" s="1" t="str">
         <f>[5]NPV_Roadmap!K24</f>
         <v>Cropping parameters</v>
@@ -20918,16 +20918,16 @@
       <c r="A20" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="102">
+      <c r="B20" s="105">
         <f>( [6]Sheet1!$QH$29*[2]feeding_change_data!$H$4+      [6]Sheet1!$QH$20*[2]feeding_change_data!$I$4)/([2]feeding_change_data!$H$4+[2]feeding_change_data!$I$4)</f>
         <v>1.8944680977798487</v>
       </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102">
+      <c r="C20" s="105"/>
+      <c r="D20" s="105">
         <f>( [6]Sheet1!$QG$29*[2]feeding_change_data!$H$4+      [6]Sheet1!$QG$20*[2]feeding_change_data!$I$4)/([2]feeding_change_data!$H$4+[2]feeding_change_data!$I$4)</f>
         <v>130.93127296143226</v>
       </c>
-      <c r="E20" s="102"/>
+      <c r="E20" s="105"/>
       <c r="K20" t="str">
         <f>[5]NPV_Roadmap!K25</f>
         <v>Forage seeding cost (USD/ha/yr)</v>
@@ -20941,46 +20941,46 @@
       <c r="A21" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="106">
+      <c r="B21" s="104">
         <f>(((1/1000)*(1/L23)/L33))*B20</f>
         <v>1.9430442028511269E-4</v>
       </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="102">
+      <c r="C21" s="104"/>
+      <c r="D21" s="105">
         <f>(((1/1000)*(1/L23)/L33))*D20</f>
         <v>1.3428848508864846E-2</v>
       </c>
-      <c r="E21" s="102"/>
+      <c r="E21" s="105"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="102">
+      <c r="B22" s="105">
         <f>( [6]Sheet1!$QP$29*[2]feeding_change_data_pasture!$H$4+      [6]Sheet1!$QP$20*[2]feeding_change_data_pasture!$I$4)/([2]feeding_change_data_pasture!$H$4+[2]feeding_change_data_pasture!$I$4)</f>
         <v>54.042316867241844</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102">
+      <c r="C22" s="105"/>
+      <c r="D22" s="105">
         <f>( [6]Sheet1!$QO$20*[2]feeding_change_data_pasture!$H$4+      [6]Sheet1!$QO$20*[2]feeding_change_data_pasture!$I$4)/([2]feeding_change_data_pasture!$H$4+[2]feeding_change_data_pasture!$I$4)</f>
         <v>205.7582485590861</v>
       </c>
-      <c r="E22" s="102"/>
+      <c r="E22" s="105"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="102">
+      <c r="B23" s="105">
         <f>(((1/1000)*(1/L25)/L34))*B22</f>
         <v>2.1616926746896737E-2</v>
       </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102">
+      <c r="C23" s="105"/>
+      <c r="D23" s="105">
         <f>(((1/1000)*(1/L25)/L34))*D22</f>
         <v>8.2303299423634443E-2</v>
       </c>
-      <c r="E23" s="102"/>
+      <c r="E23" s="105"/>
       <c r="K23" t="str">
         <f>[5]NPV_Roadmap!K28</f>
         <v>Use efficiency napier</v>
@@ -20994,31 +20994,31 @@
       <c r="A24" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="105">
+      <c r="B24" s="109">
         <f>SUM(B23+B21)</f>
         <v>2.1811231167181849E-2</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105">
+      <c r="C24" s="109"/>
+      <c r="D24" s="109">
         <f>SUM(D23+D21)</f>
         <v>9.573214793249929E-2</v>
       </c>
-      <c r="E24" s="105"/>
+      <c r="E24" s="109"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="102">
+      <c r="B25" s="105">
         <f>(B21+B23)*L17*L20</f>
         <v>0.77997801659602606</v>
       </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102">
+      <c r="C25" s="105"/>
+      <c r="D25" s="105">
         <f>(D21+D23)*L17*L20</f>
         <v>3.4234184350500314</v>
       </c>
-      <c r="E25" s="102"/>
+      <c r="E25" s="105"/>
       <c r="K25" t="str">
         <f>[5]NPV_Roadmap!K29</f>
         <v>Use efficiency pasture</v>
@@ -21032,22 +21032,22 @@
       <c r="A26" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="102">
+      <c r="B26" s="105">
         <f>(B21+B23)*B19+B25</f>
         <v>7.753260048541855</v>
       </c>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102">
+      <c r="C26" s="105"/>
+      <c r="D26" s="105">
         <f>(D21+D23)*D19+D25</f>
         <v>35.297889364248</v>
       </c>
-      <c r="E26" s="102"/>
+      <c r="E26" s="105"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="103"/>
-      <c r="C27" s="103"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="102"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
       <c r="K27" t="str">
         <f>[5]NPV_Roadmap!K31</f>
         <v>Standard error (%) improved forage yield</v>
@@ -21061,16 +21061,16 @@
       <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="102">
+      <c r="B28" s="105">
         <f>B5-B14</f>
         <v>31.294314476200199</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102">
+      <c r="C28" s="105"/>
+      <c r="D28" s="105">
         <f>D5-D14</f>
         <v>359.47281896729658</v>
       </c>
-      <c r="E28" s="102">
+      <c r="E28" s="105">
         <f>E5-E14</f>
         <v>0</v>
       </c>
@@ -21084,16 +21084,16 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
       <c r="K30" t="str">
         <f>[5]NPV_Roadmap!K34</f>
         <v>Market price Sunflower cake (USD/kg)</v>
@@ -21104,10 +21104,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="108"/>
+      <c r="E31" s="108"/>
       <c r="K31" t="str">
         <f>[5]NPV_Roadmap!K35</f>
         <v>Market price Maize bran (USD/kg)</v>
@@ -21118,16 +21118,16 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="103"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
-      <c r="E32" s="103"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
       <c r="K33" t="str">
         <f>[5]NPV_Roadmap!K37</f>
         <v>Napier yield (Mg/ha)</v>
@@ -21138,13 +21138,13 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
       <c r="K34" t="str">
         <f>[5]NPV_Roadmap!K38</f>
         <v>Pasture yield (Mg/ha)</v>
@@ -21155,28 +21155,28 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="106">
+      <c r="B36" s="104">
         <f>[1]All!$S$6*L17</f>
         <v>0.17880192333425357</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106">
+      <c r="C36" s="104"/>
+      <c r="D36" s="104">
         <f>[1]All!$S$7*L17</f>
         <v>7.6629395714680082E-2</v>
       </c>
-      <c r="E36" s="106"/>
+      <c r="E36" s="104"/>
       <c r="K36" t="str">
         <f>[5]NPV_Roadmap!K40</f>
         <v xml:space="preserve">Opportunity cost land strata 1 </v>
@@ -21187,10 +21187,10 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="104"/>
       <c r="K37" t="str">
         <f>[5]NPV_Roadmap!K41</f>
         <v>SE (fraction)</v>
@@ -21204,16 +21204,16 @@
       <c r="A38" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="106">
+      <c r="B38" s="104">
         <f>[1]All!$V$6*L17</f>
         <v>51.341695128835667</v>
       </c>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106">
+      <c r="C38" s="104"/>
+      <c r="D38" s="104">
         <f>[1]All!$V$7*L17</f>
         <v>195.78810605100765</v>
       </c>
-      <c r="E38" s="106"/>
+      <c r="E38" s="104"/>
       <c r="K38" t="str">
         <f>[5]NPV_Roadmap!K42</f>
         <v>Opportunity cost land strata 2</v>
@@ -21227,16 +21227,16 @@
       <c r="A39" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="106">
+      <c r="B39" s="104">
         <f>[1]All!$W$6*L17</f>
         <v>7.9183708905169432</v>
       </c>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106">
+      <c r="C39" s="104"/>
+      <c r="D39" s="104">
         <f>[1]All!$W$7*L17</f>
         <v>43.934186876416582</v>
       </c>
-      <c r="E39" s="106"/>
+      <c r="E39" s="104"/>
       <c r="K39" t="str">
         <f>[5]NPV_Roadmap!K43</f>
         <v>SE (fraction)</v>
@@ -21250,88 +21250,88 @@
       <c r="A40" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="106">
+      <c r="B40" s="104">
         <f>[1]All!$X$6*L17</f>
         <v>10.344968421481811</v>
       </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106">
+      <c r="C40" s="104"/>
+      <c r="D40" s="104">
         <f>[1]All!$X$7*L17</f>
         <v>13.28242859054455</v>
       </c>
-      <c r="E40" s="106"/>
+      <c r="E40" s="104"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="106">
+      <c r="B41" s="104">
         <f>[1]All!$Y$6*L17</f>
         <v>1.6620356445247294E-5</v>
       </c>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106">
+      <c r="C41" s="104"/>
+      <c r="D41" s="104">
         <f>[1]All!$Y$7*L17</f>
         <v>0.76629395714680093</v>
       </c>
-      <c r="E41" s="106"/>
+      <c r="E41" s="104"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="106">
+      <c r="B42" s="104">
         <f>B12*L17</f>
         <v>0</v>
       </c>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106">
+      <c r="C42" s="104"/>
+      <c r="D42" s="104">
         <f>D12*L17</f>
         <v>0</v>
       </c>
-      <c r="E42" s="106"/>
+      <c r="E42" s="104"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="106">
+      <c r="B43" s="104">
         <f>(1/100)*(B21*L27+B23*L28)/SUM(B21,B23)</f>
         <v>0.19888644284453855</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106">
+      <c r="C43" s="104"/>
+      <c r="D43" s="104">
         <f>(1/100)*(D21*L27+D23*L28)/SUM(D21,D23)</f>
         <v>0.18246559698219983</v>
       </c>
-      <c r="E43" s="106"/>
+      <c r="E43" s="104"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="106">
+      <c r="B44" s="104">
         <f>B19*L37</f>
         <v>623.09126607279609</v>
       </c>
-      <c r="C44" s="106"/>
-      <c r="D44" s="106">
+      <c r="C44" s="104"/>
+      <c r="D44" s="104">
         <f>D19*L39</f>
         <v>562.08704264053813</v>
       </c>
-      <c r="E44" s="106"/>
+      <c r="E44" s="104"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="103"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="103"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="103"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B47" s="53" t="s">
@@ -21345,234 +21345,234 @@
       <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="105">
+      <c r="B48" s="109">
         <f ca="1">_xlfn.NORM.INV(RAND(),B3,B36)</f>
-        <v>0.38442831715936027</v>
-      </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105">
+        <v>0.7819639685002906</v>
+      </c>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109">
         <f ca="1">_xlfn.NORM.INV(RAND(),D3,D36)</f>
-        <v>0.49511769569794722</v>
-      </c>
-      <c r="E48" s="105"/>
+        <v>0.60633588701429941</v>
+      </c>
+      <c r="E48" s="109"/>
     </row>
     <row r="49" spans="1:5" s="88" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="88" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="106">
+      <c r="B49" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),B4,B4*Dairy_Income_Roadmap!L21)</f>
-        <v>314.16060153208235</v>
-      </c>
-      <c r="C49" s="106"/>
-      <c r="D49" s="106">
+        <v>342.82299467377067</v>
+      </c>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),D4,D4*Dairy_Income_Roadmap!L21)</f>
-        <v>1360.7253298607832</v>
-      </c>
-      <c r="E49" s="106"/>
+        <v>1011.5504993404146</v>
+      </c>
+      <c r="E49" s="104"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="104"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="102">
+      <c r="B51" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),B8,B38)</f>
-        <v>17.053692692595206</v>
-      </c>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102">
+        <v>77.105215014903223</v>
+      </c>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),D8,D38)</f>
-        <v>197.11987365754106</v>
-      </c>
-      <c r="E51" s="102"/>
+        <v>520.28553983937059</v>
+      </c>
+      <c r="E51" s="105"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="102">
+      <c r="B52" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),B9,B39)</f>
-        <v>-5.4077622673129726</v>
-      </c>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102">
+        <v>17.530958641265062</v>
+      </c>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),D9,D39)</f>
-        <v>16.174651408728444</v>
-      </c>
-      <c r="E52" s="102"/>
+        <v>74.321734965111261</v>
+      </c>
+      <c r="E52" s="105"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="102">
+      <c r="B53" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),B10,B40)</f>
-        <v>10.69937251583289</v>
-      </c>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102">
+        <v>8.7671755973561716</v>
+      </c>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),D10,D40)</f>
-        <v>45.194232974595081</v>
-      </c>
-      <c r="E53" s="102"/>
+        <v>9.0403526912863921</v>
+      </c>
+      <c r="E53" s="105"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="102">
+      <c r="B54" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B41)</f>
-        <v>1.7882323982752689E-4</v>
-      </c>
-      <c r="C54" s="102"/>
-      <c r="D54" s="102">
+        <v>1.5541881556467669E-4</v>
+      </c>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D41)</f>
-        <v>-0.8569360483855526</v>
-      </c>
-      <c r="E54" s="102"/>
+        <v>-0.72874512695669302</v>
+      </c>
+      <c r="E54" s="105"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="102">
+      <c r="B55" s="105">
         <v>1E-4</v>
       </c>
-      <c r="C55" s="102"/>
-      <c r="D55" s="102">
+      <c r="C55" s="105"/>
+      <c r="D55" s="105">
         <v>1E-4</v>
       </c>
-      <c r="E55" s="102"/>
+      <c r="E55" s="105"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="102">
+      <c r="B56" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),(B21+B23),B43)</f>
-        <v>8.1221459056527209E-2</v>
-      </c>
-      <c r="C56" s="102"/>
-      <c r="D56" s="102">
+        <v>6.6967187126403371E-2</v>
+      </c>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),ABS(D21+D23),ABS(D43))</f>
-        <v>0.14957283990394016</v>
-      </c>
-      <c r="E56" s="102"/>
+        <v>0.12236120034467401</v>
+      </c>
+      <c r="E56" s="105"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="102">
+      <c r="B57" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),B19,B44)</f>
-        <v>230.63018194917041</v>
-      </c>
-      <c r="C57" s="102"/>
-      <c r="D57" s="102">
+        <v>223.07476574025165</v>
+      </c>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),D19,D44)</f>
-        <v>-26.94473908241099</v>
-      </c>
-      <c r="E57" s="102"/>
+        <v>1107.9473457510646</v>
+      </c>
+      <c r="E57" s="105"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="103"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="102">
+      <c r="B59" s="105">
         <f>SUM(C52:C55)</f>
         <v>0</v>
       </c>
-      <c r="C59" s="102"/>
-      <c r="D59" s="102">
+      <c r="C59" s="105"/>
+      <c r="D59" s="105">
         <f>SUM(E52:E55)</f>
         <v>0</v>
       </c>
-      <c r="E59" s="102"/>
+      <c r="E59" s="105"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="103"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
+      <c r="B60" s="108"/>
+      <c r="C60" s="108"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="102">
+      <c r="B61" s="105">
         <f ca="1">B48*B49-B59</f>
-        <v>120.77223136475075</v>
-      </c>
-      <c r="C61" s="102"/>
-      <c r="D61" s="102">
+        <v>268.07522940825572</v>
+      </c>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105">
         <f ca="1">D48*D49-D59</f>
-        <v>673.71918979850011</v>
-      </c>
-      <c r="E61" s="102"/>
+        <v>613.33936927732782</v>
+      </c>
+      <c r="E61" s="105"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
-      <c r="B62" s="103"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
+      <c r="B62" s="108"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="102">
+      <c r="B63" s="105">
         <f ca="1">AVERAGE(C67:C566)</f>
-        <v>110.1096216538829</v>
-      </c>
-      <c r="C63" s="102"/>
-      <c r="D63" s="102">
+        <v>110.40422764996993</v>
+      </c>
+      <c r="C63" s="105"/>
+      <c r="D63" s="105">
         <f ca="1">AVERAGE(E67:E566)</f>
-        <v>135.85822858472733</v>
-      </c>
-      <c r="E63" s="102"/>
+        <v>135.737468943685</v>
+      </c>
+      <c r="E63" s="105"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="102">
+      <c r="B64" s="105">
         <f ca="1">STDEVA(C67:C566)</f>
-        <v>54.963265412292053</v>
-      </c>
-      <c r="C64" s="102"/>
-      <c r="D64" s="102">
+        <v>55.413464239409457</v>
+      </c>
+      <c r="C64" s="105"/>
+      <c r="D64" s="105">
         <f ca="1">STDEVA(E67:E566)</f>
-        <v>156.27722926428413</v>
-      </c>
-      <c r="E64" s="102"/>
+        <v>155.88360949925848</v>
+      </c>
+      <c r="E64" s="105"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="103"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="103"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="101"/>
-      <c r="C66" s="101"/>
-      <c r="D66" s="101"/>
-      <c r="E66" s="101"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B67" s="48">
@@ -21580,7 +21580,7 @@
       </c>
       <c r="C67" s="49">
         <f ca="1">B61</f>
-        <v>120.77223136475075</v>
+        <v>268.07522940825572</v>
       </c>
       <c r="D67" s="48">
         <f>B67</f>
@@ -21588,7 +21588,7 @@
       </c>
       <c r="E67" s="49">
         <f ca="1">D61</f>
-        <v>673.71918979850011</v>
+        <v>613.33936927732782</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -29078,6 +29078,108 @@
     </row>
   </sheetData>
   <mergeCells count="126">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
@@ -29102,108 +29204,6 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29249,38 +29249,38 @@
     <row r="1" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="35"/>
       <c r="B1" s="35"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="107" t="s">
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107" t="s">
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107" t="s">
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
       <c r="AC1" s="94"/>
       <c r="AD1" s="35"/>
     </row>
@@ -29432,7 +29432,7 @@
       </c>
       <c r="O3" s="43">
         <f ca="1">Dairy_Income_Baseline!B64</f>
-        <v>54.963265412292053</v>
+        <v>55.413464239409457</v>
       </c>
       <c r="P3" s="43">
         <f>(G3-F3)*(Dairy_Income_Baseline!B24)</f>
@@ -29452,7 +29452,7 @@
       </c>
       <c r="T3" s="44">
         <f ca="1">F3*O3*I3</f>
-        <v>225.07457186333599</v>
+        <v>226.91813606038176</v>
       </c>
       <c r="U3" s="68">
         <f>N3*(M3*K3)/(D3)</f>
@@ -29543,7 +29543,7 @@
       </c>
       <c r="O4" s="43">
         <f ca="1">Dairy_Income_Baseline!D64</f>
-        <v>156.27722926428413</v>
+        <v>155.88360949925848</v>
       </c>
       <c r="P4" s="43">
         <f>(G4-F4)*(Dairy_Income_Baseline!B24)</f>
@@ -29563,7 +29563,7 @@
       </c>
       <c r="T4" s="44">
         <f ca="1">F4*O4*I4</f>
-        <v>222.08929178296714</v>
+        <v>221.52990936201005</v>
       </c>
       <c r="U4" s="68">
         <f>N4*(M4*K4)/(D4)</f>
@@ -29600,7 +29600,7 @@
       <c r="AC4" s="92"/>
       <c r="AD4" s="95">
         <f ca="1">MC_Baseline!H20</f>
-        <v>11.47195235697059</v>
+        <v>14.675747720426509</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -29685,7 +29685,7 @@
       </c>
       <c r="O6" s="43">
         <f ca="1">Dairy_Income_Roadmap!C57</f>
-        <v>310.02535102731719</v>
+        <v>310.07045359595264</v>
       </c>
       <c r="P6" s="43">
         <f>(F6*(Dairy_Income_Roadmap!C22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -29705,7 +29705,7 @@
       </c>
       <c r="T6" s="44">
         <f ca="1">F6*O6*I6</f>
-        <v>315.74738570288508</v>
+        <v>315.79332071461215</v>
       </c>
       <c r="U6" s="46">
         <f>U3</f>
@@ -29790,7 +29790,7 @@
       </c>
       <c r="O7" s="43">
         <f ca="1">Dairy_Income_Roadmap!E57</f>
-        <v>31.306494671805648</v>
+        <v>27.059300820386873</v>
       </c>
       <c r="P7" s="43">
         <f>(F7*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -29810,7 +29810,7 @@
       </c>
       <c r="T7" s="44">
         <f ca="1">F7*O7*I7</f>
-        <v>86.998289216799435</v>
+        <v>75.195671168401006</v>
       </c>
       <c r="U7" s="46">
         <f t="shared" ref="U7:W8" si="0">U3</f>
@@ -29896,7 +29896,7 @@
       </c>
       <c r="O8" s="43">
         <f ca="1">Dairy_Income_Roadmap!G57</f>
-        <v>280.9729734793338</v>
+        <v>280.59270985518481</v>
       </c>
       <c r="P8" s="43">
         <f>(F8*(Dairy_Income_Roadmap!G22 + Dairy_Income_Baseline!D24)  -   F5*Dairy_Income_Baseline!D24)</f>
@@ -29916,7 +29916,7 @@
       </c>
       <c r="T8" s="44">
         <f ca="1">F8*O8*I8</f>
-        <v>514.63227932959467</v>
+        <v>513.9357855237364</v>
       </c>
       <c r="U8" s="46">
         <f t="shared" si="0"/>
@@ -29956,7 +29956,7 @@
       </c>
       <c r="AD8" s="95">
         <f ca="1">MC_High_ambition!I20</f>
-        <v>14.226775915731553</v>
+        <v>17.151330600246332</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -30042,7 +30042,7 @@
       </c>
       <c r="O10" s="43">
         <f ca="1">Dairy_Income_Roadmap!C57</f>
-        <v>310.02535102731719</v>
+        <v>310.07045359595264</v>
       </c>
       <c r="P10" s="43">
         <f>(F10*(Dairy_Income_Roadmap!C22+Dairy_Income_Baseline!B24)-F3*Dairy_Income_Baseline!B24)</f>
@@ -30062,7 +30062,7 @@
       </c>
       <c r="T10" s="44">
         <f ca="1">F10*O10*I10</f>
-        <v>270.47974179786479</v>
+        <v>270.51909126099264</v>
       </c>
       <c r="U10" s="46">
         <f t="shared" ref="U10:W12" si="2">U6</f>
@@ -30148,7 +30148,7 @@
       </c>
       <c r="O11" s="43">
         <f ca="1">Dairy_Income_Roadmap!E57</f>
-        <v>31.306494671805648</v>
+        <v>27.059300820386873</v>
       </c>
       <c r="P11" s="43">
         <f>(F11*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -30168,7 +30168,7 @@
       </c>
       <c r="T11" s="44">
         <f ca="1">F11*O11*I11</f>
-        <v>101.23142360843239</v>
+        <v>87.497868177606335</v>
       </c>
       <c r="U11" s="46">
         <f t="shared" si="2"/>
@@ -30255,7 +30255,7 @@
       </c>
       <c r="O12" s="43">
         <f ca="1">Dairy_Income_Roadmap!G57</f>
-        <v>280.9729734793338</v>
+        <v>280.59270985518481</v>
       </c>
       <c r="P12" s="43">
         <f>(F12*(Dairy_Income_Roadmap!G22 + Dairy_Income_Baseline!D24)  -   F4*Dairy_Income_Baseline!D24)</f>
@@ -30275,7 +30275,7 @@
       </c>
       <c r="T12" s="44">
         <f ca="1">F12*O12*I12</f>
-        <v>440.42778865542368</v>
+        <v>439.83172183441911</v>
       </c>
       <c r="U12" s="46">
         <f t="shared" si="2"/>
@@ -30315,7 +30315,7 @@
       </c>
       <c r="AD12" s="95">
         <f ca="1">MC_Middle_road!I20</f>
-        <v>18.256554169762317</v>
+        <v>17.375934627455383</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -30405,7 +30405,7 @@
       </c>
       <c r="O14" s="43">
         <f ca="1">Dairy_Income_Roadmap!C57</f>
-        <v>310.02535102731719</v>
+        <v>310.07045359595264</v>
       </c>
       <c r="P14" s="43">
         <f>(F14*(Dairy_Income_Roadmap!C22+ Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -30425,7 +30425,7 @@
       </c>
       <c r="T14" s="44">
         <f ca="1">F14*O14*I14</f>
-        <v>318.25538847579782</v>
+        <v>318.30168835242006</v>
       </c>
       <c r="U14" s="46">
         <f t="shared" ref="U14:U16" si="5">U10</f>
@@ -30511,7 +30511,7 @@
       </c>
       <c r="O15" s="43">
         <f ca="1">Dairy_Income_Roadmap!E57</f>
-        <v>31.306494671805648</v>
+        <v>27.059300820386873</v>
       </c>
       <c r="P15" s="43">
         <f>(F15*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -30531,7 +30531,7 @@
       </c>
       <c r="T15" s="44">
         <f ca="1">F15*O15*I15</f>
-        <v>118.70222610068431</v>
+        <v>102.59849522535954</v>
       </c>
       <c r="U15" s="46">
         <f t="shared" si="5"/>
@@ -30618,7 +30618,7 @@
       </c>
       <c r="O16" s="43">
         <f ca="1">Dairy_Income_Roadmap!G57</f>
-        <v>280.9729734793338</v>
+        <v>280.59270985518481</v>
       </c>
       <c r="P16" s="43">
         <f>(F16*(Dairy_Income_Roadmap!G22 + Dairy_Income_Baseline!D24)  -   F4*Dairy_Income_Baseline!D24)</f>
@@ -30638,7 +30638,7 @@
       </c>
       <c r="T16" s="44">
         <f ca="1">F16*O16*I16</f>
-        <v>306.00123263166773</v>
+        <v>305.58709622461879</v>
       </c>
       <c r="U16" s="46">
         <f t="shared" si="5"/>
@@ -30678,7 +30678,7 @@
       </c>
       <c r="AD16" s="95">
         <f ca="1">MC_Status_quo!I20</f>
-        <v>20.973215457749561</v>
+        <v>18.433801112404449</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -30768,7 +30768,7 @@
       </c>
       <c r="O18" s="43">
         <f ca="1">Dairy_Income_Roadmap!C57</f>
-        <v>310.02535102731719</v>
+        <v>310.07045359595264</v>
       </c>
       <c r="P18" s="43">
         <f>(F18*(Dairy_Income_Roadmap!C22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -30788,7 +30788,7 @@
       </c>
       <c r="T18" s="44">
         <f ca="1">F18*O18*I18</f>
-        <v>385.50552905584817</v>
+        <v>385.56161250039861</v>
       </c>
       <c r="U18" s="46">
         <f t="shared" ref="U18:U20" si="7">U14</f>
@@ -30874,7 +30874,7 @@
       </c>
       <c r="O19" s="43">
         <f ca="1">Dairy_Income_Roadmap!E57</f>
-        <v>31.306494671805648</v>
+        <v>27.059300820386873</v>
       </c>
       <c r="P19" s="43">
         <f>(F19*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -30894,7 +30894,7 @@
       </c>
       <c r="T19" s="44">
         <f ca="1">F19*O19*I19</f>
-        <v>106.21884148562724</v>
+        <v>91.80866828700124</v>
       </c>
       <c r="U19" s="46">
         <f t="shared" si="7"/>
@@ -30981,7 +30981,7 @@
       </c>
       <c r="O20" s="43">
         <f ca="1">Dairy_Income_Roadmap!G57</f>
-        <v>280.9729734793338</v>
+        <v>280.59270985518481</v>
       </c>
       <c r="P20" s="43">
         <f>(F20*(Dairy_Income_Roadmap!G22+ Dairy_Income_Baseline!D24)  -   F4*Dairy_Income_Baseline!D24)</f>
@@ -31001,7 +31001,7 @@
       </c>
       <c r="T20" s="44">
         <f ca="1">F20*O20*I20</f>
-        <v>628.33010848380741</v>
+        <v>627.47973813944566</v>
       </c>
       <c r="U20" s="46">
         <f t="shared" si="7"/>
@@ -31041,7 +31041,7 @@
       </c>
       <c r="AD20" s="95">
         <f ca="1">MC_High_ambition_plus!I20</f>
-        <v>18.161647862915764</v>
+        <v>17.986818202589827</v>
       </c>
     </row>
     <row r="21" spans="1:30" s="99" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -31620,11 +31620,11 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N3,Mappings!O3)</f>
-        <v>-25.164428223970589</v>
+        <v>116.07834474629084</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N4,Mappings!O4)</f>
-        <v>230.70875842958611</v>
+        <v>587.1497353660186</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -31698,11 +31698,11 @@
       </c>
       <c r="B10" s="28">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L38))</f>
-        <v>247.78734416987362</v>
+        <v>382.13746808415658</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L38))</f>
-        <v>-799.22028795818005</v>
+        <v>-1456.9599489260979</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -31742,11 +31742,11 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>-103.04833357715955</v>
+        <v>475.34082173606095</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>327.86571024435511</v>
+        <v>834.41247014607404</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -31755,11 +31755,11 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">IF(B9&gt;0,B8-B10,    B8 +B10)</f>
-        <v>3541.485148828132</v>
+        <v>3675.8352727424153</v>
       </c>
       <c r="C15" s="28">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>4634.7216307572289</v>
+        <v>3976.9819697893108</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -31768,11 +31768,11 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>15744.813652681658</v>
+        <v>16127.179722869761</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>11523.098385705189</v>
+        <v>11794.299438267395</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -31786,15 +31786,15 @@
       </c>
       <c r="B18" s="28">
         <f ca="1">(B14+B15)*B16</f>
-        <v>54137546.912646748</v>
+        <v>66946762.936934978</v>
       </c>
       <c r="C18" s="28">
         <f ca="1">(C14+C15)*C16</f>
-        <v>57184382.178016357</v>
+        <v>56747026.740212776</v>
       </c>
       <c r="E18">
         <f ca="1">B18+C18</f>
-        <v>111321929.09066311</v>
+        <v>123693789.67714775</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -31809,7 +31809,7 @@
       </c>
       <c r="E19">
         <f ca="1">STDEVA(E22:E129)</f>
-        <v>15397660.715905948</v>
+        <v>19522080.513986655</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>52</v>
@@ -31827,11 +31827,11 @@
       </c>
       <c r="E20">
         <f ca="1">AVERAGE(E22:E129)</f>
-        <v>134220054.58861601</v>
+        <v>133022731.69233316</v>
       </c>
       <c r="H20" s="39">
         <f ca="1">100*E19/E20</f>
-        <v>11.47195235697059</v>
+        <v>14.675747720426509</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -31840,7 +31840,7 @@
       </c>
       <c r="E22">
         <f ca="1">E18</f>
-        <v>111321929.09066311</v>
+        <v>123693789.67714775</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -31849,7 +31849,7 @@
       </c>
       <c r="E23">
         <f t="dataTable" ref="E23:E129" dt2D="0" dtr="0" r1="E21" ca="1"/>
-        <v>132224810.54227576</v>
+        <v>141327137.5171212</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -31857,7 +31857,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>136282367.2741183</v>
+        <v>116491077.40232164</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -31865,7 +31865,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>139508801.47049057</v>
+        <v>137120962.15092158</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -31873,7 +31873,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>125357907.1027528</v>
+        <v>149511482.51379961</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -31881,7 +31881,7 @@
         <v>6</v>
       </c>
       <c r="E27">
-        <v>120138775.06599467</v>
+        <v>130716862.45649146</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -31889,7 +31889,7 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>162182099.52552068</v>
+        <v>166530005.35867807</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -31897,7 +31897,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>141260245.00093287</v>
+        <v>158004747.32345065</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -31905,7 +31905,7 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>137746625.62601498</v>
+        <v>145625101.26071241</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -31913,7 +31913,7 @@
         <v>10</v>
       </c>
       <c r="E31">
-        <v>107807008.56632799</v>
+        <v>136088405.17483076</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -31921,7 +31921,7 @@
         <v>11</v>
       </c>
       <c r="E32">
-        <v>148118424.77166468</v>
+        <v>81742660.309603974</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
@@ -31929,7 +31929,7 @@
         <v>12</v>
       </c>
       <c r="E33">
-        <v>134429305.13121459</v>
+        <v>144274839.4554024</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.3">
@@ -31937,7 +31937,7 @@
         <v>13</v>
       </c>
       <c r="E34">
-        <v>144203706.05680543</v>
+        <v>124459762.4980821</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.3">
@@ -31945,7 +31945,7 @@
         <v>14</v>
       </c>
       <c r="E35">
-        <v>127711521.85326578</v>
+        <v>124628977.11726096</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.3">
@@ -31953,7 +31953,7 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>129108839.37994485</v>
+        <v>127974200.61771911</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.3">
@@ -31961,7 +31961,7 @@
         <v>16</v>
       </c>
       <c r="E37">
-        <v>143660144.83748755</v>
+        <v>127946905.86110474</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.3">
@@ -31969,7 +31969,7 @@
         <v>17</v>
       </c>
       <c r="E38">
-        <v>135904056.05287901</v>
+        <v>143700150.47988537</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.3">
@@ -31977,7 +31977,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>160790783.34681863</v>
+        <v>107320345.50089751</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.3">
@@ -31985,7 +31985,7 @@
         <v>19</v>
       </c>
       <c r="E40">
-        <v>137902338.50288281</v>
+        <v>120325244.7981137</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.3">
@@ -31993,7 +31993,7 @@
         <v>20</v>
       </c>
       <c r="E41">
-        <v>150045979.04790646</v>
+        <v>131533146.06221184</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.3">
@@ -32001,7 +32001,7 @@
         <v>21</v>
       </c>
       <c r="E42">
-        <v>117824718.31264511</v>
+        <v>137876101.43712664</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.3">
@@ -32009,7 +32009,7 @@
         <v>22</v>
       </c>
       <c r="E43">
-        <v>127994635.48339653</v>
+        <v>117937854.03029285</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.3">
@@ -32017,7 +32017,7 @@
         <v>23</v>
       </c>
       <c r="E44">
-        <v>119330051.13663912</v>
+        <v>109085615.2983402</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.3">
@@ -32025,7 +32025,7 @@
         <v>24</v>
       </c>
       <c r="E45">
-        <v>138064443.70681554</v>
+        <v>111077491.06738871</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.3">
@@ -32033,7 +32033,7 @@
         <v>25</v>
       </c>
       <c r="E46">
-        <v>113694827.89747174</v>
+        <v>148200174.40257177</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.3">
@@ -32041,7 +32041,7 @@
         <v>26</v>
       </c>
       <c r="E47">
-        <v>129126820.89243466</v>
+        <v>137894459.97856456</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.3">
@@ -32049,7 +32049,7 @@
         <v>27</v>
       </c>
       <c r="E48">
-        <v>124258960.87383592</v>
+        <v>127623084.74253789</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.3">
@@ -32057,7 +32057,7 @@
         <v>28</v>
       </c>
       <c r="E49">
-        <v>167401746.57219222</v>
+        <v>160837344.85929644</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.3">
@@ -32065,7 +32065,7 @@
         <v>29</v>
       </c>
       <c r="E50">
-        <v>135168363.05647933</v>
+        <v>112440685.64443511</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.3">
@@ -32073,7 +32073,7 @@
         <v>30</v>
       </c>
       <c r="E51">
-        <v>151266438.02450606</v>
+        <v>129021754.00485897</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.3">
@@ -32081,7 +32081,7 @@
         <v>31</v>
       </c>
       <c r="E52">
-        <v>129067631.20933238</v>
+        <v>92908617.7667467</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.3">
@@ -32089,7 +32089,7 @@
         <v>32</v>
       </c>
       <c r="E53">
-        <v>119008699.49374694</v>
+        <v>122822520.22001618</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.3">
@@ -32097,7 +32097,7 @@
         <v>33</v>
       </c>
       <c r="E54">
-        <v>145773153.11400628</v>
+        <v>140457545.5760614</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.3">
@@ -32105,7 +32105,7 @@
         <v>34</v>
       </c>
       <c r="E55">
-        <v>135321374.74348852</v>
+        <v>147255230.25145426</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.3">
@@ -32113,7 +32113,7 @@
         <v>35</v>
       </c>
       <c r="E56">
-        <v>119092196.97626698</v>
+        <v>125844920.27365077</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.3">
@@ -32121,7 +32121,7 @@
         <v>36</v>
       </c>
       <c r="E57">
-        <v>140839197.39708361</v>
+        <v>153174771.57300207</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.3">
@@ -32129,7 +32129,7 @@
         <v>37</v>
       </c>
       <c r="E58">
-        <v>106540468.00499684</v>
+        <v>113347767.64084816</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.3">
@@ -32137,7 +32137,7 @@
         <v>38</v>
       </c>
       <c r="E59">
-        <v>152073556.91039768</v>
+        <v>121657149.32018392</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.3">
@@ -32145,7 +32145,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>111497437.91488352</v>
+        <v>132147232.09135252</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.3">
@@ -32153,7 +32153,7 @@
         <v>40</v>
       </c>
       <c r="E61">
-        <v>132939587.16795826</v>
+        <v>140548684.41345721</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.3">
@@ -32161,7 +32161,7 @@
         <v>41</v>
       </c>
       <c r="E62">
-        <v>156128759.06529173</v>
+        <v>126428329.75326434</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.3">
@@ -32169,7 +32169,7 @@
         <v>42</v>
       </c>
       <c r="E63">
-        <v>133772713.21946961</v>
+        <v>151981162.16867244</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.3">
@@ -32177,7 +32177,7 @@
         <v>43</v>
       </c>
       <c r="E64">
-        <v>139674716.86420125</v>
+        <v>141889309.85115501</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.3">
@@ -32185,7 +32185,7 @@
         <v>44</v>
       </c>
       <c r="E65">
-        <v>136849470.7125867</v>
+        <v>152781077.50553176</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
@@ -32193,7 +32193,7 @@
         <v>45</v>
       </c>
       <c r="E66">
-        <v>131772562.40739051</v>
+        <v>139338182.28349763</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.3">
@@ -32201,7 +32201,7 @@
         <v>46</v>
       </c>
       <c r="E67">
-        <v>100324201.5279091</v>
+        <v>119657683.41787028</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.3">
@@ -32209,7 +32209,7 @@
         <v>47</v>
       </c>
       <c r="E68">
-        <v>125813750.30270779</v>
+        <v>154296440.07605445</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.3">
@@ -32217,7 +32217,7 @@
         <v>48</v>
       </c>
       <c r="E69">
-        <v>136580846.81667945</v>
+        <v>113338340.19731152</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.3">
@@ -32225,7 +32225,7 @@
         <v>49</v>
       </c>
       <c r="E70">
-        <v>96270019.346030012</v>
+        <v>116063961.58185518</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.3">
@@ -32233,7 +32233,7 @@
         <v>50</v>
       </c>
       <c r="E71">
-        <v>140912668.84261408</v>
+        <v>128236879.48313853</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.3">
@@ -32241,7 +32241,7 @@
         <v>51</v>
       </c>
       <c r="E72">
-        <v>139004152.99993455</v>
+        <v>108264641.08034368</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.3">
@@ -32249,7 +32249,7 @@
         <v>52</v>
       </c>
       <c r="E73">
-        <v>159227648.53158826</v>
+        <v>133207129.256203</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.3">
@@ -32257,7 +32257,7 @@
         <v>53</v>
       </c>
       <c r="E74">
-        <v>148652342.24911851</v>
+        <v>114652635.44773014</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.3">
@@ -32265,7 +32265,7 @@
         <v>54</v>
       </c>
       <c r="E75">
-        <v>160778187.53000796</v>
+        <v>89745381.58889702</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.3">
@@ -32273,7 +32273,7 @@
         <v>55</v>
       </c>
       <c r="E76">
-        <v>131398214.84752297</v>
+        <v>141575280.84086049</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.3">
@@ -32281,7 +32281,7 @@
         <v>56</v>
       </c>
       <c r="E77">
-        <v>122605404.90758017</v>
+        <v>124691984.77954963</v>
       </c>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.3">
@@ -32289,7 +32289,7 @@
         <v>57</v>
       </c>
       <c r="E78">
-        <v>146351786.70017117</v>
+        <v>128617766.86701366</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.3">
@@ -32297,7 +32297,7 @@
         <v>58</v>
       </c>
       <c r="E79">
-        <v>132098857.37365675</v>
+        <v>100489030.13986957</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.3">
@@ -32305,7 +32305,7 @@
         <v>59</v>
       </c>
       <c r="E80">
-        <v>106858161.72699681</v>
+        <v>132080380.29645804</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.3">
@@ -32313,7 +32313,7 @@
         <v>60</v>
       </c>
       <c r="E81">
-        <v>122501057.6747489</v>
+        <v>146150794.04020515</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.3">
@@ -32321,7 +32321,7 @@
         <v>61</v>
       </c>
       <c r="E82">
-        <v>131947293.98910797</v>
+        <v>153889328.78802896</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.3">
@@ -32329,7 +32329,7 @@
         <v>62</v>
       </c>
       <c r="E83">
-        <v>130253064.44081368</v>
+        <v>138837161.13059837</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.3">
@@ -32337,7 +32337,7 @@
         <v>63</v>
       </c>
       <c r="E84">
-        <v>138812776.90443894</v>
+        <v>143457527.11127886</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.3">
@@ -32345,7 +32345,7 @@
         <v>64</v>
       </c>
       <c r="E85">
-        <v>133122563.43508351</v>
+        <v>94864824.173550427</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.3">
@@ -32353,7 +32353,7 @@
         <v>65</v>
       </c>
       <c r="E86">
-        <v>117811829.67473087</v>
+        <v>198040317.09440252</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.3">
@@ -32361,7 +32361,7 @@
         <v>66</v>
       </c>
       <c r="E87">
-        <v>124025551.71299446</v>
+        <v>135941258.62860286</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.3">
@@ -32369,7 +32369,7 @@
         <v>67</v>
       </c>
       <c r="E88">
-        <v>139548560.71269143</v>
+        <v>159214884.87571365</v>
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.3">
@@ -32377,7 +32377,7 @@
         <v>68</v>
       </c>
       <c r="E89">
-        <v>147041933.68467098</v>
+        <v>102691600.17145702</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.3">
@@ -32385,7 +32385,7 @@
         <v>69</v>
       </c>
       <c r="E90">
-        <v>127968573.63335375</v>
+        <v>151966003.97152969</v>
       </c>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.3">
@@ -32393,7 +32393,7 @@
         <v>70</v>
       </c>
       <c r="E91">
-        <v>149933391.01981533</v>
+        <v>116396404.10124418</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.3">
@@ -32401,7 +32401,7 @@
         <v>71</v>
       </c>
       <c r="E92">
-        <v>106660687.34989911</v>
+        <v>122155418.63664679</v>
       </c>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.3">
@@ -32409,7 +32409,7 @@
         <v>72</v>
       </c>
       <c r="E93">
-        <v>124964499.87602907</v>
+        <v>142865845.92430568</v>
       </c>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.3">
@@ -32417,7 +32417,7 @@
         <v>73</v>
       </c>
       <c r="E94">
-        <v>158199171.92713827</v>
+        <v>130722193.81130993</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.3">
@@ -32425,7 +32425,7 @@
         <v>74</v>
       </c>
       <c r="E95">
-        <v>152244898.33690101</v>
+        <v>145193910.08823836</v>
       </c>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.3">
@@ -32433,7 +32433,7 @@
         <v>75</v>
       </c>
       <c r="E96">
-        <v>127131126.13404921</v>
+        <v>129403816.06275035</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
@@ -32441,7 +32441,7 @@
         <v>76</v>
       </c>
       <c r="E97">
-        <v>128434715.42088456</v>
+        <v>149851312.84547174</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
@@ -32449,7 +32449,7 @@
         <v>77</v>
       </c>
       <c r="E98">
-        <v>116090190.18425977</v>
+        <v>173422504.67174175</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
@@ -32457,7 +32457,7 @@
         <v>78</v>
       </c>
       <c r="E99">
-        <v>125781858.29906856</v>
+        <v>111199426.9362904</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
@@ -32465,7 +32465,7 @@
         <v>79</v>
       </c>
       <c r="E100">
-        <v>112309063.95390245</v>
+        <v>133165103.04941756</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
@@ -32473,7 +32473,7 @@
         <v>80</v>
       </c>
       <c r="E101">
-        <v>143043398.0823493</v>
+        <v>100552321.72704765</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
@@ -32481,7 +32481,7 @@
         <v>81</v>
       </c>
       <c r="E102">
-        <v>140153732.52710408</v>
+        <v>123435970.83841769</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
@@ -32489,7 +32489,7 @@
         <v>82</v>
       </c>
       <c r="E103">
-        <v>126976573.55514762</v>
+        <v>141953822.34918621</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
@@ -32497,7 +32497,7 @@
         <v>83</v>
       </c>
       <c r="E104">
-        <v>141887577.34891421</v>
+        <v>152300135.58826509</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
@@ -32505,7 +32505,7 @@
         <v>84</v>
       </c>
       <c r="E105">
-        <v>122691080.1351178</v>
+        <v>150288414.58867225</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
@@ -32513,7 +32513,7 @@
         <v>85</v>
       </c>
       <c r="E106">
-        <v>160354171.10820636</v>
+        <v>107623095.44455278</v>
       </c>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.3">
@@ -32521,7 +32521,7 @@
         <v>86</v>
       </c>
       <c r="E107">
-        <v>113184876.41669893</v>
+        <v>135462507.93711662</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.3">
@@ -32529,7 +32529,7 @@
         <v>87</v>
       </c>
       <c r="E108">
-        <v>146413256.68665934</v>
+        <v>157820600.32463181</v>
       </c>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.3">
@@ -32537,7 +32537,7 @@
         <v>88</v>
       </c>
       <c r="E109">
-        <v>141014344.23181605</v>
+        <v>143716716.30521905</v>
       </c>
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.3">
@@ -32545,7 +32545,7 @@
         <v>89</v>
       </c>
       <c r="E110">
-        <v>131869507.52970165</v>
+        <v>132441463.18051438</v>
       </c>
     </row>
     <row r="111" spans="4:5" x14ac:dyDescent="0.3">
@@ -32553,7 +32553,7 @@
         <v>90</v>
       </c>
       <c r="E111">
-        <v>168156714.55155504</v>
+        <v>149424135.81680077</v>
       </c>
     </row>
     <row r="112" spans="4:5" x14ac:dyDescent="0.3">
@@ -32561,7 +32561,7 @@
         <v>91</v>
       </c>
       <c r="E112">
-        <v>111762670.68950546</v>
+        <v>112986750.4125672</v>
       </c>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.3">
@@ -32569,7 +32569,7 @@
         <v>92</v>
       </c>
       <c r="E113">
-        <v>123786309.80601303</v>
+        <v>154198782.28395724</v>
       </c>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.3">
@@ -32577,7 +32577,7 @@
         <v>93</v>
       </c>
       <c r="E114">
-        <v>140561557.8644985</v>
+        <v>139237939.91932926</v>
       </c>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.3">
@@ -32585,7 +32585,7 @@
         <v>94</v>
       </c>
       <c r="E115">
-        <v>138605316.9910301</v>
+        <v>161037014.87666196</v>
       </c>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.3">
@@ -32593,7 +32593,7 @@
         <v>95</v>
       </c>
       <c r="E116">
-        <v>124240453.83499131</v>
+        <v>161210119.9092316</v>
       </c>
     </row>
     <row r="117" spans="4:5" x14ac:dyDescent="0.3">
@@ -32601,7 +32601,7 @@
         <v>96</v>
       </c>
       <c r="E117">
-        <v>152283416.04410723</v>
+        <v>151944230.92343432</v>
       </c>
     </row>
     <row r="118" spans="4:5" x14ac:dyDescent="0.3">
@@ -32609,7 +32609,7 @@
         <v>97</v>
       </c>
       <c r="E118">
-        <v>162299388.00607333</v>
+        <v>120223142.37365234</v>
       </c>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.3">
@@ -32617,7 +32617,7 @@
         <v>98</v>
       </c>
       <c r="E119">
-        <v>149193610.36709082</v>
+        <v>150951913.71456808</v>
       </c>
     </row>
     <row r="120" spans="4:5" x14ac:dyDescent="0.3">
@@ -32625,7 +32625,7 @@
         <v>99</v>
       </c>
       <c r="E120">
-        <v>133032825.99074574</v>
+        <v>153558088.90525874</v>
       </c>
     </row>
     <row r="121" spans="4:5" x14ac:dyDescent="0.3">
@@ -32633,7 +32633,7 @@
         <v>100</v>
       </c>
       <c r="E121">
-        <v>144981099.18881178</v>
+        <v>120155775.0413992</v>
       </c>
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.3">
@@ -32641,7 +32641,7 @@
         <v>101</v>
       </c>
       <c r="E122">
-        <v>108835128.42107691</v>
+        <v>111658678.02673911</v>
       </c>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.3">
@@ -32649,7 +32649,7 @@
         <v>102</v>
       </c>
       <c r="E123">
-        <v>133043814.76806423</v>
+        <v>122461055.63671829</v>
       </c>
     </row>
     <row r="124" spans="4:5" x14ac:dyDescent="0.3">
@@ -32657,7 +32657,7 @@
         <v>103</v>
       </c>
       <c r="E124">
-        <v>121382694.48045295</v>
+        <v>96180779.697461069</v>
       </c>
     </row>
     <row r="125" spans="4:5" x14ac:dyDescent="0.3">
@@ -32665,7 +32665,7 @@
         <v>104</v>
       </c>
       <c r="E125">
-        <v>133816349.46079892</v>
+        <v>119457461.14480934</v>
       </c>
     </row>
     <row r="126" spans="4:5" x14ac:dyDescent="0.3">
@@ -32673,7 +32673,7 @@
         <v>105</v>
       </c>
       <c r="E126">
-        <v>149724513.57312506</v>
+        <v>150348465.85570931</v>
       </c>
     </row>
     <row r="127" spans="4:5" x14ac:dyDescent="0.3">
@@ -32681,7 +32681,7 @@
         <v>106</v>
       </c>
       <c r="E127">
-        <v>164163372.4755137</v>
+        <v>162056790.50565869</v>
       </c>
     </row>
     <row r="128" spans="4:5" x14ac:dyDescent="0.3">
@@ -32689,7 +32689,7 @@
         <v>107</v>
       </c>
       <c r="E128">
-        <v>122675430.55575244</v>
+        <v>130912940.76728547</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.3">
@@ -32697,7 +32697,7 @@
         <v>108</v>
       </c>
       <c r="E129">
-        <v>143785459.40903085</v>
+        <v>134915867.82112148</v>
       </c>
     </row>
   </sheetData>
@@ -32768,15 +32768,15 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N6,Mappings!O6)</f>
-        <v>623.15346995361961</v>
+        <v>458.38552259573697</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N7,Mappings!O7)</f>
-        <v>165.61716641397589</v>
+        <v>220.0956055091047</v>
       </c>
       <c r="D4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N8,Mappings!O8)</f>
-        <v>940.07633945714838</v>
+        <v>1631.348934934533</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -32804,15 +32804,15 @@
       </c>
       <c r="B6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>0.86695305731288963</v>
+        <v>0.98978330032866613</v>
       </c>
       <c r="C6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>1.6402478169413324</v>
+        <v>2.3000968275321254</v>
       </c>
       <c r="D6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>0.83959406389281666</v>
+        <v>1.9625899557359578</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -32876,15 +32876,15 @@
       </c>
       <c r="B10" s="28">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>37.503976933812027</v>
+        <v>-239.74534756205122</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>413.78719699949755</v>
+        <v>2219.455259670041</v>
       </c>
       <c r="D10" s="28">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>-989.34036351219265</v>
+        <v>-561.86246852605359</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -32939,15 +32939,15 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>540.24480595142643</v>
+        <v>453.70233537768888</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>271.65319565853332</v>
+        <v>506.24120398525389</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">D4*D6</f>
-        <v>789.28251421431025</v>
+        <v>3201.6690340030668</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -32957,15 +32957,15 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">B8-IF(B9&gt;0,B10,(-1)*B10)</f>
-        <v>3407.5968184576004</v>
+        <v>3130.3474939617372</v>
       </c>
       <c r="C15" s="28">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>4447.7947286470971</v>
+        <v>6253.4627913176409</v>
       </c>
       <c r="D15" s="28">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>5962.6264773158</v>
+        <v>5535.1485823296616</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -32975,15 +32975,15 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>2758.7719451133753</v>
+        <v>2903.5999703867196</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>14003.543488867825</v>
+        <v>12889.767303394105</v>
       </c>
       <c r="D16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>11080.527823315244</v>
+        <v>11093.829421896338</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -32999,19 +32999,19 @@
       </c>
       <c r="B18" s="36">
         <f ca="1">(B14+B15)*B16</f>
-        <v>10891194.717170438</v>
+        <v>10406646.978334485</v>
       </c>
       <c r="C18" s="36">
         <f ca="1">(C14+C15)*C16</f>
-        <v>66088994.25146088</v>
+        <v>87131011.539277762</v>
       </c>
       <c r="D18" s="36">
         <f ca="1">(D14+D15)*D16</f>
-        <v>74814715.441141754</v>
+        <v>96924764.325814247</v>
       </c>
       <c r="F18" s="28">
         <f ca="1">B18+C18+D18</f>
-        <v>151794904.40977305</v>
+        <v>194462422.8434265</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -33030,7 +33030,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>21755260.857388031</v>
+        <v>26225923.824367754</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>52</v>
@@ -33053,13 +33053,13 @@
       <c r="E20" s="3"/>
       <c r="F20" s="28">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>152917716.46822453</v>
+        <v>152908975.02722669</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="40">
         <f ca="1">100*F19/F20</f>
-        <v>14.226775915731553</v>
+        <v>17.151330600246332</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -33074,7 +33074,7 @@
       </c>
       <c r="F22" s="28">
         <f ca="1">F18</f>
-        <v>151794904.40977305</v>
+        <v>194462422.8434265</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -33085,7 +33085,7 @@
       </c>
       <c r="F23" s="28">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>180537747.86779767</v>
+        <v>128345245.42118362</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -33095,7 +33095,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="28">
-        <v>130118386.97165915</v>
+        <v>160797058.1250374</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -33105,7 +33105,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="28">
-        <v>158375231.40104127</v>
+        <v>139026303.37531024</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -33115,7 +33115,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="28">
-        <v>137139192.43504924</v>
+        <v>150427595.40177047</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -33125,7 +33125,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="28">
-        <v>154871264.88769203</v>
+        <v>125528943.16208702</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -33135,7 +33135,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="28">
-        <v>144625554.79277876</v>
+        <v>149592081.31451464</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -33145,7 +33145,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="28">
-        <v>138004673.40985399</v>
+        <v>184782741.76066911</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -33155,7 +33155,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="28">
-        <v>172093971.16622731</v>
+        <v>151445718.99458823</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -33165,7 +33165,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="28">
-        <v>153546877.70842808</v>
+        <v>134123508.80066556</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -33175,7 +33175,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="28">
-        <v>140205075.79224354</v>
+        <v>164570244.19006079</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -33185,7 +33185,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="28">
-        <v>108964592.9514634</v>
+        <v>136544850.73587313</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -33195,7 +33195,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="28">
-        <v>159264065.30012086</v>
+        <v>101181920.34313729</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -33205,7 +33205,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="28">
-        <v>166498435.21530798</v>
+        <v>173744054.23831496</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -33215,7 +33215,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="28">
-        <v>154400399.29344094</v>
+        <v>141460921.69888842</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -33225,7 +33225,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="28">
-        <v>130937029.48498756</v>
+        <v>114772642.01064573</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -33235,7 +33235,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="28">
-        <v>127931868.5460341</v>
+        <v>150755124.54039663</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -33245,7 +33245,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="28">
-        <v>182701084.62507132</v>
+        <v>131323527.74020639</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -33255,7 +33255,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="28">
-        <v>147580550.679322</v>
+        <v>184477035.41237944</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -33265,7 +33265,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="28">
-        <v>162180259.52562609</v>
+        <v>186260338.10664338</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -33275,7 +33275,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="28">
-        <v>118584104.35880724</v>
+        <v>133751872.15612623</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -33285,7 +33285,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="28">
-        <v>199785459.17316282</v>
+        <v>148685342.50624514</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -33295,7 +33295,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="28">
-        <v>163674394.41677168</v>
+        <v>192982637.29203293</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -33305,7 +33305,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="28">
-        <v>171267666.50425082</v>
+        <v>135846821.26325852</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -33315,7 +33315,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="28">
-        <v>160312172.50768858</v>
+        <v>151456177.74462086</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -33325,7 +33325,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="28">
-        <v>163151501.30496776</v>
+        <v>144239904.41471636</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -33335,7 +33335,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="28">
-        <v>114200505.06093094</v>
+        <v>171827274.3153398</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -33345,7 +33345,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="28">
-        <v>183113249.09424597</v>
+        <v>147836662.74403915</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -33355,7 +33355,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="28">
-        <v>148192837.57062224</v>
+        <v>181707578.13957265</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -33365,7 +33365,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="28">
-        <v>184077070.43732154</v>
+        <v>195387949.22767532</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -33375,7 +33375,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="28">
-        <v>146640189.55274943</v>
+        <v>103103266.35315055</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -33385,7 +33385,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="28">
-        <v>122808711.5408818</v>
+        <v>134021028.62548156</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -33395,7 +33395,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="28">
-        <v>161378574.07956147</v>
+        <v>192593161.90618214</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -33405,7 +33405,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="28">
-        <v>165152706.05171424</v>
+        <v>140831163.50051397</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -33415,7 +33415,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="28">
-        <v>168023536.86099812</v>
+        <v>161319584.08966067</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -33425,7 +33425,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="28">
-        <v>159710373.97492462</v>
+        <v>149555859.90169215</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -33435,7 +33435,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="28">
-        <v>166702638.39351049</v>
+        <v>136713828.87177601</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -33445,7 +33445,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="28">
-        <v>173151154.89477172</v>
+        <v>151411223.54655552</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -33455,7 +33455,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="28">
-        <v>153877402.28266966</v>
+        <v>123037946.43611601</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -33465,7 +33465,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="28">
-        <v>147490790.43669176</v>
+        <v>181954993.17607662</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -33475,7 +33475,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="28">
-        <v>186704111.08172488</v>
+        <v>139688018.71866855</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -33485,7 +33485,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="28">
-        <v>132859250.07662319</v>
+        <v>132066670.37172285</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -33495,7 +33495,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="28">
-        <v>172321479.65045547</v>
+        <v>133699712.39034481</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -33505,7 +33505,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="28">
-        <v>128269732.54881459</v>
+        <v>142054162.10192752</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -33515,7 +33515,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="28">
-        <v>157581543.63113269</v>
+        <v>142603433.60916674</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -33525,7 +33525,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="28">
-        <v>170455969.41659421</v>
+        <v>173103773.98294902</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -33535,7 +33535,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="28">
-        <v>221252424.20539322</v>
+        <v>156942257.86096209</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -33545,7 +33545,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="28">
-        <v>142761186.49751914</v>
+        <v>145408122.8409456</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -33555,7 +33555,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="28">
-        <v>138711565.18357727</v>
+        <v>128495263.77947497</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -33565,7 +33565,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="28">
-        <v>162027159.03664172</v>
+        <v>183898065.26626453</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -33575,7 +33575,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="28">
-        <v>160838004.65682966</v>
+        <v>142879678.352534</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -33585,7 +33585,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="28">
-        <v>171425658.38937828</v>
+        <v>148459813.82528317</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -33595,7 +33595,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="28">
-        <v>110049550.18051799</v>
+        <v>196450932.53039747</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -33605,7 +33605,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="28">
-        <v>165132973.57471743</v>
+        <v>190242793.19827494</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -33615,7 +33615,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="28">
-        <v>147926468.83086514</v>
+        <v>108334750.40559438</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -33625,7 +33625,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="28">
-        <v>121550270.1595301</v>
+        <v>137905301.11559153</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -33635,7 +33635,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="28">
-        <v>169562464.56571859</v>
+        <v>123210817.58484006</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -33645,7 +33645,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="28">
-        <v>146040169.89374417</v>
+        <v>189506969.96831119</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -33655,7 +33655,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="28">
-        <v>171976736.38158453</v>
+        <v>152165754.1151351</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -33665,7 +33665,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="28">
-        <v>160422255.06070289</v>
+        <v>176286674.58998227</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -33675,7 +33675,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="28">
-        <v>148208707.16072547</v>
+        <v>135391463.36607254</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -33685,7 +33685,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="28">
-        <v>89372341.824071735</v>
+        <v>156956282.23504359</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -33695,7 +33695,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="28">
-        <v>160185435.93458998</v>
+        <v>163057486.26293099</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -33705,7 +33705,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="28">
-        <v>169645199.2214804</v>
+        <v>128507107.81273611</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -33715,7 +33715,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="28">
-        <v>163273151.51496607</v>
+        <v>134231835.79317677</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -33725,7 +33725,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="28">
-        <v>137925497.16324079</v>
+        <v>161484950.41650265</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -33735,7 +33735,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="28">
-        <v>142892928.95451599</v>
+        <v>151388986.33625948</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -33745,7 +33745,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="28">
-        <v>139293516.92610797</v>
+        <v>146077319.31087881</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -33755,7 +33755,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="28">
-        <v>155763445.49879795</v>
+        <v>183700730.3564893</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -33765,7 +33765,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="28">
-        <v>172122641.55456814</v>
+        <v>110679858.58662954</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -33775,7 +33775,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="28">
-        <v>154305165.13350207</v>
+        <v>219324025.8991352</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -33785,7 +33785,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="28">
-        <v>147304974.19674686</v>
+        <v>146139068.80104694</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -33795,7 +33795,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="28">
-        <v>135185906.07757634</v>
+        <v>122343142.9547677</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -33805,7 +33805,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="28">
-        <v>121902208.85521269</v>
+        <v>147128200.38099578</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -33815,7 +33815,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="28">
-        <v>159838277.53237575</v>
+        <v>110249821.33617929</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -33825,7 +33825,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="28">
-        <v>136542081.15930879</v>
+        <v>121334412.24464592</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -33835,7 +33835,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="28">
-        <v>157922273.16061151</v>
+        <v>151322147.5740093</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -33845,7 +33845,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="28">
-        <v>177341663.02156502</v>
+        <v>133960395.74094033</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -33855,7 +33855,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="28">
-        <v>128269109.70412622</v>
+        <v>133432861.04992573</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -33865,7 +33865,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="28">
-        <v>153290799.20965293</v>
+        <v>164710226.90596074</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -33875,7 +33875,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="28">
-        <v>197134701.87357935</v>
+        <v>156002925.91135657</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -33885,7 +33885,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="28">
-        <v>117763115.34922597</v>
+        <v>177412797.00111544</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -33895,7 +33895,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="28">
-        <v>168170800.49379587</v>
+        <v>130676984.42551444</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -33905,7 +33905,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="28">
-        <v>189112016.17264366</v>
+        <v>108587666.4521668</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -33915,7 +33915,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="28">
-        <v>162240116.38265756</v>
+        <v>201409452.01302981</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -33925,7 +33925,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="28">
-        <v>164989290.65734997</v>
+        <v>165850762.28983009</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -33935,7 +33935,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="28">
-        <v>188797215.93869478</v>
+        <v>130809025.67519087</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -33945,7 +33945,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="28">
-        <v>117778571.46177055</v>
+        <v>152463098.36385193</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -33955,7 +33955,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="28">
-        <v>142880011.70908353</v>
+        <v>163984021.23325348</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -33965,7 +33965,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="28">
-        <v>122276035.72434154</v>
+        <v>137328056.54806036</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -33975,7 +33975,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="28">
-        <v>176004209.2596359</v>
+        <v>119686619.61882532</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -33985,7 +33985,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="28">
-        <v>103982970.56869042</v>
+        <v>117283568.61453772</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -33995,7 +33995,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="28">
-        <v>176284880.055415</v>
+        <v>185674903.54618049</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -34005,7 +34005,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="28">
-        <v>152295575.52838433</v>
+        <v>163530362.39403957</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -34015,7 +34015,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="28">
-        <v>126744539.38558477</v>
+        <v>166481517.65180704</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -34025,7 +34025,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="28">
-        <v>169128961.21167615</v>
+        <v>151239776.13361275</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -34035,7 +34035,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="28">
-        <v>152387772.45372397</v>
+        <v>211040186.46921331</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -34045,7 +34045,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="28">
-        <v>157119531.60156882</v>
+        <v>125158979.4074523</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -34055,7 +34055,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="28">
-        <v>149987322.9184913</v>
+        <v>190986030.73370016</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -34065,7 +34065,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="28">
-        <v>148589155.69471258</v>
+        <v>137633131.57170951</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -34075,7 +34075,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="28">
-        <v>138626188.36854619</v>
+        <v>131720027.45966971</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -34085,7 +34085,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="28">
-        <v>145026125.03710729</v>
+        <v>152810939.12999976</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -34095,7 +34095,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="28">
-        <v>166094407.54656705</v>
+        <v>160638375.67729306</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -34105,7 +34105,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="28">
-        <v>145882397.92633468</v>
+        <v>192523312.6689173</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -34115,7 +34115,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="28">
-        <v>132742727.39730737</v>
+        <v>150827324.48498613</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -34125,7 +34125,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="28">
-        <v>139491702.91202992</v>
+        <v>214152263.60606152</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -34135,7 +34135,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="28">
-        <v>159477717.12785724</v>
+        <v>176123085.96145791</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -34145,7 +34145,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="28">
-        <v>142584816.02450365</v>
+        <v>195424263.49832076</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -34219,15 +34219,15 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N10,Mappings!O10)</f>
-        <v>773.54774678281399</v>
+        <v>949.96455139441184</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N11,Mappings!O11)</f>
-        <v>162.9098171117941</v>
+        <v>180.34485094989998</v>
       </c>
       <c r="D4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N12,Mappings!O12)</f>
-        <v>910.79731232598556</v>
+        <v>1583.0460819012451</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -34255,15 +34255,15 @@
       </c>
       <c r="B6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>0.80726292541428035</v>
+        <v>1.027485370585826</v>
       </c>
       <c r="C6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>0.55025776061579412</v>
+        <v>2.8876545375725287</v>
       </c>
       <c r="D6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>1.1157751113793295</v>
+        <v>2.4173846459316777</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -34327,15 +34327,15 @@
       </c>
       <c r="B10" s="28">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>119.6525582786231</v>
+        <v>-117.76670166595294</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>-2049.5827682578379</v>
+        <v>1975.7189998915419</v>
       </c>
       <c r="D10" s="28">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>1275.6341319179028</v>
+        <v>944.54012473136163</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -34386,15 +34386,15 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>624.45641701551938</v>
+        <v>976.07467913288519</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>89.642391146264401</v>
+        <v>520.77362717332005</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">D4*D6</f>
-        <v>1016.2449726045205</v>
+        <v>3826.8312921903712</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -34404,15 +34404,15 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">B8-IF(B9&gt;0,B10,(-1)*B10)</f>
-        <v>3489.2901281871932</v>
+        <v>3251.8708682426172</v>
       </c>
       <c r="C15" s="28">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>2093.5623738862309</v>
+        <v>6118.8641420356107</v>
       </c>
       <c r="D15" s="28">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>3854.4231383534379</v>
+        <v>4185.5171455399795</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -34422,15 +34422,15 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>1500.9706991069725</v>
+        <v>1455.5313735757454</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>15307.946261713714</v>
+        <v>15249.805619496216</v>
       </c>
       <c r="D16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>11681.515521457542</v>
+        <v>11753.823068667934</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -34446,19 +34446,19 @@
       </c>
       <c r="B18" s="36">
         <f ca="1">(B14+B15)*B16</f>
-        <v>6174613.0279018087</v>
+        <v>6153907.3899749219</v>
       </c>
       <c r="C18" s="36">
         <f ca="1">(C14+C15)*C16</f>
-        <v>33420381.221434753</v>
+        <v>101253185.36430167</v>
       </c>
       <c r="D18" s="36">
         <f ca="1">(D14+D15)*D16</f>
-        <v>56896785.138023682</v>
+        <v>94175725.90160048</v>
       </c>
       <c r="F18" s="28">
         <f ca="1">B18+C18+D18</f>
-        <v>96491779.387360245</v>
+        <v>201582818.65587705</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -34477,7 +34477,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>29786516.008065201</v>
+        <v>28362108.2987356</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>52</v>
@@ -34500,13 +34500,13 @@
       <c r="E20" s="3"/>
       <c r="F20" s="28">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>163155191.99893454</v>
+        <v>163226375.48325703</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="40">
         <f ca="1">100*F19/F20</f>
-        <v>18.256554169762317</v>
+        <v>17.375934627455383</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -34521,7 +34521,7 @@
       </c>
       <c r="F22" s="28">
         <f ca="1">F18</f>
-        <v>96491779.387360245</v>
+        <v>201582818.65587705</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -34532,7 +34532,7 @@
       </c>
       <c r="F23" s="28">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>201673337.63605723</v>
+        <v>201546755.8053031</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -34542,7 +34542,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="28">
-        <v>137069536.30983281</v>
+        <v>183687924.95089754</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -34552,7 +34552,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="28">
-        <v>183985559.9593904</v>
+        <v>167834192.39567935</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -34562,7 +34562,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="28">
-        <v>175087321.88492754</v>
+        <v>180999781.4925687</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -34572,7 +34572,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="28">
-        <v>171319711.34698772</v>
+        <v>185702171.42879018</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -34582,7 +34582,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="28">
-        <v>148102034.49313042</v>
+        <v>170820336.86922193</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -34592,7 +34592,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="28">
-        <v>139016471.34189835</v>
+        <v>111735397.17109521</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -34602,7 +34602,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="28">
-        <v>159414715.20317182</v>
+        <v>167070923.60993141</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -34612,7 +34612,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="28">
-        <v>146106518.98689222</v>
+        <v>139859818.36406592</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -34622,7 +34622,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="28">
-        <v>176094508.5149768</v>
+        <v>138487166.50904486</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -34632,7 +34632,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="28">
-        <v>148017599.56382596</v>
+        <v>148017435.96543607</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -34642,7 +34642,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="28">
-        <v>117708574.67427579</v>
+        <v>210821304.75792754</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -34652,7 +34652,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="28">
-        <v>165948779.520962</v>
+        <v>159396583.97819525</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -34662,7 +34662,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="28">
-        <v>135592130.3645494</v>
+        <v>192114302.50770247</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -34672,7 +34672,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="28">
-        <v>141279002.10173136</v>
+        <v>142992345.66782364</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -34682,7 +34682,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="28">
-        <v>221705031.58004361</v>
+        <v>163728248.76728031</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -34692,7 +34692,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="28">
-        <v>134745793.92778432</v>
+        <v>152190167.20512831</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -34702,7 +34702,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="28">
-        <v>210049337.93282568</v>
+        <v>181903465.10482824</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -34712,7 +34712,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="28">
-        <v>156975399.80949834</v>
+        <v>153151248.5121361</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -34722,7 +34722,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="28">
-        <v>171253554.86207694</v>
+        <v>158610570.21026847</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -34732,7 +34732,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="28">
-        <v>116049971.2061028</v>
+        <v>193675865.20203874</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -34742,7 +34742,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="28">
-        <v>103324737.24025099</v>
+        <v>81619508.215143576</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -34752,7 +34752,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="28">
-        <v>133850774.7274902</v>
+        <v>195196573.1936987</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -34762,7 +34762,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="28">
-        <v>104575113.13216859</v>
+        <v>186337283.45477611</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -34772,7 +34772,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="28">
-        <v>139675275.0462842</v>
+        <v>171436981.80395234</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -34782,7 +34782,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="28">
-        <v>185885916.13606295</v>
+        <v>164478056.16658178</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -34792,7 +34792,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="28">
-        <v>218683023.41401577</v>
+        <v>107021575.06440631</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -34802,7 +34802,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="28">
-        <v>173386516.53690064</v>
+        <v>159018692.28206086</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -34812,7 +34812,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="28">
-        <v>169383778.76303935</v>
+        <v>165666457.82276016</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -34822,7 +34822,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="28">
-        <v>173382127.95839912</v>
+        <v>131565133.14359111</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -34832,7 +34832,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="28">
-        <v>166162393.3610884</v>
+        <v>186009777.51898491</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -34842,7 +34842,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="28">
-        <v>169571520.32359153</v>
+        <v>124131518.25683235</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -34852,7 +34852,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="28">
-        <v>186168861.73322198</v>
+        <v>136199895.48177734</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -34862,7 +34862,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="28">
-        <v>106828016.4943901</v>
+        <v>127457390.35763688</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -34872,7 +34872,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="28">
-        <v>193393407.42080915</v>
+        <v>174408290.59053534</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -34882,7 +34882,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="28">
-        <v>146887422.6595915</v>
+        <v>122991605.31708029</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -34892,7 +34892,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="28">
-        <v>188278545.84479952</v>
+        <v>148042855.77161741</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -34902,7 +34902,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="28">
-        <v>141679058.26487929</v>
+        <v>142123586.07555878</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -34912,7 +34912,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="28">
-        <v>160751957.17798871</v>
+        <v>183702672.98390663</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -34922,7 +34922,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="28">
-        <v>125936094.4459018</v>
+        <v>226648569.5855732</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -34932,7 +34932,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="28">
-        <v>159073303.23259893</v>
+        <v>173482872.77921665</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -34942,7 +34942,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="28">
-        <v>164030596.35228589</v>
+        <v>144131433.21351755</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -34952,7 +34952,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="28">
-        <v>153859344.13144577</v>
+        <v>130159953.78020266</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -34962,7 +34962,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="28">
-        <v>165542994.3584688</v>
+        <v>181033937.64794743</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -34972,7 +34972,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="28">
-        <v>145608274.1762298</v>
+        <v>173144899.67469892</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -34982,7 +34982,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="28">
-        <v>181577824.03980923</v>
+        <v>150796720.17825803</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -34992,7 +34992,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="28">
-        <v>193496882.10586789</v>
+        <v>172099636.45440042</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -35002,7 +35002,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="28">
-        <v>188670178.17096627</v>
+        <v>176747043.71002713</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -35012,7 +35012,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="28">
-        <v>190105879.66287315</v>
+        <v>194001967.88020086</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -35022,7 +35022,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="28">
-        <v>185378339.32382879</v>
+        <v>146242356.72182143</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -35032,7 +35032,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="28">
-        <v>158605090.81177598</v>
+        <v>161870231.07510799</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -35042,7 +35042,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="28">
-        <v>140989385.33461654</v>
+        <v>197526499.31071123</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -35052,7 +35052,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="28">
-        <v>138471413.83973137</v>
+        <v>96677936.612501174</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -35062,7 +35062,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="28">
-        <v>206193726.06327844</v>
+        <v>106794843.90061937</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -35072,7 +35072,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="28">
-        <v>174411404.61122215</v>
+        <v>195985514.3998068</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -35082,7 +35082,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="28">
-        <v>188731857.2374801</v>
+        <v>182674996.67182314</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -35092,7 +35092,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="28">
-        <v>177863782.93374455</v>
+        <v>183600115.95917279</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -35102,7 +35102,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="28">
-        <v>161484100.3580749</v>
+        <v>190903230.90813333</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -35112,7 +35112,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="28">
-        <v>288701071.2017082</v>
+        <v>201607299.92910638</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -35122,7 +35122,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="28">
-        <v>199503458.35909766</v>
+        <v>213239204.48668373</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -35132,7 +35132,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="28">
-        <v>178299956.57337832</v>
+        <v>213051606.61783653</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -35142,7 +35142,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="28">
-        <v>136336149.19895345</v>
+        <v>174600430.05482322</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -35152,7 +35152,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="28">
-        <v>175286252.93057382</v>
+        <v>138073608.01709384</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -35162,7 +35162,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="28">
-        <v>195204252.11084211</v>
+        <v>137414188.69404283</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -35172,7 +35172,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="28">
-        <v>157666302.19842941</v>
+        <v>150572228.70722875</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -35182,7 +35182,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="28">
-        <v>126117036.84433505</v>
+        <v>153209872.61846948</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -35192,7 +35192,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="28">
-        <v>155197638.59299451</v>
+        <v>207338010.26345095</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -35202,7 +35202,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="28">
-        <v>136637692.77540985</v>
+        <v>149465462.33015561</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -35212,7 +35212,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="28">
-        <v>204019972.37644067</v>
+        <v>136821647.06113723</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -35222,7 +35222,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="28">
-        <v>148265703.61768654</v>
+        <v>148600570.15569526</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -35232,7 +35232,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="28">
-        <v>195009433.5960052</v>
+        <v>155779648.96161368</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -35242,7 +35242,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="28">
-        <v>142723700.93693471</v>
+        <v>152114058.2795763</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -35252,7 +35252,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="28">
-        <v>151567330.39531729</v>
+        <v>138765825.54484138</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -35262,7 +35262,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="28">
-        <v>139984962.97373348</v>
+        <v>166497922.33980259</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -35272,7 +35272,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="28">
-        <v>200166928.41168261</v>
+        <v>109411784.16447346</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -35282,7 +35282,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="28">
-        <v>153936993.29913872</v>
+        <v>184459886.4261567</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -35292,7 +35292,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="28">
-        <v>203139197.16147915</v>
+        <v>134185666.96613036</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -35302,7 +35302,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="28">
-        <v>178215271.9446528</v>
+        <v>226148980.90315485</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -35312,7 +35312,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="28">
-        <v>134801478.61198974</v>
+        <v>157777591.90206417</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -35322,7 +35322,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="28">
-        <v>125841089.53832053</v>
+        <v>139543381.20552123</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -35332,7 +35332,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="28">
-        <v>156101942.72518957</v>
+        <v>205461730.99909887</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -35342,7 +35342,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="28">
-        <v>181829702.58159095</v>
+        <v>162067547.0713957</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -35352,7 +35352,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="28">
-        <v>122791140.11541188</v>
+        <v>143901007.90711051</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -35362,7 +35362,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="28">
-        <v>200070513.82278472</v>
+        <v>156038248.87321296</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -35372,7 +35372,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="28">
-        <v>145128890.2071996</v>
+        <v>159584372.00005764</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -35382,7 +35382,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="28">
-        <v>139537250.94909364</v>
+        <v>192156859.50062445</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -35392,7 +35392,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="28">
-        <v>166658347.18247291</v>
+        <v>142083463.00160795</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -35402,7 +35402,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="28">
-        <v>124623757.0216864</v>
+        <v>162222334.70245552</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -35412,7 +35412,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="28">
-        <v>182984481.4744916</v>
+        <v>165058386.08607864</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -35422,7 +35422,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="28">
-        <v>151183218.88153309</v>
+        <v>195899647.27852279</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -35432,7 +35432,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="28">
-        <v>170059917.27114117</v>
+        <v>147252050.9692356</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -35442,7 +35442,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="28">
-        <v>168551545.44947556</v>
+        <v>173671478.90504736</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -35452,7 +35452,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="28">
-        <v>157774722.17349148</v>
+        <v>137726400.54527724</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -35462,7 +35462,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="28">
-        <v>118994916.6498086</v>
+        <v>171985280.63325453</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -35472,7 +35472,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="28">
-        <v>170747585.39813495</v>
+        <v>157766487.97795025</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -35482,7 +35482,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="28">
-        <v>196138691.64031532</v>
+        <v>148580558.30371827</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -35492,7 +35492,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="28">
-        <v>185392966.2967903</v>
+        <v>99074866.975828156</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -35502,7 +35502,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="28">
-        <v>168555764.66460896</v>
+        <v>173620470.35565382</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -35512,7 +35512,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="28">
-        <v>167113924.03366563</v>
+        <v>193954738.74461883</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -35522,7 +35522,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="28">
-        <v>137400234.55318823</v>
+        <v>189497849.59530917</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -35532,7 +35532,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="28">
-        <v>197590816.03315318</v>
+        <v>151176526.97477978</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -35542,7 +35542,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="28">
-        <v>212739511.69503403</v>
+        <v>165537363.00183725</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -35552,7 +35552,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="28">
-        <v>151238600.59437343</v>
+        <v>186257801.53047037</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -35562,7 +35562,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="28">
-        <v>148721655.32596791</v>
+        <v>173646033.57435372</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -35572,7 +35572,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="28">
-        <v>130458335.23068537</v>
+        <v>152460900.75286454</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -35582,7 +35582,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="28">
-        <v>151313652.63776562</v>
+        <v>147201204.85326087</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -35592,7 +35592,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="28">
-        <v>174851189.59330156</v>
+        <v>188026626.35320067</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -35666,15 +35666,15 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N14,Mappings!O14)</f>
-        <v>957.20017881207036</v>
+        <v>332.13442071983854</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N15,Mappings!O15)</f>
-        <v>175.64439878798058</v>
+        <v>185.85200328008679</v>
       </c>
       <c r="D4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N16,Mappings!O16)</f>
-        <v>750.99489758854236</v>
+        <v>971.31089872371535</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -35702,15 +35702,15 @@
       </c>
       <c r="B6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>1.0548927304558691</v>
+        <v>0.7899255815388353</v>
       </c>
       <c r="C6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>3.7390900817210988</v>
+        <v>3.8490593449505939</v>
       </c>
       <c r="D6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>1.1400366040830223</v>
+        <v>1.6454381392118067</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -35774,15 +35774,15 @@
       </c>
       <c r="B10" s="28">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>52.510818443175211</v>
+        <v>291.34834168083046</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>1918.1599809970457</v>
+        <v>-374.25012017220308</v>
       </c>
       <c r="D10" s="28">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>624.76537648375825</v>
+        <v>540.13262877936972</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -35833,15 +35833,15 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>1009.7435102199111</v>
+        <v>262.36147543618267</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>656.75022941800353</v>
+        <v>715.35539000300651</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">D4*D6</f>
-        <v>856.16167273051894</v>
+        <v>1598.2319977920979</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -35851,15 +35851,15 @@
       </c>
       <c r="B15" s="16">
         <f ca="1">B8-IF(B9&gt;0,B10,(-1)*B10)</f>
-        <v>3422.6288837775028</v>
+        <v>3661.466407015158</v>
       </c>
       <c r="C15" s="16">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>6195.2687031225569</v>
+        <v>3902.8586019533082</v>
       </c>
       <c r="D15" s="16">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>4625.619311739898</v>
+        <v>4710.2520594442867</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -35869,15 +35869,15 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>243.71298402514168</v>
+        <v>248.5391950451378</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>15362.950476340648</v>
+        <v>16166.104867141348</v>
       </c>
       <c r="D16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>11968.460255158345</v>
+        <v>11855.123103566695</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -35893,19 +35893,19 @@
       </c>
       <c r="B18" s="36">
         <f ca="1">(B14+B15)*B16</f>
-        <v>1080226.7024517707</v>
+        <v>975225.02340012381</v>
       </c>
       <c r="C18" s="36">
         <f ca="1">(C14+C15)*C16</f>
-        <v>105267227.52356915</v>
+        <v>74658531.692865252</v>
       </c>
       <c r="D18" s="36">
         <f ca="1">(D14+D15)*D16</f>
-        <v>65608477.84011697</v>
+        <v>74787855.095425218</v>
       </c>
       <c r="F18" s="28">
         <f ca="1">B18+C18+D18</f>
-        <v>171955932.06613788</v>
+        <v>150421611.8116906</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -35924,7 +35924,7 @@
       </c>
       <c r="F19" s="28">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>35545021.885762222</v>
+        <v>31069162.810893141</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>52</v>
@@ -35947,13 +35947,13 @@
       <c r="E20" s="3"/>
       <c r="F20" s="28">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>169478170.65708163</v>
+        <v>168544526.55446151</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="40">
         <f ca="1">100*F19/F20</f>
-        <v>20.973215457749561</v>
+        <v>18.433801112404449</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -35968,7 +35968,7 @@
       </c>
       <c r="F22" s="28">
         <f ca="1">F18</f>
-        <v>171955932.06613788</v>
+        <v>150421611.8116906</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -35979,7 +35979,7 @@
       </c>
       <c r="F23" s="28">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>143070216.45480898</v>
+        <v>116181578.62903263</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -35989,7 +35989,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="28">
-        <v>113279840.16285929</v>
+        <v>185949407.5568462</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -35999,7 +35999,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="28">
-        <v>136187546.86956304</v>
+        <v>173903156.37714952</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -36009,7 +36009,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="28">
-        <v>203724694.54172045</v>
+        <v>114773223.20361035</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -36019,7 +36019,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="28">
-        <v>163578457.0673714</v>
+        <v>178273651.29901272</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -36029,7 +36029,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="28">
-        <v>219955612.06726325</v>
+        <v>121353274.54256499</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -36039,7 +36039,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="28">
-        <v>154939155.96030039</v>
+        <v>142029432.17661852</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -36049,7 +36049,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="28">
-        <v>147432288.51891091</v>
+        <v>185084684.84631604</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -36059,7 +36059,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="28">
-        <v>60271554.57354565</v>
+        <v>89666481.335434094</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -36069,7 +36069,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="28">
-        <v>186257712.89842516</v>
+        <v>146457249.5061394</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -36079,7 +36079,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="28">
-        <v>116729451.19335821</v>
+        <v>118683466.52317905</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -36089,7 +36089,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="28">
-        <v>147851456.48060644</v>
+        <v>146313901.37356934</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -36099,7 +36099,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="28">
-        <v>129579300.3236538</v>
+        <v>181924171.59359986</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -36109,7 +36109,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="28">
-        <v>208232765.46713877</v>
+        <v>170861855.49134934</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -36119,7 +36119,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="28">
-        <v>135941321.75431812</v>
+        <v>198599989.94969958</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -36129,7 +36129,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="28">
-        <v>144735109.8631736</v>
+        <v>198800045.52162933</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -36139,7 +36139,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="28">
-        <v>205341798.02801272</v>
+        <v>152120909.37385345</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -36149,7 +36149,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="28">
-        <v>228130157.79103994</v>
+        <v>132371332.50167382</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -36159,7 +36159,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="28">
-        <v>111237872.03473347</v>
+        <v>165546741.10710144</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -36169,7 +36169,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="28">
-        <v>173519612.44138166</v>
+        <v>151180906.54101112</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -36179,7 +36179,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="28">
-        <v>187870889.18186083</v>
+        <v>169281639.23610723</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -36189,7 +36189,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="28">
-        <v>210327227.96358517</v>
+        <v>218895662.34316534</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -36199,7 +36199,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="28">
-        <v>143414938.82149106</v>
+        <v>136311976.68743721</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -36209,7 +36209,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="28">
-        <v>179329357.70730162</v>
+        <v>140170793.19907826</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -36219,7 +36219,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="28">
-        <v>179163978.96526647</v>
+        <v>122963084.86577144</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -36229,7 +36229,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="28">
-        <v>198203013.64289308</v>
+        <v>179889288.78541023</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -36239,7 +36239,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="28">
-        <v>140909574.15080112</v>
+        <v>173785071.1147649</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -36249,7 +36249,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="28">
-        <v>157951653.5246034</v>
+        <v>182945625.86363015</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -36259,7 +36259,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="28">
-        <v>112211748.1906043</v>
+        <v>182808253.97792226</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -36269,7 +36269,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="28">
-        <v>194579357.12019897</v>
+        <v>168706786.67067516</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -36279,7 +36279,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="28">
-        <v>175892612.61032555</v>
+        <v>169050235.1500802</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -36289,7 +36289,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="28">
-        <v>191320773.74199092</v>
+        <v>202331966.37202692</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -36299,7 +36299,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="28">
-        <v>190172144.11576995</v>
+        <v>217483316.1034531</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -36309,7 +36309,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="28">
-        <v>140703403.77737898</v>
+        <v>148278613.91703373</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -36319,7 +36319,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="28">
-        <v>154549520.06147283</v>
+        <v>190650532.23927373</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -36329,7 +36329,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="28">
-        <v>195631545.04012966</v>
+        <v>204158838.44514531</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -36339,7 +36339,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="28">
-        <v>137632175.23192734</v>
+        <v>176525365.43281978</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -36349,7 +36349,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="28">
-        <v>176099841.30650592</v>
+        <v>106687538.42229071</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -36359,7 +36359,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="28">
-        <v>211782510.63107032</v>
+        <v>164960889.3221049</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -36369,7 +36369,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="28">
-        <v>157604996.85460967</v>
+        <v>155339151.72109318</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -36379,7 +36379,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="28">
-        <v>157368138.74529058</v>
+        <v>174198966.39858621</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -36389,7 +36389,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="28">
-        <v>163267749.13424677</v>
+        <v>212378831.38689354</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -36399,7 +36399,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="28">
-        <v>173127106.33481991</v>
+        <v>182105099.80529112</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -36409,7 +36409,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="28">
-        <v>115669950.01274018</v>
+        <v>186699433.07457119</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -36419,7 +36419,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="28">
-        <v>177323408.09526843</v>
+        <v>185656577.38200682</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -36429,7 +36429,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="28">
-        <v>145364033.51605624</v>
+        <v>201341187.11514932</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -36439,7 +36439,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="28">
-        <v>224489622.2493315</v>
+        <v>148768549.02472055</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -36449,7 +36449,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="28">
-        <v>187679141.08022588</v>
+        <v>215147300.63270798</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -36459,7 +36459,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="28">
-        <v>183202472.94218099</v>
+        <v>147834270.27395129</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -36469,7 +36469,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="28">
-        <v>224279915.26957193</v>
+        <v>205319717.99583596</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -36479,7 +36479,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="28">
-        <v>152397061.82974139</v>
+        <v>136443313.09800285</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -36489,7 +36489,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="28">
-        <v>168898903.58698764</v>
+        <v>185864984.97936457</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -36499,7 +36499,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="28">
-        <v>132282106.02349591</v>
+        <v>155251232.9743076</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -36509,7 +36509,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="28">
-        <v>165920757.4755438</v>
+        <v>139177907.02414605</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -36519,7 +36519,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="28">
-        <v>96792949.669698119</v>
+        <v>173899558.70650506</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -36529,7 +36529,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="28">
-        <v>189483823.59724694</v>
+        <v>169298524.38507265</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -36539,7 +36539,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="28">
-        <v>118687970.03880699</v>
+        <v>161356541.67703062</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -36549,7 +36549,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="28">
-        <v>148552701.16133887</v>
+        <v>148727298.78814459</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -36559,7 +36559,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="28">
-        <v>145085034.54908422</v>
+        <v>173435264.50108474</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -36569,7 +36569,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="28">
-        <v>139437492.85872751</v>
+        <v>178742140.82956445</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -36579,7 +36579,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="28">
-        <v>221876969.27182996</v>
+        <v>198492677.9670215</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -36589,7 +36589,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="28">
-        <v>204283082.40458131</v>
+        <v>168050061.04167426</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -36599,7 +36599,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="28">
-        <v>213022170.14823681</v>
+        <v>160857850.46602243</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -36609,7 +36609,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="28">
-        <v>168759562.22074366</v>
+        <v>140153161.09004629</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -36619,7 +36619,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="28">
-        <v>204515456.5544858</v>
+        <v>157109066.45105699</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -36629,7 +36629,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="28">
-        <v>172373199.46188283</v>
+        <v>191482206.71503878</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -36639,7 +36639,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="28">
-        <v>164443466.76638433</v>
+        <v>131843714.22153419</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -36649,7 +36649,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="28">
-        <v>145102676.69914705</v>
+        <v>111343235.41139543</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -36659,7 +36659,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="28">
-        <v>149435918.3672767</v>
+        <v>127157959.45309666</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -36669,7 +36669,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="28">
-        <v>169929571.65817821</v>
+        <v>197752858.61213863</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -36679,7 +36679,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="28">
-        <v>208821204.91077644</v>
+        <v>181484546.56768066</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -36689,7 +36689,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="28">
-        <v>276863153.9067415</v>
+        <v>191146952.72176078</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -36699,7 +36699,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="28">
-        <v>193702711.96801442</v>
+        <v>224477206.89426786</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -36709,7 +36709,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="28">
-        <v>188794977.78658983</v>
+        <v>233436792.4998413</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -36719,7 +36719,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="28">
-        <v>165144088.91193104</v>
+        <v>139109656.18883798</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -36729,7 +36729,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="28">
-        <v>188002772.58635437</v>
+        <v>174262137.26756015</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -36739,7 +36739,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="28">
-        <v>179175050.33647829</v>
+        <v>172879557.28365386</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -36749,7 +36749,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="28">
-        <v>212513331.8017962</v>
+        <v>196161981.48299772</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -36759,7 +36759,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="28">
-        <v>184193361.83446634</v>
+        <v>180992937.58445629</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -36769,7 +36769,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="28">
-        <v>125597074.65250932</v>
+        <v>163239103.91774693</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -36779,7 +36779,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="28">
-        <v>99334812.854860798</v>
+        <v>161490223.83623201</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -36789,7 +36789,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="28">
-        <v>136449701.96179175</v>
+        <v>158808552.85245061</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -36799,7 +36799,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="28">
-        <v>164446653.76697952</v>
+        <v>164775578.6968683</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -36809,7 +36809,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="28">
-        <v>151068965.17268991</v>
+        <v>159218412.8648943</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -36819,7 +36819,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="28">
-        <v>167194555.67715031</v>
+        <v>149641811.99056172</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -36829,7 +36829,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="28">
-        <v>208556501.43545175</v>
+        <v>186301493.74777132</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -36839,7 +36839,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="28">
-        <v>157892130.4558593</v>
+        <v>145847400.88258505</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -36849,7 +36849,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="28">
-        <v>135443530.58482736</v>
+        <v>214237975.11478335</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -36859,7 +36859,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="28">
-        <v>136673809.69785488</v>
+        <v>95140081.743035033</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -36869,7 +36869,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="28">
-        <v>183700473.79145676</v>
+        <v>129223981.41140798</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -36879,7 +36879,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="28">
-        <v>174705378.95652407</v>
+        <v>209243615.30851501</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -36889,7 +36889,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="28">
-        <v>113802132.46757132</v>
+        <v>164331755.65642083</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -36899,7 +36899,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="28">
-        <v>177976637.37032086</v>
+        <v>145756915.66534099</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -36909,7 +36909,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="28">
-        <v>235878170.39296523</v>
+        <v>96377172.980365157</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -36919,7 +36919,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="28">
-        <v>195792090.26765761</v>
+        <v>161081314.18231794</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -36929,7 +36929,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="28">
-        <v>226975642.13831159</v>
+        <v>198382103.18178481</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -36939,7 +36939,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="28">
-        <v>232516835.96972615</v>
+        <v>208001919.86730328</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -36949,7 +36949,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="28">
-        <v>169365722.50855386</v>
+        <v>190739274.64591122</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -36959,7 +36959,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="28">
-        <v>153604902.8669416</v>
+        <v>191032271.5761745</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -36969,7 +36969,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="28">
-        <v>187044101.60455403</v>
+        <v>210859098.03973186</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -36979,7 +36979,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="28">
-        <v>138129335.38526195</v>
+        <v>156554238.00781146</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -36989,7 +36989,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="28">
-        <v>190291355.62466833</v>
+        <v>223772349.50113449</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -36999,7 +36999,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="28">
-        <v>164651492.2106123</v>
+        <v>184563337.5180442</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -37009,7 +37009,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="28">
-        <v>126339480.72590441</v>
+        <v>152480563.02630886</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -37019,7 +37019,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="28">
-        <v>163357534.11581114</v>
+        <v>181979680.30611271</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -37029,7 +37029,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="28">
-        <v>226929518.62965852</v>
+        <v>243493145.50405282</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -37039,7 +37039,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="28">
-        <v>202357704.71393043</v>
+        <v>164672534.75278419</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
@@ -37133,15 +37133,15 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N18,Mappings!O18)</f>
-        <v>566.9482348263125</v>
+        <v>677.18088866096593</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N19,Mappings!O19)</f>
-        <v>210.03007844895703</v>
+        <v>198.23848420966993</v>
       </c>
       <c r="D4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N20,Mappings!O20)</f>
-        <v>1378.1291150575801</v>
+        <v>693.21069500921578</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
@@ -37179,15 +37179,15 @@
       </c>
       <c r="B6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>1.0699374407909188</v>
+        <v>1.2432901405021746</v>
       </c>
       <c r="C6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>1.090629361478737</v>
+        <v>3.3179470044907857</v>
       </c>
       <c r="D6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>1.9779555483018747</v>
+        <v>0.83840704648760545</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28"/>
@@ -37271,15 +37271,15 @@
       </c>
       <c r="B10" s="16">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>46.756782791538711</v>
+        <v>312.53359812669044</v>
       </c>
       <c r="C10" s="16">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>-1130.5307934198713</v>
+        <v>4104.9832064166339</v>
       </c>
       <c r="D10" s="16">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>839.9020276832714</v>
+        <v>-228.77069495856966</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
@@ -37350,15 +37350,15 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>606.59914343099365</v>
+        <v>841.93232220867981</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>229.06497035011503</v>
+        <v>657.7447848582683</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">D4*D6</f>
-        <v>2725.8781294044929</v>
+        <v>581.19273139629684</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -37373,15 +37373,15 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">B8-IF(B9&gt;0,B10,(-1)*B10)</f>
-        <v>3417.5512049556978</v>
+        <v>3683.3280202908495</v>
       </c>
       <c r="C15" s="28">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>3050.8571457559178</v>
+        <v>8286.371145592424</v>
       </c>
       <c r="D15" s="28">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>4121.9607902344451</v>
+        <v>5190.6335128762867</v>
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
@@ -37396,15 +37396,15 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>2924.4928354225872</v>
+        <v>2754.1089467059815</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>13559.08538521532</v>
+        <v>13487.128392681303</v>
       </c>
       <c r="D16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>11819.152793164216</v>
+        <v>11520.030003010084</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -37430,20 +37430,20 @@
       </c>
       <c r="B18" s="36">
         <f ca="1">(B14+B15)*B16</f>
-        <v>11768598.862520186</v>
+        <v>12463059.995451728</v>
       </c>
       <c r="C18" s="36">
         <f ca="1">(C14+C15)*C16</f>
-        <v>44472744.029137813</v>
+        <v>120630439.9130147</v>
       </c>
       <c r="D18" s="36">
         <f ca="1">(D14+D15)*D16</f>
-        <v>80935654.494189188</v>
+        <v>66491611.506181173</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28">
         <f ca="1">B18+C18+D18</f>
-        <v>137176997.38584718</v>
+        <v>199585111.41464761</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -37466,7 +37466,7 @@
       <c r="E19" s="28"/>
       <c r="F19" s="28">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>30215391.218213394</v>
+        <v>31043197.36791205</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="1" t="s">
@@ -37491,13 +37491,13 @@
       <c r="E20" s="28"/>
       <c r="F20" s="28">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>166369216.30834034</v>
+        <v>172588598.04032657</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
       <c r="I20" s="39">
         <f ca="1">100*F19/F20</f>
-        <v>18.161647862915764</v>
+        <v>17.986818202589827</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -37512,7 +37512,7 @@
       </c>
       <c r="F22" s="30">
         <f ca="1">F18</f>
-        <v>137176997.38584718</v>
+        <v>199585111.41464761</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -37523,7 +37523,7 @@
       </c>
       <c r="F23" s="30">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>214778143.21458393</v>
+        <v>182615722.99698794</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -37533,7 +37533,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="30">
-        <v>122091340.99502955</v>
+        <v>165392090.40795583</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -37543,7 +37543,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="30">
-        <v>167536503.61695281</v>
+        <v>175571184.98172271</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -37553,7 +37553,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="30">
-        <v>192081736.54437315</v>
+        <v>179658711.9647674</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -37563,7 +37563,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="30">
-        <v>209806658.11049873</v>
+        <v>208202341.98999533</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -37573,7 +37573,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="30">
-        <v>171689139.81777796</v>
+        <v>200819444.34162512</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -37583,7 +37583,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="30">
-        <v>149728436.3249017</v>
+        <v>179142342.55465826</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -37593,7 +37593,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="30">
-        <v>152315451.20991024</v>
+        <v>131551748.55221385</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -37603,7 +37603,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="30">
-        <v>177449090.00934085</v>
+        <v>119936489.08717464</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -37613,7 +37613,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="30">
-        <v>149684070.14262328</v>
+        <v>139778170.92304552</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -37623,7 +37623,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="30">
-        <v>175292324.09494406</v>
+        <v>150223404.60275683</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -37633,7 +37633,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="30">
-        <v>183938658.12098843</v>
+        <v>215003579.60942322</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -37643,7 +37643,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="30">
-        <v>141289006.33658955</v>
+        <v>208850166.88980091</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -37653,7 +37653,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="30">
-        <v>148602605.53445226</v>
+        <v>146273200.51097119</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -37663,7 +37663,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="30">
-        <v>157082512.7472077</v>
+        <v>157108511.1578725</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -37673,7 +37673,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="30">
-        <v>168225157.28173423</v>
+        <v>199305870.91831779</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -37683,7 +37683,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="30">
-        <v>194265567.66462407</v>
+        <v>190012008.16438532</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -37693,7 +37693,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="30">
-        <v>164803966.06476885</v>
+        <v>149048140.33411977</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -37703,7 +37703,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="30">
-        <v>152452804.25522906</v>
+        <v>167607359.11100185</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -37713,7 +37713,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="30">
-        <v>188641331.56332785</v>
+        <v>190407449.81905842</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -37723,7 +37723,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="30">
-        <v>171903894.51804399</v>
+        <v>167439211.25904036</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -37733,7 +37733,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="30">
-        <v>141928783.5477213</v>
+        <v>171855223.02969679</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -37743,7 +37743,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="30">
-        <v>177812634.27323312</v>
+        <v>145819082.34689045</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -37753,7 +37753,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="30">
-        <v>177956952.78171229</v>
+        <v>151623425.71610177</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -37763,7 +37763,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="30">
-        <v>185315265.01177114</v>
+        <v>226770853.94671601</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -37773,7 +37773,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="30">
-        <v>121371537.48478758</v>
+        <v>149726063.02450335</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -37783,7 +37783,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="30">
-        <v>163503746.43250573</v>
+        <v>125301183.04659349</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -37793,7 +37793,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="30">
-        <v>260173377.3868449</v>
+        <v>194905528.13082278</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -37803,7 +37803,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="30">
-        <v>162497591.29253924</v>
+        <v>129364929.70240691</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -37813,7 +37813,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="30">
-        <v>144506214.09205407</v>
+        <v>246222541.87267512</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -37823,7 +37823,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="30">
-        <v>94483053.943227559</v>
+        <v>131739453.90117538</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -37833,7 +37833,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="30">
-        <v>183122126.69990849</v>
+        <v>156334890.61789152</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -37843,7 +37843,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="30">
-        <v>208359590.62691867</v>
+        <v>156317770.17194366</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -37853,7 +37853,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="30">
-        <v>193276702.10007402</v>
+        <v>167700339.12280244</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -37863,7 +37863,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="30">
-        <v>166040649.2629323</v>
+        <v>185519034.16258729</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -37873,7 +37873,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="30">
-        <v>159166049.16072896</v>
+        <v>254463793.51738063</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -37883,7 +37883,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="30">
-        <v>206756617.52485302</v>
+        <v>147873586.28582674</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -37893,7 +37893,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="30">
-        <v>182068786.34035224</v>
+        <v>123878756.79047248</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -37903,7 +37903,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="30">
-        <v>139979316.88249892</v>
+        <v>233465751.07188272</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -37913,7 +37913,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="30">
-        <v>147906884.37605375</v>
+        <v>227568623.05747265</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -37923,7 +37923,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="30">
-        <v>146551226.02644193</v>
+        <v>207226972.96070093</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -37933,7 +37933,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="30">
-        <v>137451627.47031039</v>
+        <v>155330522.84625885</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -37943,7 +37943,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="30">
-        <v>184257852.2423619</v>
+        <v>163992124.14417559</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -37953,7 +37953,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="30">
-        <v>190428787.54396766</v>
+        <v>196219746.21632206</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -37963,7 +37963,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="30">
-        <v>185705178.86816704</v>
+        <v>172282310.37328529</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -37973,7 +37973,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="30">
-        <v>115486044.13014083</v>
+        <v>141925691.3309257</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -37983,7 +37983,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="30">
-        <v>127497468.82136562</v>
+        <v>144249908.61657441</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -37993,7 +37993,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="30">
-        <v>170015728.38542119</v>
+        <v>186285619.90039378</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -38003,7 +38003,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="30">
-        <v>169553021.80344942</v>
+        <v>187515974.13985616</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -38013,7 +38013,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="30">
-        <v>101169254.70609252</v>
+        <v>148066758.98805222</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -38023,7 +38023,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="30">
-        <v>170937905.63864759</v>
+        <v>192241538.82236946</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -38033,7 +38033,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="30">
-        <v>134752590.81286246</v>
+        <v>142022381.65720737</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -38043,7 +38043,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="30">
-        <v>121096724.65485695</v>
+        <v>140241608.87023976</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -38053,7 +38053,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="30">
-        <v>150376296.46134615</v>
+        <v>151624837.1527856</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -38063,7 +38063,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="30">
-        <v>194842939.58223462</v>
+        <v>157332428.48547328</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -38073,7 +38073,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="30">
-        <v>141553921.13902301</v>
+        <v>133612457.20236129</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -38083,7 +38083,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="30">
-        <v>191001487.74599695</v>
+        <v>152766895.826397</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -38093,7 +38093,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="30">
-        <v>164225443.77575696</v>
+        <v>191245544.25682405</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -38103,7 +38103,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="30">
-        <v>239121846.19367808</v>
+        <v>178467411.25075614</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -38113,7 +38113,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="30">
-        <v>197787181.28376931</v>
+        <v>177877417.48329574</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -38123,7 +38123,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="30">
-        <v>174938200.92532402</v>
+        <v>149297691.21816134</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -38133,7 +38133,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="30">
-        <v>223170920.25437537</v>
+        <v>210256139.3906526</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -38143,7 +38143,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="30">
-        <v>160104739.88719678</v>
+        <v>137212536.80164036</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -38153,7 +38153,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="30">
-        <v>202930662.89888212</v>
+        <v>86733942.80244346</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -38163,7 +38163,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="30">
-        <v>131972763.68291885</v>
+        <v>193300245.59796029</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -38173,7 +38173,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="30">
-        <v>119146842.58980708</v>
+        <v>172576454.45506254</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -38183,7 +38183,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="30">
-        <v>131230393.92788877</v>
+        <v>153938245.90633842</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -38193,7 +38193,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="30">
-        <v>175957993.49279204</v>
+        <v>168367319.43853864</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -38203,7 +38203,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="30">
-        <v>148357024.01871735</v>
+        <v>227632885.79454434</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -38213,7 +38213,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="30">
-        <v>177066192.38608795</v>
+        <v>128207515.92561263</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -38223,7 +38223,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="30">
-        <v>147869766.63412368</v>
+        <v>152647632.25656021</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -38233,7 +38233,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="30">
-        <v>117094228.21068269</v>
+        <v>172347512.24303797</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -38243,7 +38243,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="30">
-        <v>165194482.21823531</v>
+        <v>140259498.51607877</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -38253,7 +38253,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="30">
-        <v>174029866.42624521</v>
+        <v>115588318.20152353</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -38263,7 +38263,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="30">
-        <v>165997745.60456884</v>
+        <v>170026535.05768031</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -38273,7 +38273,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="30">
-        <v>163603764.91097319</v>
+        <v>179381067.67957801</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -38283,7 +38283,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="30">
-        <v>125520038.03487693</v>
+        <v>198652436.23712167</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -38293,7 +38293,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="30">
-        <v>197494918.30754226</v>
+        <v>182417190.41742045</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -38303,7 +38303,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="30">
-        <v>192305560.46061516</v>
+        <v>212182160.09943396</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -38313,7 +38313,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="30">
-        <v>139440447.53544909</v>
+        <v>193990622.27669489</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -38323,7 +38323,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="30">
-        <v>150905997.29179069</v>
+        <v>182353886.14547467</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -38333,7 +38333,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="30">
-        <v>168603258.58088708</v>
+        <v>195178193.25131434</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -38343,7 +38343,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="30">
-        <v>200871843.56083268</v>
+        <v>135857414.70376688</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -38353,7 +38353,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="30">
-        <v>175575242.35650975</v>
+        <v>192082724.26695836</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -38363,7 +38363,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="30">
-        <v>213095132.38906744</v>
+        <v>189665619.10527974</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -38373,7 +38373,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="30">
-        <v>210493759.27810186</v>
+        <v>213102935.2064957</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -38383,7 +38383,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="30">
-        <v>201318824.64856634</v>
+        <v>187245913.05275044</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -38393,7 +38393,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="30">
-        <v>142658377.52810979</v>
+        <v>141505875.99562669</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -38403,7 +38403,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="30">
-        <v>245808043.64897263</v>
+        <v>147194822.90116423</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -38413,7 +38413,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="30">
-        <v>177412368.66925713</v>
+        <v>186445683.43966874</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -38423,7 +38423,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="30">
-        <v>175018912.28097892</v>
+        <v>118885324.90372288</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -38433,7 +38433,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="30">
-        <v>135660013.94645488</v>
+        <v>177056909.67781258</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -38443,7 +38443,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="30">
-        <v>135171832.63803455</v>
+        <v>207264731.38884646</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -38453,7 +38453,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="30">
-        <v>162568379.51314968</v>
+        <v>192933731.36820847</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -38463,7 +38463,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="30">
-        <v>125581032.78792265</v>
+        <v>167802120.86780614</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -38473,7 +38473,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="30">
-        <v>167490879.98519257</v>
+        <v>182027672.77631482</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -38483,7 +38483,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="30">
-        <v>127546229.7227149</v>
+        <v>175611823.76930836</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -38493,7 +38493,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="30">
-        <v>162780555.53195101</v>
+        <v>143145633.08482891</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -38503,7 +38503,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="30">
-        <v>154728503.04546484</v>
+        <v>168933075.94402251</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -38513,7 +38513,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="30">
-        <v>190482316.11531898</v>
+        <v>201204875.05495906</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -38523,7 +38523,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="30">
-        <v>187262168.59629446</v>
+        <v>185901874.58752948</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -38533,7 +38533,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="30">
-        <v>172424379.64021182</v>
+        <v>169256650.84183204</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -38543,7 +38543,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="30">
-        <v>193271705.20818374</v>
+        <v>223482590.33276826</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -38553,7 +38553,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="30">
-        <v>183958651.71163368</v>
+        <v>179634565.25418699</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -38563,7 +38563,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="30">
-        <v>147501263.6428135</v>
+        <v>226771965.80687281</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -38573,7 +38573,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="30">
-        <v>161413367.13411126</v>
+        <v>198150406.20583445</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -38583,7 +38583,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="30">
-        <v>123971967.38057521</v>
+        <v>135344376.47419357</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
